--- a/data/学习数据.xlsx
+++ b/data/学习数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -374,22 +374,42 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>当日_新注册占比</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>当日_上课转化率</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>累计_时间</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>累计_成功领取人数</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>累计_新注册并领取人数</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>累计_领取看课人数</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>累计_新注册占比</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>累计_上课转化率</t>
         </is>
       </c>
     </row>
@@ -413,19 +433,31 @@
       <c r="E2">
         <v>248</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>14621</v>
-      </c>
-      <c r="H2">
-        <v>10023</v>
+        <v>0.2573</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I2">
-        <v>4834</v>
+        <v>15068</v>
+      </c>
+      <c r="J2">
+        <v>10375</v>
+      </c>
+      <c r="K2">
+        <v>5007</v>
+      </c>
+      <c r="L2">
+        <v>0.6885</v>
+      </c>
+      <c r="M2">
+        <v>0.3323</v>
       </c>
     </row>
     <row r="3">
@@ -448,19 +480,31 @@
       <c r="E3">
         <v>13</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>228</v>
-      </c>
-      <c r="H3">
-        <v>107</v>
+        <v>0.3824</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I3">
-        <v>101</v>
+        <v>261</v>
+      </c>
+      <c r="J3">
+        <v>121</v>
+      </c>
+      <c r="K3">
+        <v>111</v>
+      </c>
+      <c r="L3">
+        <v>0.4636</v>
+      </c>
+      <c r="M3">
+        <v>0.4253</v>
       </c>
     </row>
     <row r="4">
@@ -483,19 +527,31 @@
       <c r="E4">
         <v>41</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>590</v>
-      </c>
-      <c r="H4">
-        <v>340</v>
+        <v>0.2847</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I4">
-        <v>212</v>
+        <v>635</v>
+      </c>
+      <c r="J4">
+        <v>373</v>
+      </c>
+      <c r="K4">
+        <v>222</v>
+      </c>
+      <c r="L4">
+        <v>0.5874</v>
+      </c>
+      <c r="M4">
+        <v>0.3496</v>
       </c>
     </row>
     <row r="5">
@@ -518,19 +574,31 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>989</v>
-      </c>
-      <c r="H5">
-        <v>584</v>
+        <v>0.3333</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I5">
-        <v>302</v>
+        <v>1042</v>
+      </c>
+      <c r="J5">
+        <v>618</v>
+      </c>
+      <c r="K5">
+        <v>317</v>
+      </c>
+      <c r="L5">
+        <v>0.5931</v>
+      </c>
+      <c r="M5">
+        <v>0.3042</v>
       </c>
     </row>
     <row r="6">
@@ -553,19 +621,31 @@
       <c r="E6">
         <v>35</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1641</v>
-      </c>
-      <c r="H6">
-        <v>945</v>
+        <v>0.2652</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I6">
-        <v>618</v>
+        <v>1773</v>
+      </c>
+      <c r="J6">
+        <v>1029</v>
+      </c>
+      <c r="K6">
+        <v>663</v>
+      </c>
+      <c r="L6">
+        <v>0.5804</v>
+      </c>
+      <c r="M6">
+        <v>0.3739</v>
       </c>
     </row>
     <row r="7">
@@ -588,19 +668,31 @@
       <c r="E7">
         <v>32</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>701</v>
-      </c>
-      <c r="H7">
-        <v>472</v>
+        <v>0.2645</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I7">
-        <v>276</v>
+        <v>747</v>
+      </c>
+      <c r="J7">
+        <v>508</v>
+      </c>
+      <c r="K7">
+        <v>303</v>
+      </c>
+      <c r="L7">
+        <v>0.6801</v>
+      </c>
+      <c r="M7">
+        <v>0.4056</v>
       </c>
     </row>
     <row r="8">
@@ -623,19 +715,31 @@
       <c r="E8">
         <v>38</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>236</v>
-      </c>
-      <c r="H8">
-        <v>109</v>
+        <v>0.3423</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I8">
-        <v>109</v>
+        <v>248</v>
+      </c>
+      <c r="J8">
+        <v>114</v>
+      </c>
+      <c r="K8">
+        <v>117</v>
+      </c>
+      <c r="L8">
+        <v>0.4597</v>
+      </c>
+      <c r="M8">
+        <v>0.4718</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +762,31 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2164</v>
-      </c>
-      <c r="H9">
-        <v>1408</v>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I9">
-        <v>628</v>
+        <v>2269</v>
+      </c>
+      <c r="J9">
+        <v>1489</v>
+      </c>
+      <c r="K9">
+        <v>670</v>
+      </c>
+      <c r="L9">
+        <v>0.6562</v>
+      </c>
+      <c r="M9">
+        <v>0.2953</v>
       </c>
     </row>
     <row r="10">
@@ -693,20 +809,26 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -728,19 +850,31 @@
       <c r="E11">
         <v>7</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>349</v>
-      </c>
-      <c r="H11">
-        <v>182</v>
+        <v>0.3182</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I11">
-        <v>152</v>
+        <v>373</v>
+      </c>
+      <c r="J11">
+        <v>192</v>
+      </c>
+      <c r="K11">
+        <v>164</v>
+      </c>
+      <c r="L11">
+        <v>0.5147</v>
+      </c>
+      <c r="M11">
+        <v>0.4397</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +897,31 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>90</v>
-      </c>
-      <c r="H12">
-        <v>41</v>
+        <v>0.4</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I12">
-        <v>49</v>
+        <v>96</v>
+      </c>
+      <c r="J12">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>51</v>
+      </c>
+      <c r="L12">
+        <v>0.4583</v>
+      </c>
+      <c r="M12">
+        <v>0.5313</v>
       </c>
     </row>
     <row r="13">
@@ -798,19 +944,31 @@
       <c r="E13">
         <v>47</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>489</v>
-      </c>
-      <c r="H13">
-        <v>228</v>
+        <v>0.3013</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I13">
-        <v>197</v>
+        <v>528</v>
+      </c>
+      <c r="J13">
+        <v>256</v>
+      </c>
+      <c r="K13">
+        <v>208</v>
+      </c>
+      <c r="L13">
+        <v>0.4848</v>
+      </c>
+      <c r="M13">
+        <v>0.3939</v>
       </c>
     </row>
     <row r="14">
@@ -833,19 +991,31 @@
       <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>752</v>
-      </c>
-      <c r="H14">
-        <v>487</v>
+        <v>0.3571</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I14">
-        <v>272</v>
+        <v>852</v>
+      </c>
+      <c r="J14">
+        <v>564</v>
+      </c>
+      <c r="K14">
+        <v>309</v>
+      </c>
+      <c r="L14">
+        <v>0.662</v>
+      </c>
+      <c r="M14">
+        <v>0.3627</v>
       </c>
     </row>
     <row r="15">
@@ -868,19 +1038,31 @@
       <c r="E15">
         <v>238</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>3546</v>
-      </c>
-      <c r="H15">
-        <v>2018</v>
+        <v>0.3009</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I15">
-        <v>1501</v>
+        <v>3786</v>
+      </c>
+      <c r="J15">
+        <v>2210</v>
+      </c>
+      <c r="K15">
+        <v>1621</v>
+      </c>
+      <c r="L15">
+        <v>0.5837</v>
+      </c>
+      <c r="M15">
+        <v>0.4282</v>
       </c>
     </row>
     <row r="16">
@@ -903,19 +1085,25 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
-      </c>
-      <c r="G16">
-        <v>267</v>
-      </c>
-      <c r="H16">
-        <v>161</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I16">
-        <v>91</v>
+        <v>352</v>
+      </c>
+      <c r="J16">
+        <v>213</v>
+      </c>
+      <c r="K16">
+        <v>121</v>
+      </c>
+      <c r="L16">
+        <v>0.6051</v>
+      </c>
+      <c r="M16">
+        <v>0.3438</v>
       </c>
     </row>
     <row r="17">
@@ -938,19 +1126,31 @@
       <c r="E17">
         <v>750</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>27861</v>
-      </c>
-      <c r="H17">
-        <v>17780</v>
+        <v>0.2855</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I17">
-        <v>9896</v>
+        <v>29308</v>
+      </c>
+      <c r="J17">
+        <v>18823</v>
+      </c>
+      <c r="K17">
+        <v>10496</v>
+      </c>
+      <c r="L17">
+        <v>0.6422</v>
+      </c>
+      <c r="M17">
+        <v>0.3581</v>
       </c>
     </row>
     <row r="18">
@@ -973,19 +1173,31 @@
       <c r="E18">
         <v>9</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>720</v>
-      </c>
-      <c r="H18">
-        <v>455</v>
+        <v>0.5625</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I18">
-        <v>347</v>
+        <v>780</v>
+      </c>
+      <c r="J18">
+        <v>493</v>
+      </c>
+      <c r="K18">
+        <v>395</v>
+      </c>
+      <c r="L18">
+        <v>0.6321</v>
+      </c>
+      <c r="M18">
+        <v>0.5064</v>
       </c>
     </row>
     <row r="19">
@@ -1008,19 +1220,31 @@
       <c r="E19">
         <v>23</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>416</v>
-      </c>
-      <c r="H19">
-        <v>194</v>
+        <v>0.2875</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I19">
-        <v>168</v>
+        <v>435</v>
+      </c>
+      <c r="J19">
+        <v>198</v>
+      </c>
+      <c r="K19">
+        <v>175</v>
+      </c>
+      <c r="L19">
+        <v>0.4552</v>
+      </c>
+      <c r="M19">
+        <v>0.4023</v>
       </c>
     </row>
     <row r="20">
@@ -1043,19 +1267,31 @@
       <c r="E20">
         <v>983</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>14621</v>
-      </c>
-      <c r="H20">
-        <v>10023</v>
+        <v>0.327</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I20">
-        <v>4834</v>
+        <v>15068</v>
+      </c>
+      <c r="J20">
+        <v>10375</v>
+      </c>
+      <c r="K20">
+        <v>5007</v>
+      </c>
+      <c r="L20">
+        <v>0.6885</v>
+      </c>
+      <c r="M20">
+        <v>0.3323</v>
       </c>
     </row>
     <row r="21">
@@ -1078,19 +1314,31 @@
       <c r="E21">
         <v>23</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>228</v>
-      </c>
-      <c r="H21">
-        <v>107</v>
+        <v>0.3898</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I21">
-        <v>101</v>
+        <v>261</v>
+      </c>
+      <c r="J21">
+        <v>121</v>
+      </c>
+      <c r="K21">
+        <v>111</v>
+      </c>
+      <c r="L21">
+        <v>0.4636</v>
+      </c>
+      <c r="M21">
+        <v>0.4253</v>
       </c>
     </row>
     <row r="22">
@@ -1113,19 +1361,31 @@
       <c r="E22">
         <v>43</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>590</v>
-      </c>
-      <c r="H22">
-        <v>340</v>
+        <v>0.3909</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I22">
-        <v>212</v>
+        <v>635</v>
+      </c>
+      <c r="J22">
+        <v>373</v>
+      </c>
+      <c r="K22">
+        <v>222</v>
+      </c>
+      <c r="L22">
+        <v>0.5874</v>
+      </c>
+      <c r="M22">
+        <v>0.3496</v>
       </c>
     </row>
     <row r="23">
@@ -1148,19 +1408,31 @@
       <c r="E23">
         <v>5</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>989</v>
-      </c>
-      <c r="H23">
-        <v>584</v>
+        <v>0.7143</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I23">
-        <v>302</v>
+        <v>1042</v>
+      </c>
+      <c r="J23">
+        <v>618</v>
+      </c>
+      <c r="K23">
+        <v>317</v>
+      </c>
+      <c r="L23">
+        <v>0.5931</v>
+      </c>
+      <c r="M23">
+        <v>0.3042</v>
       </c>
     </row>
     <row r="24">
@@ -1183,19 +1455,31 @@
       <c r="E24">
         <v>119</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1641</v>
-      </c>
-      <c r="H24">
-        <v>945</v>
+        <v>0.3696</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I24">
-        <v>618</v>
+        <v>1773</v>
+      </c>
+      <c r="J24">
+        <v>1029</v>
+      </c>
+      <c r="K24">
+        <v>663</v>
+      </c>
+      <c r="L24">
+        <v>0.5804</v>
+      </c>
+      <c r="M24">
+        <v>0.3739</v>
       </c>
     </row>
     <row r="25">
@@ -1218,19 +1502,31 @@
       <c r="E25">
         <v>72</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>701</v>
-      </c>
-      <c r="H25">
-        <v>472</v>
+        <v>0.3186</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I25">
-        <v>276</v>
+        <v>747</v>
+      </c>
+      <c r="J25">
+        <v>508</v>
+      </c>
+      <c r="K25">
+        <v>303</v>
+      </c>
+      <c r="L25">
+        <v>0.6801</v>
+      </c>
+      <c r="M25">
+        <v>0.4056</v>
       </c>
     </row>
     <row r="26">
@@ -1253,19 +1549,31 @@
       <c r="E26">
         <v>28</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F26">
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>236</v>
-      </c>
-      <c r="H26">
-        <v>109</v>
+        <v>0.4667</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I26">
-        <v>109</v>
+        <v>248</v>
+      </c>
+      <c r="J26">
+        <v>114</v>
+      </c>
+      <c r="K26">
+        <v>117</v>
+      </c>
+      <c r="L26">
+        <v>0.4597</v>
+      </c>
+      <c r="M26">
+        <v>0.4718</v>
       </c>
     </row>
     <row r="27">
@@ -1288,19 +1596,31 @@
       <c r="E27">
         <v>204</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>2164</v>
-      </c>
-      <c r="H27">
-        <v>1408</v>
+        <v>0.2217</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I27">
-        <v>628</v>
+        <v>2269</v>
+      </c>
+      <c r="J27">
+        <v>1489</v>
+      </c>
+      <c r="K27">
+        <v>670</v>
+      </c>
+      <c r="L27">
+        <v>0.6562</v>
+      </c>
+      <c r="M27">
+        <v>0.2953</v>
       </c>
     </row>
     <row r="28">
@@ -1323,20 +1643,32 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28">
-        <v>0</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1358,19 +1690,31 @@
       <c r="E29">
         <v>39</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>349</v>
-      </c>
-      <c r="H29">
-        <v>182</v>
+        <v>0.3824</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I29">
-        <v>152</v>
+        <v>373</v>
+      </c>
+      <c r="J29">
+        <v>192</v>
+      </c>
+      <c r="K29">
+        <v>164</v>
+      </c>
+      <c r="L29">
+        <v>0.5147</v>
+      </c>
+      <c r="M29">
+        <v>0.4397</v>
       </c>
     </row>
     <row r="30">
@@ -1393,19 +1737,31 @@
       <c r="E30">
         <v>15</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>90</v>
-      </c>
-      <c r="H30">
-        <v>41</v>
+        <v>0.375</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I30">
-        <v>49</v>
+        <v>96</v>
+      </c>
+      <c r="J30">
+        <v>44</v>
+      </c>
+      <c r="K30">
+        <v>51</v>
+      </c>
+      <c r="L30">
+        <v>0.4583</v>
+      </c>
+      <c r="M30">
+        <v>0.5313</v>
       </c>
     </row>
     <row r="31">
@@ -1428,19 +1784,31 @@
       <c r="E31">
         <v>63</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>489</v>
-      </c>
-      <c r="H31">
-        <v>228</v>
+        <v>0.3795</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I31">
-        <v>197</v>
+        <v>528</v>
+      </c>
+      <c r="J31">
+        <v>256</v>
+      </c>
+      <c r="K31">
+        <v>208</v>
+      </c>
+      <c r="L31">
+        <v>0.4848</v>
+      </c>
+      <c r="M31">
+        <v>0.3939</v>
       </c>
     </row>
     <row r="32">
@@ -1463,19 +1831,31 @@
       <c r="E32">
         <v>86</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F32">
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>752</v>
-      </c>
-      <c r="H32">
-        <v>487</v>
+        <v>0.332</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I32">
-        <v>272</v>
+        <v>852</v>
+      </c>
+      <c r="J32">
+        <v>564</v>
+      </c>
+      <c r="K32">
+        <v>309</v>
+      </c>
+      <c r="L32">
+        <v>0.662</v>
+      </c>
+      <c r="M32">
+        <v>0.3627</v>
       </c>
     </row>
     <row r="33">
@@ -1498,19 +1878,31 @@
       <c r="E33">
         <v>504</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>3546</v>
-      </c>
-      <c r="H33">
-        <v>2018</v>
+        <v>0.3415</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I33">
-        <v>1501</v>
+        <v>3786</v>
+      </c>
+      <c r="J33">
+        <v>2210</v>
+      </c>
+      <c r="K33">
+        <v>1621</v>
+      </c>
+      <c r="L33">
+        <v>0.5837</v>
+      </c>
+      <c r="M33">
+        <v>0.4282</v>
       </c>
     </row>
     <row r="34">
@@ -1533,19 +1925,31 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F34">
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>267</v>
-      </c>
-      <c r="H34">
-        <v>161</v>
+        <v>0.09089999999999999</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I34">
-        <v>91</v>
+        <v>352</v>
+      </c>
+      <c r="J34">
+        <v>213</v>
+      </c>
+      <c r="K34">
+        <v>121</v>
+      </c>
+      <c r="L34">
+        <v>0.6051</v>
+      </c>
+      <c r="M34">
+        <v>0.3438</v>
       </c>
     </row>
     <row r="35">
@@ -1568,19 +1972,31 @@
       <c r="E35">
         <v>2273</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F35">
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>27861</v>
-      </c>
-      <c r="H35">
-        <v>17780</v>
+        <v>0.3236</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I35">
-        <v>9896</v>
+        <v>29308</v>
+      </c>
+      <c r="J35">
+        <v>18823</v>
+      </c>
+      <c r="K35">
+        <v>10496</v>
+      </c>
+      <c r="L35">
+        <v>0.6422</v>
+      </c>
+      <c r="M35">
+        <v>0.3581</v>
       </c>
     </row>
     <row r="36">
@@ -1603,19 +2019,31 @@
       <c r="E36">
         <v>38</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F36">
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>720</v>
-      </c>
-      <c r="H36">
-        <v>455</v>
+        <v>0.38</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I36">
-        <v>347</v>
+        <v>780</v>
+      </c>
+      <c r="J36">
+        <v>493</v>
+      </c>
+      <c r="K36">
+        <v>395</v>
+      </c>
+      <c r="L36">
+        <v>0.6321</v>
+      </c>
+      <c r="M36">
+        <v>0.5064</v>
       </c>
     </row>
     <row r="37">
@@ -1638,19 +2066,31 @@
       <c r="E37">
         <v>47</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>416</v>
-      </c>
-      <c r="H37">
-        <v>194</v>
+        <v>0.3113</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I37">
-        <v>168</v>
+        <v>435</v>
+      </c>
+      <c r="J37">
+        <v>198</v>
+      </c>
+      <c r="K37">
+        <v>175</v>
+      </c>
+      <c r="L37">
+        <v>0.4552</v>
+      </c>
+      <c r="M37">
+        <v>0.4023</v>
       </c>
     </row>
     <row r="38">
@@ -1673,19 +2113,31 @@
       <c r="E38">
         <v>367</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F38">
+        <v>0.5762</v>
       </c>
       <c r="G38">
-        <v>3546</v>
-      </c>
-      <c r="H38">
-        <v>2018</v>
+        <v>0.3703</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I38">
-        <v>1501</v>
+        <v>3786</v>
+      </c>
+      <c r="J38">
+        <v>2210</v>
+      </c>
+      <c r="K38">
+        <v>1621</v>
+      </c>
+      <c r="L38">
+        <v>0.5837</v>
+      </c>
+      <c r="M38">
+        <v>0.4282</v>
       </c>
     </row>
     <row r="39">
@@ -1708,19 +2160,31 @@
       <c r="E39">
         <v>49</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F39">
+        <v>0.6042</v>
       </c>
       <c r="G39">
-        <v>267</v>
-      </c>
-      <c r="H39">
-        <v>161</v>
+        <v>0.3403</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I39">
-        <v>91</v>
+        <v>352</v>
+      </c>
+      <c r="J39">
+        <v>213</v>
+      </c>
+      <c r="K39">
+        <v>121</v>
+      </c>
+      <c r="L39">
+        <v>0.6051</v>
+      </c>
+      <c r="M39">
+        <v>0.3438</v>
       </c>
     </row>
     <row r="40">
@@ -1743,19 +2207,31 @@
       <c r="E40">
         <v>4416</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F40">
+        <v>0.6954</v>
       </c>
       <c r="G40">
-        <v>27861</v>
-      </c>
-      <c r="H40">
-        <v>17780</v>
+        <v>0.3027</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I40">
-        <v>9896</v>
+        <v>29308</v>
+      </c>
+      <c r="J40">
+        <v>18823</v>
+      </c>
+      <c r="K40">
+        <v>10496</v>
+      </c>
+      <c r="L40">
+        <v>0.6422</v>
+      </c>
+      <c r="M40">
+        <v>0.3581</v>
       </c>
     </row>
     <row r="41">
@@ -1778,19 +2254,31 @@
       <c r="E41">
         <v>204</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F41">
+        <v>0.644</v>
       </c>
       <c r="G41">
-        <v>720</v>
-      </c>
-      <c r="H41">
-        <v>455</v>
+        <v>0.4198</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I41">
-        <v>347</v>
+        <v>780</v>
+      </c>
+      <c r="J41">
+        <v>493</v>
+      </c>
+      <c r="K41">
+        <v>395</v>
+      </c>
+      <c r="L41">
+        <v>0.6321</v>
+      </c>
+      <c r="M41">
+        <v>0.5064</v>
       </c>
     </row>
     <row r="42">
@@ -1813,19 +2301,31 @@
       <c r="E42">
         <v>49</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F42">
+        <v>0.5159</v>
       </c>
       <c r="G42">
-        <v>416</v>
-      </c>
-      <c r="H42">
-        <v>194</v>
+        <v>0.3121</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I42">
-        <v>168</v>
+        <v>435</v>
+      </c>
+      <c r="J42">
+        <v>198</v>
+      </c>
+      <c r="K42">
+        <v>175</v>
+      </c>
+      <c r="L42">
+        <v>0.4552</v>
+      </c>
+      <c r="M42">
+        <v>0.4023</v>
       </c>
     </row>
     <row r="43">
@@ -1848,19 +2348,31 @@
       <c r="E43">
         <v>2656</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F43">
+        <v>0.7443</v>
       </c>
       <c r="G43">
-        <v>14621</v>
-      </c>
-      <c r="H43">
-        <v>10023</v>
+        <v>0.2839</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I43">
-        <v>4834</v>
+        <v>15068</v>
+      </c>
+      <c r="J43">
+        <v>10375</v>
+      </c>
+      <c r="K43">
+        <v>5007</v>
+      </c>
+      <c r="L43">
+        <v>0.6885</v>
+      </c>
+      <c r="M43">
+        <v>0.3323</v>
       </c>
     </row>
     <row r="44">
@@ -1883,19 +2395,31 @@
       <c r="E44">
         <v>44</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F44">
+        <v>0.605</v>
       </c>
       <c r="G44">
-        <v>228</v>
-      </c>
-      <c r="H44">
-        <v>107</v>
+        <v>0.3697</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I44">
-        <v>101</v>
+        <v>261</v>
+      </c>
+      <c r="J44">
+        <v>121</v>
+      </c>
+      <c r="K44">
+        <v>111</v>
+      </c>
+      <c r="L44">
+        <v>0.4636</v>
+      </c>
+      <c r="M44">
+        <v>0.4253</v>
       </c>
     </row>
     <row r="45">
@@ -1918,19 +2442,31 @@
       <c r="E45">
         <v>52</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F45">
+        <v>0.5405</v>
       </c>
       <c r="G45">
-        <v>590</v>
-      </c>
-      <c r="H45">
-        <v>340</v>
+        <v>0.2811</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I45">
-        <v>212</v>
+        <v>635</v>
+      </c>
+      <c r="J45">
+        <v>373</v>
+      </c>
+      <c r="K45">
+        <v>222</v>
+      </c>
+      <c r="L45">
+        <v>0.5874</v>
+      </c>
+      <c r="M45">
+        <v>0.3496</v>
       </c>
     </row>
     <row r="46">
@@ -1953,19 +2489,31 @@
       <c r="E46">
         <v>186</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F46">
+        <v>0.6336000000000001</v>
       </c>
       <c r="G46">
-        <v>989</v>
-      </c>
-      <c r="H46">
-        <v>584</v>
+        <v>0.2425</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I46">
-        <v>302</v>
+        <v>1042</v>
+      </c>
+      <c r="J46">
+        <v>618</v>
+      </c>
+      <c r="K46">
+        <v>317</v>
+      </c>
+      <c r="L46">
+        <v>0.5931</v>
+      </c>
+      <c r="M46">
+        <v>0.3042</v>
       </c>
     </row>
     <row r="47">
@@ -1988,19 +2536,31 @@
       <c r="E47">
         <v>298</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F47">
+        <v>0.5711000000000001</v>
       </c>
       <c r="G47">
-        <v>1641</v>
-      </c>
-      <c r="H47">
-        <v>945</v>
+        <v>0.3502</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I47">
-        <v>618</v>
+        <v>1773</v>
+      </c>
+      <c r="J47">
+        <v>1029</v>
+      </c>
+      <c r="K47">
+        <v>663</v>
+      </c>
+      <c r="L47">
+        <v>0.5804</v>
+      </c>
+      <c r="M47">
+        <v>0.3739</v>
       </c>
     </row>
     <row r="48">
@@ -2023,19 +2583,31 @@
       <c r="E48">
         <v>89</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F48">
+        <v>0.6893</v>
       </c>
       <c r="G48">
-        <v>701</v>
-      </c>
-      <c r="H48">
-        <v>472</v>
+        <v>0.432</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I48">
-        <v>276</v>
+        <v>747</v>
+      </c>
+      <c r="J48">
+        <v>508</v>
+      </c>
+      <c r="K48">
+        <v>303</v>
+      </c>
+      <c r="L48">
+        <v>0.6801</v>
+      </c>
+      <c r="M48">
+        <v>0.4056</v>
       </c>
     </row>
     <row r="49">
@@ -2058,19 +2630,31 @@
       <c r="E49">
         <v>10</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F49">
+        <v>0.4571</v>
       </c>
       <c r="G49">
-        <v>236</v>
-      </c>
-      <c r="H49">
-        <v>109</v>
+        <v>0.2857</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I49">
-        <v>109</v>
+        <v>248</v>
+      </c>
+      <c r="J49">
+        <v>114</v>
+      </c>
+      <c r="K49">
+        <v>117</v>
+      </c>
+      <c r="L49">
+        <v>0.4597</v>
+      </c>
+      <c r="M49">
+        <v>0.4718</v>
       </c>
     </row>
     <row r="50">
@@ -2093,19 +2677,31 @@
       <c r="E50">
         <v>206</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F50">
+        <v>0.7157</v>
       </c>
       <c r="G50">
-        <v>2164</v>
-      </c>
-      <c r="H50">
-        <v>1408</v>
+        <v>0.2885</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I50">
-        <v>628</v>
+        <v>2269</v>
+      </c>
+      <c r="J50">
+        <v>1489</v>
+      </c>
+      <c r="K50">
+        <v>670</v>
+      </c>
+      <c r="L50">
+        <v>0.6562</v>
+      </c>
+      <c r="M50">
+        <v>0.2953</v>
       </c>
     </row>
     <row r="51">
@@ -2128,20 +2724,26 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2163,19 +2765,31 @@
       <c r="E52">
         <v>49</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F52">
+        <v>0.4298</v>
       </c>
       <c r="G52">
-        <v>349</v>
-      </c>
-      <c r="H52">
-        <v>182</v>
+        <v>0.405</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I52">
-        <v>152</v>
+        <v>373</v>
+      </c>
+      <c r="J52">
+        <v>192</v>
+      </c>
+      <c r="K52">
+        <v>164</v>
+      </c>
+      <c r="L52">
+        <v>0.5147</v>
+      </c>
+      <c r="M52">
+        <v>0.4397</v>
       </c>
     </row>
     <row r="53">
@@ -2198,19 +2812,31 @@
       <c r="E53">
         <v>11</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F53">
+        <v>0.3043</v>
       </c>
       <c r="G53">
-        <v>90</v>
-      </c>
-      <c r="H53">
-        <v>41</v>
+        <v>0.4783</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I53">
-        <v>49</v>
+        <v>96</v>
+      </c>
+      <c r="J53">
+        <v>44</v>
+      </c>
+      <c r="K53">
+        <v>51</v>
+      </c>
+      <c r="L53">
+        <v>0.4583</v>
+      </c>
+      <c r="M53">
+        <v>0.5313</v>
       </c>
     </row>
     <row r="54">
@@ -2233,19 +2859,31 @@
       <c r="E54">
         <v>33</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F54">
+        <v>0.5476</v>
       </c>
       <c r="G54">
-        <v>489</v>
-      </c>
-      <c r="H54">
-        <v>228</v>
+        <v>0.2619</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I54">
-        <v>197</v>
+        <v>528</v>
+      </c>
+      <c r="J54">
+        <v>256</v>
+      </c>
+      <c r="K54">
+        <v>208</v>
+      </c>
+      <c r="L54">
+        <v>0.4848</v>
+      </c>
+      <c r="M54">
+        <v>0.3939</v>
       </c>
     </row>
     <row r="55">
@@ -2268,19 +2906,31 @@
       <c r="E55">
         <v>98</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2020-03-20 14:00:00</t>
-        </is>
+      <c r="F55">
+        <v>0.6418</v>
       </c>
       <c r="G55">
-        <v>752</v>
-      </c>
-      <c r="H55">
-        <v>487</v>
+        <v>0.3475</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2020-03-20 17:00:00</t>
+        </is>
       </c>
       <c r="I55">
-        <v>272</v>
+        <v>852</v>
+      </c>
+      <c r="J55">
+        <v>564</v>
+      </c>
+      <c r="K55">
+        <v>309</v>
+      </c>
+      <c r="L55">
+        <v>0.662</v>
+      </c>
+      <c r="M55">
+        <v>0.3627</v>
       </c>
     </row>
   </sheetData>

--- a/data/学习数据.xlsx
+++ b/data/学习数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,23 +441,23 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I2">
-        <v>15068</v>
+        <v>15842</v>
       </c>
       <c r="J2">
-        <v>10375</v>
+        <v>11004</v>
       </c>
       <c r="K2">
-        <v>5007</v>
+        <v>5460</v>
       </c>
       <c r="L2">
-        <v>0.6885</v>
+        <v>0.6946</v>
       </c>
       <c r="M2">
-        <v>0.3323</v>
+        <v>0.3447</v>
       </c>
     </row>
     <row r="3">
@@ -488,23 +488,23 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I3">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="J3">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K3">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="L3">
-        <v>0.4636</v>
+        <v>0.4708</v>
       </c>
       <c r="M3">
-        <v>0.4253</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="4">
@@ -535,23 +535,23 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I4">
-        <v>635</v>
+        <v>812</v>
       </c>
       <c r="J4">
-        <v>373</v>
+        <v>483</v>
       </c>
       <c r="K4">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="L4">
-        <v>0.5874</v>
+        <v>0.5948</v>
       </c>
       <c r="M4">
-        <v>0.3496</v>
+        <v>0.3485</v>
       </c>
     </row>
     <row r="5">
@@ -582,23 +582,23 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I5">
-        <v>1042</v>
+        <v>1197</v>
       </c>
       <c r="J5">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="K5">
-        <v>317</v>
+        <v>412</v>
       </c>
       <c r="L5">
-        <v>0.5931</v>
+        <v>0.5856</v>
       </c>
       <c r="M5">
-        <v>0.3042</v>
+        <v>0.3442</v>
       </c>
     </row>
     <row r="6">
@@ -629,23 +629,23 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I6">
-        <v>1773</v>
+        <v>2022</v>
       </c>
       <c r="J6">
-        <v>1029</v>
+        <v>1180</v>
       </c>
       <c r="K6">
-        <v>663</v>
+        <v>798</v>
       </c>
       <c r="L6">
-        <v>0.5804</v>
+        <v>0.5836</v>
       </c>
       <c r="M6">
-        <v>0.3739</v>
+        <v>0.3947</v>
       </c>
     </row>
     <row r="7">
@@ -676,23 +676,23 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I7">
-        <v>747</v>
+        <v>845</v>
       </c>
       <c r="J7">
-        <v>508</v>
+        <v>562</v>
       </c>
       <c r="K7">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="L7">
-        <v>0.6801</v>
+        <v>0.6651</v>
       </c>
       <c r="M7">
-        <v>0.4056</v>
+        <v>0.4189</v>
       </c>
     </row>
     <row r="8">
@@ -723,23 +723,23 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I8">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="J8">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="K8">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="L8">
-        <v>0.4597</v>
+        <v>0.4399</v>
       </c>
       <c r="M8">
-        <v>0.4718</v>
+        <v>0.4684</v>
       </c>
     </row>
     <row r="9">
@@ -770,23 +770,23 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I9">
-        <v>2269</v>
+        <v>2575</v>
       </c>
       <c r="J9">
-        <v>1489</v>
+        <v>1684</v>
       </c>
       <c r="K9">
-        <v>670</v>
+        <v>832</v>
       </c>
       <c r="L9">
-        <v>0.6562</v>
+        <v>0.654</v>
       </c>
       <c r="M9">
-        <v>0.2953</v>
+        <v>0.3231</v>
       </c>
     </row>
     <row r="10">
@@ -811,7 +811,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I10">
@@ -858,23 +858,23 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I11">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="J11">
+        <v>210</v>
+      </c>
+      <c r="K11">
         <v>192</v>
       </c>
-      <c r="K11">
-        <v>164</v>
-      </c>
       <c r="L11">
-        <v>0.5147</v>
+        <v>0.506</v>
       </c>
       <c r="M11">
-        <v>0.4397</v>
+        <v>0.4627</v>
       </c>
     </row>
     <row r="12">
@@ -905,23 +905,23 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I12">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="J12">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="L12">
-        <v>0.4583</v>
+        <v>0.3842</v>
       </c>
       <c r="M12">
-        <v>0.5313</v>
+        <v>0.4802</v>
       </c>
     </row>
     <row r="13">
@@ -952,23 +952,23 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I13">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="J13">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="K13">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L13">
-        <v>0.4848</v>
+        <v>0.4973</v>
       </c>
       <c r="M13">
-        <v>0.3939</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="14">
@@ -999,23 +999,23 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I14">
-        <v>852</v>
+        <v>1098</v>
       </c>
       <c r="J14">
-        <v>564</v>
+        <v>753</v>
       </c>
       <c r="K14">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="L14">
-        <v>0.662</v>
+        <v>0.6858</v>
       </c>
       <c r="M14">
-        <v>0.3627</v>
+        <v>0.3515</v>
       </c>
     </row>
     <row r="15">
@@ -1046,23 +1046,23 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I15">
-        <v>3786</v>
+        <v>4589</v>
       </c>
       <c r="J15">
-        <v>2210</v>
+        <v>2854</v>
       </c>
       <c r="K15">
-        <v>1621</v>
+        <v>2047</v>
       </c>
       <c r="L15">
-        <v>0.5837</v>
+        <v>0.6219</v>
       </c>
       <c r="M15">
-        <v>0.4282</v>
+        <v>0.4461</v>
       </c>
     </row>
     <row r="16">
@@ -1087,23 +1087,23 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I16">
-        <v>352</v>
+        <v>492</v>
       </c>
       <c r="J16">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="K16">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="L16">
-        <v>0.6051</v>
+        <v>0.5528</v>
       </c>
       <c r="M16">
-        <v>0.3438</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="17">
@@ -1134,23 +1134,23 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I17">
-        <v>29308</v>
+        <v>32815</v>
       </c>
       <c r="J17">
-        <v>18823</v>
+        <v>21226</v>
       </c>
       <c r="K17">
-        <v>10496</v>
+        <v>12334</v>
       </c>
       <c r="L17">
-        <v>0.6422</v>
+        <v>0.6468</v>
       </c>
       <c r="M17">
-        <v>0.3581</v>
+        <v>0.3759</v>
       </c>
     </row>
     <row r="18">
@@ -1181,23 +1181,23 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I18">
-        <v>780</v>
+        <v>897</v>
       </c>
       <c r="J18">
-        <v>493</v>
+        <v>579</v>
       </c>
       <c r="K18">
-        <v>395</v>
+        <v>483</v>
       </c>
       <c r="L18">
-        <v>0.6321</v>
+        <v>0.6455</v>
       </c>
       <c r="M18">
-        <v>0.5064</v>
+        <v>0.5385</v>
       </c>
     </row>
     <row r="19">
@@ -1228,23 +1228,23 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I19">
-        <v>435</v>
+        <v>651</v>
       </c>
       <c r="J19">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="K19">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="L19">
-        <v>0.4552</v>
+        <v>0.4731</v>
       </c>
       <c r="M19">
-        <v>0.4023</v>
+        <v>0.4025</v>
       </c>
     </row>
     <row r="20">
@@ -1275,23 +1275,23 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I20">
-        <v>15068</v>
+        <v>15842</v>
       </c>
       <c r="J20">
-        <v>10375</v>
+        <v>11004</v>
       </c>
       <c r="K20">
-        <v>5007</v>
+        <v>5460</v>
       </c>
       <c r="L20">
-        <v>0.6885</v>
+        <v>0.6946</v>
       </c>
       <c r="M20">
-        <v>0.3323</v>
+        <v>0.3447</v>
       </c>
     </row>
     <row r="21">
@@ -1322,23 +1322,23 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I21">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="J21">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K21">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="L21">
-        <v>0.4636</v>
+        <v>0.4708</v>
       </c>
       <c r="M21">
-        <v>0.4253</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="22">
@@ -1369,23 +1369,23 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I22">
-        <v>635</v>
+        <v>812</v>
       </c>
       <c r="J22">
-        <v>373</v>
+        <v>483</v>
       </c>
       <c r="K22">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="L22">
-        <v>0.5874</v>
+        <v>0.5948</v>
       </c>
       <c r="M22">
-        <v>0.3496</v>
+        <v>0.3485</v>
       </c>
     </row>
     <row r="23">
@@ -1416,23 +1416,23 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I23">
-        <v>1042</v>
+        <v>1197</v>
       </c>
       <c r="J23">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="K23">
-        <v>317</v>
+        <v>412</v>
       </c>
       <c r="L23">
-        <v>0.5931</v>
+        <v>0.5856</v>
       </c>
       <c r="M23">
-        <v>0.3042</v>
+        <v>0.3442</v>
       </c>
     </row>
     <row r="24">
@@ -1463,23 +1463,23 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I24">
-        <v>1773</v>
+        <v>2022</v>
       </c>
       <c r="J24">
-        <v>1029</v>
+        <v>1180</v>
       </c>
       <c r="K24">
-        <v>663</v>
+        <v>798</v>
       </c>
       <c r="L24">
-        <v>0.5804</v>
+        <v>0.5836</v>
       </c>
       <c r="M24">
-        <v>0.3739</v>
+        <v>0.3947</v>
       </c>
     </row>
     <row r="25">
@@ -1510,23 +1510,23 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I25">
-        <v>747</v>
+        <v>845</v>
       </c>
       <c r="J25">
-        <v>508</v>
+        <v>562</v>
       </c>
       <c r="K25">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="L25">
-        <v>0.6801</v>
+        <v>0.6651</v>
       </c>
       <c r="M25">
-        <v>0.4056</v>
+        <v>0.4189</v>
       </c>
     </row>
     <row r="26">
@@ -1557,23 +1557,23 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I26">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="J26">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="K26">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="L26">
-        <v>0.4597</v>
+        <v>0.4399</v>
       </c>
       <c r="M26">
-        <v>0.4718</v>
+        <v>0.4684</v>
       </c>
     </row>
     <row r="27">
@@ -1604,23 +1604,23 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I27">
-        <v>2269</v>
+        <v>2575</v>
       </c>
       <c r="J27">
-        <v>1489</v>
+        <v>1684</v>
       </c>
       <c r="K27">
-        <v>670</v>
+        <v>832</v>
       </c>
       <c r="L27">
-        <v>0.6562</v>
+        <v>0.654</v>
       </c>
       <c r="M27">
-        <v>0.2953</v>
+        <v>0.3231</v>
       </c>
     </row>
     <row r="28">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I28">
@@ -1698,23 +1698,23 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I29">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="J29">
+        <v>210</v>
+      </c>
+      <c r="K29">
         <v>192</v>
       </c>
-      <c r="K29">
-        <v>164</v>
-      </c>
       <c r="L29">
-        <v>0.5147</v>
+        <v>0.506</v>
       </c>
       <c r="M29">
-        <v>0.4397</v>
+        <v>0.4627</v>
       </c>
     </row>
     <row r="30">
@@ -1745,23 +1745,23 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I30">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="J30">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="K30">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="L30">
-        <v>0.4583</v>
+        <v>0.3842</v>
       </c>
       <c r="M30">
-        <v>0.5313</v>
+        <v>0.4802</v>
       </c>
     </row>
     <row r="31">
@@ -1792,23 +1792,23 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I31">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="J31">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="K31">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L31">
-        <v>0.4848</v>
+        <v>0.4973</v>
       </c>
       <c r="M31">
-        <v>0.3939</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="32">
@@ -1839,23 +1839,23 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I32">
-        <v>852</v>
+        <v>1098</v>
       </c>
       <c r="J32">
-        <v>564</v>
+        <v>753</v>
       </c>
       <c r="K32">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="L32">
-        <v>0.662</v>
+        <v>0.6858</v>
       </c>
       <c r="M32">
-        <v>0.3627</v>
+        <v>0.3515</v>
       </c>
     </row>
     <row r="33">
@@ -1886,23 +1886,23 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I33">
-        <v>3786</v>
+        <v>4589</v>
       </c>
       <c r="J33">
-        <v>2210</v>
+        <v>2854</v>
       </c>
       <c r="K33">
-        <v>1621</v>
+        <v>2047</v>
       </c>
       <c r="L33">
-        <v>0.5837</v>
+        <v>0.6219</v>
       </c>
       <c r="M33">
-        <v>0.4282</v>
+        <v>0.4461</v>
       </c>
     </row>
     <row r="34">
@@ -1933,23 +1933,23 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I34">
-        <v>352</v>
+        <v>492</v>
       </c>
       <c r="J34">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="K34">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="L34">
-        <v>0.6051</v>
+        <v>0.5528</v>
       </c>
       <c r="M34">
-        <v>0.3438</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="35">
@@ -1980,23 +1980,23 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I35">
-        <v>29308</v>
+        <v>32815</v>
       </c>
       <c r="J35">
-        <v>18823</v>
+        <v>21226</v>
       </c>
       <c r="K35">
-        <v>10496</v>
+        <v>12334</v>
       </c>
       <c r="L35">
-        <v>0.6422</v>
+        <v>0.6468</v>
       </c>
       <c r="M35">
-        <v>0.3581</v>
+        <v>0.3759</v>
       </c>
     </row>
     <row r="36">
@@ -2027,23 +2027,23 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I36">
-        <v>780</v>
+        <v>897</v>
       </c>
       <c r="J36">
-        <v>493</v>
+        <v>579</v>
       </c>
       <c r="K36">
-        <v>395</v>
+        <v>483</v>
       </c>
       <c r="L36">
-        <v>0.6321</v>
+        <v>0.6455</v>
       </c>
       <c r="M36">
-        <v>0.5064</v>
+        <v>0.5385</v>
       </c>
     </row>
     <row r="37">
@@ -2074,23 +2074,23 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I37">
-        <v>435</v>
+        <v>651</v>
       </c>
       <c r="J37">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="K37">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="L37">
-        <v>0.4552</v>
+        <v>0.4731</v>
       </c>
       <c r="M37">
-        <v>0.4023</v>
+        <v>0.4025</v>
       </c>
     </row>
     <row r="38">
@@ -2121,23 +2121,23 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I38">
-        <v>3786</v>
+        <v>4589</v>
       </c>
       <c r="J38">
-        <v>2210</v>
+        <v>2854</v>
       </c>
       <c r="K38">
-        <v>1621</v>
+        <v>2047</v>
       </c>
       <c r="L38">
-        <v>0.5837</v>
+        <v>0.6219</v>
       </c>
       <c r="M38">
-        <v>0.4282</v>
+        <v>0.4461</v>
       </c>
     </row>
     <row r="39">
@@ -2168,23 +2168,23 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I39">
-        <v>352</v>
+        <v>492</v>
       </c>
       <c r="J39">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="K39">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="L39">
-        <v>0.6051</v>
+        <v>0.5528</v>
       </c>
       <c r="M39">
-        <v>0.3438</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="40">
@@ -2215,23 +2215,23 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I40">
-        <v>29308</v>
+        <v>32815</v>
       </c>
       <c r="J40">
-        <v>18823</v>
+        <v>21226</v>
       </c>
       <c r="K40">
-        <v>10496</v>
+        <v>12334</v>
       </c>
       <c r="L40">
-        <v>0.6422</v>
+        <v>0.6468</v>
       </c>
       <c r="M40">
-        <v>0.3581</v>
+        <v>0.3759</v>
       </c>
     </row>
     <row r="41">
@@ -2262,23 +2262,23 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I41">
-        <v>780</v>
+        <v>897</v>
       </c>
       <c r="J41">
-        <v>493</v>
+        <v>579</v>
       </c>
       <c r="K41">
-        <v>395</v>
+        <v>483</v>
       </c>
       <c r="L41">
-        <v>0.6321</v>
+        <v>0.6455</v>
       </c>
       <c r="M41">
-        <v>0.5064</v>
+        <v>0.5385</v>
       </c>
     </row>
     <row r="42">
@@ -2309,23 +2309,23 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I42">
-        <v>435</v>
+        <v>651</v>
       </c>
       <c r="J42">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="K42">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="L42">
-        <v>0.4552</v>
+        <v>0.4731</v>
       </c>
       <c r="M42">
-        <v>0.4023</v>
+        <v>0.4025</v>
       </c>
     </row>
     <row r="43">
@@ -2356,23 +2356,23 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I43">
-        <v>15068</v>
+        <v>15842</v>
       </c>
       <c r="J43">
-        <v>10375</v>
+        <v>11004</v>
       </c>
       <c r="K43">
-        <v>5007</v>
+        <v>5460</v>
       </c>
       <c r="L43">
-        <v>0.6885</v>
+        <v>0.6946</v>
       </c>
       <c r="M43">
-        <v>0.3323</v>
+        <v>0.3447</v>
       </c>
     </row>
     <row r="44">
@@ -2403,23 +2403,23 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I44">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="J44">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K44">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="L44">
-        <v>0.4636</v>
+        <v>0.4708</v>
       </c>
       <c r="M44">
-        <v>0.4253</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="45">
@@ -2450,23 +2450,23 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I45">
-        <v>635</v>
+        <v>812</v>
       </c>
       <c r="J45">
-        <v>373</v>
+        <v>483</v>
       </c>
       <c r="K45">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="L45">
-        <v>0.5874</v>
+        <v>0.5948</v>
       </c>
       <c r="M45">
-        <v>0.3496</v>
+        <v>0.3485</v>
       </c>
     </row>
     <row r="46">
@@ -2497,23 +2497,23 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I46">
-        <v>1042</v>
+        <v>1197</v>
       </c>
       <c r="J46">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="K46">
-        <v>317</v>
+        <v>412</v>
       </c>
       <c r="L46">
-        <v>0.5931</v>
+        <v>0.5856</v>
       </c>
       <c r="M46">
-        <v>0.3042</v>
+        <v>0.3442</v>
       </c>
     </row>
     <row r="47">
@@ -2544,23 +2544,23 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I47">
-        <v>1773</v>
+        <v>2022</v>
       </c>
       <c r="J47">
-        <v>1029</v>
+        <v>1180</v>
       </c>
       <c r="K47">
-        <v>663</v>
+        <v>798</v>
       </c>
       <c r="L47">
-        <v>0.5804</v>
+        <v>0.5836</v>
       </c>
       <c r="M47">
-        <v>0.3739</v>
+        <v>0.3947</v>
       </c>
     </row>
     <row r="48">
@@ -2591,23 +2591,23 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I48">
-        <v>747</v>
+        <v>845</v>
       </c>
       <c r="J48">
-        <v>508</v>
+        <v>562</v>
       </c>
       <c r="K48">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="L48">
-        <v>0.6801</v>
+        <v>0.6651</v>
       </c>
       <c r="M48">
-        <v>0.4056</v>
+        <v>0.4189</v>
       </c>
     </row>
     <row r="49">
@@ -2638,23 +2638,23 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I49">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="J49">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="K49">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="L49">
-        <v>0.4597</v>
+        <v>0.4399</v>
       </c>
       <c r="M49">
-        <v>0.4718</v>
+        <v>0.4684</v>
       </c>
     </row>
     <row r="50">
@@ -2685,23 +2685,23 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I50">
-        <v>2269</v>
+        <v>2575</v>
       </c>
       <c r="J50">
-        <v>1489</v>
+        <v>1684</v>
       </c>
       <c r="K50">
-        <v>670</v>
+        <v>832</v>
       </c>
       <c r="L50">
-        <v>0.6562</v>
+        <v>0.654</v>
       </c>
       <c r="M50">
-        <v>0.2953</v>
+        <v>0.3231</v>
       </c>
     </row>
     <row r="51">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I51">
@@ -2773,23 +2773,23 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I52">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="J52">
+        <v>210</v>
+      </c>
+      <c r="K52">
         <v>192</v>
       </c>
-      <c r="K52">
-        <v>164</v>
-      </c>
       <c r="L52">
-        <v>0.5147</v>
+        <v>0.506</v>
       </c>
       <c r="M52">
-        <v>0.4397</v>
+        <v>0.4627</v>
       </c>
     </row>
     <row r="53">
@@ -2820,23 +2820,23 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I53">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="J53">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="K53">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="L53">
-        <v>0.4583</v>
+        <v>0.3842</v>
       </c>
       <c r="M53">
-        <v>0.5313</v>
+        <v>0.4802</v>
       </c>
     </row>
     <row r="54">
@@ -2867,23 +2867,23 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I54">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="J54">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="K54">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L54">
-        <v>0.4848</v>
+        <v>0.4973</v>
       </c>
       <c r="M54">
-        <v>0.3939</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="55">
@@ -2914,23 +2914,863 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-20 17:00:00</t>
+          <t>2020-03-21 08:00:00</t>
         </is>
       </c>
       <c r="I55">
-        <v>852</v>
+        <v>1098</v>
       </c>
       <c r="J55">
-        <v>564</v>
+        <v>753</v>
       </c>
       <c r="K55">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="L55">
-        <v>0.662</v>
+        <v>0.6858</v>
       </c>
       <c r="M55">
-        <v>0.3627</v>
+        <v>0.3515</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>2395</v>
+      </c>
+      <c r="D56">
+        <v>1900</v>
+      </c>
+      <c r="E56">
+        <v>700</v>
+      </c>
+      <c r="F56">
+        <v>0.7933</v>
+      </c>
+      <c r="G56">
+        <v>0.2923</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I56">
+        <v>15842</v>
+      </c>
+      <c r="J56">
+        <v>11004</v>
+      </c>
+      <c r="K56">
+        <v>5460</v>
+      </c>
+      <c r="L56">
+        <v>0.6946</v>
+      </c>
+      <c r="M56">
+        <v>0.3447</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>62</v>
+      </c>
+      <c r="D57">
+        <v>30</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>0.4839</v>
+      </c>
+      <c r="G57">
+        <v>0.3226</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I57">
+        <v>274</v>
+      </c>
+      <c r="J57">
+        <v>129</v>
+      </c>
+      <c r="K57">
+        <v>126</v>
+      </c>
+      <c r="L57">
+        <v>0.4708</v>
+      </c>
+      <c r="M57">
+        <v>0.4599</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>332</v>
+      </c>
+      <c r="D58">
+        <v>234</v>
+      </c>
+      <c r="E58">
+        <v>80</v>
+      </c>
+      <c r="F58">
+        <v>0.7048</v>
+      </c>
+      <c r="G58">
+        <v>0.241</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I58">
+        <v>812</v>
+      </c>
+      <c r="J58">
+        <v>483</v>
+      </c>
+      <c r="K58">
+        <v>283</v>
+      </c>
+      <c r="L58">
+        <v>0.5948</v>
+      </c>
+      <c r="M58">
+        <v>0.3485</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>408</v>
+      </c>
+      <c r="D59">
+        <v>208</v>
+      </c>
+      <c r="E59">
+        <v>126</v>
+      </c>
+      <c r="F59">
+        <v>0.5098</v>
+      </c>
+      <c r="G59">
+        <v>0.3088</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I59">
+        <v>1197</v>
+      </c>
+      <c r="J59">
+        <v>701</v>
+      </c>
+      <c r="K59">
+        <v>412</v>
+      </c>
+      <c r="L59">
+        <v>0.5856</v>
+      </c>
+      <c r="M59">
+        <v>0.3442</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>690</v>
+      </c>
+      <c r="D60">
+        <v>430</v>
+      </c>
+      <c r="E60">
+        <v>210</v>
+      </c>
+      <c r="F60">
+        <v>0.6232</v>
+      </c>
+      <c r="G60">
+        <v>0.3043</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I60">
+        <v>2022</v>
+      </c>
+      <c r="J60">
+        <v>1180</v>
+      </c>
+      <c r="K60">
+        <v>798</v>
+      </c>
+      <c r="L60">
+        <v>0.5836</v>
+      </c>
+      <c r="M60">
+        <v>0.3947</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>283</v>
+      </c>
+      <c r="D61">
+        <v>170</v>
+      </c>
+      <c r="E61">
+        <v>92</v>
+      </c>
+      <c r="F61">
+        <v>0.6007</v>
+      </c>
+      <c r="G61">
+        <v>0.3251</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I61">
+        <v>845</v>
+      </c>
+      <c r="J61">
+        <v>562</v>
+      </c>
+      <c r="K61">
+        <v>354</v>
+      </c>
+      <c r="L61">
+        <v>0.6651</v>
+      </c>
+      <c r="M61">
+        <v>0.4189</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>107</v>
+      </c>
+      <c r="D62">
+        <v>43</v>
+      </c>
+      <c r="E62">
+        <v>37</v>
+      </c>
+      <c r="F62">
+        <v>0.4019</v>
+      </c>
+      <c r="G62">
+        <v>0.3458</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I62">
+        <v>316</v>
+      </c>
+      <c r="J62">
+        <v>139</v>
+      </c>
+      <c r="K62">
+        <v>148</v>
+      </c>
+      <c r="L62">
+        <v>0.4399</v>
+      </c>
+      <c r="M62">
+        <v>0.4684</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>924</v>
+      </c>
+      <c r="D63">
+        <v>637</v>
+      </c>
+      <c r="E63">
+        <v>267</v>
+      </c>
+      <c r="F63">
+        <v>0.6894</v>
+      </c>
+      <c r="G63">
+        <v>0.289</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I63">
+        <v>2575</v>
+      </c>
+      <c r="J63">
+        <v>1684</v>
+      </c>
+      <c r="K63">
+        <v>832</v>
+      </c>
+      <c r="L63">
+        <v>0.654</v>
+      </c>
+      <c r="M63">
+        <v>0.3231</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>167</v>
+      </c>
+      <c r="D65">
+        <v>104</v>
+      </c>
+      <c r="E65">
+        <v>59</v>
+      </c>
+      <c r="F65">
+        <v>0.6228</v>
+      </c>
+      <c r="G65">
+        <v>0.3533</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I65">
+        <v>415</v>
+      </c>
+      <c r="J65">
+        <v>210</v>
+      </c>
+      <c r="K65">
+        <v>192</v>
+      </c>
+      <c r="L65">
+        <v>0.506</v>
+      </c>
+      <c r="M65">
+        <v>0.4627</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>95</v>
+      </c>
+      <c r="D66">
+        <v>30</v>
+      </c>
+      <c r="E66">
+        <v>33</v>
+      </c>
+      <c r="F66">
+        <v>0.3158</v>
+      </c>
+      <c r="G66">
+        <v>0.3474</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I66">
+        <v>177</v>
+      </c>
+      <c r="J66">
+        <v>68</v>
+      </c>
+      <c r="K66">
+        <v>85</v>
+      </c>
+      <c r="L66">
+        <v>0.3842</v>
+      </c>
+      <c r="M66">
+        <v>0.4802</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>97</v>
+      </c>
+      <c r="D67">
+        <v>64</v>
+      </c>
+      <c r="E67">
+        <v>39</v>
+      </c>
+      <c r="F67">
+        <v>0.6598000000000001</v>
+      </c>
+      <c r="G67">
+        <v>0.4021</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I67">
+        <v>547</v>
+      </c>
+      <c r="J67">
+        <v>272</v>
+      </c>
+      <c r="K67">
+        <v>233</v>
+      </c>
+      <c r="L67">
+        <v>0.4973</v>
+      </c>
+      <c r="M67">
+        <v>0.426</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>523</v>
+      </c>
+      <c r="D68">
+        <v>407</v>
+      </c>
+      <c r="E68">
+        <v>132</v>
+      </c>
+      <c r="F68">
+        <v>0.7782</v>
+      </c>
+      <c r="G68">
+        <v>0.2524</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I68">
+        <v>1098</v>
+      </c>
+      <c r="J68">
+        <v>753</v>
+      </c>
+      <c r="K68">
+        <v>386</v>
+      </c>
+      <c r="L68">
+        <v>0.6858</v>
+      </c>
+      <c r="M68">
+        <v>0.3515</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>1287</v>
+      </c>
+      <c r="D69">
+        <v>965</v>
+      </c>
+      <c r="E69">
+        <v>556</v>
+      </c>
+      <c r="F69">
+        <v>0.7498</v>
+      </c>
+      <c r="G69">
+        <v>0.432</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I69">
+        <v>4589</v>
+      </c>
+      <c r="J69">
+        <v>2854</v>
+      </c>
+      <c r="K69">
+        <v>2047</v>
+      </c>
+      <c r="L69">
+        <v>0.6219</v>
+      </c>
+      <c r="M69">
+        <v>0.4461</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>330</v>
+      </c>
+      <c r="D70">
+        <v>175</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
+      </c>
+      <c r="F70">
+        <v>0.5303</v>
+      </c>
+      <c r="G70">
+        <v>0.303</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I70">
+        <v>492</v>
+      </c>
+      <c r="J70">
+        <v>272</v>
+      </c>
+      <c r="K70">
+        <v>184</v>
+      </c>
+      <c r="L70">
+        <v>0.5528</v>
+      </c>
+      <c r="M70">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>8257</v>
+      </c>
+      <c r="D71">
+        <v>5727</v>
+      </c>
+      <c r="E71">
+        <v>2696</v>
+      </c>
+      <c r="F71">
+        <v>0.6936</v>
+      </c>
+      <c r="G71">
+        <v>0.3265</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I71">
+        <v>32815</v>
+      </c>
+      <c r="J71">
+        <v>21226</v>
+      </c>
+      <c r="K71">
+        <v>12334</v>
+      </c>
+      <c r="L71">
+        <v>0.6468</v>
+      </c>
+      <c r="M71">
+        <v>0.3759</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>270</v>
+      </c>
+      <c r="D72">
+        <v>192</v>
+      </c>
+      <c r="E72">
+        <v>148</v>
+      </c>
+      <c r="F72">
+        <v>0.7111</v>
+      </c>
+      <c r="G72">
+        <v>0.5481</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I72">
+        <v>897</v>
+      </c>
+      <c r="J72">
+        <v>579</v>
+      </c>
+      <c r="K72">
+        <v>483</v>
+      </c>
+      <c r="L72">
+        <v>0.6455</v>
+      </c>
+      <c r="M72">
+        <v>0.5385</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>253</v>
+      </c>
+      <c r="D73">
+        <v>118</v>
+      </c>
+      <c r="E73">
+        <v>74</v>
+      </c>
+      <c r="F73">
+        <v>0.4664</v>
+      </c>
+      <c r="G73">
+        <v>0.2925</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2020-03-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="I73">
+        <v>651</v>
+      </c>
+      <c r="J73">
+        <v>308</v>
+      </c>
+      <c r="K73">
+        <v>262</v>
+      </c>
+      <c r="L73">
+        <v>0.4731</v>
+      </c>
+      <c r="M73">
+        <v>0.4025</v>
       </c>
     </row>
   </sheetData>

--- a/data/学习数据.xlsx
+++ b/data/学习数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,23 +441,23 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I2">
-        <v>15842</v>
+        <v>16489</v>
       </c>
       <c r="J2">
-        <v>11004</v>
+        <v>11485</v>
       </c>
       <c r="K2">
-        <v>5460</v>
+        <v>6117</v>
       </c>
       <c r="L2">
-        <v>0.6946</v>
+        <v>0.6965</v>
       </c>
       <c r="M2">
-        <v>0.3447</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="3">
@@ -488,23 +488,23 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I3">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="J3">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K3">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="L3">
-        <v>0.4708</v>
+        <v>0.4774</v>
       </c>
       <c r="M3">
-        <v>0.4599</v>
+        <v>0.4935</v>
       </c>
     </row>
     <row r="4">
@@ -535,23 +535,23 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I4">
-        <v>812</v>
+        <v>874</v>
       </c>
       <c r="J4">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="K4">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="L4">
-        <v>0.5948</v>
+        <v>0.5938</v>
       </c>
       <c r="M4">
-        <v>0.3485</v>
+        <v>0.3924</v>
       </c>
     </row>
     <row r="5">
@@ -582,23 +582,23 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I5">
-        <v>1197</v>
+        <v>1269</v>
       </c>
       <c r="J5">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="K5">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="L5">
-        <v>0.5856</v>
+        <v>0.58</v>
       </c>
       <c r="M5">
-        <v>0.3442</v>
+        <v>0.3767</v>
       </c>
     </row>
     <row r="6">
@@ -629,23 +629,23 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I6">
-        <v>2022</v>
+        <v>2623</v>
       </c>
       <c r="J6">
-        <v>1180</v>
+        <v>1561</v>
       </c>
       <c r="K6">
-        <v>798</v>
+        <v>1074</v>
       </c>
       <c r="L6">
-        <v>0.5836</v>
+        <v>0.5951</v>
       </c>
       <c r="M6">
-        <v>0.3947</v>
+        <v>0.4095</v>
       </c>
     </row>
     <row r="7">
@@ -676,23 +676,23 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I7">
-        <v>845</v>
+        <v>964</v>
       </c>
       <c r="J7">
-        <v>562</v>
+        <v>653</v>
       </c>
       <c r="K7">
-        <v>354</v>
+        <v>464</v>
       </c>
       <c r="L7">
-        <v>0.6651</v>
+        <v>0.6774</v>
       </c>
       <c r="M7">
-        <v>0.4189</v>
+        <v>0.4813</v>
       </c>
     </row>
     <row r="8">
@@ -723,23 +723,23 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I8">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="J8">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="K8">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L8">
-        <v>0.4399</v>
+        <v>0.4585</v>
       </c>
       <c r="M8">
-        <v>0.4684</v>
+        <v>0.4785</v>
       </c>
     </row>
     <row r="9">
@@ -770,23 +770,23 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I9">
-        <v>2575</v>
+        <v>2756</v>
       </c>
       <c r="J9">
-        <v>1684</v>
+        <v>1803</v>
       </c>
       <c r="K9">
-        <v>832</v>
+        <v>975</v>
       </c>
       <c r="L9">
-        <v>0.654</v>
+        <v>0.6542</v>
       </c>
       <c r="M9">
-        <v>0.3231</v>
+        <v>0.3538</v>
       </c>
     </row>
     <row r="10">
@@ -811,7 +811,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I10">
@@ -858,23 +858,23 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I11">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="J11">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K11">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="L11">
-        <v>0.506</v>
+        <v>0.5165999999999999</v>
       </c>
       <c r="M11">
-        <v>0.4627</v>
+        <v>0.4901</v>
       </c>
     </row>
     <row r="12">
@@ -905,23 +905,23 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I12">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="J12">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="K12">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="L12">
-        <v>0.3842</v>
+        <v>0.4186</v>
       </c>
       <c r="M12">
-        <v>0.4802</v>
+        <v>0.5078</v>
       </c>
     </row>
     <row r="13">
@@ -952,23 +952,23 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I13">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="J13">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="K13">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="L13">
-        <v>0.4973</v>
+        <v>0.521</v>
       </c>
       <c r="M13">
-        <v>0.426</v>
+        <v>0.4773</v>
       </c>
     </row>
     <row r="14">
@@ -999,23 +999,23 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I14">
-        <v>1098</v>
+        <v>1357</v>
       </c>
       <c r="J14">
-        <v>753</v>
+        <v>970</v>
       </c>
       <c r="K14">
-        <v>386</v>
+        <v>502</v>
       </c>
       <c r="L14">
-        <v>0.6858</v>
+        <v>0.7148</v>
       </c>
       <c r="M14">
-        <v>0.3515</v>
+        <v>0.3699</v>
       </c>
     </row>
     <row r="15">
@@ -1046,23 +1046,23 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I15">
-        <v>4589</v>
+        <v>5287</v>
       </c>
       <c r="J15">
-        <v>2854</v>
+        <v>3468</v>
       </c>
       <c r="K15">
-        <v>2047</v>
+        <v>2489</v>
       </c>
       <c r="L15">
-        <v>0.6219</v>
+        <v>0.6559</v>
       </c>
       <c r="M15">
-        <v>0.4461</v>
+        <v>0.4708</v>
       </c>
     </row>
     <row r="16">
@@ -1087,23 +1087,23 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I16">
-        <v>492</v>
+        <v>600</v>
       </c>
       <c r="J16">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="K16">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="L16">
-        <v>0.5528</v>
+        <v>0.5767</v>
       </c>
       <c r="M16">
-        <v>0.374</v>
+        <v>0.3983</v>
       </c>
     </row>
     <row r="17">
@@ -1134,23 +1134,23 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I17">
-        <v>32815</v>
+        <v>35938</v>
       </c>
       <c r="J17">
-        <v>21226</v>
+        <v>23510</v>
       </c>
       <c r="K17">
-        <v>12334</v>
+        <v>14565</v>
       </c>
       <c r="L17">
-        <v>0.6468</v>
+        <v>0.6542</v>
       </c>
       <c r="M17">
-        <v>0.3759</v>
+        <v>0.4053</v>
       </c>
     </row>
     <row r="18">
@@ -1181,23 +1181,23 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I18">
-        <v>897</v>
+        <v>990</v>
       </c>
       <c r="J18">
-        <v>579</v>
+        <v>639</v>
       </c>
       <c r="K18">
-        <v>483</v>
+        <v>582</v>
       </c>
       <c r="L18">
         <v>0.6455</v>
       </c>
       <c r="M18">
-        <v>0.5385</v>
+        <v>0.5879</v>
       </c>
     </row>
     <row r="19">
@@ -1228,23 +1228,23 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I19">
-        <v>651</v>
+        <v>744</v>
       </c>
       <c r="J19">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="K19">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="L19">
-        <v>0.4731</v>
+        <v>0.4919</v>
       </c>
       <c r="M19">
-        <v>0.4025</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="20">
@@ -1275,23 +1275,23 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I20">
-        <v>15842</v>
+        <v>16489</v>
       </c>
       <c r="J20">
-        <v>11004</v>
+        <v>11485</v>
       </c>
       <c r="K20">
-        <v>5460</v>
+        <v>6117</v>
       </c>
       <c r="L20">
-        <v>0.6946</v>
+        <v>0.6965</v>
       </c>
       <c r="M20">
-        <v>0.3447</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="21">
@@ -1322,23 +1322,23 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I21">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="J21">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K21">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="L21">
-        <v>0.4708</v>
+        <v>0.4774</v>
       </c>
       <c r="M21">
-        <v>0.4599</v>
+        <v>0.4935</v>
       </c>
     </row>
     <row r="22">
@@ -1369,23 +1369,23 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I22">
-        <v>812</v>
+        <v>874</v>
       </c>
       <c r="J22">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="K22">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="L22">
-        <v>0.5948</v>
+        <v>0.5938</v>
       </c>
       <c r="M22">
-        <v>0.3485</v>
+        <v>0.3924</v>
       </c>
     </row>
     <row r="23">
@@ -1416,23 +1416,23 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I23">
-        <v>1197</v>
+        <v>1269</v>
       </c>
       <c r="J23">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="K23">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="L23">
-        <v>0.5856</v>
+        <v>0.58</v>
       </c>
       <c r="M23">
-        <v>0.3442</v>
+        <v>0.3767</v>
       </c>
     </row>
     <row r="24">
@@ -1463,23 +1463,23 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I24">
-        <v>2022</v>
+        <v>2623</v>
       </c>
       <c r="J24">
-        <v>1180</v>
+        <v>1561</v>
       </c>
       <c r="K24">
-        <v>798</v>
+        <v>1074</v>
       </c>
       <c r="L24">
-        <v>0.5836</v>
+        <v>0.5951</v>
       </c>
       <c r="M24">
-        <v>0.3947</v>
+        <v>0.4095</v>
       </c>
     </row>
     <row r="25">
@@ -1510,23 +1510,23 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I25">
-        <v>845</v>
+        <v>964</v>
       </c>
       <c r="J25">
-        <v>562</v>
+        <v>653</v>
       </c>
       <c r="K25">
-        <v>354</v>
+        <v>464</v>
       </c>
       <c r="L25">
-        <v>0.6651</v>
+        <v>0.6774</v>
       </c>
       <c r="M25">
-        <v>0.4189</v>
+        <v>0.4813</v>
       </c>
     </row>
     <row r="26">
@@ -1557,23 +1557,23 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I26">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="J26">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="K26">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L26">
-        <v>0.4399</v>
+        <v>0.4585</v>
       </c>
       <c r="M26">
-        <v>0.4684</v>
+        <v>0.4785</v>
       </c>
     </row>
     <row r="27">
@@ -1604,23 +1604,23 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I27">
-        <v>2575</v>
+        <v>2756</v>
       </c>
       <c r="J27">
-        <v>1684</v>
+        <v>1803</v>
       </c>
       <c r="K27">
-        <v>832</v>
+        <v>975</v>
       </c>
       <c r="L27">
-        <v>0.654</v>
+        <v>0.6542</v>
       </c>
       <c r="M27">
-        <v>0.3231</v>
+        <v>0.3538</v>
       </c>
     </row>
     <row r="28">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I28">
@@ -1698,23 +1698,23 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I29">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="J29">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K29">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="L29">
-        <v>0.506</v>
+        <v>0.5165999999999999</v>
       </c>
       <c r="M29">
-        <v>0.4627</v>
+        <v>0.4901</v>
       </c>
     </row>
     <row r="30">
@@ -1745,23 +1745,23 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I30">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="J30">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="K30">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="L30">
-        <v>0.3842</v>
+        <v>0.4186</v>
       </c>
       <c r="M30">
-        <v>0.4802</v>
+        <v>0.5078</v>
       </c>
     </row>
     <row r="31">
@@ -1792,23 +1792,23 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I31">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="J31">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="K31">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="L31">
-        <v>0.4973</v>
+        <v>0.521</v>
       </c>
       <c r="M31">
-        <v>0.426</v>
+        <v>0.4773</v>
       </c>
     </row>
     <row r="32">
@@ -1839,23 +1839,23 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I32">
-        <v>1098</v>
+        <v>1357</v>
       </c>
       <c r="J32">
-        <v>753</v>
+        <v>970</v>
       </c>
       <c r="K32">
-        <v>386</v>
+        <v>502</v>
       </c>
       <c r="L32">
-        <v>0.6858</v>
+        <v>0.7148</v>
       </c>
       <c r="M32">
-        <v>0.3515</v>
+        <v>0.3699</v>
       </c>
     </row>
     <row r="33">
@@ -1886,23 +1886,23 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I33">
-        <v>4589</v>
+        <v>5287</v>
       </c>
       <c r="J33">
-        <v>2854</v>
+        <v>3468</v>
       </c>
       <c r="K33">
-        <v>2047</v>
+        <v>2489</v>
       </c>
       <c r="L33">
-        <v>0.6219</v>
+        <v>0.6559</v>
       </c>
       <c r="M33">
-        <v>0.4461</v>
+        <v>0.4708</v>
       </c>
     </row>
     <row r="34">
@@ -1933,23 +1933,23 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I34">
-        <v>492</v>
+        <v>600</v>
       </c>
       <c r="J34">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="K34">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="L34">
-        <v>0.5528</v>
+        <v>0.5767</v>
       </c>
       <c r="M34">
-        <v>0.374</v>
+        <v>0.3983</v>
       </c>
     </row>
     <row r="35">
@@ -1980,23 +1980,23 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I35">
-        <v>32815</v>
+        <v>35938</v>
       </c>
       <c r="J35">
-        <v>21226</v>
+        <v>23510</v>
       </c>
       <c r="K35">
-        <v>12334</v>
+        <v>14565</v>
       </c>
       <c r="L35">
-        <v>0.6468</v>
+        <v>0.6542</v>
       </c>
       <c r="M35">
-        <v>0.3759</v>
+        <v>0.4053</v>
       </c>
     </row>
     <row r="36">
@@ -2027,23 +2027,23 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I36">
-        <v>897</v>
+        <v>990</v>
       </c>
       <c r="J36">
-        <v>579</v>
+        <v>639</v>
       </c>
       <c r="K36">
-        <v>483</v>
+        <v>582</v>
       </c>
       <c r="L36">
         <v>0.6455</v>
       </c>
       <c r="M36">
-        <v>0.5385</v>
+        <v>0.5879</v>
       </c>
     </row>
     <row r="37">
@@ -2074,23 +2074,23 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I37">
-        <v>651</v>
+        <v>744</v>
       </c>
       <c r="J37">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="K37">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="L37">
-        <v>0.4731</v>
+        <v>0.4919</v>
       </c>
       <c r="M37">
-        <v>0.4025</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="38">
@@ -2121,23 +2121,23 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I38">
-        <v>4589</v>
+        <v>5287</v>
       </c>
       <c r="J38">
-        <v>2854</v>
+        <v>3468</v>
       </c>
       <c r="K38">
-        <v>2047</v>
+        <v>2489</v>
       </c>
       <c r="L38">
-        <v>0.6219</v>
+        <v>0.6559</v>
       </c>
       <c r="M38">
-        <v>0.4461</v>
+        <v>0.4708</v>
       </c>
     </row>
     <row r="39">
@@ -2168,23 +2168,23 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I39">
-        <v>492</v>
+        <v>600</v>
       </c>
       <c r="J39">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="K39">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="L39">
-        <v>0.5528</v>
+        <v>0.5767</v>
       </c>
       <c r="M39">
-        <v>0.374</v>
+        <v>0.3983</v>
       </c>
     </row>
     <row r="40">
@@ -2215,23 +2215,23 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I40">
-        <v>32815</v>
+        <v>35938</v>
       </c>
       <c r="J40">
-        <v>21226</v>
+        <v>23510</v>
       </c>
       <c r="K40">
-        <v>12334</v>
+        <v>14565</v>
       </c>
       <c r="L40">
-        <v>0.6468</v>
+        <v>0.6542</v>
       </c>
       <c r="M40">
-        <v>0.3759</v>
+        <v>0.4053</v>
       </c>
     </row>
     <row r="41">
@@ -2262,23 +2262,23 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I41">
-        <v>897</v>
+        <v>990</v>
       </c>
       <c r="J41">
-        <v>579</v>
+        <v>639</v>
       </c>
       <c r="K41">
-        <v>483</v>
+        <v>582</v>
       </c>
       <c r="L41">
         <v>0.6455</v>
       </c>
       <c r="M41">
-        <v>0.5385</v>
+        <v>0.5879</v>
       </c>
     </row>
     <row r="42">
@@ -2309,23 +2309,23 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I42">
-        <v>651</v>
+        <v>744</v>
       </c>
       <c r="J42">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="K42">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="L42">
-        <v>0.4731</v>
+        <v>0.4919</v>
       </c>
       <c r="M42">
-        <v>0.4025</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="43">
@@ -2356,23 +2356,23 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I43">
-        <v>15842</v>
+        <v>16489</v>
       </c>
       <c r="J43">
-        <v>11004</v>
+        <v>11485</v>
       </c>
       <c r="K43">
-        <v>5460</v>
+        <v>6117</v>
       </c>
       <c r="L43">
-        <v>0.6946</v>
+        <v>0.6965</v>
       </c>
       <c r="M43">
-        <v>0.3447</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="44">
@@ -2403,23 +2403,23 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I44">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="J44">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K44">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="L44">
-        <v>0.4708</v>
+        <v>0.4774</v>
       </c>
       <c r="M44">
-        <v>0.4599</v>
+        <v>0.4935</v>
       </c>
     </row>
     <row r="45">
@@ -2450,23 +2450,23 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I45">
-        <v>812</v>
+        <v>874</v>
       </c>
       <c r="J45">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="K45">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="L45">
-        <v>0.5948</v>
+        <v>0.5938</v>
       </c>
       <c r="M45">
-        <v>0.3485</v>
+        <v>0.3924</v>
       </c>
     </row>
     <row r="46">
@@ -2497,23 +2497,23 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I46">
-        <v>1197</v>
+        <v>1269</v>
       </c>
       <c r="J46">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="K46">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="L46">
-        <v>0.5856</v>
+        <v>0.58</v>
       </c>
       <c r="M46">
-        <v>0.3442</v>
+        <v>0.3767</v>
       </c>
     </row>
     <row r="47">
@@ -2544,23 +2544,23 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I47">
-        <v>2022</v>
+        <v>2623</v>
       </c>
       <c r="J47">
-        <v>1180</v>
+        <v>1561</v>
       </c>
       <c r="K47">
-        <v>798</v>
+        <v>1074</v>
       </c>
       <c r="L47">
-        <v>0.5836</v>
+        <v>0.5951</v>
       </c>
       <c r="M47">
-        <v>0.3947</v>
+        <v>0.4095</v>
       </c>
     </row>
     <row r="48">
@@ -2591,23 +2591,23 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I48">
-        <v>845</v>
+        <v>964</v>
       </c>
       <c r="J48">
-        <v>562</v>
+        <v>653</v>
       </c>
       <c r="K48">
-        <v>354</v>
+        <v>464</v>
       </c>
       <c r="L48">
-        <v>0.6651</v>
+        <v>0.6774</v>
       </c>
       <c r="M48">
-        <v>0.4189</v>
+        <v>0.4813</v>
       </c>
     </row>
     <row r="49">
@@ -2638,23 +2638,23 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I49">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="J49">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="K49">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L49">
-        <v>0.4399</v>
+        <v>0.4585</v>
       </c>
       <c r="M49">
-        <v>0.4684</v>
+        <v>0.4785</v>
       </c>
     </row>
     <row r="50">
@@ -2685,23 +2685,23 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I50">
-        <v>2575</v>
+        <v>2756</v>
       </c>
       <c r="J50">
-        <v>1684</v>
+        <v>1803</v>
       </c>
       <c r="K50">
-        <v>832</v>
+        <v>975</v>
       </c>
       <c r="L50">
-        <v>0.654</v>
+        <v>0.6542</v>
       </c>
       <c r="M50">
-        <v>0.3231</v>
+        <v>0.3538</v>
       </c>
     </row>
     <row r="51">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I51">
@@ -2773,23 +2773,23 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I52">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="J52">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K52">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="L52">
-        <v>0.506</v>
+        <v>0.5165999999999999</v>
       </c>
       <c r="M52">
-        <v>0.4627</v>
+        <v>0.4901</v>
       </c>
     </row>
     <row r="53">
@@ -2820,23 +2820,23 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I53">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="J53">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="K53">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="L53">
-        <v>0.3842</v>
+        <v>0.4186</v>
       </c>
       <c r="M53">
-        <v>0.4802</v>
+        <v>0.5078</v>
       </c>
     </row>
     <row r="54">
@@ -2867,23 +2867,23 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I54">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="J54">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="K54">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="L54">
-        <v>0.4973</v>
+        <v>0.521</v>
       </c>
       <c r="M54">
-        <v>0.426</v>
+        <v>0.4773</v>
       </c>
     </row>
     <row r="55">
@@ -2914,23 +2914,23 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I55">
-        <v>1098</v>
+        <v>1357</v>
       </c>
       <c r="J55">
-        <v>753</v>
+        <v>970</v>
       </c>
       <c r="K55">
-        <v>386</v>
+        <v>502</v>
       </c>
       <c r="L55">
-        <v>0.6858</v>
+        <v>0.7148</v>
       </c>
       <c r="M55">
-        <v>0.3515</v>
+        <v>0.3699</v>
       </c>
     </row>
     <row r="56">
@@ -2961,23 +2961,23 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I56">
-        <v>15842</v>
+        <v>16489</v>
       </c>
       <c r="J56">
-        <v>11004</v>
+        <v>11485</v>
       </c>
       <c r="K56">
-        <v>5460</v>
+        <v>6117</v>
       </c>
       <c r="L56">
-        <v>0.6946</v>
+        <v>0.6965</v>
       </c>
       <c r="M56">
-        <v>0.3447</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="57">
@@ -3008,23 +3008,23 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I57">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="J57">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K57">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="L57">
-        <v>0.4708</v>
+        <v>0.4774</v>
       </c>
       <c r="M57">
-        <v>0.4599</v>
+        <v>0.4935</v>
       </c>
     </row>
     <row r="58">
@@ -3055,23 +3055,23 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I58">
-        <v>812</v>
+        <v>874</v>
       </c>
       <c r="J58">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="K58">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="L58">
-        <v>0.5948</v>
+        <v>0.5938</v>
       </c>
       <c r="M58">
-        <v>0.3485</v>
+        <v>0.3924</v>
       </c>
     </row>
     <row r="59">
@@ -3102,23 +3102,23 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I59">
-        <v>1197</v>
+        <v>1269</v>
       </c>
       <c r="J59">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="K59">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="L59">
-        <v>0.5856</v>
+        <v>0.58</v>
       </c>
       <c r="M59">
-        <v>0.3442</v>
+        <v>0.3767</v>
       </c>
     </row>
     <row r="60">
@@ -3149,23 +3149,23 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I60">
-        <v>2022</v>
+        <v>2623</v>
       </c>
       <c r="J60">
-        <v>1180</v>
+        <v>1561</v>
       </c>
       <c r="K60">
-        <v>798</v>
+        <v>1074</v>
       </c>
       <c r="L60">
-        <v>0.5836</v>
+        <v>0.5951</v>
       </c>
       <c r="M60">
-        <v>0.3947</v>
+        <v>0.4095</v>
       </c>
     </row>
     <row r="61">
@@ -3196,23 +3196,23 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I61">
-        <v>845</v>
+        <v>964</v>
       </c>
       <c r="J61">
-        <v>562</v>
+        <v>653</v>
       </c>
       <c r="K61">
-        <v>354</v>
+        <v>464</v>
       </c>
       <c r="L61">
-        <v>0.6651</v>
+        <v>0.6774</v>
       </c>
       <c r="M61">
-        <v>0.4189</v>
+        <v>0.4813</v>
       </c>
     </row>
     <row r="62">
@@ -3243,23 +3243,23 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I62">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="J62">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="K62">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L62">
-        <v>0.4399</v>
+        <v>0.4585</v>
       </c>
       <c r="M62">
-        <v>0.4684</v>
+        <v>0.4785</v>
       </c>
     </row>
     <row r="63">
@@ -3290,23 +3290,23 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I63">
-        <v>2575</v>
+        <v>2756</v>
       </c>
       <c r="J63">
-        <v>1684</v>
+        <v>1803</v>
       </c>
       <c r="K63">
-        <v>832</v>
+        <v>975</v>
       </c>
       <c r="L63">
-        <v>0.654</v>
+        <v>0.6542</v>
       </c>
       <c r="M63">
-        <v>0.3231</v>
+        <v>0.3538</v>
       </c>
     </row>
     <row r="64">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I64">
@@ -3378,23 +3378,23 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I65">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="J65">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K65">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="L65">
-        <v>0.506</v>
+        <v>0.5165999999999999</v>
       </c>
       <c r="M65">
-        <v>0.4627</v>
+        <v>0.4901</v>
       </c>
     </row>
     <row r="66">
@@ -3425,23 +3425,23 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I66">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="J66">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="K66">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="L66">
-        <v>0.3842</v>
+        <v>0.4186</v>
       </c>
       <c r="M66">
-        <v>0.4802</v>
+        <v>0.5078</v>
       </c>
     </row>
     <row r="67">
@@ -3472,23 +3472,23 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I67">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="J67">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="K67">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="L67">
-        <v>0.4973</v>
+        <v>0.521</v>
       </c>
       <c r="M67">
-        <v>0.426</v>
+        <v>0.4773</v>
       </c>
     </row>
     <row r="68">
@@ -3519,23 +3519,23 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I68">
-        <v>1098</v>
+        <v>1357</v>
       </c>
       <c r="J68">
-        <v>753</v>
+        <v>970</v>
       </c>
       <c r="K68">
-        <v>386</v>
+        <v>502</v>
       </c>
       <c r="L68">
-        <v>0.6858</v>
+        <v>0.7148</v>
       </c>
       <c r="M68">
-        <v>0.3515</v>
+        <v>0.3699</v>
       </c>
     </row>
     <row r="69">
@@ -3566,23 +3566,23 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I69">
-        <v>4589</v>
+        <v>5287</v>
       </c>
       <c r="J69">
-        <v>2854</v>
+        <v>3468</v>
       </c>
       <c r="K69">
-        <v>2047</v>
+        <v>2489</v>
       </c>
       <c r="L69">
-        <v>0.6219</v>
+        <v>0.6559</v>
       </c>
       <c r="M69">
-        <v>0.4461</v>
+        <v>0.4708</v>
       </c>
     </row>
     <row r="70">
@@ -3613,23 +3613,23 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I70">
-        <v>492</v>
+        <v>600</v>
       </c>
       <c r="J70">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="K70">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="L70">
-        <v>0.5528</v>
+        <v>0.5767</v>
       </c>
       <c r="M70">
-        <v>0.374</v>
+        <v>0.3983</v>
       </c>
     </row>
     <row r="71">
@@ -3660,23 +3660,23 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I71">
-        <v>32815</v>
+        <v>35938</v>
       </c>
       <c r="J71">
-        <v>21226</v>
+        <v>23510</v>
       </c>
       <c r="K71">
-        <v>12334</v>
+        <v>14565</v>
       </c>
       <c r="L71">
-        <v>0.6468</v>
+        <v>0.6542</v>
       </c>
       <c r="M71">
-        <v>0.3759</v>
+        <v>0.4053</v>
       </c>
     </row>
     <row r="72">
@@ -3707,23 +3707,23 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I72">
-        <v>897</v>
+        <v>990</v>
       </c>
       <c r="J72">
-        <v>579</v>
+        <v>639</v>
       </c>
       <c r="K72">
-        <v>483</v>
+        <v>582</v>
       </c>
       <c r="L72">
         <v>0.6455</v>
       </c>
       <c r="M72">
-        <v>0.5385</v>
+        <v>0.5879</v>
       </c>
     </row>
     <row r="73">
@@ -3754,23 +3754,863 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I73">
-        <v>651</v>
+        <v>744</v>
       </c>
       <c r="J73">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="K73">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="L73">
-        <v>0.4731</v>
+        <v>0.4919</v>
       </c>
       <c r="M73">
-        <v>0.4025</v>
+        <v>0.4422</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>725</v>
+      </c>
+      <c r="D74">
+        <v>633</v>
+      </c>
+      <c r="E74">
+        <v>304</v>
+      </c>
+      <c r="F74">
+        <v>0.8731</v>
+      </c>
+      <c r="G74">
+        <v>0.4193</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I74">
+        <v>5287</v>
+      </c>
+      <c r="J74">
+        <v>3468</v>
+      </c>
+      <c r="K74">
+        <v>2489</v>
+      </c>
+      <c r="L74">
+        <v>0.6559</v>
+      </c>
+      <c r="M74">
+        <v>0.4708</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>111</v>
+      </c>
+      <c r="D75">
+        <v>77</v>
+      </c>
+      <c r="E75">
+        <v>36</v>
+      </c>
+      <c r="F75">
+        <v>0.6937</v>
+      </c>
+      <c r="G75">
+        <v>0.3243</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I75">
+        <v>600</v>
+      </c>
+      <c r="J75">
+        <v>346</v>
+      </c>
+      <c r="K75">
+        <v>239</v>
+      </c>
+      <c r="L75">
+        <v>0.5767</v>
+      </c>
+      <c r="M75">
+        <v>0.3983</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>3351</v>
+      </c>
+      <c r="D76">
+        <v>2449</v>
+      </c>
+      <c r="E76">
+        <v>1258</v>
+      </c>
+      <c r="F76">
+        <v>0.7308</v>
+      </c>
+      <c r="G76">
+        <v>0.3754</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I76">
+        <v>35938</v>
+      </c>
+      <c r="J76">
+        <v>23510</v>
+      </c>
+      <c r="K76">
+        <v>14565</v>
+      </c>
+      <c r="L76">
+        <v>0.6542</v>
+      </c>
+      <c r="M76">
+        <v>0.4053</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>81</v>
+      </c>
+      <c r="D77">
+        <v>56</v>
+      </c>
+      <c r="E77">
+        <v>49</v>
+      </c>
+      <c r="F77">
+        <v>0.6914</v>
+      </c>
+      <c r="G77">
+        <v>0.6049</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I77">
+        <v>990</v>
+      </c>
+      <c r="J77">
+        <v>639</v>
+      </c>
+      <c r="K77">
+        <v>582</v>
+      </c>
+      <c r="L77">
+        <v>0.6455</v>
+      </c>
+      <c r="M77">
+        <v>0.5879</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>100</v>
+      </c>
+      <c r="D78">
+        <v>65</v>
+      </c>
+      <c r="E78">
+        <v>39</v>
+      </c>
+      <c r="F78">
+        <v>0.65</v>
+      </c>
+      <c r="G78">
+        <v>0.39</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I78">
+        <v>744</v>
+      </c>
+      <c r="J78">
+        <v>366</v>
+      </c>
+      <c r="K78">
+        <v>329</v>
+      </c>
+      <c r="L78">
+        <v>0.4919</v>
+      </c>
+      <c r="M78">
+        <v>0.4422</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>741</v>
+      </c>
+      <c r="D79">
+        <v>555</v>
+      </c>
+      <c r="E79">
+        <v>276</v>
+      </c>
+      <c r="F79">
+        <v>0.749</v>
+      </c>
+      <c r="G79">
+        <v>0.3725</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I79">
+        <v>16489</v>
+      </c>
+      <c r="J79">
+        <v>11485</v>
+      </c>
+      <c r="K79">
+        <v>6117</v>
+      </c>
+      <c r="L79">
+        <v>0.6965</v>
+      </c>
+      <c r="M79">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>35</v>
+      </c>
+      <c r="D80">
+        <v>19</v>
+      </c>
+      <c r="E80">
+        <v>17</v>
+      </c>
+      <c r="F80">
+        <v>0.5429</v>
+      </c>
+      <c r="G80">
+        <v>0.4857</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I80">
+        <v>310</v>
+      </c>
+      <c r="J80">
+        <v>148</v>
+      </c>
+      <c r="K80">
+        <v>153</v>
+      </c>
+      <c r="L80">
+        <v>0.4774</v>
+      </c>
+      <c r="M80">
+        <v>0.4935</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>100</v>
+      </c>
+      <c r="D81">
+        <v>62</v>
+      </c>
+      <c r="E81">
+        <v>37</v>
+      </c>
+      <c r="F81">
+        <v>0.62</v>
+      </c>
+      <c r="G81">
+        <v>0.37</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I81">
+        <v>874</v>
+      </c>
+      <c r="J81">
+        <v>519</v>
+      </c>
+      <c r="K81">
+        <v>343</v>
+      </c>
+      <c r="L81">
+        <v>0.5938</v>
+      </c>
+      <c r="M81">
+        <v>0.3924</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>71</v>
+      </c>
+      <c r="D82">
+        <v>39</v>
+      </c>
+      <c r="E82">
+        <v>26</v>
+      </c>
+      <c r="F82">
+        <v>0.5493</v>
+      </c>
+      <c r="G82">
+        <v>0.3662</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I82">
+        <v>1269</v>
+      </c>
+      <c r="J82">
+        <v>736</v>
+      </c>
+      <c r="K82">
+        <v>478</v>
+      </c>
+      <c r="L82">
+        <v>0.58</v>
+      </c>
+      <c r="M82">
+        <v>0.3767</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>613</v>
+      </c>
+      <c r="D83">
+        <v>383</v>
+      </c>
+      <c r="E83">
+        <v>189</v>
+      </c>
+      <c r="F83">
+        <v>0.6248</v>
+      </c>
+      <c r="G83">
+        <v>0.3083</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I83">
+        <v>2623</v>
+      </c>
+      <c r="J83">
+        <v>1561</v>
+      </c>
+      <c r="K83">
+        <v>1074</v>
+      </c>
+      <c r="L83">
+        <v>0.5951</v>
+      </c>
+      <c r="M83">
+        <v>0.4095</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>126</v>
+      </c>
+      <c r="D84">
+        <v>95</v>
+      </c>
+      <c r="E84">
+        <v>77</v>
+      </c>
+      <c r="F84">
+        <v>0.754</v>
+      </c>
+      <c r="G84">
+        <v>0.6111</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I84">
+        <v>964</v>
+      </c>
+      <c r="J84">
+        <v>653</v>
+      </c>
+      <c r="K84">
+        <v>464</v>
+      </c>
+      <c r="L84">
+        <v>0.6774</v>
+      </c>
+      <c r="M84">
+        <v>0.4813</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>36</v>
+      </c>
+      <c r="D85">
+        <v>22</v>
+      </c>
+      <c r="E85">
+        <v>13</v>
+      </c>
+      <c r="F85">
+        <v>0.6111</v>
+      </c>
+      <c r="G85">
+        <v>0.3611</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I85">
+        <v>349</v>
+      </c>
+      <c r="J85">
+        <v>160</v>
+      </c>
+      <c r="K85">
+        <v>167</v>
+      </c>
+      <c r="L85">
+        <v>0.4585</v>
+      </c>
+      <c r="M85">
+        <v>0.4785</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>191</v>
+      </c>
+      <c r="D86">
+        <v>126</v>
+      </c>
+      <c r="E86">
+        <v>58</v>
+      </c>
+      <c r="F86">
+        <v>0.6597</v>
+      </c>
+      <c r="G86">
+        <v>0.3037</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I86">
+        <v>2756</v>
+      </c>
+      <c r="J86">
+        <v>1803</v>
+      </c>
+      <c r="K86">
+        <v>975</v>
+      </c>
+      <c r="L86">
+        <v>0.6542</v>
+      </c>
+      <c r="M86">
+        <v>0.3538</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>41</v>
+      </c>
+      <c r="D88">
+        <v>25</v>
+      </c>
+      <c r="E88">
+        <v>14</v>
+      </c>
+      <c r="F88">
+        <v>0.6098</v>
+      </c>
+      <c r="G88">
+        <v>0.3415</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I88">
+        <v>453</v>
+      </c>
+      <c r="J88">
+        <v>234</v>
+      </c>
+      <c r="K88">
+        <v>222</v>
+      </c>
+      <c r="L88">
+        <v>0.5165999999999999</v>
+      </c>
+      <c r="M88">
+        <v>0.4901</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>82</v>
+      </c>
+      <c r="D89">
+        <v>42</v>
+      </c>
+      <c r="E89">
+        <v>30</v>
+      </c>
+      <c r="F89">
+        <v>0.5122</v>
+      </c>
+      <c r="G89">
+        <v>0.3659</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I89">
+        <v>258</v>
+      </c>
+      <c r="J89">
+        <v>108</v>
+      </c>
+      <c r="K89">
+        <v>131</v>
+      </c>
+      <c r="L89">
+        <v>0.4186</v>
+      </c>
+      <c r="M89">
+        <v>0.5078</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>45</v>
+      </c>
+      <c r="D90">
+        <v>37</v>
+      </c>
+      <c r="E90">
+        <v>35</v>
+      </c>
+      <c r="F90">
+        <v>0.8222</v>
+      </c>
+      <c r="G90">
+        <v>0.7778</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I90">
+        <v>595</v>
+      </c>
+      <c r="J90">
+        <v>310</v>
+      </c>
+      <c r="K90">
+        <v>284</v>
+      </c>
+      <c r="L90">
+        <v>0.521</v>
+      </c>
+      <c r="M90">
+        <v>0.4773</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>253</v>
+      </c>
+      <c r="D91">
+        <v>213</v>
+      </c>
+      <c r="E91">
+        <v>58</v>
+      </c>
+      <c r="F91">
+        <v>0.8419</v>
+      </c>
+      <c r="G91">
+        <v>0.2292</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2020-03-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="I91">
+        <v>1357</v>
+      </c>
+      <c r="J91">
+        <v>970</v>
+      </c>
+      <c r="K91">
+        <v>502</v>
+      </c>
+      <c r="L91">
+        <v>0.7148</v>
+      </c>
+      <c r="M91">
+        <v>0.3699</v>
       </c>
     </row>
   </sheetData>

--- a/data/学习数据.xlsx
+++ b/data/学习数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,23 +441,23 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I2">
-        <v>16489</v>
+        <v>17946</v>
       </c>
       <c r="J2">
-        <v>11485</v>
+        <v>12590</v>
       </c>
       <c r="K2">
-        <v>6117</v>
+        <v>6878</v>
       </c>
       <c r="L2">
-        <v>0.6965</v>
+        <v>0.7015</v>
       </c>
       <c r="M2">
-        <v>0.371</v>
+        <v>0.3833</v>
       </c>
     </row>
     <row r="3">
@@ -488,23 +488,23 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I3">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="J3">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="K3">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="L3">
-        <v>0.4774</v>
+        <v>0.4901</v>
       </c>
       <c r="M3">
-        <v>0.4935</v>
+        <v>0.5099</v>
       </c>
     </row>
     <row r="4">
@@ -535,23 +535,23 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I4">
-        <v>874</v>
+        <v>975</v>
       </c>
       <c r="J4">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="K4">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="L4">
-        <v>0.5938</v>
+        <v>0.5651</v>
       </c>
       <c r="M4">
-        <v>0.3924</v>
+        <v>0.4297</v>
       </c>
     </row>
     <row r="5">
@@ -582,23 +582,23 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I5">
-        <v>1269</v>
+        <v>1534</v>
       </c>
       <c r="J5">
-        <v>736</v>
+        <v>884</v>
       </c>
       <c r="K5">
-        <v>478</v>
+        <v>572</v>
       </c>
       <c r="L5">
-        <v>0.58</v>
+        <v>0.5763</v>
       </c>
       <c r="M5">
-        <v>0.3767</v>
+        <v>0.3729</v>
       </c>
     </row>
     <row r="6">
@@ -629,23 +629,23 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I6">
-        <v>2623</v>
+        <v>3680</v>
       </c>
       <c r="J6">
-        <v>1561</v>
+        <v>2290</v>
       </c>
       <c r="K6">
-        <v>1074</v>
+        <v>1814</v>
       </c>
       <c r="L6">
-        <v>0.5951</v>
+        <v>0.6223</v>
       </c>
       <c r="M6">
-        <v>0.4095</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="7">
@@ -676,23 +676,23 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I7">
-        <v>964</v>
+        <v>1138</v>
       </c>
       <c r="J7">
-        <v>653</v>
+        <v>784</v>
       </c>
       <c r="K7">
-        <v>464</v>
+        <v>628</v>
       </c>
       <c r="L7">
-        <v>0.6774</v>
+        <v>0.6889</v>
       </c>
       <c r="M7">
-        <v>0.4813</v>
+        <v>0.5518</v>
       </c>
     </row>
     <row r="8">
@@ -723,23 +723,23 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I8">
-        <v>349</v>
+        <v>542</v>
       </c>
       <c r="J8">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="K8">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="L8">
-        <v>0.4585</v>
+        <v>0.5129</v>
       </c>
       <c r="M8">
-        <v>0.4785</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="9">
@@ -770,23 +770,23 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I9">
-        <v>2756</v>
+        <v>3294</v>
       </c>
       <c r="J9">
-        <v>1803</v>
+        <v>2131</v>
       </c>
       <c r="K9">
-        <v>975</v>
+        <v>1181</v>
       </c>
       <c r="L9">
-        <v>0.6542</v>
+        <v>0.6469</v>
       </c>
       <c r="M9">
-        <v>0.3538</v>
+        <v>0.3585</v>
       </c>
     </row>
     <row r="10">
@@ -811,7 +811,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I10">
@@ -858,23 +858,23 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I11">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="J11">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="K11">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="L11">
-        <v>0.5165999999999999</v>
+        <v>0.5282</v>
       </c>
       <c r="M11">
-        <v>0.4901</v>
+        <v>0.5101</v>
       </c>
     </row>
     <row r="12">
@@ -905,23 +905,23 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I12">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="J12">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="K12">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="L12">
-        <v>0.4186</v>
+        <v>0.4404</v>
       </c>
       <c r="M12">
-        <v>0.5078</v>
+        <v>0.5415</v>
       </c>
     </row>
     <row r="13">
@@ -952,23 +952,23 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I13">
-        <v>595</v>
+        <v>695</v>
       </c>
       <c r="J13">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="K13">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="L13">
-        <v>0.521</v>
+        <v>0.5324</v>
       </c>
       <c r="M13">
-        <v>0.4773</v>
+        <v>0.4921</v>
       </c>
     </row>
     <row r="14">
@@ -999,23 +999,23 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I14">
-        <v>1357</v>
+        <v>1515</v>
       </c>
       <c r="J14">
-        <v>970</v>
+        <v>1054</v>
       </c>
       <c r="K14">
-        <v>502</v>
+        <v>612</v>
       </c>
       <c r="L14">
-        <v>0.7148</v>
+        <v>0.6957</v>
       </c>
       <c r="M14">
-        <v>0.3699</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="15">
@@ -1046,23 +1046,23 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I15">
-        <v>5287</v>
+        <v>5839</v>
       </c>
       <c r="J15">
-        <v>3468</v>
+        <v>3915</v>
       </c>
       <c r="K15">
-        <v>2489</v>
+        <v>2885</v>
       </c>
       <c r="L15">
-        <v>0.6559</v>
+        <v>0.6705</v>
       </c>
       <c r="M15">
-        <v>0.4708</v>
+        <v>0.4941</v>
       </c>
     </row>
     <row r="16">
@@ -1087,23 +1087,23 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I16">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="J16">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="K16">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="L16">
-        <v>0.5767</v>
+        <v>0.5684</v>
       </c>
       <c r="M16">
-        <v>0.3983</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="17">
@@ -1134,23 +1134,23 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I17">
-        <v>35938</v>
+        <v>40840</v>
       </c>
       <c r="J17">
-        <v>23510</v>
+        <v>26882</v>
       </c>
       <c r="K17">
-        <v>14565</v>
+        <v>17476</v>
       </c>
       <c r="L17">
-        <v>0.6542</v>
+        <v>0.6582</v>
       </c>
       <c r="M17">
-        <v>0.4053</v>
+        <v>0.4279</v>
       </c>
     </row>
     <row r="18">
@@ -1181,23 +1181,23 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I18">
-        <v>990</v>
+        <v>1062</v>
       </c>
       <c r="J18">
-        <v>639</v>
+        <v>689</v>
       </c>
       <c r="K18">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="L18">
-        <v>0.6455</v>
+        <v>0.6488</v>
       </c>
       <c r="M18">
-        <v>0.5879</v>
+        <v>0.6139</v>
       </c>
     </row>
     <row r="19">
@@ -1228,23 +1228,23 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I19">
-        <v>744</v>
+        <v>788</v>
       </c>
       <c r="J19">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="K19">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="L19">
-        <v>0.4919</v>
+        <v>0.4911</v>
       </c>
       <c r="M19">
-        <v>0.4422</v>
+        <v>0.4619</v>
       </c>
     </row>
     <row r="20">
@@ -1275,23 +1275,23 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I20">
-        <v>16489</v>
+        <v>17946</v>
       </c>
       <c r="J20">
-        <v>11485</v>
+        <v>12590</v>
       </c>
       <c r="K20">
-        <v>6117</v>
+        <v>6878</v>
       </c>
       <c r="L20">
-        <v>0.6965</v>
+        <v>0.7015</v>
       </c>
       <c r="M20">
-        <v>0.371</v>
+        <v>0.3833</v>
       </c>
     </row>
     <row r="21">
@@ -1322,23 +1322,23 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I21">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="J21">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="K21">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="L21">
-        <v>0.4774</v>
+        <v>0.4901</v>
       </c>
       <c r="M21">
-        <v>0.4935</v>
+        <v>0.5099</v>
       </c>
     </row>
     <row r="22">
@@ -1369,23 +1369,23 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I22">
-        <v>874</v>
+        <v>975</v>
       </c>
       <c r="J22">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="K22">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="L22">
-        <v>0.5938</v>
+        <v>0.5651</v>
       </c>
       <c r="M22">
-        <v>0.3924</v>
+        <v>0.4297</v>
       </c>
     </row>
     <row r="23">
@@ -1416,23 +1416,23 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I23">
-        <v>1269</v>
+        <v>1534</v>
       </c>
       <c r="J23">
-        <v>736</v>
+        <v>884</v>
       </c>
       <c r="K23">
-        <v>478</v>
+        <v>572</v>
       </c>
       <c r="L23">
-        <v>0.58</v>
+        <v>0.5763</v>
       </c>
       <c r="M23">
-        <v>0.3767</v>
+        <v>0.3729</v>
       </c>
     </row>
     <row r="24">
@@ -1463,23 +1463,23 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I24">
-        <v>2623</v>
+        <v>3680</v>
       </c>
       <c r="J24">
-        <v>1561</v>
+        <v>2290</v>
       </c>
       <c r="K24">
-        <v>1074</v>
+        <v>1814</v>
       </c>
       <c r="L24">
-        <v>0.5951</v>
+        <v>0.6223</v>
       </c>
       <c r="M24">
-        <v>0.4095</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="25">
@@ -1510,23 +1510,23 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I25">
-        <v>964</v>
+        <v>1138</v>
       </c>
       <c r="J25">
-        <v>653</v>
+        <v>784</v>
       </c>
       <c r="K25">
-        <v>464</v>
+        <v>628</v>
       </c>
       <c r="L25">
-        <v>0.6774</v>
+        <v>0.6889</v>
       </c>
       <c r="M25">
-        <v>0.4813</v>
+        <v>0.5518</v>
       </c>
     </row>
     <row r="26">
@@ -1557,23 +1557,23 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I26">
-        <v>349</v>
+        <v>542</v>
       </c>
       <c r="J26">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="K26">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="L26">
-        <v>0.4585</v>
+        <v>0.5129</v>
       </c>
       <c r="M26">
-        <v>0.4785</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="27">
@@ -1604,23 +1604,23 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I27">
-        <v>2756</v>
+        <v>3294</v>
       </c>
       <c r="J27">
-        <v>1803</v>
+        <v>2131</v>
       </c>
       <c r="K27">
-        <v>975</v>
+        <v>1181</v>
       </c>
       <c r="L27">
-        <v>0.6542</v>
+        <v>0.6469</v>
       </c>
       <c r="M27">
-        <v>0.3538</v>
+        <v>0.3585</v>
       </c>
     </row>
     <row r="28">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I28">
@@ -1698,23 +1698,23 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I29">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="J29">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="K29">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="L29">
-        <v>0.5165999999999999</v>
+        <v>0.5282</v>
       </c>
       <c r="M29">
-        <v>0.4901</v>
+        <v>0.5101</v>
       </c>
     </row>
     <row r="30">
@@ -1745,23 +1745,23 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I30">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="J30">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="K30">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="L30">
-        <v>0.4186</v>
+        <v>0.4404</v>
       </c>
       <c r="M30">
-        <v>0.5078</v>
+        <v>0.5415</v>
       </c>
     </row>
     <row r="31">
@@ -1792,23 +1792,23 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I31">
-        <v>595</v>
+        <v>695</v>
       </c>
       <c r="J31">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="K31">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="L31">
-        <v>0.521</v>
+        <v>0.5324</v>
       </c>
       <c r="M31">
-        <v>0.4773</v>
+        <v>0.4921</v>
       </c>
     </row>
     <row r="32">
@@ -1839,23 +1839,23 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I32">
-        <v>1357</v>
+        <v>1515</v>
       </c>
       <c r="J32">
-        <v>970</v>
+        <v>1054</v>
       </c>
       <c r="K32">
-        <v>502</v>
+        <v>612</v>
       </c>
       <c r="L32">
-        <v>0.7148</v>
+        <v>0.6957</v>
       </c>
       <c r="M32">
-        <v>0.3699</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="33">
@@ -1886,23 +1886,23 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I33">
-        <v>5287</v>
+        <v>5839</v>
       </c>
       <c r="J33">
-        <v>3468</v>
+        <v>3915</v>
       </c>
       <c r="K33">
-        <v>2489</v>
+        <v>2885</v>
       </c>
       <c r="L33">
-        <v>0.6559</v>
+        <v>0.6705</v>
       </c>
       <c r="M33">
-        <v>0.4708</v>
+        <v>0.4941</v>
       </c>
     </row>
     <row r="34">
@@ -1933,23 +1933,23 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I34">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="J34">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="K34">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="L34">
-        <v>0.5767</v>
+        <v>0.5684</v>
       </c>
       <c r="M34">
-        <v>0.3983</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="35">
@@ -1980,23 +1980,23 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I35">
-        <v>35938</v>
+        <v>40840</v>
       </c>
       <c r="J35">
-        <v>23510</v>
+        <v>26882</v>
       </c>
       <c r="K35">
-        <v>14565</v>
+        <v>17476</v>
       </c>
       <c r="L35">
-        <v>0.6542</v>
+        <v>0.6582</v>
       </c>
       <c r="M35">
-        <v>0.4053</v>
+        <v>0.4279</v>
       </c>
     </row>
     <row r="36">
@@ -2027,23 +2027,23 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I36">
-        <v>990</v>
+        <v>1062</v>
       </c>
       <c r="J36">
-        <v>639</v>
+        <v>689</v>
       </c>
       <c r="K36">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="L36">
-        <v>0.6455</v>
+        <v>0.6488</v>
       </c>
       <c r="M36">
-        <v>0.5879</v>
+        <v>0.6139</v>
       </c>
     </row>
     <row r="37">
@@ -2074,23 +2074,23 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I37">
-        <v>744</v>
+        <v>788</v>
       </c>
       <c r="J37">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="K37">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="L37">
-        <v>0.4919</v>
+        <v>0.4911</v>
       </c>
       <c r="M37">
-        <v>0.4422</v>
+        <v>0.4619</v>
       </c>
     </row>
     <row r="38">
@@ -2121,23 +2121,23 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I38">
-        <v>5287</v>
+        <v>5839</v>
       </c>
       <c r="J38">
-        <v>3468</v>
+        <v>3915</v>
       </c>
       <c r="K38">
-        <v>2489</v>
+        <v>2885</v>
       </c>
       <c r="L38">
-        <v>0.6559</v>
+        <v>0.6705</v>
       </c>
       <c r="M38">
-        <v>0.4708</v>
+        <v>0.4941</v>
       </c>
     </row>
     <row r="39">
@@ -2168,23 +2168,23 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I39">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="J39">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="K39">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="L39">
-        <v>0.5767</v>
+        <v>0.5684</v>
       </c>
       <c r="M39">
-        <v>0.3983</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="40">
@@ -2215,23 +2215,23 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I40">
-        <v>35938</v>
+        <v>40840</v>
       </c>
       <c r="J40">
-        <v>23510</v>
+        <v>26882</v>
       </c>
       <c r="K40">
-        <v>14565</v>
+        <v>17476</v>
       </c>
       <c r="L40">
-        <v>0.6542</v>
+        <v>0.6582</v>
       </c>
       <c r="M40">
-        <v>0.4053</v>
+        <v>0.4279</v>
       </c>
     </row>
     <row r="41">
@@ -2262,23 +2262,23 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I41">
-        <v>990</v>
+        <v>1062</v>
       </c>
       <c r="J41">
-        <v>639</v>
+        <v>689</v>
       </c>
       <c r="K41">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="L41">
-        <v>0.6455</v>
+        <v>0.6488</v>
       </c>
       <c r="M41">
-        <v>0.5879</v>
+        <v>0.6139</v>
       </c>
     </row>
     <row r="42">
@@ -2309,23 +2309,23 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I42">
-        <v>744</v>
+        <v>788</v>
       </c>
       <c r="J42">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="K42">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="L42">
-        <v>0.4919</v>
+        <v>0.4911</v>
       </c>
       <c r="M42">
-        <v>0.4422</v>
+        <v>0.4619</v>
       </c>
     </row>
     <row r="43">
@@ -2356,23 +2356,23 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I43">
-        <v>16489</v>
+        <v>17946</v>
       </c>
       <c r="J43">
-        <v>11485</v>
+        <v>12590</v>
       </c>
       <c r="K43">
-        <v>6117</v>
+        <v>6878</v>
       </c>
       <c r="L43">
-        <v>0.6965</v>
+        <v>0.7015</v>
       </c>
       <c r="M43">
-        <v>0.371</v>
+        <v>0.3833</v>
       </c>
     </row>
     <row r="44">
@@ -2403,23 +2403,23 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I44">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="J44">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="K44">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="L44">
-        <v>0.4774</v>
+        <v>0.4901</v>
       </c>
       <c r="M44">
-        <v>0.4935</v>
+        <v>0.5099</v>
       </c>
     </row>
     <row r="45">
@@ -2450,23 +2450,23 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I45">
-        <v>874</v>
+        <v>975</v>
       </c>
       <c r="J45">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="K45">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="L45">
-        <v>0.5938</v>
+        <v>0.5651</v>
       </c>
       <c r="M45">
-        <v>0.3924</v>
+        <v>0.4297</v>
       </c>
     </row>
     <row r="46">
@@ -2497,23 +2497,23 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I46">
-        <v>1269</v>
+        <v>1534</v>
       </c>
       <c r="J46">
-        <v>736</v>
+        <v>884</v>
       </c>
       <c r="K46">
-        <v>478</v>
+        <v>572</v>
       </c>
       <c r="L46">
-        <v>0.58</v>
+        <v>0.5763</v>
       </c>
       <c r="M46">
-        <v>0.3767</v>
+        <v>0.3729</v>
       </c>
     </row>
     <row r="47">
@@ -2544,23 +2544,23 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I47">
-        <v>2623</v>
+        <v>3680</v>
       </c>
       <c r="J47">
-        <v>1561</v>
+        <v>2290</v>
       </c>
       <c r="K47">
-        <v>1074</v>
+        <v>1814</v>
       </c>
       <c r="L47">
-        <v>0.5951</v>
+        <v>0.6223</v>
       </c>
       <c r="M47">
-        <v>0.4095</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="48">
@@ -2591,23 +2591,23 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I48">
-        <v>964</v>
+        <v>1138</v>
       </c>
       <c r="J48">
-        <v>653</v>
+        <v>784</v>
       </c>
       <c r="K48">
-        <v>464</v>
+        <v>628</v>
       </c>
       <c r="L48">
-        <v>0.6774</v>
+        <v>0.6889</v>
       </c>
       <c r="M48">
-        <v>0.4813</v>
+        <v>0.5518</v>
       </c>
     </row>
     <row r="49">
@@ -2638,23 +2638,23 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I49">
-        <v>349</v>
+        <v>542</v>
       </c>
       <c r="J49">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="K49">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="L49">
-        <v>0.4585</v>
+        <v>0.5129</v>
       </c>
       <c r="M49">
-        <v>0.4785</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="50">
@@ -2685,23 +2685,23 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I50">
-        <v>2756</v>
+        <v>3294</v>
       </c>
       <c r="J50">
-        <v>1803</v>
+        <v>2131</v>
       </c>
       <c r="K50">
-        <v>975</v>
+        <v>1181</v>
       </c>
       <c r="L50">
-        <v>0.6542</v>
+        <v>0.6469</v>
       </c>
       <c r="M50">
-        <v>0.3538</v>
+        <v>0.3585</v>
       </c>
     </row>
     <row r="51">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I51">
@@ -2773,23 +2773,23 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I52">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="J52">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="K52">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="L52">
-        <v>0.5165999999999999</v>
+        <v>0.5282</v>
       </c>
       <c r="M52">
-        <v>0.4901</v>
+        <v>0.5101</v>
       </c>
     </row>
     <row r="53">
@@ -2820,23 +2820,23 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I53">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="J53">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="K53">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="L53">
-        <v>0.4186</v>
+        <v>0.4404</v>
       </c>
       <c r="M53">
-        <v>0.5078</v>
+        <v>0.5415</v>
       </c>
     </row>
     <row r="54">
@@ -2867,23 +2867,23 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I54">
-        <v>595</v>
+        <v>695</v>
       </c>
       <c r="J54">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="K54">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="L54">
-        <v>0.521</v>
+        <v>0.5324</v>
       </c>
       <c r="M54">
-        <v>0.4773</v>
+        <v>0.4921</v>
       </c>
     </row>
     <row r="55">
@@ -2914,23 +2914,23 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I55">
-        <v>1357</v>
+        <v>1515</v>
       </c>
       <c r="J55">
-        <v>970</v>
+        <v>1054</v>
       </c>
       <c r="K55">
-        <v>502</v>
+        <v>612</v>
       </c>
       <c r="L55">
-        <v>0.7148</v>
+        <v>0.6957</v>
       </c>
       <c r="M55">
-        <v>0.3699</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="56">
@@ -2961,23 +2961,23 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I56">
-        <v>16489</v>
+        <v>17946</v>
       </c>
       <c r="J56">
-        <v>11485</v>
+        <v>12590</v>
       </c>
       <c r="K56">
-        <v>6117</v>
+        <v>6878</v>
       </c>
       <c r="L56">
-        <v>0.6965</v>
+        <v>0.7015</v>
       </c>
       <c r="M56">
-        <v>0.371</v>
+        <v>0.3833</v>
       </c>
     </row>
     <row r="57">
@@ -3008,23 +3008,23 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I57">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="J57">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="K57">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="L57">
-        <v>0.4774</v>
+        <v>0.4901</v>
       </c>
       <c r="M57">
-        <v>0.4935</v>
+        <v>0.5099</v>
       </c>
     </row>
     <row r="58">
@@ -3055,23 +3055,23 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I58">
-        <v>874</v>
+        <v>975</v>
       </c>
       <c r="J58">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="K58">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="L58">
-        <v>0.5938</v>
+        <v>0.5651</v>
       </c>
       <c r="M58">
-        <v>0.3924</v>
+        <v>0.4297</v>
       </c>
     </row>
     <row r="59">
@@ -3102,23 +3102,23 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I59">
-        <v>1269</v>
+        <v>1534</v>
       </c>
       <c r="J59">
-        <v>736</v>
+        <v>884</v>
       </c>
       <c r="K59">
-        <v>478</v>
+        <v>572</v>
       </c>
       <c r="L59">
-        <v>0.58</v>
+        <v>0.5763</v>
       </c>
       <c r="M59">
-        <v>0.3767</v>
+        <v>0.3729</v>
       </c>
     </row>
     <row r="60">
@@ -3149,23 +3149,23 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I60">
-        <v>2623</v>
+        <v>3680</v>
       </c>
       <c r="J60">
-        <v>1561</v>
+        <v>2290</v>
       </c>
       <c r="K60">
-        <v>1074</v>
+        <v>1814</v>
       </c>
       <c r="L60">
-        <v>0.5951</v>
+        <v>0.6223</v>
       </c>
       <c r="M60">
-        <v>0.4095</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="61">
@@ -3196,23 +3196,23 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I61">
-        <v>964</v>
+        <v>1138</v>
       </c>
       <c r="J61">
-        <v>653</v>
+        <v>784</v>
       </c>
       <c r="K61">
-        <v>464</v>
+        <v>628</v>
       </c>
       <c r="L61">
-        <v>0.6774</v>
+        <v>0.6889</v>
       </c>
       <c r="M61">
-        <v>0.4813</v>
+        <v>0.5518</v>
       </c>
     </row>
     <row r="62">
@@ -3243,23 +3243,23 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I62">
-        <v>349</v>
+        <v>542</v>
       </c>
       <c r="J62">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="K62">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="L62">
-        <v>0.4585</v>
+        <v>0.5129</v>
       </c>
       <c r="M62">
-        <v>0.4785</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="63">
@@ -3290,23 +3290,23 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I63">
-        <v>2756</v>
+        <v>3294</v>
       </c>
       <c r="J63">
-        <v>1803</v>
+        <v>2131</v>
       </c>
       <c r="K63">
-        <v>975</v>
+        <v>1181</v>
       </c>
       <c r="L63">
-        <v>0.6542</v>
+        <v>0.6469</v>
       </c>
       <c r="M63">
-        <v>0.3538</v>
+        <v>0.3585</v>
       </c>
     </row>
     <row r="64">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I64">
@@ -3378,23 +3378,23 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I65">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="J65">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="K65">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="L65">
-        <v>0.5165999999999999</v>
+        <v>0.5282</v>
       </c>
       <c r="M65">
-        <v>0.4901</v>
+        <v>0.5101</v>
       </c>
     </row>
     <row r="66">
@@ -3425,23 +3425,23 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I66">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="J66">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="K66">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="L66">
-        <v>0.4186</v>
+        <v>0.4404</v>
       </c>
       <c r="M66">
-        <v>0.5078</v>
+        <v>0.5415</v>
       </c>
     </row>
     <row r="67">
@@ -3472,23 +3472,23 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I67">
-        <v>595</v>
+        <v>695</v>
       </c>
       <c r="J67">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="K67">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="L67">
-        <v>0.521</v>
+        <v>0.5324</v>
       </c>
       <c r="M67">
-        <v>0.4773</v>
+        <v>0.4921</v>
       </c>
     </row>
     <row r="68">
@@ -3519,23 +3519,23 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I68">
-        <v>1357</v>
+        <v>1515</v>
       </c>
       <c r="J68">
-        <v>970</v>
+        <v>1054</v>
       </c>
       <c r="K68">
-        <v>502</v>
+        <v>612</v>
       </c>
       <c r="L68">
-        <v>0.7148</v>
+        <v>0.6957</v>
       </c>
       <c r="M68">
-        <v>0.3699</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="69">
@@ -3566,23 +3566,23 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I69">
-        <v>5287</v>
+        <v>5839</v>
       </c>
       <c r="J69">
-        <v>3468</v>
+        <v>3915</v>
       </c>
       <c r="K69">
-        <v>2489</v>
+        <v>2885</v>
       </c>
       <c r="L69">
-        <v>0.6559</v>
+        <v>0.6705</v>
       </c>
       <c r="M69">
-        <v>0.4708</v>
+        <v>0.4941</v>
       </c>
     </row>
     <row r="70">
@@ -3613,23 +3613,23 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I70">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="J70">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="K70">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="L70">
-        <v>0.5767</v>
+        <v>0.5684</v>
       </c>
       <c r="M70">
-        <v>0.3983</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="71">
@@ -3660,23 +3660,23 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I71">
-        <v>35938</v>
+        <v>40840</v>
       </c>
       <c r="J71">
-        <v>23510</v>
+        <v>26882</v>
       </c>
       <c r="K71">
-        <v>14565</v>
+        <v>17476</v>
       </c>
       <c r="L71">
-        <v>0.6542</v>
+        <v>0.6582</v>
       </c>
       <c r="M71">
-        <v>0.4053</v>
+        <v>0.4279</v>
       </c>
     </row>
     <row r="72">
@@ -3707,23 +3707,23 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I72">
-        <v>990</v>
+        <v>1062</v>
       </c>
       <c r="J72">
-        <v>639</v>
+        <v>689</v>
       </c>
       <c r="K72">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="L72">
-        <v>0.6455</v>
+        <v>0.6488</v>
       </c>
       <c r="M72">
-        <v>0.5879</v>
+        <v>0.6139</v>
       </c>
     </row>
     <row r="73">
@@ -3754,23 +3754,23 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I73">
-        <v>744</v>
+        <v>788</v>
       </c>
       <c r="J73">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="K73">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="L73">
-        <v>0.4919</v>
+        <v>0.4911</v>
       </c>
       <c r="M73">
-        <v>0.4422</v>
+        <v>0.4619</v>
       </c>
     </row>
     <row r="74">
@@ -3801,23 +3801,23 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I74">
-        <v>5287</v>
+        <v>5839</v>
       </c>
       <c r="J74">
-        <v>3468</v>
+        <v>3915</v>
       </c>
       <c r="K74">
-        <v>2489</v>
+        <v>2885</v>
       </c>
       <c r="L74">
-        <v>0.6559</v>
+        <v>0.6705</v>
       </c>
       <c r="M74">
-        <v>0.4708</v>
+        <v>0.4941</v>
       </c>
     </row>
     <row r="75">
@@ -3848,23 +3848,23 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I75">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="J75">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="K75">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="L75">
-        <v>0.5767</v>
+        <v>0.5684</v>
       </c>
       <c r="M75">
-        <v>0.3983</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="76">
@@ -3895,23 +3895,23 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I76">
-        <v>35938</v>
+        <v>40840</v>
       </c>
       <c r="J76">
-        <v>23510</v>
+        <v>26882</v>
       </c>
       <c r="K76">
-        <v>14565</v>
+        <v>17476</v>
       </c>
       <c r="L76">
-        <v>0.6542</v>
+        <v>0.6582</v>
       </c>
       <c r="M76">
-        <v>0.4053</v>
+        <v>0.4279</v>
       </c>
     </row>
     <row r="77">
@@ -3942,23 +3942,23 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I77">
-        <v>990</v>
+        <v>1062</v>
       </c>
       <c r="J77">
-        <v>639</v>
+        <v>689</v>
       </c>
       <c r="K77">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="L77">
-        <v>0.6455</v>
+        <v>0.6488</v>
       </c>
       <c r="M77">
-        <v>0.5879</v>
+        <v>0.6139</v>
       </c>
     </row>
     <row r="78">
@@ -3989,23 +3989,23 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I78">
-        <v>744</v>
+        <v>788</v>
       </c>
       <c r="J78">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="K78">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="L78">
-        <v>0.4919</v>
+        <v>0.4911</v>
       </c>
       <c r="M78">
-        <v>0.4422</v>
+        <v>0.4619</v>
       </c>
     </row>
     <row r="79">
@@ -4036,23 +4036,23 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I79">
-        <v>16489</v>
+        <v>17946</v>
       </c>
       <c r="J79">
-        <v>11485</v>
+        <v>12590</v>
       </c>
       <c r="K79">
-        <v>6117</v>
+        <v>6878</v>
       </c>
       <c r="L79">
-        <v>0.6965</v>
+        <v>0.7015</v>
       </c>
       <c r="M79">
-        <v>0.371</v>
+        <v>0.3833</v>
       </c>
     </row>
     <row r="80">
@@ -4083,23 +4083,23 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I80">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="J80">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="K80">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="L80">
-        <v>0.4774</v>
+        <v>0.4901</v>
       </c>
       <c r="M80">
-        <v>0.4935</v>
+        <v>0.5099</v>
       </c>
     </row>
     <row r="81">
@@ -4130,23 +4130,23 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I81">
-        <v>874</v>
+        <v>975</v>
       </c>
       <c r="J81">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="K81">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="L81">
-        <v>0.5938</v>
+        <v>0.5651</v>
       </c>
       <c r="M81">
-        <v>0.3924</v>
+        <v>0.4297</v>
       </c>
     </row>
     <row r="82">
@@ -4177,23 +4177,23 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I82">
-        <v>1269</v>
+        <v>1534</v>
       </c>
       <c r="J82">
-        <v>736</v>
+        <v>884</v>
       </c>
       <c r="K82">
-        <v>478</v>
+        <v>572</v>
       </c>
       <c r="L82">
-        <v>0.58</v>
+        <v>0.5763</v>
       </c>
       <c r="M82">
-        <v>0.3767</v>
+        <v>0.3729</v>
       </c>
     </row>
     <row r="83">
@@ -4224,23 +4224,23 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I83">
-        <v>2623</v>
+        <v>3680</v>
       </c>
       <c r="J83">
-        <v>1561</v>
+        <v>2290</v>
       </c>
       <c r="K83">
-        <v>1074</v>
+        <v>1814</v>
       </c>
       <c r="L83">
-        <v>0.5951</v>
+        <v>0.6223</v>
       </c>
       <c r="M83">
-        <v>0.4095</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="84">
@@ -4271,23 +4271,23 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I84">
-        <v>964</v>
+        <v>1138</v>
       </c>
       <c r="J84">
-        <v>653</v>
+        <v>784</v>
       </c>
       <c r="K84">
-        <v>464</v>
+        <v>628</v>
       </c>
       <c r="L84">
-        <v>0.6774</v>
+        <v>0.6889</v>
       </c>
       <c r="M84">
-        <v>0.4813</v>
+        <v>0.5518</v>
       </c>
     </row>
     <row r="85">
@@ -4318,23 +4318,23 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I85">
-        <v>349</v>
+        <v>542</v>
       </c>
       <c r="J85">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="K85">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="L85">
-        <v>0.4585</v>
+        <v>0.5129</v>
       </c>
       <c r="M85">
-        <v>0.4785</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="86">
@@ -4365,23 +4365,23 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I86">
-        <v>2756</v>
+        <v>3294</v>
       </c>
       <c r="J86">
-        <v>1803</v>
+        <v>2131</v>
       </c>
       <c r="K86">
-        <v>975</v>
+        <v>1181</v>
       </c>
       <c r="L86">
-        <v>0.6542</v>
+        <v>0.6469</v>
       </c>
       <c r="M86">
-        <v>0.3538</v>
+        <v>0.3585</v>
       </c>
     </row>
     <row r="87">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I87">
@@ -4453,23 +4453,23 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I88">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="J88">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="K88">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="L88">
-        <v>0.5165999999999999</v>
+        <v>0.5282</v>
       </c>
       <c r="M88">
-        <v>0.4901</v>
+        <v>0.5101</v>
       </c>
     </row>
     <row r="89">
@@ -4500,23 +4500,23 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I89">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="J89">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="K89">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="L89">
-        <v>0.4186</v>
+        <v>0.4404</v>
       </c>
       <c r="M89">
-        <v>0.5078</v>
+        <v>0.5415</v>
       </c>
     </row>
     <row r="90">
@@ -4547,23 +4547,23 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I90">
-        <v>595</v>
+        <v>695</v>
       </c>
       <c r="J90">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="K90">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="L90">
-        <v>0.521</v>
+        <v>0.5324</v>
       </c>
       <c r="M90">
-        <v>0.4773</v>
+        <v>0.4921</v>
       </c>
     </row>
     <row r="91">
@@ -4594,23 +4594,863 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-03-22 08:00:00</t>
+          <t>2020-03-23 16:00:00</t>
         </is>
       </c>
       <c r="I91">
-        <v>1357</v>
+        <v>1515</v>
       </c>
       <c r="J91">
-        <v>970</v>
+        <v>1054</v>
       </c>
       <c r="K91">
-        <v>502</v>
+        <v>612</v>
       </c>
       <c r="L91">
-        <v>0.7148</v>
+        <v>0.6957</v>
       </c>
       <c r="M91">
-        <v>0.3699</v>
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>488</v>
+      </c>
+      <c r="D92">
+        <v>384</v>
+      </c>
+      <c r="E92">
+        <v>177</v>
+      </c>
+      <c r="F92">
+        <v>0.7869</v>
+      </c>
+      <c r="G92">
+        <v>0.3627</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I92">
+        <v>17946</v>
+      </c>
+      <c r="J92">
+        <v>12590</v>
+      </c>
+      <c r="K92">
+        <v>6878</v>
+      </c>
+      <c r="L92">
+        <v>0.7015</v>
+      </c>
+      <c r="M92">
+        <v>0.3833</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>25</v>
+      </c>
+      <c r="D93">
+        <v>15</v>
+      </c>
+      <c r="E93">
+        <v>8</v>
+      </c>
+      <c r="F93">
+        <v>0.6</v>
+      </c>
+      <c r="G93">
+        <v>0.32</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I93">
+        <v>353</v>
+      </c>
+      <c r="J93">
+        <v>173</v>
+      </c>
+      <c r="K93">
+        <v>180</v>
+      </c>
+      <c r="L93">
+        <v>0.4901</v>
+      </c>
+      <c r="M93">
+        <v>0.5099</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>72</v>
+      </c>
+      <c r="D94">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>30</v>
+      </c>
+      <c r="F94">
+        <v>0.2361</v>
+      </c>
+      <c r="G94">
+        <v>0.4167</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I94">
+        <v>975</v>
+      </c>
+      <c r="J94">
+        <v>551</v>
+      </c>
+      <c r="K94">
+        <v>419</v>
+      </c>
+      <c r="L94">
+        <v>0.5651</v>
+      </c>
+      <c r="M94">
+        <v>0.4297</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>68</v>
+      </c>
+      <c r="D95">
+        <v>28</v>
+      </c>
+      <c r="E95">
+        <v>30</v>
+      </c>
+      <c r="F95">
+        <v>0.4118</v>
+      </c>
+      <c r="G95">
+        <v>0.4412</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I95">
+        <v>1534</v>
+      </c>
+      <c r="J95">
+        <v>884</v>
+      </c>
+      <c r="K95">
+        <v>572</v>
+      </c>
+      <c r="L95">
+        <v>0.5763</v>
+      </c>
+      <c r="M95">
+        <v>0.3729</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>226</v>
+      </c>
+      <c r="D96">
+        <v>143</v>
+      </c>
+      <c r="E96">
+        <v>107</v>
+      </c>
+      <c r="F96">
+        <v>0.6327</v>
+      </c>
+      <c r="G96">
+        <v>0.4735</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I96">
+        <v>3680</v>
+      </c>
+      <c r="J96">
+        <v>2290</v>
+      </c>
+      <c r="K96">
+        <v>1814</v>
+      </c>
+      <c r="L96">
+        <v>0.6223</v>
+      </c>
+      <c r="M96">
+        <v>0.4929</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>118</v>
+      </c>
+      <c r="D97">
+        <v>90</v>
+      </c>
+      <c r="E97">
+        <v>100</v>
+      </c>
+      <c r="F97">
+        <v>0.7627</v>
+      </c>
+      <c r="G97">
+        <v>0.8475</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I97">
+        <v>1138</v>
+      </c>
+      <c r="J97">
+        <v>784</v>
+      </c>
+      <c r="K97">
+        <v>628</v>
+      </c>
+      <c r="L97">
+        <v>0.6889</v>
+      </c>
+      <c r="M97">
+        <v>0.5518</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>132</v>
+      </c>
+      <c r="D98">
+        <v>77</v>
+      </c>
+      <c r="E98">
+        <v>46</v>
+      </c>
+      <c r="F98">
+        <v>0.5833</v>
+      </c>
+      <c r="G98">
+        <v>0.3485</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I98">
+        <v>542</v>
+      </c>
+      <c r="J98">
+        <v>278</v>
+      </c>
+      <c r="K98">
+        <v>245</v>
+      </c>
+      <c r="L98">
+        <v>0.5129</v>
+      </c>
+      <c r="M98">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>108</v>
+      </c>
+      <c r="D99">
+        <v>54</v>
+      </c>
+      <c r="E99">
+        <v>40</v>
+      </c>
+      <c r="F99">
+        <v>0.5</v>
+      </c>
+      <c r="G99">
+        <v>0.3704</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I99">
+        <v>3294</v>
+      </c>
+      <c r="J99">
+        <v>2131</v>
+      </c>
+      <c r="K99">
+        <v>1181</v>
+      </c>
+      <c r="L99">
+        <v>0.6469</v>
+      </c>
+      <c r="M99">
+        <v>0.3585</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>12</v>
+      </c>
+      <c r="D101">
+        <v>9</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="F101">
+        <v>0.75</v>
+      </c>
+      <c r="G101">
+        <v>0.4167</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I101">
+        <v>496</v>
+      </c>
+      <c r="J101">
+        <v>262</v>
+      </c>
+      <c r="K101">
+        <v>253</v>
+      </c>
+      <c r="L101">
+        <v>0.5282</v>
+      </c>
+      <c r="M101">
+        <v>0.5101</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>13</v>
+      </c>
+      <c r="D102">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>9</v>
+      </c>
+      <c r="F102">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="G102">
+        <v>0.6923</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I102">
+        <v>277</v>
+      </c>
+      <c r="J102">
+        <v>122</v>
+      </c>
+      <c r="K102">
+        <v>150</v>
+      </c>
+      <c r="L102">
+        <v>0.4404</v>
+      </c>
+      <c r="M102">
+        <v>0.5415</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>34</v>
+      </c>
+      <c r="D103">
+        <v>28</v>
+      </c>
+      <c r="E103">
+        <v>23</v>
+      </c>
+      <c r="F103">
+        <v>0.8235</v>
+      </c>
+      <c r="G103">
+        <v>0.6765</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I103">
+        <v>695</v>
+      </c>
+      <c r="J103">
+        <v>370</v>
+      </c>
+      <c r="K103">
+        <v>342</v>
+      </c>
+      <c r="L103">
+        <v>0.5324</v>
+      </c>
+      <c r="M103">
+        <v>0.4921</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>102</v>
+      </c>
+      <c r="D104">
+        <v>57</v>
+      </c>
+      <c r="E104">
+        <v>32</v>
+      </c>
+      <c r="F104">
+        <v>0.5588</v>
+      </c>
+      <c r="G104">
+        <v>0.3137</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I104">
+        <v>1515</v>
+      </c>
+      <c r="J104">
+        <v>1054</v>
+      </c>
+      <c r="K104">
+        <v>612</v>
+      </c>
+      <c r="L104">
+        <v>0.6957</v>
+      </c>
+      <c r="M104">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>165</v>
+      </c>
+      <c r="D105">
+        <v>118</v>
+      </c>
+      <c r="E105">
+        <v>94</v>
+      </c>
+      <c r="F105">
+        <v>0.7151999999999999</v>
+      </c>
+      <c r="G105">
+        <v>0.5697</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I105">
+        <v>5839</v>
+      </c>
+      <c r="J105">
+        <v>3915</v>
+      </c>
+      <c r="K105">
+        <v>2885</v>
+      </c>
+      <c r="L105">
+        <v>0.6705</v>
+      </c>
+      <c r="M105">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>33</v>
+      </c>
+      <c r="D106">
+        <v>19</v>
+      </c>
+      <c r="E106">
+        <v>13</v>
+      </c>
+      <c r="F106">
+        <v>0.5758</v>
+      </c>
+      <c r="G106">
+        <v>0.3939</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I106">
+        <v>651</v>
+      </c>
+      <c r="J106">
+        <v>370</v>
+      </c>
+      <c r="K106">
+        <v>276</v>
+      </c>
+      <c r="L106">
+        <v>0.5684</v>
+      </c>
+      <c r="M106">
+        <v>0.424</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>1646</v>
+      </c>
+      <c r="D107">
+        <v>1078</v>
+      </c>
+      <c r="E107">
+        <v>738</v>
+      </c>
+      <c r="F107">
+        <v>0.6549</v>
+      </c>
+      <c r="G107">
+        <v>0.4484</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I107">
+        <v>40840</v>
+      </c>
+      <c r="J107">
+        <v>26882</v>
+      </c>
+      <c r="K107">
+        <v>17476</v>
+      </c>
+      <c r="L107">
+        <v>0.6582</v>
+      </c>
+      <c r="M107">
+        <v>0.4279</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>22</v>
+      </c>
+      <c r="D108">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>14</v>
+      </c>
+      <c r="F108">
+        <v>0.7727000000000001</v>
+      </c>
+      <c r="G108">
+        <v>0.6364</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I108">
+        <v>1062</v>
+      </c>
+      <c r="J108">
+        <v>689</v>
+      </c>
+      <c r="K108">
+        <v>652</v>
+      </c>
+      <c r="L108">
+        <v>0.6488</v>
+      </c>
+      <c r="M108">
+        <v>0.6139</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>28</v>
+      </c>
+      <c r="D109">
+        <v>14</v>
+      </c>
+      <c r="E109">
+        <v>10</v>
+      </c>
+      <c r="F109">
+        <v>0.5</v>
+      </c>
+      <c r="G109">
+        <v>0.3571</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2020-03-23 16:00:00</t>
+        </is>
+      </c>
+      <c r="I109">
+        <v>788</v>
+      </c>
+      <c r="J109">
+        <v>387</v>
+      </c>
+      <c r="K109">
+        <v>364</v>
+      </c>
+      <c r="L109">
+        <v>0.4911</v>
+      </c>
+      <c r="M109">
+        <v>0.4619</v>
       </c>
     </row>
   </sheetData>

--- a/data/学习数据.xlsx
+++ b/data/学习数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,23 +441,23 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I2">
-        <v>17946</v>
+        <v>18552</v>
       </c>
       <c r="J2">
-        <v>12590</v>
+        <v>13035</v>
       </c>
       <c r="K2">
-        <v>6878</v>
+        <v>7277</v>
       </c>
       <c r="L2">
-        <v>0.7015</v>
+        <v>0.7026</v>
       </c>
       <c r="M2">
-        <v>0.3833</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="3">
@@ -488,23 +488,23 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I3">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="J3">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K3">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L3">
-        <v>0.4901</v>
+        <v>0.4944</v>
       </c>
       <c r="M3">
-        <v>0.5099</v>
+        <v>0.5278</v>
       </c>
     </row>
     <row r="4">
@@ -535,23 +535,23 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I4">
-        <v>975</v>
+        <v>1042</v>
       </c>
       <c r="J4">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="K4">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="L4">
-        <v>0.5651</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="M4">
-        <v>0.4297</v>
+        <v>0.4367</v>
       </c>
     </row>
     <row r="5">
@@ -582,23 +582,23 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I5">
-        <v>1534</v>
+        <v>2030</v>
       </c>
       <c r="J5">
-        <v>884</v>
+        <v>1289</v>
       </c>
       <c r="K5">
-        <v>572</v>
+        <v>741</v>
       </c>
       <c r="L5">
-        <v>0.5763</v>
+        <v>0.635</v>
       </c>
       <c r="M5">
-        <v>0.3729</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="6">
@@ -629,23 +629,23 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I6">
-        <v>3680</v>
+        <v>4145</v>
       </c>
       <c r="J6">
-        <v>2290</v>
+        <v>2617</v>
       </c>
       <c r="K6">
-        <v>1814</v>
+        <v>2243</v>
       </c>
       <c r="L6">
-        <v>0.6223</v>
+        <v>0.6314</v>
       </c>
       <c r="M6">
-        <v>0.4929</v>
+        <v>0.5411</v>
       </c>
     </row>
     <row r="7">
@@ -676,23 +676,23 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I7">
-        <v>1138</v>
+        <v>1201</v>
       </c>
       <c r="J7">
-        <v>784</v>
+        <v>832</v>
       </c>
       <c r="K7">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="L7">
-        <v>0.6889</v>
+        <v>0.6928</v>
       </c>
       <c r="M7">
-        <v>0.5518</v>
+        <v>0.5554</v>
       </c>
     </row>
     <row r="8">
@@ -723,23 +723,23 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I8">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="J8">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="K8">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="L8">
-        <v>0.5129</v>
+        <v>0.5194</v>
       </c>
       <c r="M8">
-        <v>0.452</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="9">
@@ -770,23 +770,23 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I9">
-        <v>3294</v>
+        <v>3515</v>
       </c>
       <c r="J9">
-        <v>2131</v>
+        <v>2251</v>
       </c>
       <c r="K9">
-        <v>1181</v>
+        <v>1322</v>
       </c>
       <c r="L9">
-        <v>0.6469</v>
+        <v>0.6404</v>
       </c>
       <c r="M9">
-        <v>0.3585</v>
+        <v>0.3761</v>
       </c>
     </row>
     <row r="10">
@@ -811,7 +811,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I10">
@@ -858,23 +858,23 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I11">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="J11">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="K11">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="L11">
-        <v>0.5282</v>
+        <v>0.5397999999999999</v>
       </c>
       <c r="M11">
-        <v>0.5101</v>
+        <v>0.5062</v>
       </c>
     </row>
     <row r="12">
@@ -905,23 +905,23 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I12">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="J12">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="K12">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L12">
-        <v>0.4404</v>
+        <v>0.4583</v>
       </c>
       <c r="M12">
-        <v>0.5415</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="13">
@@ -952,23 +952,23 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I13">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="J13">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K13">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="L13">
-        <v>0.5324</v>
+        <v>0.5367</v>
       </c>
       <c r="M13">
-        <v>0.4921</v>
+        <v>0.5014</v>
       </c>
     </row>
     <row r="14">
@@ -999,23 +999,23 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I14">
-        <v>1515</v>
+        <v>1752</v>
       </c>
       <c r="J14">
-        <v>1054</v>
+        <v>1254</v>
       </c>
       <c r="K14">
-        <v>612</v>
+        <v>717</v>
       </c>
       <c r="L14">
-        <v>0.6957</v>
+        <v>0.7158</v>
       </c>
       <c r="M14">
-        <v>0.404</v>
+        <v>0.4092</v>
       </c>
     </row>
     <row r="15">
@@ -1046,23 +1046,23 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I15">
-        <v>5839</v>
+        <v>6072</v>
       </c>
       <c r="J15">
-        <v>3915</v>
+        <v>4108</v>
       </c>
       <c r="K15">
-        <v>2885</v>
+        <v>3102</v>
       </c>
       <c r="L15">
-        <v>0.6705</v>
+        <v>0.6765</v>
       </c>
       <c r="M15">
-        <v>0.4941</v>
+        <v>0.5109</v>
       </c>
     </row>
     <row r="16">
@@ -1087,23 +1087,23 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I16">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="J16">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="K16">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="L16">
-        <v>0.5684</v>
+        <v>0.5578</v>
       </c>
       <c r="M16">
-        <v>0.424</v>
+        <v>0.4407</v>
       </c>
     </row>
     <row r="17">
@@ -1134,23 +1134,23 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I17">
-        <v>40840</v>
+        <v>43579</v>
       </c>
       <c r="J17">
-        <v>26882</v>
+        <v>28888</v>
       </c>
       <c r="K17">
-        <v>17476</v>
+        <v>19257</v>
       </c>
       <c r="L17">
-        <v>0.6582</v>
+        <v>0.6629</v>
       </c>
       <c r="M17">
-        <v>0.4279</v>
+        <v>0.4419</v>
       </c>
     </row>
     <row r="18">
@@ -1181,23 +1181,23 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I18">
-        <v>1062</v>
+        <v>1147</v>
       </c>
       <c r="J18">
-        <v>689</v>
+        <v>763</v>
       </c>
       <c r="K18">
-        <v>652</v>
+        <v>711</v>
       </c>
       <c r="L18">
-        <v>0.6488</v>
+        <v>0.6652</v>
       </c>
       <c r="M18">
-        <v>0.6139</v>
+        <v>0.6199</v>
       </c>
     </row>
     <row r="19">
@@ -1228,23 +1228,23 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I19">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="J19">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="K19">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="L19">
-        <v>0.4911</v>
+        <v>0.4921</v>
       </c>
       <c r="M19">
-        <v>0.4619</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="20">
@@ -1275,23 +1275,23 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I20">
-        <v>17946</v>
+        <v>18552</v>
       </c>
       <c r="J20">
-        <v>12590</v>
+        <v>13035</v>
       </c>
       <c r="K20">
-        <v>6878</v>
+        <v>7277</v>
       </c>
       <c r="L20">
-        <v>0.7015</v>
+        <v>0.7026</v>
       </c>
       <c r="M20">
-        <v>0.3833</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="21">
@@ -1322,23 +1322,23 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I21">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="J21">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K21">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L21">
-        <v>0.4901</v>
+        <v>0.4944</v>
       </c>
       <c r="M21">
-        <v>0.5099</v>
+        <v>0.5278</v>
       </c>
     </row>
     <row r="22">
@@ -1369,23 +1369,23 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I22">
-        <v>975</v>
+        <v>1042</v>
       </c>
       <c r="J22">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="K22">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="L22">
-        <v>0.5651</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="M22">
-        <v>0.4297</v>
+        <v>0.4367</v>
       </c>
     </row>
     <row r="23">
@@ -1416,23 +1416,23 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I23">
-        <v>1534</v>
+        <v>2030</v>
       </c>
       <c r="J23">
-        <v>884</v>
+        <v>1289</v>
       </c>
       <c r="K23">
-        <v>572</v>
+        <v>741</v>
       </c>
       <c r="L23">
-        <v>0.5763</v>
+        <v>0.635</v>
       </c>
       <c r="M23">
-        <v>0.3729</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="24">
@@ -1463,23 +1463,23 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I24">
-        <v>3680</v>
+        <v>4145</v>
       </c>
       <c r="J24">
-        <v>2290</v>
+        <v>2617</v>
       </c>
       <c r="K24">
-        <v>1814</v>
+        <v>2243</v>
       </c>
       <c r="L24">
-        <v>0.6223</v>
+        <v>0.6314</v>
       </c>
       <c r="M24">
-        <v>0.4929</v>
+        <v>0.5411</v>
       </c>
     </row>
     <row r="25">
@@ -1510,23 +1510,23 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I25">
-        <v>1138</v>
+        <v>1201</v>
       </c>
       <c r="J25">
-        <v>784</v>
+        <v>832</v>
       </c>
       <c r="K25">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="L25">
-        <v>0.6889</v>
+        <v>0.6928</v>
       </c>
       <c r="M25">
-        <v>0.5518</v>
+        <v>0.5554</v>
       </c>
     </row>
     <row r="26">
@@ -1557,23 +1557,23 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I26">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="J26">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="K26">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="L26">
-        <v>0.5129</v>
+        <v>0.5194</v>
       </c>
       <c r="M26">
-        <v>0.452</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="27">
@@ -1604,23 +1604,23 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I27">
-        <v>3294</v>
+        <v>3515</v>
       </c>
       <c r="J27">
-        <v>2131</v>
+        <v>2251</v>
       </c>
       <c r="K27">
-        <v>1181</v>
+        <v>1322</v>
       </c>
       <c r="L27">
-        <v>0.6469</v>
+        <v>0.6404</v>
       </c>
       <c r="M27">
-        <v>0.3585</v>
+        <v>0.3761</v>
       </c>
     </row>
     <row r="28">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I28">
@@ -1698,23 +1698,23 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I29">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="J29">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="K29">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="L29">
-        <v>0.5282</v>
+        <v>0.5397999999999999</v>
       </c>
       <c r="M29">
-        <v>0.5101</v>
+        <v>0.5062</v>
       </c>
     </row>
     <row r="30">
@@ -1745,23 +1745,23 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I30">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="J30">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="K30">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L30">
-        <v>0.4404</v>
+        <v>0.4583</v>
       </c>
       <c r="M30">
-        <v>0.5415</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="31">
@@ -1792,23 +1792,23 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I31">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="J31">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K31">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="L31">
-        <v>0.5324</v>
+        <v>0.5367</v>
       </c>
       <c r="M31">
-        <v>0.4921</v>
+        <v>0.5014</v>
       </c>
     </row>
     <row r="32">
@@ -1839,23 +1839,23 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I32">
-        <v>1515</v>
+        <v>1752</v>
       </c>
       <c r="J32">
-        <v>1054</v>
+        <v>1254</v>
       </c>
       <c r="K32">
-        <v>612</v>
+        <v>717</v>
       </c>
       <c r="L32">
-        <v>0.6957</v>
+        <v>0.7158</v>
       </c>
       <c r="M32">
-        <v>0.404</v>
+        <v>0.4092</v>
       </c>
     </row>
     <row r="33">
@@ -1886,23 +1886,23 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I33">
-        <v>5839</v>
+        <v>6072</v>
       </c>
       <c r="J33">
-        <v>3915</v>
+        <v>4108</v>
       </c>
       <c r="K33">
-        <v>2885</v>
+        <v>3102</v>
       </c>
       <c r="L33">
-        <v>0.6705</v>
+        <v>0.6765</v>
       </c>
       <c r="M33">
-        <v>0.4941</v>
+        <v>0.5109</v>
       </c>
     </row>
     <row r="34">
@@ -1933,23 +1933,23 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I34">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="J34">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="K34">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="L34">
-        <v>0.5684</v>
+        <v>0.5578</v>
       </c>
       <c r="M34">
-        <v>0.424</v>
+        <v>0.4407</v>
       </c>
     </row>
     <row r="35">
@@ -1980,23 +1980,23 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I35">
-        <v>40840</v>
+        <v>43579</v>
       </c>
       <c r="J35">
-        <v>26882</v>
+        <v>28888</v>
       </c>
       <c r="K35">
-        <v>17476</v>
+        <v>19257</v>
       </c>
       <c r="L35">
-        <v>0.6582</v>
+        <v>0.6629</v>
       </c>
       <c r="M35">
-        <v>0.4279</v>
+        <v>0.4419</v>
       </c>
     </row>
     <row r="36">
@@ -2027,23 +2027,23 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I36">
-        <v>1062</v>
+        <v>1147</v>
       </c>
       <c r="J36">
-        <v>689</v>
+        <v>763</v>
       </c>
       <c r="K36">
-        <v>652</v>
+        <v>711</v>
       </c>
       <c r="L36">
-        <v>0.6488</v>
+        <v>0.6652</v>
       </c>
       <c r="M36">
-        <v>0.6139</v>
+        <v>0.6199</v>
       </c>
     </row>
     <row r="37">
@@ -2074,23 +2074,23 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I37">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="J37">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="K37">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="L37">
-        <v>0.4911</v>
+        <v>0.4921</v>
       </c>
       <c r="M37">
-        <v>0.4619</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="38">
@@ -2121,23 +2121,23 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I38">
-        <v>5839</v>
+        <v>6072</v>
       </c>
       <c r="J38">
-        <v>3915</v>
+        <v>4108</v>
       </c>
       <c r="K38">
-        <v>2885</v>
+        <v>3102</v>
       </c>
       <c r="L38">
-        <v>0.6705</v>
+        <v>0.6765</v>
       </c>
       <c r="M38">
-        <v>0.4941</v>
+        <v>0.5109</v>
       </c>
     </row>
     <row r="39">
@@ -2168,23 +2168,23 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I39">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="J39">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="K39">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="L39">
-        <v>0.5684</v>
+        <v>0.5578</v>
       </c>
       <c r="M39">
-        <v>0.424</v>
+        <v>0.4407</v>
       </c>
     </row>
     <row r="40">
@@ -2215,23 +2215,23 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I40">
-        <v>40840</v>
+        <v>43579</v>
       </c>
       <c r="J40">
-        <v>26882</v>
+        <v>28888</v>
       </c>
       <c r="K40">
-        <v>17476</v>
+        <v>19257</v>
       </c>
       <c r="L40">
-        <v>0.6582</v>
+        <v>0.6629</v>
       </c>
       <c r="M40">
-        <v>0.4279</v>
+        <v>0.4419</v>
       </c>
     </row>
     <row r="41">
@@ -2262,23 +2262,23 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I41">
-        <v>1062</v>
+        <v>1147</v>
       </c>
       <c r="J41">
-        <v>689</v>
+        <v>763</v>
       </c>
       <c r="K41">
-        <v>652</v>
+        <v>711</v>
       </c>
       <c r="L41">
-        <v>0.6488</v>
+        <v>0.6652</v>
       </c>
       <c r="M41">
-        <v>0.6139</v>
+        <v>0.6199</v>
       </c>
     </row>
     <row r="42">
@@ -2309,23 +2309,23 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I42">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="J42">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="K42">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="L42">
-        <v>0.4911</v>
+        <v>0.4921</v>
       </c>
       <c r="M42">
-        <v>0.4619</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="43">
@@ -2356,23 +2356,23 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I43">
-        <v>17946</v>
+        <v>18552</v>
       </c>
       <c r="J43">
-        <v>12590</v>
+        <v>13035</v>
       </c>
       <c r="K43">
-        <v>6878</v>
+        <v>7277</v>
       </c>
       <c r="L43">
-        <v>0.7015</v>
+        <v>0.7026</v>
       </c>
       <c r="M43">
-        <v>0.3833</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="44">
@@ -2403,23 +2403,23 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I44">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="J44">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K44">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L44">
-        <v>0.4901</v>
+        <v>0.4944</v>
       </c>
       <c r="M44">
-        <v>0.5099</v>
+        <v>0.5278</v>
       </c>
     </row>
     <row r="45">
@@ -2450,23 +2450,23 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I45">
-        <v>975</v>
+        <v>1042</v>
       </c>
       <c r="J45">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="K45">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="L45">
-        <v>0.5651</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="M45">
-        <v>0.4297</v>
+        <v>0.4367</v>
       </c>
     </row>
     <row r="46">
@@ -2497,23 +2497,23 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I46">
-        <v>1534</v>
+        <v>2030</v>
       </c>
       <c r="J46">
-        <v>884</v>
+        <v>1289</v>
       </c>
       <c r="K46">
-        <v>572</v>
+        <v>741</v>
       </c>
       <c r="L46">
-        <v>0.5763</v>
+        <v>0.635</v>
       </c>
       <c r="M46">
-        <v>0.3729</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="47">
@@ -2544,23 +2544,23 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I47">
-        <v>3680</v>
+        <v>4145</v>
       </c>
       <c r="J47">
-        <v>2290</v>
+        <v>2617</v>
       </c>
       <c r="K47">
-        <v>1814</v>
+        <v>2243</v>
       </c>
       <c r="L47">
-        <v>0.6223</v>
+        <v>0.6314</v>
       </c>
       <c r="M47">
-        <v>0.4929</v>
+        <v>0.5411</v>
       </c>
     </row>
     <row r="48">
@@ -2591,23 +2591,23 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I48">
-        <v>1138</v>
+        <v>1201</v>
       </c>
       <c r="J48">
-        <v>784</v>
+        <v>832</v>
       </c>
       <c r="K48">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="L48">
-        <v>0.6889</v>
+        <v>0.6928</v>
       </c>
       <c r="M48">
-        <v>0.5518</v>
+        <v>0.5554</v>
       </c>
     </row>
     <row r="49">
@@ -2638,23 +2638,23 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I49">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="J49">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="K49">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="L49">
-        <v>0.5129</v>
+        <v>0.5194</v>
       </c>
       <c r="M49">
-        <v>0.452</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="50">
@@ -2685,23 +2685,23 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I50">
-        <v>3294</v>
+        <v>3515</v>
       </c>
       <c r="J50">
-        <v>2131</v>
+        <v>2251</v>
       </c>
       <c r="K50">
-        <v>1181</v>
+        <v>1322</v>
       </c>
       <c r="L50">
-        <v>0.6469</v>
+        <v>0.6404</v>
       </c>
       <c r="M50">
-        <v>0.3585</v>
+        <v>0.3761</v>
       </c>
     </row>
     <row r="51">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I51">
@@ -2773,23 +2773,23 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I52">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="J52">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="K52">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="L52">
-        <v>0.5282</v>
+        <v>0.5397999999999999</v>
       </c>
       <c r="M52">
-        <v>0.5101</v>
+        <v>0.5062</v>
       </c>
     </row>
     <row r="53">
@@ -2820,23 +2820,23 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I53">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="J53">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="K53">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L53">
-        <v>0.4404</v>
+        <v>0.4583</v>
       </c>
       <c r="M53">
-        <v>0.5415</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="54">
@@ -2867,23 +2867,23 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I54">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="J54">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K54">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="L54">
-        <v>0.5324</v>
+        <v>0.5367</v>
       </c>
       <c r="M54">
-        <v>0.4921</v>
+        <v>0.5014</v>
       </c>
     </row>
     <row r="55">
@@ -2914,23 +2914,23 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I55">
-        <v>1515</v>
+        <v>1752</v>
       </c>
       <c r="J55">
-        <v>1054</v>
+        <v>1254</v>
       </c>
       <c r="K55">
-        <v>612</v>
+        <v>717</v>
       </c>
       <c r="L55">
-        <v>0.6957</v>
+        <v>0.7158</v>
       </c>
       <c r="M55">
-        <v>0.404</v>
+        <v>0.4092</v>
       </c>
     </row>
     <row r="56">
@@ -2961,23 +2961,23 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I56">
-        <v>17946</v>
+        <v>18552</v>
       </c>
       <c r="J56">
-        <v>12590</v>
+        <v>13035</v>
       </c>
       <c r="K56">
-        <v>6878</v>
+        <v>7277</v>
       </c>
       <c r="L56">
-        <v>0.7015</v>
+        <v>0.7026</v>
       </c>
       <c r="M56">
-        <v>0.3833</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="57">
@@ -3008,23 +3008,23 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I57">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="J57">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K57">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L57">
-        <v>0.4901</v>
+        <v>0.4944</v>
       </c>
       <c r="M57">
-        <v>0.5099</v>
+        <v>0.5278</v>
       </c>
     </row>
     <row r="58">
@@ -3055,23 +3055,23 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I58">
-        <v>975</v>
+        <v>1042</v>
       </c>
       <c r="J58">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="K58">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="L58">
-        <v>0.5651</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="M58">
-        <v>0.4297</v>
+        <v>0.4367</v>
       </c>
     </row>
     <row r="59">
@@ -3102,23 +3102,23 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I59">
-        <v>1534</v>
+        <v>2030</v>
       </c>
       <c r="J59">
-        <v>884</v>
+        <v>1289</v>
       </c>
       <c r="K59">
-        <v>572</v>
+        <v>741</v>
       </c>
       <c r="L59">
-        <v>0.5763</v>
+        <v>0.635</v>
       </c>
       <c r="M59">
-        <v>0.3729</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="60">
@@ -3149,23 +3149,23 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I60">
-        <v>3680</v>
+        <v>4145</v>
       </c>
       <c r="J60">
-        <v>2290</v>
+        <v>2617</v>
       </c>
       <c r="K60">
-        <v>1814</v>
+        <v>2243</v>
       </c>
       <c r="L60">
-        <v>0.6223</v>
+        <v>0.6314</v>
       </c>
       <c r="M60">
-        <v>0.4929</v>
+        <v>0.5411</v>
       </c>
     </row>
     <row r="61">
@@ -3196,23 +3196,23 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I61">
-        <v>1138</v>
+        <v>1201</v>
       </c>
       <c r="J61">
-        <v>784</v>
+        <v>832</v>
       </c>
       <c r="K61">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="L61">
-        <v>0.6889</v>
+        <v>0.6928</v>
       </c>
       <c r="M61">
-        <v>0.5518</v>
+        <v>0.5554</v>
       </c>
     </row>
     <row r="62">
@@ -3243,23 +3243,23 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I62">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="J62">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="K62">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="L62">
-        <v>0.5129</v>
+        <v>0.5194</v>
       </c>
       <c r="M62">
-        <v>0.452</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="63">
@@ -3290,23 +3290,23 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I63">
-        <v>3294</v>
+        <v>3515</v>
       </c>
       <c r="J63">
-        <v>2131</v>
+        <v>2251</v>
       </c>
       <c r="K63">
-        <v>1181</v>
+        <v>1322</v>
       </c>
       <c r="L63">
-        <v>0.6469</v>
+        <v>0.6404</v>
       </c>
       <c r="M63">
-        <v>0.3585</v>
+        <v>0.3761</v>
       </c>
     </row>
     <row r="64">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I64">
@@ -3378,23 +3378,23 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I65">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="J65">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="K65">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="L65">
-        <v>0.5282</v>
+        <v>0.5397999999999999</v>
       </c>
       <c r="M65">
-        <v>0.5101</v>
+        <v>0.5062</v>
       </c>
     </row>
     <row r="66">
@@ -3425,23 +3425,23 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I66">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="J66">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="K66">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L66">
-        <v>0.4404</v>
+        <v>0.4583</v>
       </c>
       <c r="M66">
-        <v>0.5415</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="67">
@@ -3472,23 +3472,23 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I67">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="J67">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K67">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="L67">
-        <v>0.5324</v>
+        <v>0.5367</v>
       </c>
       <c r="M67">
-        <v>0.4921</v>
+        <v>0.5014</v>
       </c>
     </row>
     <row r="68">
@@ -3519,23 +3519,23 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I68">
-        <v>1515</v>
+        <v>1752</v>
       </c>
       <c r="J68">
-        <v>1054</v>
+        <v>1254</v>
       </c>
       <c r="K68">
-        <v>612</v>
+        <v>717</v>
       </c>
       <c r="L68">
-        <v>0.6957</v>
+        <v>0.7158</v>
       </c>
       <c r="M68">
-        <v>0.404</v>
+        <v>0.4092</v>
       </c>
     </row>
     <row r="69">
@@ -3566,23 +3566,23 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I69">
-        <v>5839</v>
+        <v>6072</v>
       </c>
       <c r="J69">
-        <v>3915</v>
+        <v>4108</v>
       </c>
       <c r="K69">
-        <v>2885</v>
+        <v>3102</v>
       </c>
       <c r="L69">
-        <v>0.6705</v>
+        <v>0.6765</v>
       </c>
       <c r="M69">
-        <v>0.4941</v>
+        <v>0.5109</v>
       </c>
     </row>
     <row r="70">
@@ -3613,23 +3613,23 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I70">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="J70">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="K70">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="L70">
-        <v>0.5684</v>
+        <v>0.5578</v>
       </c>
       <c r="M70">
-        <v>0.424</v>
+        <v>0.4407</v>
       </c>
     </row>
     <row r="71">
@@ -3660,23 +3660,23 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I71">
-        <v>40840</v>
+        <v>43579</v>
       </c>
       <c r="J71">
-        <v>26882</v>
+        <v>28888</v>
       </c>
       <c r="K71">
-        <v>17476</v>
+        <v>19257</v>
       </c>
       <c r="L71">
-        <v>0.6582</v>
+        <v>0.6629</v>
       </c>
       <c r="M71">
-        <v>0.4279</v>
+        <v>0.4419</v>
       </c>
     </row>
     <row r="72">
@@ -3707,23 +3707,23 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I72">
-        <v>1062</v>
+        <v>1147</v>
       </c>
       <c r="J72">
-        <v>689</v>
+        <v>763</v>
       </c>
       <c r="K72">
-        <v>652</v>
+        <v>711</v>
       </c>
       <c r="L72">
-        <v>0.6488</v>
+        <v>0.6652</v>
       </c>
       <c r="M72">
-        <v>0.6139</v>
+        <v>0.6199</v>
       </c>
     </row>
     <row r="73">
@@ -3754,23 +3754,23 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I73">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="J73">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="K73">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="L73">
-        <v>0.4911</v>
+        <v>0.4921</v>
       </c>
       <c r="M73">
-        <v>0.4619</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="74">
@@ -3801,23 +3801,23 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I74">
-        <v>5839</v>
+        <v>6072</v>
       </c>
       <c r="J74">
-        <v>3915</v>
+        <v>4108</v>
       </c>
       <c r="K74">
-        <v>2885</v>
+        <v>3102</v>
       </c>
       <c r="L74">
-        <v>0.6705</v>
+        <v>0.6765</v>
       </c>
       <c r="M74">
-        <v>0.4941</v>
+        <v>0.5109</v>
       </c>
     </row>
     <row r="75">
@@ -3848,23 +3848,23 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I75">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="J75">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="K75">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="L75">
-        <v>0.5684</v>
+        <v>0.5578</v>
       </c>
       <c r="M75">
-        <v>0.424</v>
+        <v>0.4407</v>
       </c>
     </row>
     <row r="76">
@@ -3895,23 +3895,23 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I76">
-        <v>40840</v>
+        <v>43579</v>
       </c>
       <c r="J76">
-        <v>26882</v>
+        <v>28888</v>
       </c>
       <c r="K76">
-        <v>17476</v>
+        <v>19257</v>
       </c>
       <c r="L76">
-        <v>0.6582</v>
+        <v>0.6629</v>
       </c>
       <c r="M76">
-        <v>0.4279</v>
+        <v>0.4419</v>
       </c>
     </row>
     <row r="77">
@@ -3942,23 +3942,23 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I77">
-        <v>1062</v>
+        <v>1147</v>
       </c>
       <c r="J77">
-        <v>689</v>
+        <v>763</v>
       </c>
       <c r="K77">
-        <v>652</v>
+        <v>711</v>
       </c>
       <c r="L77">
-        <v>0.6488</v>
+        <v>0.6652</v>
       </c>
       <c r="M77">
-        <v>0.6139</v>
+        <v>0.6199</v>
       </c>
     </row>
     <row r="78">
@@ -3989,23 +3989,23 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I78">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="J78">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="K78">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="L78">
-        <v>0.4911</v>
+        <v>0.4921</v>
       </c>
       <c r="M78">
-        <v>0.4619</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="79">
@@ -4036,23 +4036,23 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I79">
-        <v>17946</v>
+        <v>18552</v>
       </c>
       <c r="J79">
-        <v>12590</v>
+        <v>13035</v>
       </c>
       <c r="K79">
-        <v>6878</v>
+        <v>7277</v>
       </c>
       <c r="L79">
-        <v>0.7015</v>
+        <v>0.7026</v>
       </c>
       <c r="M79">
-        <v>0.3833</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="80">
@@ -4083,23 +4083,23 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I80">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="J80">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K80">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L80">
-        <v>0.4901</v>
+        <v>0.4944</v>
       </c>
       <c r="M80">
-        <v>0.5099</v>
+        <v>0.5278</v>
       </c>
     </row>
     <row r="81">
@@ -4130,23 +4130,23 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I81">
-        <v>975</v>
+        <v>1042</v>
       </c>
       <c r="J81">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="K81">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="L81">
-        <v>0.5651</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="M81">
-        <v>0.4297</v>
+        <v>0.4367</v>
       </c>
     </row>
     <row r="82">
@@ -4177,23 +4177,23 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I82">
-        <v>1534</v>
+        <v>2030</v>
       </c>
       <c r="J82">
-        <v>884</v>
+        <v>1289</v>
       </c>
       <c r="K82">
-        <v>572</v>
+        <v>741</v>
       </c>
       <c r="L82">
-        <v>0.5763</v>
+        <v>0.635</v>
       </c>
       <c r="M82">
-        <v>0.3729</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="83">
@@ -4224,23 +4224,23 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I83">
-        <v>3680</v>
+        <v>4145</v>
       </c>
       <c r="J83">
-        <v>2290</v>
+        <v>2617</v>
       </c>
       <c r="K83">
-        <v>1814</v>
+        <v>2243</v>
       </c>
       <c r="L83">
-        <v>0.6223</v>
+        <v>0.6314</v>
       </c>
       <c r="M83">
-        <v>0.4929</v>
+        <v>0.5411</v>
       </c>
     </row>
     <row r="84">
@@ -4271,23 +4271,23 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I84">
-        <v>1138</v>
+        <v>1201</v>
       </c>
       <c r="J84">
-        <v>784</v>
+        <v>832</v>
       </c>
       <c r="K84">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="L84">
-        <v>0.6889</v>
+        <v>0.6928</v>
       </c>
       <c r="M84">
-        <v>0.5518</v>
+        <v>0.5554</v>
       </c>
     </row>
     <row r="85">
@@ -4318,23 +4318,23 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I85">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="J85">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="K85">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="L85">
-        <v>0.5129</v>
+        <v>0.5194</v>
       </c>
       <c r="M85">
-        <v>0.452</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="86">
@@ -4365,23 +4365,23 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I86">
-        <v>3294</v>
+        <v>3515</v>
       </c>
       <c r="J86">
-        <v>2131</v>
+        <v>2251</v>
       </c>
       <c r="K86">
-        <v>1181</v>
+        <v>1322</v>
       </c>
       <c r="L86">
-        <v>0.6469</v>
+        <v>0.6404</v>
       </c>
       <c r="M86">
-        <v>0.3585</v>
+        <v>0.3761</v>
       </c>
     </row>
     <row r="87">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I87">
@@ -4453,23 +4453,23 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I88">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="J88">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="K88">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="L88">
-        <v>0.5282</v>
+        <v>0.5397999999999999</v>
       </c>
       <c r="M88">
-        <v>0.5101</v>
+        <v>0.5062</v>
       </c>
     </row>
     <row r="89">
@@ -4500,23 +4500,23 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I89">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="J89">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="K89">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L89">
-        <v>0.4404</v>
+        <v>0.4583</v>
       </c>
       <c r="M89">
-        <v>0.5415</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="90">
@@ -4547,23 +4547,23 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I90">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="J90">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K90">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="L90">
-        <v>0.5324</v>
+        <v>0.5367</v>
       </c>
       <c r="M90">
-        <v>0.4921</v>
+        <v>0.5014</v>
       </c>
     </row>
     <row r="91">
@@ -4594,23 +4594,23 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I91">
-        <v>1515</v>
+        <v>1752</v>
       </c>
       <c r="J91">
-        <v>1054</v>
+        <v>1254</v>
       </c>
       <c r="K91">
-        <v>612</v>
+        <v>717</v>
       </c>
       <c r="L91">
-        <v>0.6957</v>
+        <v>0.7158</v>
       </c>
       <c r="M91">
-        <v>0.404</v>
+        <v>0.4092</v>
       </c>
     </row>
     <row r="92">
@@ -4641,23 +4641,23 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I92">
-        <v>17946</v>
+        <v>18552</v>
       </c>
       <c r="J92">
-        <v>12590</v>
+        <v>13035</v>
       </c>
       <c r="K92">
-        <v>6878</v>
+        <v>7277</v>
       </c>
       <c r="L92">
-        <v>0.7015</v>
+        <v>0.7026</v>
       </c>
       <c r="M92">
-        <v>0.3833</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="93">
@@ -4688,23 +4688,23 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I93">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="J93">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K93">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="L93">
-        <v>0.4901</v>
+        <v>0.4944</v>
       </c>
       <c r="M93">
-        <v>0.5099</v>
+        <v>0.5278</v>
       </c>
     </row>
     <row r="94">
@@ -4735,23 +4735,23 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I94">
-        <v>975</v>
+        <v>1042</v>
       </c>
       <c r="J94">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="K94">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="L94">
-        <v>0.5651</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="M94">
-        <v>0.4297</v>
+        <v>0.4367</v>
       </c>
     </row>
     <row r="95">
@@ -4782,23 +4782,23 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I95">
-        <v>1534</v>
+        <v>2030</v>
       </c>
       <c r="J95">
-        <v>884</v>
+        <v>1289</v>
       </c>
       <c r="K95">
-        <v>572</v>
+        <v>741</v>
       </c>
       <c r="L95">
-        <v>0.5763</v>
+        <v>0.635</v>
       </c>
       <c r="M95">
-        <v>0.3729</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="96">
@@ -4829,23 +4829,23 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I96">
-        <v>3680</v>
+        <v>4145</v>
       </c>
       <c r="J96">
-        <v>2290</v>
+        <v>2617</v>
       </c>
       <c r="K96">
-        <v>1814</v>
+        <v>2243</v>
       </c>
       <c r="L96">
-        <v>0.6223</v>
+        <v>0.6314</v>
       </c>
       <c r="M96">
-        <v>0.4929</v>
+        <v>0.5411</v>
       </c>
     </row>
     <row r="97">
@@ -4876,23 +4876,23 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I97">
-        <v>1138</v>
+        <v>1201</v>
       </c>
       <c r="J97">
-        <v>784</v>
+        <v>832</v>
       </c>
       <c r="K97">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="L97">
-        <v>0.6889</v>
+        <v>0.6928</v>
       </c>
       <c r="M97">
-        <v>0.5518</v>
+        <v>0.5554</v>
       </c>
     </row>
     <row r="98">
@@ -4923,23 +4923,23 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I98">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="J98">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="K98">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="L98">
-        <v>0.5129</v>
+        <v>0.5194</v>
       </c>
       <c r="M98">
-        <v>0.452</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="99">
@@ -4970,23 +4970,23 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I99">
-        <v>3294</v>
+        <v>3515</v>
       </c>
       <c r="J99">
-        <v>2131</v>
+        <v>2251</v>
       </c>
       <c r="K99">
-        <v>1181</v>
+        <v>1322</v>
       </c>
       <c r="L99">
-        <v>0.6469</v>
+        <v>0.6404</v>
       </c>
       <c r="M99">
-        <v>0.3585</v>
+        <v>0.3761</v>
       </c>
     </row>
     <row r="100">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I100">
@@ -5058,23 +5058,23 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I101">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="J101">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="K101">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="L101">
-        <v>0.5282</v>
+        <v>0.5397999999999999</v>
       </c>
       <c r="M101">
-        <v>0.5101</v>
+        <v>0.5062</v>
       </c>
     </row>
     <row r="102">
@@ -5105,23 +5105,23 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I102">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="J102">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="K102">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L102">
-        <v>0.4404</v>
+        <v>0.4583</v>
       </c>
       <c r="M102">
-        <v>0.5415</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="103">
@@ -5152,23 +5152,23 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I103">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="J103">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K103">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="L103">
-        <v>0.5324</v>
+        <v>0.5367</v>
       </c>
       <c r="M103">
-        <v>0.4921</v>
+        <v>0.5014</v>
       </c>
     </row>
     <row r="104">
@@ -5199,23 +5199,23 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I104">
-        <v>1515</v>
+        <v>1752</v>
       </c>
       <c r="J104">
-        <v>1054</v>
+        <v>1254</v>
       </c>
       <c r="K104">
-        <v>612</v>
+        <v>717</v>
       </c>
       <c r="L104">
-        <v>0.6957</v>
+        <v>0.7158</v>
       </c>
       <c r="M104">
-        <v>0.404</v>
+        <v>0.4092</v>
       </c>
     </row>
     <row r="105">
@@ -5246,23 +5246,23 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I105">
-        <v>5839</v>
+        <v>6072</v>
       </c>
       <c r="J105">
-        <v>3915</v>
+        <v>4108</v>
       </c>
       <c r="K105">
-        <v>2885</v>
+        <v>3102</v>
       </c>
       <c r="L105">
-        <v>0.6705</v>
+        <v>0.6765</v>
       </c>
       <c r="M105">
-        <v>0.4941</v>
+        <v>0.5109</v>
       </c>
     </row>
     <row r="106">
@@ -5293,23 +5293,23 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I106">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="J106">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="K106">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="L106">
-        <v>0.5684</v>
+        <v>0.5578</v>
       </c>
       <c r="M106">
-        <v>0.424</v>
+        <v>0.4407</v>
       </c>
     </row>
     <row r="107">
@@ -5340,23 +5340,23 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I107">
-        <v>40840</v>
+        <v>43579</v>
       </c>
       <c r="J107">
-        <v>26882</v>
+        <v>28888</v>
       </c>
       <c r="K107">
-        <v>17476</v>
+        <v>19257</v>
       </c>
       <c r="L107">
-        <v>0.6582</v>
+        <v>0.6629</v>
       </c>
       <c r="M107">
-        <v>0.4279</v>
+        <v>0.4419</v>
       </c>
     </row>
     <row r="108">
@@ -5387,23 +5387,23 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I108">
-        <v>1062</v>
+        <v>1147</v>
       </c>
       <c r="J108">
-        <v>689</v>
+        <v>763</v>
       </c>
       <c r="K108">
-        <v>652</v>
+        <v>711</v>
       </c>
       <c r="L108">
-        <v>0.6488</v>
+        <v>0.6652</v>
       </c>
       <c r="M108">
-        <v>0.6139</v>
+        <v>0.6199</v>
       </c>
     </row>
     <row r="109">
@@ -5434,23 +5434,863 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-03-23 16:00:00</t>
+          <t>2020-03-24 08:00:00</t>
         </is>
       </c>
       <c r="I109">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="J109">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="K109">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="L109">
-        <v>0.4911</v>
+        <v>0.4921</v>
       </c>
       <c r="M109">
-        <v>0.4619</v>
+        <v>0.4689</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>623</v>
+      </c>
+      <c r="D110">
+        <v>523</v>
+      </c>
+      <c r="E110">
+        <v>292</v>
+      </c>
+      <c r="F110">
+        <v>0.8395</v>
+      </c>
+      <c r="G110">
+        <v>0.4687</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I110">
+        <v>6072</v>
+      </c>
+      <c r="J110">
+        <v>4108</v>
+      </c>
+      <c r="K110">
+        <v>3102</v>
+      </c>
+      <c r="L110">
+        <v>0.6765</v>
+      </c>
+      <c r="M110">
+        <v>0.5109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>53</v>
+      </c>
+      <c r="D111">
+        <v>19</v>
+      </c>
+      <c r="E111">
+        <v>18</v>
+      </c>
+      <c r="F111">
+        <v>0.3585</v>
+      </c>
+      <c r="G111">
+        <v>0.3396</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I111">
+        <v>683</v>
+      </c>
+      <c r="J111">
+        <v>381</v>
+      </c>
+      <c r="K111">
+        <v>301</v>
+      </c>
+      <c r="L111">
+        <v>0.5578</v>
+      </c>
+      <c r="M111">
+        <v>0.4407</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>5817</v>
+      </c>
+      <c r="D112">
+        <v>4151</v>
+      </c>
+      <c r="E112">
+        <v>2450</v>
+      </c>
+      <c r="F112">
+        <v>0.7136</v>
+      </c>
+      <c r="G112">
+        <v>0.4212</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I112">
+        <v>43579</v>
+      </c>
+      <c r="J112">
+        <v>28888</v>
+      </c>
+      <c r="K112">
+        <v>19257</v>
+      </c>
+      <c r="L112">
+        <v>0.6629</v>
+      </c>
+      <c r="M112">
+        <v>0.4419</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>128</v>
+      </c>
+      <c r="D113">
+        <v>100</v>
+      </c>
+      <c r="E113">
+        <v>68</v>
+      </c>
+      <c r="F113">
+        <v>0.7813</v>
+      </c>
+      <c r="G113">
+        <v>0.5313</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I113">
+        <v>1147</v>
+      </c>
+      <c r="J113">
+        <v>763</v>
+      </c>
+      <c r="K113">
+        <v>711</v>
+      </c>
+      <c r="L113">
+        <v>0.6652</v>
+      </c>
+      <c r="M113">
+        <v>0.6199</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>47</v>
+      </c>
+      <c r="D114">
+        <v>22</v>
+      </c>
+      <c r="E114">
+        <v>19</v>
+      </c>
+      <c r="F114">
+        <v>0.4681</v>
+      </c>
+      <c r="G114">
+        <v>0.4043</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I114">
+        <v>819</v>
+      </c>
+      <c r="J114">
+        <v>403</v>
+      </c>
+      <c r="K114">
+        <v>384</v>
+      </c>
+      <c r="L114">
+        <v>0.4921</v>
+      </c>
+      <c r="M114">
+        <v>0.4689</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>1448</v>
+      </c>
+      <c r="D115">
+        <v>1064</v>
+      </c>
+      <c r="E115">
+        <v>440</v>
+      </c>
+      <c r="F115">
+        <v>0.7348</v>
+      </c>
+      <c r="G115">
+        <v>0.3039</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I115">
+        <v>18552</v>
+      </c>
+      <c r="J115">
+        <v>13035</v>
+      </c>
+      <c r="K115">
+        <v>7277</v>
+      </c>
+      <c r="L115">
+        <v>0.7026</v>
+      </c>
+      <c r="M115">
+        <v>0.3922</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>25</v>
+      </c>
+      <c r="D116">
+        <v>15</v>
+      </c>
+      <c r="E116">
+        <v>8</v>
+      </c>
+      <c r="F116">
+        <v>0.6</v>
+      </c>
+      <c r="G116">
+        <v>0.32</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I116">
+        <v>360</v>
+      </c>
+      <c r="J116">
+        <v>178</v>
+      </c>
+      <c r="K116">
+        <v>190</v>
+      </c>
+      <c r="L116">
+        <v>0.4944</v>
+      </c>
+      <c r="M116">
+        <v>0.5278</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>94</v>
+      </c>
+      <c r="D117">
+        <v>56</v>
+      </c>
+      <c r="E117">
+        <v>28</v>
+      </c>
+      <c r="F117">
+        <v>0.5957</v>
+      </c>
+      <c r="G117">
+        <v>0.2979</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I117">
+        <v>1042</v>
+      </c>
+      <c r="J117">
+        <v>593</v>
+      </c>
+      <c r="K117">
+        <v>455</v>
+      </c>
+      <c r="L117">
+        <v>0.5691000000000001</v>
+      </c>
+      <c r="M117">
+        <v>0.4367</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>672</v>
+      </c>
+      <c r="D118">
+        <v>503</v>
+      </c>
+      <c r="E118">
+        <v>159</v>
+      </c>
+      <c r="F118">
+        <v>0.7485000000000001</v>
+      </c>
+      <c r="G118">
+        <v>0.2366</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I118">
+        <v>2030</v>
+      </c>
+      <c r="J118">
+        <v>1289</v>
+      </c>
+      <c r="K118">
+        <v>741</v>
+      </c>
+      <c r="L118">
+        <v>0.635</v>
+      </c>
+      <c r="M118">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>1296</v>
+      </c>
+      <c r="D119">
+        <v>912</v>
+      </c>
+      <c r="E119">
+        <v>930</v>
+      </c>
+      <c r="F119">
+        <v>0.7037</v>
+      </c>
+      <c r="G119">
+        <v>0.7176</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I119">
+        <v>4145</v>
+      </c>
+      <c r="J119">
+        <v>2617</v>
+      </c>
+      <c r="K119">
+        <v>2243</v>
+      </c>
+      <c r="L119">
+        <v>0.6314</v>
+      </c>
+      <c r="M119">
+        <v>0.5411</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>116</v>
+      </c>
+      <c r="D120">
+        <v>86</v>
+      </c>
+      <c r="E120">
+        <v>46</v>
+      </c>
+      <c r="F120">
+        <v>0.7413999999999999</v>
+      </c>
+      <c r="G120">
+        <v>0.3966</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I120">
+        <v>1201</v>
+      </c>
+      <c r="J120">
+        <v>832</v>
+      </c>
+      <c r="K120">
+        <v>667</v>
+      </c>
+      <c r="L120">
+        <v>0.6928</v>
+      </c>
+      <c r="M120">
+        <v>0.5554</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>131</v>
+      </c>
+      <c r="D121">
+        <v>81</v>
+      </c>
+      <c r="E121">
+        <v>67</v>
+      </c>
+      <c r="F121">
+        <v>0.6183</v>
+      </c>
+      <c r="G121">
+        <v>0.5115</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I121">
+        <v>618</v>
+      </c>
+      <c r="J121">
+        <v>321</v>
+      </c>
+      <c r="K121">
+        <v>311</v>
+      </c>
+      <c r="L121">
+        <v>0.5194</v>
+      </c>
+      <c r="M121">
+        <v>0.5032</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>642</v>
+      </c>
+      <c r="D122">
+        <v>388</v>
+      </c>
+      <c r="E122">
+        <v>180</v>
+      </c>
+      <c r="F122">
+        <v>0.6044</v>
+      </c>
+      <c r="G122">
+        <v>0.2804</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I122">
+        <v>3515</v>
+      </c>
+      <c r="J122">
+        <v>2251</v>
+      </c>
+      <c r="K122">
+        <v>1322</v>
+      </c>
+      <c r="L122">
+        <v>0.6404</v>
+      </c>
+      <c r="M122">
+        <v>0.3761</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>99</v>
+      </c>
+      <c r="D124">
+        <v>62</v>
+      </c>
+      <c r="E124">
+        <v>35</v>
+      </c>
+      <c r="F124">
+        <v>0.6263</v>
+      </c>
+      <c r="G124">
+        <v>0.3535</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I124">
+        <v>565</v>
+      </c>
+      <c r="J124">
+        <v>305</v>
+      </c>
+      <c r="K124">
+        <v>286</v>
+      </c>
+      <c r="L124">
+        <v>0.5397999999999999</v>
+      </c>
+      <c r="M124">
+        <v>0.5062</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>42</v>
+      </c>
+      <c r="D125">
+        <v>27</v>
+      </c>
+      <c r="E125">
+        <v>14</v>
+      </c>
+      <c r="F125">
+        <v>0.6429</v>
+      </c>
+      <c r="G125">
+        <v>0.3333</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I125">
+        <v>312</v>
+      </c>
+      <c r="J125">
+        <v>143</v>
+      </c>
+      <c r="K125">
+        <v>166</v>
+      </c>
+      <c r="L125">
+        <v>0.4583</v>
+      </c>
+      <c r="M125">
+        <v>0.5321</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>80</v>
+      </c>
+      <c r="D126">
+        <v>43</v>
+      </c>
+      <c r="E126">
+        <v>27</v>
+      </c>
+      <c r="F126">
+        <v>0.5375</v>
+      </c>
+      <c r="G126">
+        <v>0.3375</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I126">
+        <v>708</v>
+      </c>
+      <c r="J126">
+        <v>380</v>
+      </c>
+      <c r="K126">
+        <v>355</v>
+      </c>
+      <c r="L126">
+        <v>0.5367</v>
+      </c>
+      <c r="M126">
+        <v>0.5014</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>284</v>
+      </c>
+      <c r="D127">
+        <v>220</v>
+      </c>
+      <c r="E127">
+        <v>106</v>
+      </c>
+      <c r="F127">
+        <v>0.7746</v>
+      </c>
+      <c r="G127">
+        <v>0.3732</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="I127">
+        <v>1752</v>
+      </c>
+      <c r="J127">
+        <v>1254</v>
+      </c>
+      <c r="K127">
+        <v>717</v>
+      </c>
+      <c r="L127">
+        <v>0.7158</v>
+      </c>
+      <c r="M127">
+        <v>0.4092</v>
       </c>
     </row>
   </sheetData>

--- a/data/学习数据.xlsx
+++ b/data/学习数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,25 +389,30 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>累计_分社</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>累计_成功领取人数</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>累计_新注册并领取人数</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>累计_领取看课人数</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>累计_新注册占比</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>累计_上课转化率</t>
         </is>
@@ -441,23 +446,28 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I2">
-        <v>18552</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
       </c>
       <c r="J2">
-        <v>13035</v>
+        <v>19451</v>
       </c>
       <c r="K2">
-        <v>7277</v>
+        <v>13719</v>
       </c>
       <c r="L2">
-        <v>0.7026</v>
+        <v>7788</v>
       </c>
       <c r="M2">
-        <v>0.3922</v>
+        <v>0.7053</v>
+      </c>
+      <c r="N2">
+        <v>0.4004</v>
       </c>
     </row>
     <row r="3">
@@ -488,23 +498,28 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I3">
-        <v>360</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
       </c>
       <c r="J3">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="K3">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L3">
-        <v>0.4944</v>
+        <v>217</v>
       </c>
       <c r="M3">
-        <v>0.5278</v>
+        <v>0.5103</v>
+      </c>
+      <c r="N3">
+        <v>0.5564</v>
       </c>
     </row>
     <row r="4">
@@ -535,23 +550,28 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I4">
-        <v>1042</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
       </c>
       <c r="J4">
-        <v>593</v>
+        <v>1087</v>
       </c>
       <c r="K4">
-        <v>455</v>
+        <v>621</v>
       </c>
       <c r="L4">
-        <v>0.5691000000000001</v>
+        <v>492</v>
       </c>
       <c r="M4">
-        <v>0.4367</v>
+        <v>0.5713</v>
+      </c>
+      <c r="N4">
+        <v>0.4526</v>
       </c>
     </row>
     <row r="5">
@@ -582,23 +602,28 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I5">
-        <v>2030</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
       </c>
       <c r="J5">
-        <v>1289</v>
+        <v>2184</v>
       </c>
       <c r="K5">
-        <v>741</v>
+        <v>1385</v>
       </c>
       <c r="L5">
-        <v>0.635</v>
+        <v>840</v>
       </c>
       <c r="M5">
-        <v>0.365</v>
+        <v>0.6342</v>
+      </c>
+      <c r="N5">
+        <v>0.3846</v>
       </c>
     </row>
     <row r="6">
@@ -629,23 +654,28 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I6">
-        <v>4145</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
       </c>
       <c r="J6">
-        <v>2617</v>
+        <v>5555</v>
       </c>
       <c r="K6">
-        <v>2243</v>
+        <v>3705</v>
       </c>
       <c r="L6">
-        <v>0.6314</v>
+        <v>3450</v>
       </c>
       <c r="M6">
-        <v>0.5411</v>
+        <v>0.667</v>
+      </c>
+      <c r="N6">
+        <v>0.6211</v>
       </c>
     </row>
     <row r="7">
@@ -676,23 +706,28 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I7">
-        <v>1201</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
       </c>
       <c r="J7">
-        <v>832</v>
+        <v>1265</v>
       </c>
       <c r="K7">
-        <v>667</v>
+        <v>873</v>
       </c>
       <c r="L7">
-        <v>0.6928</v>
+        <v>724</v>
       </c>
       <c r="M7">
-        <v>0.5554</v>
+        <v>0.6901</v>
+      </c>
+      <c r="N7">
+        <v>0.5723</v>
       </c>
     </row>
     <row r="8">
@@ -723,23 +758,28 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I8">
-        <v>618</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
       </c>
       <c r="J8">
-        <v>321</v>
+        <v>738</v>
       </c>
       <c r="K8">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="L8">
-        <v>0.5194</v>
+        <v>392</v>
       </c>
       <c r="M8">
-        <v>0.5032</v>
+        <v>0.5095</v>
+      </c>
+      <c r="N8">
+        <v>0.5312</v>
       </c>
     </row>
     <row r="9">
@@ -770,23 +810,28 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I9">
-        <v>3515</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
       </c>
       <c r="J9">
-        <v>2251</v>
+        <v>3917</v>
       </c>
       <c r="K9">
-        <v>1322</v>
+        <v>2442</v>
       </c>
       <c r="L9">
-        <v>0.6404</v>
+        <v>1550</v>
       </c>
       <c r="M9">
-        <v>0.3761</v>
+        <v>0.6234</v>
+      </c>
+      <c r="N9">
+        <v>0.3957</v>
       </c>
     </row>
     <row r="10">
@@ -811,22 +856,27 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I10">
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>1</v>
       </c>
     </row>
@@ -858,23 +908,28 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I11">
-        <v>565</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
       </c>
       <c r="J11">
-        <v>305</v>
+        <v>1032</v>
       </c>
       <c r="K11">
-        <v>286</v>
+        <v>601</v>
       </c>
       <c r="L11">
-        <v>0.5397999999999999</v>
+        <v>480</v>
       </c>
       <c r="M11">
-        <v>0.5062</v>
+        <v>0.5824</v>
+      </c>
+      <c r="N11">
+        <v>0.4651</v>
       </c>
     </row>
     <row r="12">
@@ -905,23 +960,28 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I12">
-        <v>312</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
       </c>
       <c r="J12">
-        <v>143</v>
+        <v>360</v>
       </c>
       <c r="K12">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L12">
-        <v>0.4583</v>
+        <v>192</v>
       </c>
       <c r="M12">
-        <v>0.5321</v>
+        <v>0.4528</v>
+      </c>
+      <c r="N12">
+        <v>0.5333</v>
       </c>
     </row>
     <row r="13">
@@ -952,23 +1012,28 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I13">
-        <v>708</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
       </c>
       <c r="J13">
-        <v>380</v>
+        <v>772</v>
       </c>
       <c r="K13">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="L13">
-        <v>0.5367</v>
+        <v>410</v>
       </c>
       <c r="M13">
-        <v>0.5014</v>
+        <v>0.544</v>
+      </c>
+      <c r="N13">
+        <v>0.5311</v>
       </c>
     </row>
     <row r="14">
@@ -999,23 +1064,28 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I14">
-        <v>1752</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
       </c>
       <c r="J14">
-        <v>1254</v>
+        <v>1978</v>
       </c>
       <c r="K14">
-        <v>717</v>
+        <v>1363</v>
       </c>
       <c r="L14">
-        <v>0.7158</v>
+        <v>840</v>
       </c>
       <c r="M14">
-        <v>0.4092</v>
+        <v>0.6891</v>
+      </c>
+      <c r="N14">
+        <v>0.4247</v>
       </c>
     </row>
     <row r="15">
@@ -1046,23 +1116,28 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I15">
-        <v>6072</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
       </c>
       <c r="J15">
-        <v>4108</v>
+        <v>6532</v>
       </c>
       <c r="K15">
-        <v>3102</v>
+        <v>4426</v>
       </c>
       <c r="L15">
-        <v>0.6765</v>
+        <v>3405</v>
       </c>
       <c r="M15">
-        <v>0.5109</v>
+        <v>0.6776</v>
+      </c>
+      <c r="N15">
+        <v>0.5213</v>
       </c>
     </row>
     <row r="16">
@@ -1087,23 +1162,28 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I16">
-        <v>683</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
       </c>
       <c r="J16">
-        <v>381</v>
+        <v>782</v>
       </c>
       <c r="K16">
-        <v>301</v>
+        <v>441</v>
       </c>
       <c r="L16">
-        <v>0.5578</v>
+        <v>334</v>
       </c>
       <c r="M16">
-        <v>0.4407</v>
+        <v>0.5639</v>
+      </c>
+      <c r="N16">
+        <v>0.4271</v>
       </c>
     </row>
     <row r="17">
@@ -1134,23 +1214,28 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I17">
-        <v>43579</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
       </c>
       <c r="J17">
-        <v>28888</v>
+        <v>48317</v>
       </c>
       <c r="K17">
-        <v>19257</v>
+        <v>32079</v>
       </c>
       <c r="L17">
-        <v>0.6629</v>
+        <v>22356</v>
       </c>
       <c r="M17">
-        <v>0.4419</v>
+        <v>0.6639</v>
+      </c>
+      <c r="N17">
+        <v>0.4627</v>
       </c>
     </row>
     <row r="18">
@@ -1181,23 +1266,28 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I18">
-        <v>1147</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
       </c>
       <c r="J18">
-        <v>763</v>
+        <v>1260</v>
       </c>
       <c r="K18">
-        <v>711</v>
+        <v>834</v>
       </c>
       <c r="L18">
-        <v>0.6652</v>
+        <v>773</v>
       </c>
       <c r="M18">
-        <v>0.6199</v>
+        <v>0.6619</v>
+      </c>
+      <c r="N18">
+        <v>0.6135</v>
       </c>
     </row>
     <row r="19">
@@ -1228,23 +1318,28 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I19">
-        <v>819</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
       </c>
       <c r="J19">
-        <v>403</v>
+        <v>955</v>
       </c>
       <c r="K19">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="L19">
-        <v>0.4921</v>
+        <v>437</v>
       </c>
       <c r="M19">
-        <v>0.4689</v>
+        <v>0.4984</v>
+      </c>
+      <c r="N19">
+        <v>0.4576</v>
       </c>
     </row>
     <row r="20">
@@ -1275,23 +1370,28 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I20">
-        <v>18552</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
       </c>
       <c r="J20">
-        <v>13035</v>
+        <v>19451</v>
       </c>
       <c r="K20">
-        <v>7277</v>
+        <v>13719</v>
       </c>
       <c r="L20">
-        <v>0.7026</v>
+        <v>7788</v>
       </c>
       <c r="M20">
-        <v>0.3922</v>
+        <v>0.7053</v>
+      </c>
+      <c r="N20">
+        <v>0.4004</v>
       </c>
     </row>
     <row r="21">
@@ -1322,23 +1422,28 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I21">
-        <v>360</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
       </c>
       <c r="J21">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="K21">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L21">
-        <v>0.4944</v>
+        <v>217</v>
       </c>
       <c r="M21">
-        <v>0.5278</v>
+        <v>0.5103</v>
+      </c>
+      <c r="N21">
+        <v>0.5564</v>
       </c>
     </row>
     <row r="22">
@@ -1369,23 +1474,28 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I22">
-        <v>1042</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
       </c>
       <c r="J22">
-        <v>593</v>
+        <v>1087</v>
       </c>
       <c r="K22">
-        <v>455</v>
+        <v>621</v>
       </c>
       <c r="L22">
-        <v>0.5691000000000001</v>
+        <v>492</v>
       </c>
       <c r="M22">
-        <v>0.4367</v>
+        <v>0.5713</v>
+      </c>
+      <c r="N22">
+        <v>0.4526</v>
       </c>
     </row>
     <row r="23">
@@ -1416,23 +1526,28 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I23">
-        <v>2030</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
       </c>
       <c r="J23">
-        <v>1289</v>
+        <v>2184</v>
       </c>
       <c r="K23">
-        <v>741</v>
+        <v>1385</v>
       </c>
       <c r="L23">
-        <v>0.635</v>
+        <v>840</v>
       </c>
       <c r="M23">
-        <v>0.365</v>
+        <v>0.6342</v>
+      </c>
+      <c r="N23">
+        <v>0.3846</v>
       </c>
     </row>
     <row r="24">
@@ -1463,23 +1578,28 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I24">
-        <v>4145</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
       </c>
       <c r="J24">
-        <v>2617</v>
+        <v>5555</v>
       </c>
       <c r="K24">
-        <v>2243</v>
+        <v>3705</v>
       </c>
       <c r="L24">
-        <v>0.6314</v>
+        <v>3450</v>
       </c>
       <c r="M24">
-        <v>0.5411</v>
+        <v>0.667</v>
+      </c>
+      <c r="N24">
+        <v>0.6211</v>
       </c>
     </row>
     <row r="25">
@@ -1510,23 +1630,28 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I25">
-        <v>1201</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
       </c>
       <c r="J25">
-        <v>832</v>
+        <v>1265</v>
       </c>
       <c r="K25">
-        <v>667</v>
+        <v>873</v>
       </c>
       <c r="L25">
-        <v>0.6928</v>
+        <v>724</v>
       </c>
       <c r="M25">
-        <v>0.5554</v>
+        <v>0.6901</v>
+      </c>
+      <c r="N25">
+        <v>0.5723</v>
       </c>
     </row>
     <row r="26">
@@ -1557,23 +1682,28 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I26">
-        <v>618</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
       </c>
       <c r="J26">
-        <v>321</v>
+        <v>738</v>
       </c>
       <c r="K26">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="L26">
-        <v>0.5194</v>
+        <v>392</v>
       </c>
       <c r="M26">
-        <v>0.5032</v>
+        <v>0.5095</v>
+      </c>
+      <c r="N26">
+        <v>0.5312</v>
       </c>
     </row>
     <row r="27">
@@ -1604,23 +1734,28 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I27">
-        <v>3515</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
       </c>
       <c r="J27">
-        <v>2251</v>
+        <v>3917</v>
       </c>
       <c r="K27">
-        <v>1322</v>
+        <v>2442</v>
       </c>
       <c r="L27">
-        <v>0.6404</v>
+        <v>1550</v>
       </c>
       <c r="M27">
-        <v>0.3761</v>
+        <v>0.6234</v>
+      </c>
+      <c r="N27">
+        <v>0.3957</v>
       </c>
     </row>
     <row r="28">
@@ -1651,22 +1786,27 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I28">
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>1</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
       <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
         <v>1</v>
       </c>
     </row>
@@ -1698,23 +1838,28 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I29">
-        <v>565</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
       </c>
       <c r="J29">
-        <v>305</v>
+        <v>1032</v>
       </c>
       <c r="K29">
-        <v>286</v>
+        <v>601</v>
       </c>
       <c r="L29">
-        <v>0.5397999999999999</v>
+        <v>480</v>
       </c>
       <c r="M29">
-        <v>0.5062</v>
+        <v>0.5824</v>
+      </c>
+      <c r="N29">
+        <v>0.4651</v>
       </c>
     </row>
     <row r="30">
@@ -1745,23 +1890,28 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I30">
-        <v>312</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
       </c>
       <c r="J30">
-        <v>143</v>
+        <v>360</v>
       </c>
       <c r="K30">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L30">
-        <v>0.4583</v>
+        <v>192</v>
       </c>
       <c r="M30">
-        <v>0.5321</v>
+        <v>0.4528</v>
+      </c>
+      <c r="N30">
+        <v>0.5333</v>
       </c>
     </row>
     <row r="31">
@@ -1792,23 +1942,28 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I31">
-        <v>708</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
       </c>
       <c r="J31">
-        <v>380</v>
+        <v>772</v>
       </c>
       <c r="K31">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="L31">
-        <v>0.5367</v>
+        <v>410</v>
       </c>
       <c r="M31">
-        <v>0.5014</v>
+        <v>0.544</v>
+      </c>
+      <c r="N31">
+        <v>0.5311</v>
       </c>
     </row>
     <row r="32">
@@ -1839,23 +1994,28 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I32">
-        <v>1752</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
       </c>
       <c r="J32">
-        <v>1254</v>
+        <v>1978</v>
       </c>
       <c r="K32">
-        <v>717</v>
+        <v>1363</v>
       </c>
       <c r="L32">
-        <v>0.7158</v>
+        <v>840</v>
       </c>
       <c r="M32">
-        <v>0.4092</v>
+        <v>0.6891</v>
+      </c>
+      <c r="N32">
+        <v>0.4247</v>
       </c>
     </row>
     <row r="33">
@@ -1886,23 +2046,28 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I33">
-        <v>6072</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
       </c>
       <c r="J33">
-        <v>4108</v>
+        <v>6532</v>
       </c>
       <c r="K33">
-        <v>3102</v>
+        <v>4426</v>
       </c>
       <c r="L33">
-        <v>0.6765</v>
+        <v>3405</v>
       </c>
       <c r="M33">
-        <v>0.5109</v>
+        <v>0.6776</v>
+      </c>
+      <c r="N33">
+        <v>0.5213</v>
       </c>
     </row>
     <row r="34">
@@ -1933,23 +2098,28 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I34">
-        <v>683</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
       </c>
       <c r="J34">
-        <v>381</v>
+        <v>782</v>
       </c>
       <c r="K34">
-        <v>301</v>
+        <v>441</v>
       </c>
       <c r="L34">
-        <v>0.5578</v>
+        <v>334</v>
       </c>
       <c r="M34">
-        <v>0.4407</v>
+        <v>0.5639</v>
+      </c>
+      <c r="N34">
+        <v>0.4271</v>
       </c>
     </row>
     <row r="35">
@@ -1980,23 +2150,28 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I35">
-        <v>43579</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
       </c>
       <c r="J35">
-        <v>28888</v>
+        <v>48317</v>
       </c>
       <c r="K35">
-        <v>19257</v>
+        <v>32079</v>
       </c>
       <c r="L35">
-        <v>0.6629</v>
+        <v>22356</v>
       </c>
       <c r="M35">
-        <v>0.4419</v>
+        <v>0.6639</v>
+      </c>
+      <c r="N35">
+        <v>0.4627</v>
       </c>
     </row>
     <row r="36">
@@ -2027,23 +2202,28 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I36">
-        <v>1147</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
       </c>
       <c r="J36">
-        <v>763</v>
+        <v>1260</v>
       </c>
       <c r="K36">
-        <v>711</v>
+        <v>834</v>
       </c>
       <c r="L36">
-        <v>0.6652</v>
+        <v>773</v>
       </c>
       <c r="M36">
-        <v>0.6199</v>
+        <v>0.6619</v>
+      </c>
+      <c r="N36">
+        <v>0.6135</v>
       </c>
     </row>
     <row r="37">
@@ -2074,23 +2254,28 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I37">
-        <v>819</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
       </c>
       <c r="J37">
-        <v>403</v>
+        <v>955</v>
       </c>
       <c r="K37">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="L37">
-        <v>0.4921</v>
+        <v>437</v>
       </c>
       <c r="M37">
-        <v>0.4689</v>
+        <v>0.4984</v>
+      </c>
+      <c r="N37">
+        <v>0.4576</v>
       </c>
     </row>
     <row r="38">
@@ -2121,23 +2306,28 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I38">
-        <v>6072</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
       </c>
       <c r="J38">
-        <v>4108</v>
+        <v>6532</v>
       </c>
       <c r="K38">
-        <v>3102</v>
+        <v>4426</v>
       </c>
       <c r="L38">
-        <v>0.6765</v>
+        <v>3405</v>
       </c>
       <c r="M38">
-        <v>0.5109</v>
+        <v>0.6776</v>
+      </c>
+      <c r="N38">
+        <v>0.5213</v>
       </c>
     </row>
     <row r="39">
@@ -2168,23 +2358,28 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I39">
-        <v>683</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
       </c>
       <c r="J39">
-        <v>381</v>
+        <v>782</v>
       </c>
       <c r="K39">
-        <v>301</v>
+        <v>441</v>
       </c>
       <c r="L39">
-        <v>0.5578</v>
+        <v>334</v>
       </c>
       <c r="M39">
-        <v>0.4407</v>
+        <v>0.5639</v>
+      </c>
+      <c r="N39">
+        <v>0.4271</v>
       </c>
     </row>
     <row r="40">
@@ -2215,23 +2410,28 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I40">
-        <v>43579</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
       </c>
       <c r="J40">
-        <v>28888</v>
+        <v>48317</v>
       </c>
       <c r="K40">
-        <v>19257</v>
+        <v>32079</v>
       </c>
       <c r="L40">
-        <v>0.6629</v>
+        <v>22356</v>
       </c>
       <c r="M40">
-        <v>0.4419</v>
+        <v>0.6639</v>
+      </c>
+      <c r="N40">
+        <v>0.4627</v>
       </c>
     </row>
     <row r="41">
@@ -2262,23 +2462,28 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I41">
-        <v>1147</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
       </c>
       <c r="J41">
-        <v>763</v>
+        <v>1260</v>
       </c>
       <c r="K41">
-        <v>711</v>
+        <v>834</v>
       </c>
       <c r="L41">
-        <v>0.6652</v>
+        <v>773</v>
       </c>
       <c r="M41">
-        <v>0.6199</v>
+        <v>0.6619</v>
+      </c>
+      <c r="N41">
+        <v>0.6135</v>
       </c>
     </row>
     <row r="42">
@@ -2309,23 +2514,28 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I42">
-        <v>819</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
       </c>
       <c r="J42">
-        <v>403</v>
+        <v>955</v>
       </c>
       <c r="K42">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="L42">
-        <v>0.4921</v>
+        <v>437</v>
       </c>
       <c r="M42">
-        <v>0.4689</v>
+        <v>0.4984</v>
+      </c>
+      <c r="N42">
+        <v>0.4576</v>
       </c>
     </row>
     <row r="43">
@@ -2356,23 +2566,28 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I43">
-        <v>18552</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
       </c>
       <c r="J43">
-        <v>13035</v>
+        <v>19451</v>
       </c>
       <c r="K43">
-        <v>7277</v>
+        <v>13719</v>
       </c>
       <c r="L43">
-        <v>0.7026</v>
+        <v>7788</v>
       </c>
       <c r="M43">
-        <v>0.3922</v>
+        <v>0.7053</v>
+      </c>
+      <c r="N43">
+        <v>0.4004</v>
       </c>
     </row>
     <row r="44">
@@ -2403,23 +2618,28 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I44">
-        <v>360</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
       </c>
       <c r="J44">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="K44">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L44">
-        <v>0.4944</v>
+        <v>217</v>
       </c>
       <c r="M44">
-        <v>0.5278</v>
+        <v>0.5103</v>
+      </c>
+      <c r="N44">
+        <v>0.5564</v>
       </c>
     </row>
     <row r="45">
@@ -2450,23 +2670,28 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I45">
-        <v>1042</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
       </c>
       <c r="J45">
-        <v>593</v>
+        <v>1087</v>
       </c>
       <c r="K45">
-        <v>455</v>
+        <v>621</v>
       </c>
       <c r="L45">
-        <v>0.5691000000000001</v>
+        <v>492</v>
       </c>
       <c r="M45">
-        <v>0.4367</v>
+        <v>0.5713</v>
+      </c>
+      <c r="N45">
+        <v>0.4526</v>
       </c>
     </row>
     <row r="46">
@@ -2497,23 +2722,28 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I46">
-        <v>2030</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
       </c>
       <c r="J46">
-        <v>1289</v>
+        <v>2184</v>
       </c>
       <c r="K46">
-        <v>741</v>
+        <v>1385</v>
       </c>
       <c r="L46">
-        <v>0.635</v>
+        <v>840</v>
       </c>
       <c r="M46">
-        <v>0.365</v>
+        <v>0.6342</v>
+      </c>
+      <c r="N46">
+        <v>0.3846</v>
       </c>
     </row>
     <row r="47">
@@ -2544,23 +2774,28 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I47">
-        <v>4145</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
       </c>
       <c r="J47">
-        <v>2617</v>
+        <v>5555</v>
       </c>
       <c r="K47">
-        <v>2243</v>
+        <v>3705</v>
       </c>
       <c r="L47">
-        <v>0.6314</v>
+        <v>3450</v>
       </c>
       <c r="M47">
-        <v>0.5411</v>
+        <v>0.667</v>
+      </c>
+      <c r="N47">
+        <v>0.6211</v>
       </c>
     </row>
     <row r="48">
@@ -2591,23 +2826,28 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I48">
-        <v>1201</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
       </c>
       <c r="J48">
-        <v>832</v>
+        <v>1265</v>
       </c>
       <c r="K48">
-        <v>667</v>
+        <v>873</v>
       </c>
       <c r="L48">
-        <v>0.6928</v>
+        <v>724</v>
       </c>
       <c r="M48">
-        <v>0.5554</v>
+        <v>0.6901</v>
+      </c>
+      <c r="N48">
+        <v>0.5723</v>
       </c>
     </row>
     <row r="49">
@@ -2638,23 +2878,28 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I49">
-        <v>618</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
       </c>
       <c r="J49">
-        <v>321</v>
+        <v>738</v>
       </c>
       <c r="K49">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="L49">
-        <v>0.5194</v>
+        <v>392</v>
       </c>
       <c r="M49">
-        <v>0.5032</v>
+        <v>0.5095</v>
+      </c>
+      <c r="N49">
+        <v>0.5312</v>
       </c>
     </row>
     <row r="50">
@@ -2685,23 +2930,28 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I50">
-        <v>3515</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
       </c>
       <c r="J50">
-        <v>2251</v>
+        <v>3917</v>
       </c>
       <c r="K50">
-        <v>1322</v>
+        <v>2442</v>
       </c>
       <c r="L50">
-        <v>0.6404</v>
+        <v>1550</v>
       </c>
       <c r="M50">
-        <v>0.3761</v>
+        <v>0.6234</v>
+      </c>
+      <c r="N50">
+        <v>0.3957</v>
       </c>
     </row>
     <row r="51">
@@ -2726,22 +2976,27 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I51">
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
         <v>1</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
       <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
         <v>1</v>
       </c>
     </row>
@@ -2773,23 +3028,28 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I52">
-        <v>565</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
       </c>
       <c r="J52">
-        <v>305</v>
+        <v>1032</v>
       </c>
       <c r="K52">
-        <v>286</v>
+        <v>601</v>
       </c>
       <c r="L52">
-        <v>0.5397999999999999</v>
+        <v>480</v>
       </c>
       <c r="M52">
-        <v>0.5062</v>
+        <v>0.5824</v>
+      </c>
+      <c r="N52">
+        <v>0.4651</v>
       </c>
     </row>
     <row r="53">
@@ -2820,23 +3080,28 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I53">
-        <v>312</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
       </c>
       <c r="J53">
-        <v>143</v>
+        <v>360</v>
       </c>
       <c r="K53">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L53">
-        <v>0.4583</v>
+        <v>192</v>
       </c>
       <c r="M53">
-        <v>0.5321</v>
+        <v>0.4528</v>
+      </c>
+      <c r="N53">
+        <v>0.5333</v>
       </c>
     </row>
     <row r="54">
@@ -2867,23 +3132,28 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I54">
-        <v>708</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
       </c>
       <c r="J54">
-        <v>380</v>
+        <v>772</v>
       </c>
       <c r="K54">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="L54">
-        <v>0.5367</v>
+        <v>410</v>
       </c>
       <c r="M54">
-        <v>0.5014</v>
+        <v>0.544</v>
+      </c>
+      <c r="N54">
+        <v>0.5311</v>
       </c>
     </row>
     <row r="55">
@@ -2914,23 +3184,28 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I55">
-        <v>1752</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
       </c>
       <c r="J55">
-        <v>1254</v>
+        <v>1978</v>
       </c>
       <c r="K55">
-        <v>717</v>
+        <v>1363</v>
       </c>
       <c r="L55">
-        <v>0.7158</v>
+        <v>840</v>
       </c>
       <c r="M55">
-        <v>0.4092</v>
+        <v>0.6891</v>
+      </c>
+      <c r="N55">
+        <v>0.4247</v>
       </c>
     </row>
     <row r="56">
@@ -2961,23 +3236,28 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I56">
-        <v>18552</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
       </c>
       <c r="J56">
-        <v>13035</v>
+        <v>19451</v>
       </c>
       <c r="K56">
-        <v>7277</v>
+        <v>13719</v>
       </c>
       <c r="L56">
-        <v>0.7026</v>
+        <v>7788</v>
       </c>
       <c r="M56">
-        <v>0.3922</v>
+        <v>0.7053</v>
+      </c>
+      <c r="N56">
+        <v>0.4004</v>
       </c>
     </row>
     <row r="57">
@@ -3008,23 +3288,28 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I57">
-        <v>360</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
       </c>
       <c r="J57">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="K57">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L57">
-        <v>0.4944</v>
+        <v>217</v>
       </c>
       <c r="M57">
-        <v>0.5278</v>
+        <v>0.5103</v>
+      </c>
+      <c r="N57">
+        <v>0.5564</v>
       </c>
     </row>
     <row r="58">
@@ -3055,23 +3340,28 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I58">
-        <v>1042</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
       </c>
       <c r="J58">
-        <v>593</v>
+        <v>1087</v>
       </c>
       <c r="K58">
-        <v>455</v>
+        <v>621</v>
       </c>
       <c r="L58">
-        <v>0.5691000000000001</v>
+        <v>492</v>
       </c>
       <c r="M58">
-        <v>0.4367</v>
+        <v>0.5713</v>
+      </c>
+      <c r="N58">
+        <v>0.4526</v>
       </c>
     </row>
     <row r="59">
@@ -3102,23 +3392,28 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I59">
-        <v>2030</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
       </c>
       <c r="J59">
-        <v>1289</v>
+        <v>2184</v>
       </c>
       <c r="K59">
-        <v>741</v>
+        <v>1385</v>
       </c>
       <c r="L59">
-        <v>0.635</v>
+        <v>840</v>
       </c>
       <c r="M59">
-        <v>0.365</v>
+        <v>0.6342</v>
+      </c>
+      <c r="N59">
+        <v>0.3846</v>
       </c>
     </row>
     <row r="60">
@@ -3149,23 +3444,28 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I60">
-        <v>4145</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
       </c>
       <c r="J60">
-        <v>2617</v>
+        <v>5555</v>
       </c>
       <c r="K60">
-        <v>2243</v>
+        <v>3705</v>
       </c>
       <c r="L60">
-        <v>0.6314</v>
+        <v>3450</v>
       </c>
       <c r="M60">
-        <v>0.5411</v>
+        <v>0.667</v>
+      </c>
+      <c r="N60">
+        <v>0.6211</v>
       </c>
     </row>
     <row r="61">
@@ -3196,23 +3496,28 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I61">
-        <v>1201</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
       </c>
       <c r="J61">
-        <v>832</v>
+        <v>1265</v>
       </c>
       <c r="K61">
-        <v>667</v>
+        <v>873</v>
       </c>
       <c r="L61">
-        <v>0.6928</v>
+        <v>724</v>
       </c>
       <c r="M61">
-        <v>0.5554</v>
+        <v>0.6901</v>
+      </c>
+      <c r="N61">
+        <v>0.5723</v>
       </c>
     </row>
     <row r="62">
@@ -3243,23 +3548,28 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I62">
-        <v>618</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
       </c>
       <c r="J62">
-        <v>321</v>
+        <v>738</v>
       </c>
       <c r="K62">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="L62">
-        <v>0.5194</v>
+        <v>392</v>
       </c>
       <c r="M62">
-        <v>0.5032</v>
+        <v>0.5095</v>
+      </c>
+      <c r="N62">
+        <v>0.5312</v>
       </c>
     </row>
     <row r="63">
@@ -3290,23 +3600,28 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I63">
-        <v>3515</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
       </c>
       <c r="J63">
-        <v>2251</v>
+        <v>3917</v>
       </c>
       <c r="K63">
-        <v>1322</v>
+        <v>2442</v>
       </c>
       <c r="L63">
-        <v>0.6404</v>
+        <v>1550</v>
       </c>
       <c r="M63">
-        <v>0.3761</v>
+        <v>0.6234</v>
+      </c>
+      <c r="N63">
+        <v>0.3957</v>
       </c>
     </row>
     <row r="64">
@@ -3331,22 +3646,27 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I64">
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
       <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
         <v>1</v>
       </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
       <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
         <v>1</v>
       </c>
     </row>
@@ -3378,23 +3698,28 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I65">
-        <v>565</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
       </c>
       <c r="J65">
-        <v>305</v>
+        <v>1032</v>
       </c>
       <c r="K65">
-        <v>286</v>
+        <v>601</v>
       </c>
       <c r="L65">
-        <v>0.5397999999999999</v>
+        <v>480</v>
       </c>
       <c r="M65">
-        <v>0.5062</v>
+        <v>0.5824</v>
+      </c>
+      <c r="N65">
+        <v>0.4651</v>
       </c>
     </row>
     <row r="66">
@@ -3425,23 +3750,28 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I66">
-        <v>312</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
       </c>
       <c r="J66">
-        <v>143</v>
+        <v>360</v>
       </c>
       <c r="K66">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L66">
-        <v>0.4583</v>
+        <v>192</v>
       </c>
       <c r="M66">
-        <v>0.5321</v>
+        <v>0.4528</v>
+      </c>
+      <c r="N66">
+        <v>0.5333</v>
       </c>
     </row>
     <row r="67">
@@ -3472,23 +3802,28 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I67">
-        <v>708</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
       </c>
       <c r="J67">
-        <v>380</v>
+        <v>772</v>
       </c>
       <c r="K67">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="L67">
-        <v>0.5367</v>
+        <v>410</v>
       </c>
       <c r="M67">
-        <v>0.5014</v>
+        <v>0.544</v>
+      </c>
+      <c r="N67">
+        <v>0.5311</v>
       </c>
     </row>
     <row r="68">
@@ -3519,23 +3854,28 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I68">
-        <v>1752</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
       </c>
       <c r="J68">
-        <v>1254</v>
+        <v>1978</v>
       </c>
       <c r="K68">
-        <v>717</v>
+        <v>1363</v>
       </c>
       <c r="L68">
-        <v>0.7158</v>
+        <v>840</v>
       </c>
       <c r="M68">
-        <v>0.4092</v>
+        <v>0.6891</v>
+      </c>
+      <c r="N68">
+        <v>0.4247</v>
       </c>
     </row>
     <row r="69">
@@ -3566,23 +3906,28 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I69">
-        <v>6072</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
       </c>
       <c r="J69">
-        <v>4108</v>
+        <v>6532</v>
       </c>
       <c r="K69">
-        <v>3102</v>
+        <v>4426</v>
       </c>
       <c r="L69">
-        <v>0.6765</v>
+        <v>3405</v>
       </c>
       <c r="M69">
-        <v>0.5109</v>
+        <v>0.6776</v>
+      </c>
+      <c r="N69">
+        <v>0.5213</v>
       </c>
     </row>
     <row r="70">
@@ -3613,23 +3958,28 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I70">
-        <v>683</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
       </c>
       <c r="J70">
-        <v>381</v>
+        <v>782</v>
       </c>
       <c r="K70">
-        <v>301</v>
+        <v>441</v>
       </c>
       <c r="L70">
-        <v>0.5578</v>
+        <v>334</v>
       </c>
       <c r="M70">
-        <v>0.4407</v>
+        <v>0.5639</v>
+      </c>
+      <c r="N70">
+        <v>0.4271</v>
       </c>
     </row>
     <row r="71">
@@ -3660,23 +4010,28 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I71">
-        <v>43579</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
       </c>
       <c r="J71">
-        <v>28888</v>
+        <v>48317</v>
       </c>
       <c r="K71">
-        <v>19257</v>
+        <v>32079</v>
       </c>
       <c r="L71">
-        <v>0.6629</v>
+        <v>22356</v>
       </c>
       <c r="M71">
-        <v>0.4419</v>
+        <v>0.6639</v>
+      </c>
+      <c r="N71">
+        <v>0.4627</v>
       </c>
     </row>
     <row r="72">
@@ -3707,23 +4062,28 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I72">
-        <v>1147</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
       </c>
       <c r="J72">
-        <v>763</v>
+        <v>1260</v>
       </c>
       <c r="K72">
-        <v>711</v>
+        <v>834</v>
       </c>
       <c r="L72">
-        <v>0.6652</v>
+        <v>773</v>
       </c>
       <c r="M72">
-        <v>0.6199</v>
+        <v>0.6619</v>
+      </c>
+      <c r="N72">
+        <v>0.6135</v>
       </c>
     </row>
     <row r="73">
@@ -3754,23 +4114,28 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I73">
-        <v>819</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
       </c>
       <c r="J73">
-        <v>403</v>
+        <v>955</v>
       </c>
       <c r="K73">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="L73">
-        <v>0.4921</v>
+        <v>437</v>
       </c>
       <c r="M73">
-        <v>0.4689</v>
+        <v>0.4984</v>
+      </c>
+      <c r="N73">
+        <v>0.4576</v>
       </c>
     </row>
     <row r="74">
@@ -3801,23 +4166,28 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I74">
-        <v>6072</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
       </c>
       <c r="J74">
-        <v>4108</v>
+        <v>6532</v>
       </c>
       <c r="K74">
-        <v>3102</v>
+        <v>4426</v>
       </c>
       <c r="L74">
-        <v>0.6765</v>
+        <v>3405</v>
       </c>
       <c r="M74">
-        <v>0.5109</v>
+        <v>0.6776</v>
+      </c>
+      <c r="N74">
+        <v>0.5213</v>
       </c>
     </row>
     <row r="75">
@@ -3848,23 +4218,28 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I75">
-        <v>683</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
       </c>
       <c r="J75">
-        <v>381</v>
+        <v>782</v>
       </c>
       <c r="K75">
-        <v>301</v>
+        <v>441</v>
       </c>
       <c r="L75">
-        <v>0.5578</v>
+        <v>334</v>
       </c>
       <c r="M75">
-        <v>0.4407</v>
+        <v>0.5639</v>
+      </c>
+      <c r="N75">
+        <v>0.4271</v>
       </c>
     </row>
     <row r="76">
@@ -3895,23 +4270,28 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I76">
-        <v>43579</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
       </c>
       <c r="J76">
-        <v>28888</v>
+        <v>48317</v>
       </c>
       <c r="K76">
-        <v>19257</v>
+        <v>32079</v>
       </c>
       <c r="L76">
-        <v>0.6629</v>
+        <v>22356</v>
       </c>
       <c r="M76">
-        <v>0.4419</v>
+        <v>0.6639</v>
+      </c>
+      <c r="N76">
+        <v>0.4627</v>
       </c>
     </row>
     <row r="77">
@@ -3942,23 +4322,28 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I77">
-        <v>1147</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
       </c>
       <c r="J77">
-        <v>763</v>
+        <v>1260</v>
       </c>
       <c r="K77">
-        <v>711</v>
+        <v>834</v>
       </c>
       <c r="L77">
-        <v>0.6652</v>
+        <v>773</v>
       </c>
       <c r="M77">
-        <v>0.6199</v>
+        <v>0.6619</v>
+      </c>
+      <c r="N77">
+        <v>0.6135</v>
       </c>
     </row>
     <row r="78">
@@ -3989,23 +4374,28 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I78">
-        <v>819</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
       </c>
       <c r="J78">
-        <v>403</v>
+        <v>955</v>
       </c>
       <c r="K78">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="L78">
-        <v>0.4921</v>
+        <v>437</v>
       </c>
       <c r="M78">
-        <v>0.4689</v>
+        <v>0.4984</v>
+      </c>
+      <c r="N78">
+        <v>0.4576</v>
       </c>
     </row>
     <row r="79">
@@ -4036,23 +4426,28 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I79">
-        <v>18552</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
       </c>
       <c r="J79">
-        <v>13035</v>
+        <v>19451</v>
       </c>
       <c r="K79">
-        <v>7277</v>
+        <v>13719</v>
       </c>
       <c r="L79">
-        <v>0.7026</v>
+        <v>7788</v>
       </c>
       <c r="M79">
-        <v>0.3922</v>
+        <v>0.7053</v>
+      </c>
+      <c r="N79">
+        <v>0.4004</v>
       </c>
     </row>
     <row r="80">
@@ -4083,23 +4478,28 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I80">
-        <v>360</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
       </c>
       <c r="J80">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="K80">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L80">
-        <v>0.4944</v>
+        <v>217</v>
       </c>
       <c r="M80">
-        <v>0.5278</v>
+        <v>0.5103</v>
+      </c>
+      <c r="N80">
+        <v>0.5564</v>
       </c>
     </row>
     <row r="81">
@@ -4130,23 +4530,28 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I81">
-        <v>1042</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
       </c>
       <c r="J81">
-        <v>593</v>
+        <v>1087</v>
       </c>
       <c r="K81">
-        <v>455</v>
+        <v>621</v>
       </c>
       <c r="L81">
-        <v>0.5691000000000001</v>
+        <v>492</v>
       </c>
       <c r="M81">
-        <v>0.4367</v>
+        <v>0.5713</v>
+      </c>
+      <c r="N81">
+        <v>0.4526</v>
       </c>
     </row>
     <row r="82">
@@ -4177,23 +4582,28 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I82">
-        <v>2030</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
       </c>
       <c r="J82">
-        <v>1289</v>
+        <v>2184</v>
       </c>
       <c r="K82">
-        <v>741</v>
+        <v>1385</v>
       </c>
       <c r="L82">
-        <v>0.635</v>
+        <v>840</v>
       </c>
       <c r="M82">
-        <v>0.365</v>
+        <v>0.6342</v>
+      </c>
+      <c r="N82">
+        <v>0.3846</v>
       </c>
     </row>
     <row r="83">
@@ -4224,23 +4634,28 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I83">
-        <v>4145</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
       </c>
       <c r="J83">
-        <v>2617</v>
+        <v>5555</v>
       </c>
       <c r="K83">
-        <v>2243</v>
+        <v>3705</v>
       </c>
       <c r="L83">
-        <v>0.6314</v>
+        <v>3450</v>
       </c>
       <c r="M83">
-        <v>0.5411</v>
+        <v>0.667</v>
+      </c>
+      <c r="N83">
+        <v>0.6211</v>
       </c>
     </row>
     <row r="84">
@@ -4271,23 +4686,28 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I84">
-        <v>1201</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
       </c>
       <c r="J84">
-        <v>832</v>
+        <v>1265</v>
       </c>
       <c r="K84">
-        <v>667</v>
+        <v>873</v>
       </c>
       <c r="L84">
-        <v>0.6928</v>
+        <v>724</v>
       </c>
       <c r="M84">
-        <v>0.5554</v>
+        <v>0.6901</v>
+      </c>
+      <c r="N84">
+        <v>0.5723</v>
       </c>
     </row>
     <row r="85">
@@ -4318,23 +4738,28 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I85">
-        <v>618</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
       </c>
       <c r="J85">
-        <v>321</v>
+        <v>738</v>
       </c>
       <c r="K85">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="L85">
-        <v>0.5194</v>
+        <v>392</v>
       </c>
       <c r="M85">
-        <v>0.5032</v>
+        <v>0.5095</v>
+      </c>
+      <c r="N85">
+        <v>0.5312</v>
       </c>
     </row>
     <row r="86">
@@ -4365,23 +4790,28 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I86">
-        <v>3515</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
       </c>
       <c r="J86">
-        <v>2251</v>
+        <v>3917</v>
       </c>
       <c r="K86">
-        <v>1322</v>
+        <v>2442</v>
       </c>
       <c r="L86">
-        <v>0.6404</v>
+        <v>1550</v>
       </c>
       <c r="M86">
-        <v>0.3761</v>
+        <v>0.6234</v>
+      </c>
+      <c r="N86">
+        <v>0.3957</v>
       </c>
     </row>
     <row r="87">
@@ -4406,22 +4836,27 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I87">
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
       <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
         <v>1</v>
       </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
       <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
         <v>1</v>
       </c>
     </row>
@@ -4453,23 +4888,28 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I88">
-        <v>565</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
       </c>
       <c r="J88">
-        <v>305</v>
+        <v>1032</v>
       </c>
       <c r="K88">
-        <v>286</v>
+        <v>601</v>
       </c>
       <c r="L88">
-        <v>0.5397999999999999</v>
+        <v>480</v>
       </c>
       <c r="M88">
-        <v>0.5062</v>
+        <v>0.5824</v>
+      </c>
+      <c r="N88">
+        <v>0.4651</v>
       </c>
     </row>
     <row r="89">
@@ -4500,23 +4940,28 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I89">
-        <v>312</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
       </c>
       <c r="J89">
-        <v>143</v>
+        <v>360</v>
       </c>
       <c r="K89">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L89">
-        <v>0.4583</v>
+        <v>192</v>
       </c>
       <c r="M89">
-        <v>0.5321</v>
+        <v>0.4528</v>
+      </c>
+      <c r="N89">
+        <v>0.5333</v>
       </c>
     </row>
     <row r="90">
@@ -4547,23 +4992,28 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I90">
-        <v>708</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
       </c>
       <c r="J90">
-        <v>380</v>
+        <v>772</v>
       </c>
       <c r="K90">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="L90">
-        <v>0.5367</v>
+        <v>410</v>
       </c>
       <c r="M90">
-        <v>0.5014</v>
+        <v>0.544</v>
+      </c>
+      <c r="N90">
+        <v>0.5311</v>
       </c>
     </row>
     <row r="91">
@@ -4594,23 +5044,28 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I91">
-        <v>1752</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
       </c>
       <c r="J91">
-        <v>1254</v>
+        <v>1978</v>
       </c>
       <c r="K91">
-        <v>717</v>
+        <v>1363</v>
       </c>
       <c r="L91">
-        <v>0.7158</v>
+        <v>840</v>
       </c>
       <c r="M91">
-        <v>0.4092</v>
+        <v>0.6891</v>
+      </c>
+      <c r="N91">
+        <v>0.4247</v>
       </c>
     </row>
     <row r="92">
@@ -4641,23 +5096,28 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I92">
-        <v>18552</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
       </c>
       <c r="J92">
-        <v>13035</v>
+        <v>19451</v>
       </c>
       <c r="K92">
-        <v>7277</v>
+        <v>13719</v>
       </c>
       <c r="L92">
-        <v>0.7026</v>
+        <v>7788</v>
       </c>
       <c r="M92">
-        <v>0.3922</v>
+        <v>0.7053</v>
+      </c>
+      <c r="N92">
+        <v>0.4004</v>
       </c>
     </row>
     <row r="93">
@@ -4688,23 +5148,28 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I93">
-        <v>360</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
       </c>
       <c r="J93">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="K93">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L93">
-        <v>0.4944</v>
+        <v>217</v>
       </c>
       <c r="M93">
-        <v>0.5278</v>
+        <v>0.5103</v>
+      </c>
+      <c r="N93">
+        <v>0.5564</v>
       </c>
     </row>
     <row r="94">
@@ -4735,23 +5200,28 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I94">
-        <v>1042</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
       </c>
       <c r="J94">
-        <v>593</v>
+        <v>1087</v>
       </c>
       <c r="K94">
-        <v>455</v>
+        <v>621</v>
       </c>
       <c r="L94">
-        <v>0.5691000000000001</v>
+        <v>492</v>
       </c>
       <c r="M94">
-        <v>0.4367</v>
+        <v>0.5713</v>
+      </c>
+      <c r="N94">
+        <v>0.4526</v>
       </c>
     </row>
     <row r="95">
@@ -4782,23 +5252,28 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I95">
-        <v>2030</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
       </c>
       <c r="J95">
-        <v>1289</v>
+        <v>2184</v>
       </c>
       <c r="K95">
-        <v>741</v>
+        <v>1385</v>
       </c>
       <c r="L95">
-        <v>0.635</v>
+        <v>840</v>
       </c>
       <c r="M95">
-        <v>0.365</v>
+        <v>0.6342</v>
+      </c>
+      <c r="N95">
+        <v>0.3846</v>
       </c>
     </row>
     <row r="96">
@@ -4829,23 +5304,28 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I96">
-        <v>4145</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
       </c>
       <c r="J96">
-        <v>2617</v>
+        <v>5555</v>
       </c>
       <c r="K96">
-        <v>2243</v>
+        <v>3705</v>
       </c>
       <c r="L96">
-        <v>0.6314</v>
+        <v>3450</v>
       </c>
       <c r="M96">
-        <v>0.5411</v>
+        <v>0.667</v>
+      </c>
+      <c r="N96">
+        <v>0.6211</v>
       </c>
     </row>
     <row r="97">
@@ -4876,23 +5356,28 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I97">
-        <v>1201</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
       </c>
       <c r="J97">
-        <v>832</v>
+        <v>1265</v>
       </c>
       <c r="K97">
-        <v>667</v>
+        <v>873</v>
       </c>
       <c r="L97">
-        <v>0.6928</v>
+        <v>724</v>
       </c>
       <c r="M97">
-        <v>0.5554</v>
+        <v>0.6901</v>
+      </c>
+      <c r="N97">
+        <v>0.5723</v>
       </c>
     </row>
     <row r="98">
@@ -4923,23 +5408,28 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I98">
-        <v>618</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
       </c>
       <c r="J98">
-        <v>321</v>
+        <v>738</v>
       </c>
       <c r="K98">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="L98">
-        <v>0.5194</v>
+        <v>392</v>
       </c>
       <c r="M98">
-        <v>0.5032</v>
+        <v>0.5095</v>
+      </c>
+      <c r="N98">
+        <v>0.5312</v>
       </c>
     </row>
     <row r="99">
@@ -4970,23 +5460,28 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I99">
-        <v>3515</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
       </c>
       <c r="J99">
-        <v>2251</v>
+        <v>3917</v>
       </c>
       <c r="K99">
-        <v>1322</v>
+        <v>2442</v>
       </c>
       <c r="L99">
-        <v>0.6404</v>
+        <v>1550</v>
       </c>
       <c r="M99">
-        <v>0.3761</v>
+        <v>0.6234</v>
+      </c>
+      <c r="N99">
+        <v>0.3957</v>
       </c>
     </row>
     <row r="100">
@@ -5011,22 +5506,27 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I100">
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
       <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
         <v>1</v>
       </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
       <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
         <v>1</v>
       </c>
     </row>
@@ -5058,23 +5558,28 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I101">
-        <v>565</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
       </c>
       <c r="J101">
-        <v>305</v>
+        <v>1032</v>
       </c>
       <c r="K101">
-        <v>286</v>
+        <v>601</v>
       </c>
       <c r="L101">
-        <v>0.5397999999999999</v>
+        <v>480</v>
       </c>
       <c r="M101">
-        <v>0.5062</v>
+        <v>0.5824</v>
+      </c>
+      <c r="N101">
+        <v>0.4651</v>
       </c>
     </row>
     <row r="102">
@@ -5105,23 +5610,28 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I102">
-        <v>312</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
       </c>
       <c r="J102">
-        <v>143</v>
+        <v>360</v>
       </c>
       <c r="K102">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L102">
-        <v>0.4583</v>
+        <v>192</v>
       </c>
       <c r="M102">
-        <v>0.5321</v>
+        <v>0.4528</v>
+      </c>
+      <c r="N102">
+        <v>0.5333</v>
       </c>
     </row>
     <row r="103">
@@ -5152,23 +5662,28 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I103">
-        <v>708</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
       </c>
       <c r="J103">
-        <v>380</v>
+        <v>772</v>
       </c>
       <c r="K103">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="L103">
-        <v>0.5367</v>
+        <v>410</v>
       </c>
       <c r="M103">
-        <v>0.5014</v>
+        <v>0.544</v>
+      </c>
+      <c r="N103">
+        <v>0.5311</v>
       </c>
     </row>
     <row r="104">
@@ -5199,23 +5714,28 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I104">
-        <v>1752</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
       </c>
       <c r="J104">
-        <v>1254</v>
+        <v>1978</v>
       </c>
       <c r="K104">
-        <v>717</v>
+        <v>1363</v>
       </c>
       <c r="L104">
-        <v>0.7158</v>
+        <v>840</v>
       </c>
       <c r="M104">
-        <v>0.4092</v>
+        <v>0.6891</v>
+      </c>
+      <c r="N104">
+        <v>0.4247</v>
       </c>
     </row>
     <row r="105">
@@ -5246,23 +5766,28 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I105">
-        <v>6072</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
       </c>
       <c r="J105">
-        <v>4108</v>
+        <v>6532</v>
       </c>
       <c r="K105">
-        <v>3102</v>
+        <v>4426</v>
       </c>
       <c r="L105">
-        <v>0.6765</v>
+        <v>3405</v>
       </c>
       <c r="M105">
-        <v>0.5109</v>
+        <v>0.6776</v>
+      </c>
+      <c r="N105">
+        <v>0.5213</v>
       </c>
     </row>
     <row r="106">
@@ -5293,23 +5818,28 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I106">
-        <v>683</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
       </c>
       <c r="J106">
-        <v>381</v>
+        <v>782</v>
       </c>
       <c r="K106">
-        <v>301</v>
+        <v>441</v>
       </c>
       <c r="L106">
-        <v>0.5578</v>
+        <v>334</v>
       </c>
       <c r="M106">
-        <v>0.4407</v>
+        <v>0.5639</v>
+      </c>
+      <c r="N106">
+        <v>0.4271</v>
       </c>
     </row>
     <row r="107">
@@ -5340,23 +5870,28 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I107">
-        <v>43579</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
       </c>
       <c r="J107">
-        <v>28888</v>
+        <v>48317</v>
       </c>
       <c r="K107">
-        <v>19257</v>
+        <v>32079</v>
       </c>
       <c r="L107">
-        <v>0.6629</v>
+        <v>22356</v>
       </c>
       <c r="M107">
-        <v>0.4419</v>
+        <v>0.6639</v>
+      </c>
+      <c r="N107">
+        <v>0.4627</v>
       </c>
     </row>
     <row r="108">
@@ -5387,23 +5922,28 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I108">
-        <v>1147</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
       </c>
       <c r="J108">
-        <v>763</v>
+        <v>1260</v>
       </c>
       <c r="K108">
-        <v>711</v>
+        <v>834</v>
       </c>
       <c r="L108">
-        <v>0.6652</v>
+        <v>773</v>
       </c>
       <c r="M108">
-        <v>0.6199</v>
+        <v>0.6619</v>
+      </c>
+      <c r="N108">
+        <v>0.6135</v>
       </c>
     </row>
     <row r="109">
@@ -5434,23 +5974,28 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I109">
-        <v>819</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
       </c>
       <c r="J109">
-        <v>403</v>
+        <v>955</v>
       </c>
       <c r="K109">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="L109">
-        <v>0.4921</v>
+        <v>437</v>
       </c>
       <c r="M109">
-        <v>0.4689</v>
+        <v>0.4984</v>
+      </c>
+      <c r="N109">
+        <v>0.4576</v>
       </c>
     </row>
     <row r="110">
@@ -5481,23 +6026,28 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I110">
-        <v>6072</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
       </c>
       <c r="J110">
-        <v>4108</v>
+        <v>6532</v>
       </c>
       <c r="K110">
-        <v>3102</v>
+        <v>4426</v>
       </c>
       <c r="L110">
-        <v>0.6765</v>
+        <v>3405</v>
       </c>
       <c r="M110">
-        <v>0.5109</v>
+        <v>0.6776</v>
+      </c>
+      <c r="N110">
+        <v>0.5213</v>
       </c>
     </row>
     <row r="111">
@@ -5528,23 +6078,28 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I111">
-        <v>683</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
       </c>
       <c r="J111">
-        <v>381</v>
+        <v>782</v>
       </c>
       <c r="K111">
-        <v>301</v>
+        <v>441</v>
       </c>
       <c r="L111">
-        <v>0.5578</v>
+        <v>334</v>
       </c>
       <c r="M111">
-        <v>0.4407</v>
+        <v>0.5639</v>
+      </c>
+      <c r="N111">
+        <v>0.4271</v>
       </c>
     </row>
     <row r="112">
@@ -5575,23 +6130,28 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I112">
-        <v>43579</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
       </c>
       <c r="J112">
-        <v>28888</v>
+        <v>48317</v>
       </c>
       <c r="K112">
-        <v>19257</v>
+        <v>32079</v>
       </c>
       <c r="L112">
-        <v>0.6629</v>
+        <v>22356</v>
       </c>
       <c r="M112">
-        <v>0.4419</v>
+        <v>0.6639</v>
+      </c>
+      <c r="N112">
+        <v>0.4627</v>
       </c>
     </row>
     <row r="113">
@@ -5622,23 +6182,28 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I113">
-        <v>1147</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
       </c>
       <c r="J113">
-        <v>763</v>
+        <v>1260</v>
       </c>
       <c r="K113">
-        <v>711</v>
+        <v>834</v>
       </c>
       <c r="L113">
-        <v>0.6652</v>
+        <v>773</v>
       </c>
       <c r="M113">
-        <v>0.6199</v>
+        <v>0.6619</v>
+      </c>
+      <c r="N113">
+        <v>0.6135</v>
       </c>
     </row>
     <row r="114">
@@ -5669,23 +6234,28 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I114">
-        <v>819</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
       </c>
       <c r="J114">
-        <v>403</v>
+        <v>955</v>
       </c>
       <c r="K114">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="L114">
-        <v>0.4921</v>
+        <v>437</v>
       </c>
       <c r="M114">
-        <v>0.4689</v>
+        <v>0.4984</v>
+      </c>
+      <c r="N114">
+        <v>0.4576</v>
       </c>
     </row>
     <row r="115">
@@ -5716,23 +6286,28 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I115">
-        <v>18552</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
       </c>
       <c r="J115">
-        <v>13035</v>
+        <v>19451</v>
       </c>
       <c r="K115">
-        <v>7277</v>
+        <v>13719</v>
       </c>
       <c r="L115">
-        <v>0.7026</v>
+        <v>7788</v>
       </c>
       <c r="M115">
-        <v>0.3922</v>
+        <v>0.7053</v>
+      </c>
+      <c r="N115">
+        <v>0.4004</v>
       </c>
     </row>
     <row r="116">
@@ -5763,23 +6338,28 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I116">
-        <v>360</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
       </c>
       <c r="J116">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="K116">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L116">
-        <v>0.4944</v>
+        <v>217</v>
       </c>
       <c r="M116">
-        <v>0.5278</v>
+        <v>0.5103</v>
+      </c>
+      <c r="N116">
+        <v>0.5564</v>
       </c>
     </row>
     <row r="117">
@@ -5810,23 +6390,28 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I117">
-        <v>1042</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
       </c>
       <c r="J117">
-        <v>593</v>
+        <v>1087</v>
       </c>
       <c r="K117">
-        <v>455</v>
+        <v>621</v>
       </c>
       <c r="L117">
-        <v>0.5691000000000001</v>
+        <v>492</v>
       </c>
       <c r="M117">
-        <v>0.4367</v>
+        <v>0.5713</v>
+      </c>
+      <c r="N117">
+        <v>0.4526</v>
       </c>
     </row>
     <row r="118">
@@ -5857,23 +6442,28 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I118">
-        <v>2030</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
       </c>
       <c r="J118">
-        <v>1289</v>
+        <v>2184</v>
       </c>
       <c r="K118">
-        <v>741</v>
+        <v>1385</v>
       </c>
       <c r="L118">
-        <v>0.635</v>
+        <v>840</v>
       </c>
       <c r="M118">
-        <v>0.365</v>
+        <v>0.6342</v>
+      </c>
+      <c r="N118">
+        <v>0.3846</v>
       </c>
     </row>
     <row r="119">
@@ -5904,23 +6494,28 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I119">
-        <v>4145</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
       </c>
       <c r="J119">
-        <v>2617</v>
+        <v>5555</v>
       </c>
       <c r="K119">
-        <v>2243</v>
+        <v>3705</v>
       </c>
       <c r="L119">
-        <v>0.6314</v>
+        <v>3450</v>
       </c>
       <c r="M119">
-        <v>0.5411</v>
+        <v>0.667</v>
+      </c>
+      <c r="N119">
+        <v>0.6211</v>
       </c>
     </row>
     <row r="120">
@@ -5951,23 +6546,28 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I120">
-        <v>1201</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
       </c>
       <c r="J120">
-        <v>832</v>
+        <v>1265</v>
       </c>
       <c r="K120">
-        <v>667</v>
+        <v>873</v>
       </c>
       <c r="L120">
-        <v>0.6928</v>
+        <v>724</v>
       </c>
       <c r="M120">
-        <v>0.5554</v>
+        <v>0.6901</v>
+      </c>
+      <c r="N120">
+        <v>0.5723</v>
       </c>
     </row>
     <row r="121">
@@ -5998,23 +6598,28 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I121">
-        <v>618</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
       </c>
       <c r="J121">
-        <v>321</v>
+        <v>738</v>
       </c>
       <c r="K121">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="L121">
-        <v>0.5194</v>
+        <v>392</v>
       </c>
       <c r="M121">
-        <v>0.5032</v>
+        <v>0.5095</v>
+      </c>
+      <c r="N121">
+        <v>0.5312</v>
       </c>
     </row>
     <row r="122">
@@ -6045,23 +6650,28 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I122">
-        <v>3515</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
       </c>
       <c r="J122">
-        <v>2251</v>
+        <v>3917</v>
       </c>
       <c r="K122">
-        <v>1322</v>
+        <v>2442</v>
       </c>
       <c r="L122">
-        <v>0.6404</v>
+        <v>1550</v>
       </c>
       <c r="M122">
-        <v>0.3761</v>
+        <v>0.6234</v>
+      </c>
+      <c r="N122">
+        <v>0.3957</v>
       </c>
     </row>
     <row r="123">
@@ -6086,22 +6696,27 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I123">
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
       <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
         <v>1</v>
       </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
       <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
         <v>1</v>
       </c>
     </row>
@@ -6133,23 +6748,28 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I124">
-        <v>565</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
       </c>
       <c r="J124">
-        <v>305</v>
+        <v>1032</v>
       </c>
       <c r="K124">
-        <v>286</v>
+        <v>601</v>
       </c>
       <c r="L124">
-        <v>0.5397999999999999</v>
+        <v>480</v>
       </c>
       <c r="M124">
-        <v>0.5062</v>
+        <v>0.5824</v>
+      </c>
+      <c r="N124">
+        <v>0.4651</v>
       </c>
     </row>
     <row r="125">
@@ -6180,23 +6800,28 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I125">
-        <v>312</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
       </c>
       <c r="J125">
-        <v>143</v>
+        <v>360</v>
       </c>
       <c r="K125">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L125">
-        <v>0.4583</v>
+        <v>192</v>
       </c>
       <c r="M125">
-        <v>0.5321</v>
+        <v>0.4528</v>
+      </c>
+      <c r="N125">
+        <v>0.5333</v>
       </c>
     </row>
     <row r="126">
@@ -6227,23 +6852,28 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I126">
-        <v>708</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
       </c>
       <c r="J126">
-        <v>380</v>
+        <v>772</v>
       </c>
       <c r="K126">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="L126">
-        <v>0.5367</v>
+        <v>410</v>
       </c>
       <c r="M126">
-        <v>0.5014</v>
+        <v>0.544</v>
+      </c>
+      <c r="N126">
+        <v>0.5311</v>
       </c>
     </row>
     <row r="127">
@@ -6274,23 +6904,1222 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2020-03-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="I127">
-        <v>1752</v>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
       </c>
       <c r="J127">
-        <v>1254</v>
+        <v>1978</v>
       </c>
       <c r="K127">
-        <v>717</v>
+        <v>1363</v>
       </c>
       <c r="L127">
-        <v>0.7158</v>
+        <v>840</v>
       </c>
       <c r="M127">
-        <v>0.4092</v>
+        <v>0.6891</v>
+      </c>
+      <c r="N127">
+        <v>0.4247</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>1013</v>
+      </c>
+      <c r="D128">
+        <v>776</v>
+      </c>
+      <c r="E128">
+        <v>292</v>
+      </c>
+      <c r="F128">
+        <v>0.766</v>
+      </c>
+      <c r="G128">
+        <v>0.2883</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="J128">
+        <v>19451</v>
+      </c>
+      <c r="K128">
+        <v>13719</v>
+      </c>
+      <c r="L128">
+        <v>7788</v>
+      </c>
+      <c r="M128">
+        <v>0.7053</v>
+      </c>
+      <c r="N128">
+        <v>0.4004</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>30</v>
+      </c>
+      <c r="D129">
+        <v>22</v>
+      </c>
+      <c r="E129">
+        <v>16</v>
+      </c>
+      <c r="F129">
+        <v>0.7333</v>
+      </c>
+      <c r="G129">
+        <v>0.5333</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J129">
+        <v>390</v>
+      </c>
+      <c r="K129">
+        <v>199</v>
+      </c>
+      <c r="L129">
+        <v>217</v>
+      </c>
+      <c r="M129">
+        <v>0.5103</v>
+      </c>
+      <c r="N129">
+        <v>0.5564</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>48</v>
+      </c>
+      <c r="D130">
+        <v>29</v>
+      </c>
+      <c r="E130">
+        <v>15</v>
+      </c>
+      <c r="F130">
+        <v>0.6042</v>
+      </c>
+      <c r="G130">
+        <v>0.3125</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J130">
+        <v>1087</v>
+      </c>
+      <c r="K130">
+        <v>621</v>
+      </c>
+      <c r="L130">
+        <v>492</v>
+      </c>
+      <c r="M130">
+        <v>0.5713</v>
+      </c>
+      <c r="N130">
+        <v>0.4526</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>172</v>
+      </c>
+      <c r="D131">
+        <v>114</v>
+      </c>
+      <c r="E131">
+        <v>51</v>
+      </c>
+      <c r="F131">
+        <v>0.6627999999999999</v>
+      </c>
+      <c r="G131">
+        <v>0.2965</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J131">
+        <v>2184</v>
+      </c>
+      <c r="K131">
+        <v>1385</v>
+      </c>
+      <c r="L131">
+        <v>840</v>
+      </c>
+      <c r="M131">
+        <v>0.6342</v>
+      </c>
+      <c r="N131">
+        <v>0.3846</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>1373</v>
+      </c>
+      <c r="D132">
+        <v>1055</v>
+      </c>
+      <c r="E132">
+        <v>1014</v>
+      </c>
+      <c r="F132">
+        <v>0.7684</v>
+      </c>
+      <c r="G132">
+        <v>0.7385</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="J132">
+        <v>5555</v>
+      </c>
+      <c r="K132">
+        <v>3705</v>
+      </c>
+      <c r="L132">
+        <v>3450</v>
+      </c>
+      <c r="M132">
+        <v>0.667</v>
+      </c>
+      <c r="N132">
+        <v>0.6211</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>66</v>
+      </c>
+      <c r="D134">
+        <v>43</v>
+      </c>
+      <c r="E134">
+        <v>37</v>
+      </c>
+      <c r="F134">
+        <v>0.6515</v>
+      </c>
+      <c r="G134">
+        <v>0.5606</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J134">
+        <v>1265</v>
+      </c>
+      <c r="K134">
+        <v>873</v>
+      </c>
+      <c r="L134">
+        <v>724</v>
+      </c>
+      <c r="M134">
+        <v>0.6901</v>
+      </c>
+      <c r="N134">
+        <v>0.5723</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>120</v>
+      </c>
+      <c r="D135">
+        <v>56</v>
+      </c>
+      <c r="E135">
+        <v>64</v>
+      </c>
+      <c r="F135">
+        <v>0.4667</v>
+      </c>
+      <c r="G135">
+        <v>0.5333</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="J135">
+        <v>738</v>
+      </c>
+      <c r="K135">
+        <v>376</v>
+      </c>
+      <c r="L135">
+        <v>392</v>
+      </c>
+      <c r="M135">
+        <v>0.5095</v>
+      </c>
+      <c r="N135">
+        <v>0.5312</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>401</v>
+      </c>
+      <c r="D136">
+        <v>193</v>
+      </c>
+      <c r="E136">
+        <v>141</v>
+      </c>
+      <c r="F136">
+        <v>0.4813</v>
+      </c>
+      <c r="G136">
+        <v>0.3516</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="J136">
+        <v>3917</v>
+      </c>
+      <c r="K136">
+        <v>2442</v>
+      </c>
+      <c r="L136">
+        <v>1550</v>
+      </c>
+      <c r="M136">
+        <v>0.6234</v>
+      </c>
+      <c r="N136">
+        <v>0.3957</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C140">
+        <v>458</v>
+      </c>
+      <c r="D140">
+        <v>287</v>
+      </c>
+      <c r="E140">
+        <v>142</v>
+      </c>
+      <c r="F140">
+        <v>0.6266</v>
+      </c>
+      <c r="G140">
+        <v>0.31</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J140">
+        <v>1032</v>
+      </c>
+      <c r="K140">
+        <v>601</v>
+      </c>
+      <c r="L140">
+        <v>480</v>
+      </c>
+      <c r="M140">
+        <v>0.5824</v>
+      </c>
+      <c r="N140">
+        <v>0.4651</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C142">
+        <v>48</v>
+      </c>
+      <c r="D142">
+        <v>20</v>
+      </c>
+      <c r="E142">
+        <v>13</v>
+      </c>
+      <c r="F142">
+        <v>0.4167</v>
+      </c>
+      <c r="G142">
+        <v>0.2708</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="J142">
+        <v>360</v>
+      </c>
+      <c r="K142">
+        <v>163</v>
+      </c>
+      <c r="L142">
+        <v>192</v>
+      </c>
+      <c r="M142">
+        <v>0.4528</v>
+      </c>
+      <c r="N142">
+        <v>0.5333</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C143">
+        <v>63</v>
+      </c>
+      <c r="D143">
+        <v>39</v>
+      </c>
+      <c r="E143">
+        <v>33</v>
+      </c>
+      <c r="F143">
+        <v>0.619</v>
+      </c>
+      <c r="G143">
+        <v>0.5238</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J143">
+        <v>772</v>
+      </c>
+      <c r="K143">
+        <v>420</v>
+      </c>
+      <c r="L143">
+        <v>410</v>
+      </c>
+      <c r="M143">
+        <v>0.544</v>
+      </c>
+      <c r="N143">
+        <v>0.5311</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C144">
+        <v>228</v>
+      </c>
+      <c r="D144">
+        <v>110</v>
+      </c>
+      <c r="E144">
+        <v>86</v>
+      </c>
+      <c r="F144">
+        <v>0.4825</v>
+      </c>
+      <c r="G144">
+        <v>0.3772</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="J144">
+        <v>1978</v>
+      </c>
+      <c r="K144">
+        <v>1363</v>
+      </c>
+      <c r="L144">
+        <v>840</v>
+      </c>
+      <c r="M144">
+        <v>0.6891</v>
+      </c>
+      <c r="N144">
+        <v>0.4247</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C145">
+        <v>459</v>
+      </c>
+      <c r="D145">
+        <v>321</v>
+      </c>
+      <c r="E145">
+        <v>210</v>
+      </c>
+      <c r="F145">
+        <v>0.6993</v>
+      </c>
+      <c r="G145">
+        <v>0.4575</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="J145">
+        <v>6532</v>
+      </c>
+      <c r="K145">
+        <v>4426</v>
+      </c>
+      <c r="L145">
+        <v>3405</v>
+      </c>
+      <c r="M145">
+        <v>0.6776</v>
+      </c>
+      <c r="N145">
+        <v>0.5213</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C146">
+        <v>95</v>
+      </c>
+      <c r="D146">
+        <v>57</v>
+      </c>
+      <c r="E146">
+        <v>15</v>
+      </c>
+      <c r="F146">
+        <v>0.6</v>
+      </c>
+      <c r="G146">
+        <v>0.1579</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="J146">
+        <v>782</v>
+      </c>
+      <c r="K146">
+        <v>441</v>
+      </c>
+      <c r="L146">
+        <v>334</v>
+      </c>
+      <c r="M146">
+        <v>0.5639</v>
+      </c>
+      <c r="N146">
+        <v>0.4271</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C147">
+        <v>4835</v>
+      </c>
+      <c r="D147">
+        <v>3278</v>
+      </c>
+      <c r="E147">
+        <v>2210</v>
+      </c>
+      <c r="F147">
+        <v>0.678</v>
+      </c>
+      <c r="G147">
+        <v>0.4571</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J147">
+        <v>48317</v>
+      </c>
+      <c r="K147">
+        <v>32079</v>
+      </c>
+      <c r="L147">
+        <v>22356</v>
+      </c>
+      <c r="M147">
+        <v>0.6639</v>
+      </c>
+      <c r="N147">
+        <v>0.4627</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C148">
+        <v>122</v>
+      </c>
+      <c r="D148">
+        <v>80</v>
+      </c>
+      <c r="E148">
+        <v>46</v>
+      </c>
+      <c r="F148">
+        <v>0.6556999999999999</v>
+      </c>
+      <c r="G148">
+        <v>0.377</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="J148">
+        <v>1260</v>
+      </c>
+      <c r="K148">
+        <v>834</v>
+      </c>
+      <c r="L148">
+        <v>773</v>
+      </c>
+      <c r="M148">
+        <v>0.6619</v>
+      </c>
+      <c r="N148">
+        <v>0.6135</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0.5</v>
+      </c>
+      <c r="G149">
+        <v>0.5</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="J149">
+        <v>39</v>
+      </c>
+      <c r="K149">
+        <v>31</v>
+      </c>
+      <c r="L149">
+        <v>16</v>
+      </c>
+      <c r="M149">
+        <v>0.7949000000000001</v>
+      </c>
+      <c r="N149">
+        <v>0.4103</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="J150">
+        <v>18</v>
+      </c>
+      <c r="K150">
+        <v>4</v>
+      </c>
+      <c r="L150">
+        <v>14</v>
+      </c>
+      <c r="M150">
+        <v>0.2222</v>
+      </c>
+      <c r="N150">
+        <v>0.7778</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C151">
+        <v>137</v>
+      </c>
+      <c r="D151">
+        <v>75</v>
+      </c>
+      <c r="E151">
+        <v>34</v>
+      </c>
+      <c r="F151">
+        <v>0.5474</v>
+      </c>
+      <c r="G151">
+        <v>0.2482</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="J151">
+        <v>955</v>
+      </c>
+      <c r="K151">
+        <v>476</v>
+      </c>
+      <c r="L151">
+        <v>437</v>
+      </c>
+      <c r="M151">
+        <v>0.4984</v>
+      </c>
+      <c r="N151">
+        <v>0.4576</v>
       </c>
     </row>
   </sheetData>

--- a/data/学习数据.xlsx
+++ b/data/学习数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,7 +446,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -455,19 +455,19 @@
         </is>
       </c>
       <c r="J2">
-        <v>19451</v>
+        <v>20138</v>
       </c>
       <c r="K2">
-        <v>13719</v>
+        <v>14261</v>
       </c>
       <c r="L2">
-        <v>7788</v>
+        <v>8169</v>
       </c>
       <c r="M2">
-        <v>0.7053</v>
+        <v>0.7082000000000001</v>
       </c>
       <c r="N2">
-        <v>0.4004</v>
+        <v>0.4057</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -507,19 +507,19 @@
         </is>
       </c>
       <c r="J3">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="K3">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L3">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M3">
-        <v>0.5103</v>
+        <v>0.5177</v>
       </c>
       <c r="N3">
-        <v>0.5564</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -559,19 +559,19 @@
         </is>
       </c>
       <c r="J4">
-        <v>1087</v>
+        <v>1159</v>
       </c>
       <c r="K4">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="L4">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="M4">
-        <v>0.5713</v>
+        <v>0.5738</v>
       </c>
       <c r="N4">
-        <v>0.4526</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="J5">
-        <v>2184</v>
+        <v>2358</v>
       </c>
       <c r="K5">
-        <v>1385</v>
+        <v>1492</v>
       </c>
       <c r="L5">
-        <v>840</v>
+        <v>929</v>
       </c>
       <c r="M5">
-        <v>0.6342</v>
+        <v>0.6327</v>
       </c>
       <c r="N5">
-        <v>0.3846</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="6">
@@ -654,7 +654,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -663,19 +663,19 @@
         </is>
       </c>
       <c r="J6">
-        <v>5555</v>
+        <v>5854</v>
       </c>
       <c r="K6">
-        <v>3705</v>
+        <v>3894</v>
       </c>
       <c r="L6">
-        <v>3450</v>
+        <v>3619</v>
       </c>
       <c r="M6">
-        <v>0.667</v>
+        <v>0.6652</v>
       </c>
       <c r="N6">
-        <v>0.6211</v>
+        <v>0.6182</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -715,19 +715,19 @@
         </is>
       </c>
       <c r="J7">
-        <v>1265</v>
+        <v>1308</v>
       </c>
       <c r="K7">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="L7">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="M7">
-        <v>0.6901</v>
+        <v>0.6873</v>
       </c>
       <c r="N7">
-        <v>0.5723</v>
+        <v>0.5711000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -758,7 +758,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -767,19 +767,19 @@
         </is>
       </c>
       <c r="J8">
-        <v>738</v>
+        <v>852</v>
       </c>
       <c r="K8">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="L8">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="M8">
-        <v>0.5095</v>
+        <v>0.5211</v>
       </c>
       <c r="N8">
-        <v>0.5312</v>
+        <v>0.5352</v>
       </c>
     </row>
     <row r="9">
@@ -810,7 +810,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -819,19 +819,19 @@
         </is>
       </c>
       <c r="J9">
-        <v>3917</v>
+        <v>4332</v>
       </c>
       <c r="K9">
-        <v>2442</v>
+        <v>2667</v>
       </c>
       <c r="L9">
-        <v>1550</v>
+        <v>1776</v>
       </c>
       <c r="M9">
-        <v>0.6234</v>
+        <v>0.6157</v>
       </c>
       <c r="N9">
-        <v>0.3957</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="10">
@@ -856,7 +856,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -917,19 +917,19 @@
         </is>
       </c>
       <c r="J11">
-        <v>1032</v>
+        <v>1276</v>
       </c>
       <c r="K11">
-        <v>601</v>
+        <v>796</v>
       </c>
       <c r="L11">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="M11">
-        <v>0.5824</v>
+        <v>0.6238</v>
       </c>
       <c r="N11">
-        <v>0.4651</v>
+        <v>0.4702</v>
       </c>
     </row>
     <row r="12">
@@ -960,7 +960,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -969,19 +969,19 @@
         </is>
       </c>
       <c r="J12">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="K12">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L12">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M12">
-        <v>0.4528</v>
+        <v>0.4587</v>
       </c>
       <c r="N12">
-        <v>0.5333</v>
+        <v>0.5573</v>
       </c>
     </row>
     <row r="13">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1021,19 +1021,19 @@
         </is>
       </c>
       <c r="J13">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="K13">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="L13">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="M13">
-        <v>0.544</v>
+        <v>0.5496</v>
       </c>
       <c r="N13">
-        <v>0.5311</v>
+        <v>0.5385</v>
       </c>
     </row>
     <row r="14">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1073,19 +1073,19 @@
         </is>
       </c>
       <c r="J14">
-        <v>1978</v>
+        <v>2247</v>
       </c>
       <c r="K14">
-        <v>1363</v>
+        <v>1526</v>
       </c>
       <c r="L14">
-        <v>840</v>
+        <v>971</v>
       </c>
       <c r="M14">
-        <v>0.6891</v>
+        <v>0.6791</v>
       </c>
       <c r="N14">
-        <v>0.4247</v>
+        <v>0.4321</v>
       </c>
     </row>
     <row r="15">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1125,19 +1125,19 @@
         </is>
       </c>
       <c r="J15">
-        <v>6532</v>
+        <v>7391</v>
       </c>
       <c r="K15">
-        <v>4426</v>
+        <v>5145</v>
       </c>
       <c r="L15">
-        <v>3405</v>
+        <v>3749</v>
       </c>
       <c r="M15">
-        <v>0.6776</v>
+        <v>0.6961000000000001</v>
       </c>
       <c r="N15">
-        <v>0.5213</v>
+        <v>0.5072</v>
       </c>
     </row>
     <row r="16">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1171,19 +1171,19 @@
         </is>
       </c>
       <c r="J16">
-        <v>782</v>
+        <v>854</v>
       </c>
       <c r="K16">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="L16">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="M16">
-        <v>0.5639</v>
+        <v>0.5773</v>
       </c>
       <c r="N16">
-        <v>0.4271</v>
+        <v>0.4368</v>
       </c>
     </row>
     <row r="17">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1223,19 +1223,19 @@
         </is>
       </c>
       <c r="J17">
-        <v>48317</v>
+        <v>51947</v>
       </c>
       <c r="K17">
-        <v>32079</v>
+        <v>34658</v>
       </c>
       <c r="L17">
-        <v>22356</v>
+        <v>24236</v>
       </c>
       <c r="M17">
-        <v>0.6639</v>
+        <v>0.6672</v>
       </c>
       <c r="N17">
-        <v>0.4627</v>
+        <v>0.4666</v>
       </c>
     </row>
     <row r="18">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1275,19 +1275,19 @@
         </is>
       </c>
       <c r="J18">
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="K18">
-        <v>834</v>
+        <v>910</v>
       </c>
       <c r="L18">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="M18">
-        <v>0.6619</v>
+        <v>0.6594</v>
       </c>
       <c r="N18">
-        <v>0.6135</v>
+        <v>0.6274999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1327,19 +1327,19 @@
         </is>
       </c>
       <c r="J19">
-        <v>955</v>
+        <v>1120</v>
       </c>
       <c r="K19">
-        <v>476</v>
+        <v>588</v>
       </c>
       <c r="L19">
-        <v>437</v>
+        <v>527</v>
       </c>
       <c r="M19">
-        <v>0.4984</v>
+        <v>0.525</v>
       </c>
       <c r="N19">
-        <v>0.4576</v>
+        <v>0.4705</v>
       </c>
     </row>
     <row r="20">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="J20">
-        <v>19451</v>
+        <v>20138</v>
       </c>
       <c r="K20">
-        <v>13719</v>
+        <v>14261</v>
       </c>
       <c r="L20">
-        <v>7788</v>
+        <v>8169</v>
       </c>
       <c r="M20">
-        <v>0.7053</v>
+        <v>0.7082000000000001</v>
       </c>
       <c r="N20">
-        <v>0.4004</v>
+        <v>0.4057</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1431,19 +1431,19 @@
         </is>
       </c>
       <c r="J21">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="K21">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L21">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M21">
-        <v>0.5103</v>
+        <v>0.5177</v>
       </c>
       <c r="N21">
-        <v>0.5564</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1483,19 +1483,19 @@
         </is>
       </c>
       <c r="J22">
-        <v>1087</v>
+        <v>1159</v>
       </c>
       <c r="K22">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="L22">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="M22">
-        <v>0.5713</v>
+        <v>0.5738</v>
       </c>
       <c r="N22">
-        <v>0.4526</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="23">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1535,19 +1535,19 @@
         </is>
       </c>
       <c r="J23">
-        <v>2184</v>
+        <v>2358</v>
       </c>
       <c r="K23">
-        <v>1385</v>
+        <v>1492</v>
       </c>
       <c r="L23">
-        <v>840</v>
+        <v>929</v>
       </c>
       <c r="M23">
-        <v>0.6342</v>
+        <v>0.6327</v>
       </c>
       <c r="N23">
-        <v>0.3846</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="24">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1587,19 +1587,19 @@
         </is>
       </c>
       <c r="J24">
-        <v>5555</v>
+        <v>5854</v>
       </c>
       <c r="K24">
-        <v>3705</v>
+        <v>3894</v>
       </c>
       <c r="L24">
-        <v>3450</v>
+        <v>3619</v>
       </c>
       <c r="M24">
-        <v>0.667</v>
+        <v>0.6652</v>
       </c>
       <c r="N24">
-        <v>0.6211</v>
+        <v>0.6182</v>
       </c>
     </row>
     <row r="25">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1639,19 +1639,19 @@
         </is>
       </c>
       <c r="J25">
-        <v>1265</v>
+        <v>1308</v>
       </c>
       <c r="K25">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="L25">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="M25">
-        <v>0.6901</v>
+        <v>0.6873</v>
       </c>
       <c r="N25">
-        <v>0.5723</v>
+        <v>0.5711000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1691,19 +1691,19 @@
         </is>
       </c>
       <c r="J26">
-        <v>738</v>
+        <v>852</v>
       </c>
       <c r="K26">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="L26">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="M26">
-        <v>0.5095</v>
+        <v>0.5211</v>
       </c>
       <c r="N26">
-        <v>0.5312</v>
+        <v>0.5352</v>
       </c>
     </row>
     <row r="27">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1743,19 +1743,19 @@
         </is>
       </c>
       <c r="J27">
-        <v>3917</v>
+        <v>4332</v>
       </c>
       <c r="K27">
-        <v>2442</v>
+        <v>2667</v>
       </c>
       <c r="L27">
-        <v>1550</v>
+        <v>1776</v>
       </c>
       <c r="M27">
-        <v>0.6234</v>
+        <v>0.6157</v>
       </c>
       <c r="N27">
-        <v>0.3957</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="28">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1847,19 +1847,19 @@
         </is>
       </c>
       <c r="J29">
-        <v>1032</v>
+        <v>1276</v>
       </c>
       <c r="K29">
-        <v>601</v>
+        <v>796</v>
       </c>
       <c r="L29">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="M29">
-        <v>0.5824</v>
+        <v>0.6238</v>
       </c>
       <c r="N29">
-        <v>0.4651</v>
+        <v>0.4702</v>
       </c>
     </row>
     <row r="30">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1899,19 +1899,19 @@
         </is>
       </c>
       <c r="J30">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="K30">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L30">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M30">
-        <v>0.4528</v>
+        <v>0.4587</v>
       </c>
       <c r="N30">
-        <v>0.5333</v>
+        <v>0.5573</v>
       </c>
     </row>
     <row r="31">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1951,19 +1951,19 @@
         </is>
       </c>
       <c r="J31">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="K31">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="L31">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="M31">
-        <v>0.544</v>
+        <v>0.5496</v>
       </c>
       <c r="N31">
-        <v>0.5311</v>
+        <v>0.5385</v>
       </c>
     </row>
     <row r="32">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2003,19 +2003,19 @@
         </is>
       </c>
       <c r="J32">
-        <v>1978</v>
+        <v>2247</v>
       </c>
       <c r="K32">
-        <v>1363</v>
+        <v>1526</v>
       </c>
       <c r="L32">
-        <v>840</v>
+        <v>971</v>
       </c>
       <c r="M32">
-        <v>0.6891</v>
+        <v>0.6791</v>
       </c>
       <c r="N32">
-        <v>0.4247</v>
+        <v>0.4321</v>
       </c>
     </row>
     <row r="33">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2055,19 +2055,19 @@
         </is>
       </c>
       <c r="J33">
-        <v>6532</v>
+        <v>7391</v>
       </c>
       <c r="K33">
-        <v>4426</v>
+        <v>5145</v>
       </c>
       <c r="L33">
-        <v>3405</v>
+        <v>3749</v>
       </c>
       <c r="M33">
-        <v>0.6776</v>
+        <v>0.6961000000000001</v>
       </c>
       <c r="N33">
-        <v>0.5213</v>
+        <v>0.5072</v>
       </c>
     </row>
     <row r="34">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2107,19 +2107,19 @@
         </is>
       </c>
       <c r="J34">
-        <v>782</v>
+        <v>854</v>
       </c>
       <c r="K34">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="L34">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="M34">
-        <v>0.5639</v>
+        <v>0.5773</v>
       </c>
       <c r="N34">
-        <v>0.4271</v>
+        <v>0.4368</v>
       </c>
     </row>
     <row r="35">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="J35">
-        <v>48317</v>
+        <v>51947</v>
       </c>
       <c r="K35">
-        <v>32079</v>
+        <v>34658</v>
       </c>
       <c r="L35">
-        <v>22356</v>
+        <v>24236</v>
       </c>
       <c r="M35">
-        <v>0.6639</v>
+        <v>0.6672</v>
       </c>
       <c r="N35">
-        <v>0.4627</v>
+        <v>0.4666</v>
       </c>
     </row>
     <row r="36">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2211,19 +2211,19 @@
         </is>
       </c>
       <c r="J36">
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="K36">
-        <v>834</v>
+        <v>910</v>
       </c>
       <c r="L36">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="M36">
-        <v>0.6619</v>
+        <v>0.6594</v>
       </c>
       <c r="N36">
-        <v>0.6135</v>
+        <v>0.6274999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2263,19 +2263,19 @@
         </is>
       </c>
       <c r="J37">
-        <v>955</v>
+        <v>1120</v>
       </c>
       <c r="K37">
-        <v>476</v>
+        <v>588</v>
       </c>
       <c r="L37">
-        <v>437</v>
+        <v>527</v>
       </c>
       <c r="M37">
-        <v>0.4984</v>
+        <v>0.525</v>
       </c>
       <c r="N37">
-        <v>0.4576</v>
+        <v>0.4705</v>
       </c>
     </row>
     <row r="38">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="J38">
-        <v>6532</v>
+        <v>7391</v>
       </c>
       <c r="K38">
-        <v>4426</v>
+        <v>5145</v>
       </c>
       <c r="L38">
-        <v>3405</v>
+        <v>3749</v>
       </c>
       <c r="M38">
-        <v>0.6776</v>
+        <v>0.6961000000000001</v>
       </c>
       <c r="N38">
-        <v>0.5213</v>
+        <v>0.5072</v>
       </c>
     </row>
     <row r="39">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2367,19 +2367,19 @@
         </is>
       </c>
       <c r="J39">
-        <v>782</v>
+        <v>854</v>
       </c>
       <c r="K39">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="L39">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="M39">
-        <v>0.5639</v>
+        <v>0.5773</v>
       </c>
       <c r="N39">
-        <v>0.4271</v>
+        <v>0.4368</v>
       </c>
     </row>
     <row r="40">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="J40">
-        <v>48317</v>
+        <v>51947</v>
       </c>
       <c r="K40">
-        <v>32079</v>
+        <v>34658</v>
       </c>
       <c r="L40">
-        <v>22356</v>
+        <v>24236</v>
       </c>
       <c r="M40">
-        <v>0.6639</v>
+        <v>0.6672</v>
       </c>
       <c r="N40">
-        <v>0.4627</v>
+        <v>0.4666</v>
       </c>
     </row>
     <row r="41">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2471,19 +2471,19 @@
         </is>
       </c>
       <c r="J41">
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="K41">
-        <v>834</v>
+        <v>910</v>
       </c>
       <c r="L41">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="M41">
-        <v>0.6619</v>
+        <v>0.6594</v>
       </c>
       <c r="N41">
-        <v>0.6135</v>
+        <v>0.6274999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2523,19 +2523,19 @@
         </is>
       </c>
       <c r="J42">
-        <v>955</v>
+        <v>1120</v>
       </c>
       <c r="K42">
-        <v>476</v>
+        <v>588</v>
       </c>
       <c r="L42">
-        <v>437</v>
+        <v>527</v>
       </c>
       <c r="M42">
-        <v>0.4984</v>
+        <v>0.525</v>
       </c>
       <c r="N42">
-        <v>0.4576</v>
+        <v>0.4705</v>
       </c>
     </row>
     <row r="43">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2575,19 +2575,19 @@
         </is>
       </c>
       <c r="J43">
-        <v>19451</v>
+        <v>20138</v>
       </c>
       <c r="K43">
-        <v>13719</v>
+        <v>14261</v>
       </c>
       <c r="L43">
-        <v>7788</v>
+        <v>8169</v>
       </c>
       <c r="M43">
-        <v>0.7053</v>
+        <v>0.7082000000000001</v>
       </c>
       <c r="N43">
-        <v>0.4004</v>
+        <v>0.4057</v>
       </c>
     </row>
     <row r="44">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2627,19 +2627,19 @@
         </is>
       </c>
       <c r="J44">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="K44">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L44">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M44">
-        <v>0.5103</v>
+        <v>0.5177</v>
       </c>
       <c r="N44">
-        <v>0.5564</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2679,19 +2679,19 @@
         </is>
       </c>
       <c r="J45">
-        <v>1087</v>
+        <v>1159</v>
       </c>
       <c r="K45">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="L45">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="M45">
-        <v>0.5713</v>
+        <v>0.5738</v>
       </c>
       <c r="N45">
-        <v>0.4526</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="46">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2731,19 +2731,19 @@
         </is>
       </c>
       <c r="J46">
-        <v>2184</v>
+        <v>2358</v>
       </c>
       <c r="K46">
-        <v>1385</v>
+        <v>1492</v>
       </c>
       <c r="L46">
-        <v>840</v>
+        <v>929</v>
       </c>
       <c r="M46">
-        <v>0.6342</v>
+        <v>0.6327</v>
       </c>
       <c r="N46">
-        <v>0.3846</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="47">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2783,19 +2783,19 @@
         </is>
       </c>
       <c r="J47">
-        <v>5555</v>
+        <v>5854</v>
       </c>
       <c r="K47">
-        <v>3705</v>
+        <v>3894</v>
       </c>
       <c r="L47">
-        <v>3450</v>
+        <v>3619</v>
       </c>
       <c r="M47">
-        <v>0.667</v>
+        <v>0.6652</v>
       </c>
       <c r="N47">
-        <v>0.6211</v>
+        <v>0.6182</v>
       </c>
     </row>
     <row r="48">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2835,19 +2835,19 @@
         </is>
       </c>
       <c r="J48">
-        <v>1265</v>
+        <v>1308</v>
       </c>
       <c r="K48">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="L48">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="M48">
-        <v>0.6901</v>
+        <v>0.6873</v>
       </c>
       <c r="N48">
-        <v>0.5723</v>
+        <v>0.5711000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2887,19 +2887,19 @@
         </is>
       </c>
       <c r="J49">
-        <v>738</v>
+        <v>852</v>
       </c>
       <c r="K49">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="L49">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="M49">
-        <v>0.5095</v>
+        <v>0.5211</v>
       </c>
       <c r="N49">
-        <v>0.5312</v>
+        <v>0.5352</v>
       </c>
     </row>
     <row r="50">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2939,19 +2939,19 @@
         </is>
       </c>
       <c r="J50">
-        <v>3917</v>
+        <v>4332</v>
       </c>
       <c r="K50">
-        <v>2442</v>
+        <v>2667</v>
       </c>
       <c r="L50">
-        <v>1550</v>
+        <v>1776</v>
       </c>
       <c r="M50">
-        <v>0.6234</v>
+        <v>0.6157</v>
       </c>
       <c r="N50">
-        <v>0.3957</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="51">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3037,19 +3037,19 @@
         </is>
       </c>
       <c r="J52">
-        <v>1032</v>
+        <v>1276</v>
       </c>
       <c r="K52">
-        <v>601</v>
+        <v>796</v>
       </c>
       <c r="L52">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="M52">
-        <v>0.5824</v>
+        <v>0.6238</v>
       </c>
       <c r="N52">
-        <v>0.4651</v>
+        <v>0.4702</v>
       </c>
     </row>
     <row r="53">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3089,19 +3089,19 @@
         </is>
       </c>
       <c r="J53">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="K53">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L53">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M53">
-        <v>0.4528</v>
+        <v>0.4587</v>
       </c>
       <c r="N53">
-        <v>0.5333</v>
+        <v>0.5573</v>
       </c>
     </row>
     <row r="54">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3141,19 +3141,19 @@
         </is>
       </c>
       <c r="J54">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="K54">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="L54">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="M54">
-        <v>0.544</v>
+        <v>0.5496</v>
       </c>
       <c r="N54">
-        <v>0.5311</v>
+        <v>0.5385</v>
       </c>
     </row>
     <row r="55">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3193,19 +3193,19 @@
         </is>
       </c>
       <c r="J55">
-        <v>1978</v>
+        <v>2247</v>
       </c>
       <c r="K55">
-        <v>1363</v>
+        <v>1526</v>
       </c>
       <c r="L55">
-        <v>840</v>
+        <v>971</v>
       </c>
       <c r="M55">
-        <v>0.6891</v>
+        <v>0.6791</v>
       </c>
       <c r="N55">
-        <v>0.4247</v>
+        <v>0.4321</v>
       </c>
     </row>
     <row r="56">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3245,19 +3245,19 @@
         </is>
       </c>
       <c r="J56">
-        <v>19451</v>
+        <v>20138</v>
       </c>
       <c r="K56">
-        <v>13719</v>
+        <v>14261</v>
       </c>
       <c r="L56">
-        <v>7788</v>
+        <v>8169</v>
       </c>
       <c r="M56">
-        <v>0.7053</v>
+        <v>0.7082000000000001</v>
       </c>
       <c r="N56">
-        <v>0.4004</v>
+        <v>0.4057</v>
       </c>
     </row>
     <row r="57">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3297,19 +3297,19 @@
         </is>
       </c>
       <c r="J57">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="K57">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L57">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M57">
-        <v>0.5103</v>
+        <v>0.5177</v>
       </c>
       <c r="N57">
-        <v>0.5564</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3349,19 +3349,19 @@
         </is>
       </c>
       <c r="J58">
-        <v>1087</v>
+        <v>1159</v>
       </c>
       <c r="K58">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="L58">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="M58">
-        <v>0.5713</v>
+        <v>0.5738</v>
       </c>
       <c r="N58">
-        <v>0.4526</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="59">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3401,19 +3401,19 @@
         </is>
       </c>
       <c r="J59">
-        <v>2184</v>
+        <v>2358</v>
       </c>
       <c r="K59">
-        <v>1385</v>
+        <v>1492</v>
       </c>
       <c r="L59">
-        <v>840</v>
+        <v>929</v>
       </c>
       <c r="M59">
-        <v>0.6342</v>
+        <v>0.6327</v>
       </c>
       <c r="N59">
-        <v>0.3846</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="60">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3453,19 +3453,19 @@
         </is>
       </c>
       <c r="J60">
-        <v>5555</v>
+        <v>5854</v>
       </c>
       <c r="K60">
-        <v>3705</v>
+        <v>3894</v>
       </c>
       <c r="L60">
-        <v>3450</v>
+        <v>3619</v>
       </c>
       <c r="M60">
-        <v>0.667</v>
+        <v>0.6652</v>
       </c>
       <c r="N60">
-        <v>0.6211</v>
+        <v>0.6182</v>
       </c>
     </row>
     <row r="61">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3505,19 +3505,19 @@
         </is>
       </c>
       <c r="J61">
-        <v>1265</v>
+        <v>1308</v>
       </c>
       <c r="K61">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="L61">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="M61">
-        <v>0.6901</v>
+        <v>0.6873</v>
       </c>
       <c r="N61">
-        <v>0.5723</v>
+        <v>0.5711000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3557,19 +3557,19 @@
         </is>
       </c>
       <c r="J62">
-        <v>738</v>
+        <v>852</v>
       </c>
       <c r="K62">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="L62">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="M62">
-        <v>0.5095</v>
+        <v>0.5211</v>
       </c>
       <c r="N62">
-        <v>0.5312</v>
+        <v>0.5352</v>
       </c>
     </row>
     <row r="63">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3609,19 +3609,19 @@
         </is>
       </c>
       <c r="J63">
-        <v>3917</v>
+        <v>4332</v>
       </c>
       <c r="K63">
-        <v>2442</v>
+        <v>2667</v>
       </c>
       <c r="L63">
-        <v>1550</v>
+        <v>1776</v>
       </c>
       <c r="M63">
-        <v>0.6234</v>
+        <v>0.6157</v>
       </c>
       <c r="N63">
-        <v>0.3957</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="64">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3707,19 +3707,19 @@
         </is>
       </c>
       <c r="J65">
-        <v>1032</v>
+        <v>1276</v>
       </c>
       <c r="K65">
-        <v>601</v>
+        <v>796</v>
       </c>
       <c r="L65">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="M65">
-        <v>0.5824</v>
+        <v>0.6238</v>
       </c>
       <c r="N65">
-        <v>0.4651</v>
+        <v>0.4702</v>
       </c>
     </row>
     <row r="66">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3759,19 +3759,19 @@
         </is>
       </c>
       <c r="J66">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="K66">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L66">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M66">
-        <v>0.4528</v>
+        <v>0.4587</v>
       </c>
       <c r="N66">
-        <v>0.5333</v>
+        <v>0.5573</v>
       </c>
     </row>
     <row r="67">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3811,19 +3811,19 @@
         </is>
       </c>
       <c r="J67">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="K67">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="L67">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="M67">
-        <v>0.544</v>
+        <v>0.5496</v>
       </c>
       <c r="N67">
-        <v>0.5311</v>
+        <v>0.5385</v>
       </c>
     </row>
     <row r="68">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3863,19 +3863,19 @@
         </is>
       </c>
       <c r="J68">
-        <v>1978</v>
+        <v>2247</v>
       </c>
       <c r="K68">
-        <v>1363</v>
+        <v>1526</v>
       </c>
       <c r="L68">
-        <v>840</v>
+        <v>971</v>
       </c>
       <c r="M68">
-        <v>0.6891</v>
+        <v>0.6791</v>
       </c>
       <c r="N68">
-        <v>0.4247</v>
+        <v>0.4321</v>
       </c>
     </row>
     <row r="69">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3915,19 +3915,19 @@
         </is>
       </c>
       <c r="J69">
-        <v>6532</v>
+        <v>7391</v>
       </c>
       <c r="K69">
-        <v>4426</v>
+        <v>5145</v>
       </c>
       <c r="L69">
-        <v>3405</v>
+        <v>3749</v>
       </c>
       <c r="M69">
-        <v>0.6776</v>
+        <v>0.6961000000000001</v>
       </c>
       <c r="N69">
-        <v>0.5213</v>
+        <v>0.5072</v>
       </c>
     </row>
     <row r="70">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3967,19 +3967,19 @@
         </is>
       </c>
       <c r="J70">
-        <v>782</v>
+        <v>854</v>
       </c>
       <c r="K70">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="L70">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="M70">
-        <v>0.5639</v>
+        <v>0.5773</v>
       </c>
       <c r="N70">
-        <v>0.4271</v>
+        <v>0.4368</v>
       </c>
     </row>
     <row r="71">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4019,19 +4019,19 @@
         </is>
       </c>
       <c r="J71">
-        <v>48317</v>
+        <v>51947</v>
       </c>
       <c r="K71">
-        <v>32079</v>
+        <v>34658</v>
       </c>
       <c r="L71">
-        <v>22356</v>
+        <v>24236</v>
       </c>
       <c r="M71">
-        <v>0.6639</v>
+        <v>0.6672</v>
       </c>
       <c r="N71">
-        <v>0.4627</v>
+        <v>0.4666</v>
       </c>
     </row>
     <row r="72">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4071,19 +4071,19 @@
         </is>
       </c>
       <c r="J72">
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="K72">
-        <v>834</v>
+        <v>910</v>
       </c>
       <c r="L72">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="M72">
-        <v>0.6619</v>
+        <v>0.6594</v>
       </c>
       <c r="N72">
-        <v>0.6135</v>
+        <v>0.6274999999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4123,19 +4123,19 @@
         </is>
       </c>
       <c r="J73">
-        <v>955</v>
+        <v>1120</v>
       </c>
       <c r="K73">
-        <v>476</v>
+        <v>588</v>
       </c>
       <c r="L73">
-        <v>437</v>
+        <v>527</v>
       </c>
       <c r="M73">
-        <v>0.4984</v>
+        <v>0.525</v>
       </c>
       <c r="N73">
-        <v>0.4576</v>
+        <v>0.4705</v>
       </c>
     </row>
     <row r="74">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4175,19 +4175,19 @@
         </is>
       </c>
       <c r="J74">
-        <v>6532</v>
+        <v>7391</v>
       </c>
       <c r="K74">
-        <v>4426</v>
+        <v>5145</v>
       </c>
       <c r="L74">
-        <v>3405</v>
+        <v>3749</v>
       </c>
       <c r="M74">
-        <v>0.6776</v>
+        <v>0.6961000000000001</v>
       </c>
       <c r="N74">
-        <v>0.5213</v>
+        <v>0.5072</v>
       </c>
     </row>
     <row r="75">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4227,19 +4227,19 @@
         </is>
       </c>
       <c r="J75">
-        <v>782</v>
+        <v>854</v>
       </c>
       <c r="K75">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="L75">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="M75">
-        <v>0.5639</v>
+        <v>0.5773</v>
       </c>
       <c r="N75">
-        <v>0.4271</v>
+        <v>0.4368</v>
       </c>
     </row>
     <row r="76">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4279,19 +4279,19 @@
         </is>
       </c>
       <c r="J76">
-        <v>48317</v>
+        <v>51947</v>
       </c>
       <c r="K76">
-        <v>32079</v>
+        <v>34658</v>
       </c>
       <c r="L76">
-        <v>22356</v>
+        <v>24236</v>
       </c>
       <c r="M76">
-        <v>0.6639</v>
+        <v>0.6672</v>
       </c>
       <c r="N76">
-        <v>0.4627</v>
+        <v>0.4666</v>
       </c>
     </row>
     <row r="77">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4331,19 +4331,19 @@
         </is>
       </c>
       <c r="J77">
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="K77">
-        <v>834</v>
+        <v>910</v>
       </c>
       <c r="L77">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="M77">
-        <v>0.6619</v>
+        <v>0.6594</v>
       </c>
       <c r="N77">
-        <v>0.6135</v>
+        <v>0.6274999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="J78">
-        <v>955</v>
+        <v>1120</v>
       </c>
       <c r="K78">
-        <v>476</v>
+        <v>588</v>
       </c>
       <c r="L78">
-        <v>437</v>
+        <v>527</v>
       </c>
       <c r="M78">
-        <v>0.4984</v>
+        <v>0.525</v>
       </c>
       <c r="N78">
-        <v>0.4576</v>
+        <v>0.4705</v>
       </c>
     </row>
     <row r="79">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4435,19 +4435,19 @@
         </is>
       </c>
       <c r="J79">
-        <v>19451</v>
+        <v>20138</v>
       </c>
       <c r="K79">
-        <v>13719</v>
+        <v>14261</v>
       </c>
       <c r="L79">
-        <v>7788</v>
+        <v>8169</v>
       </c>
       <c r="M79">
-        <v>0.7053</v>
+        <v>0.7082000000000001</v>
       </c>
       <c r="N79">
-        <v>0.4004</v>
+        <v>0.4057</v>
       </c>
     </row>
     <row r="80">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4487,19 +4487,19 @@
         </is>
       </c>
       <c r="J80">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="K80">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L80">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M80">
-        <v>0.5103</v>
+        <v>0.5177</v>
       </c>
       <c r="N80">
-        <v>0.5564</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4539,19 +4539,19 @@
         </is>
       </c>
       <c r="J81">
-        <v>1087</v>
+        <v>1159</v>
       </c>
       <c r="K81">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="L81">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="M81">
-        <v>0.5713</v>
+        <v>0.5738</v>
       </c>
       <c r="N81">
-        <v>0.4526</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="82">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4591,19 +4591,19 @@
         </is>
       </c>
       <c r="J82">
-        <v>2184</v>
+        <v>2358</v>
       </c>
       <c r="K82">
-        <v>1385</v>
+        <v>1492</v>
       </c>
       <c r="L82">
-        <v>840</v>
+        <v>929</v>
       </c>
       <c r="M82">
-        <v>0.6342</v>
+        <v>0.6327</v>
       </c>
       <c r="N82">
-        <v>0.3846</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="83">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4643,19 +4643,19 @@
         </is>
       </c>
       <c r="J83">
-        <v>5555</v>
+        <v>5854</v>
       </c>
       <c r="K83">
-        <v>3705</v>
+        <v>3894</v>
       </c>
       <c r="L83">
-        <v>3450</v>
+        <v>3619</v>
       </c>
       <c r="M83">
-        <v>0.667</v>
+        <v>0.6652</v>
       </c>
       <c r="N83">
-        <v>0.6211</v>
+        <v>0.6182</v>
       </c>
     </row>
     <row r="84">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4695,19 +4695,19 @@
         </is>
       </c>
       <c r="J84">
-        <v>1265</v>
+        <v>1308</v>
       </c>
       <c r="K84">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="L84">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="M84">
-        <v>0.6901</v>
+        <v>0.6873</v>
       </c>
       <c r="N84">
-        <v>0.5723</v>
+        <v>0.5711000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4747,19 +4747,19 @@
         </is>
       </c>
       <c r="J85">
-        <v>738</v>
+        <v>852</v>
       </c>
       <c r="K85">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="L85">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="M85">
-        <v>0.5095</v>
+        <v>0.5211</v>
       </c>
       <c r="N85">
-        <v>0.5312</v>
+        <v>0.5352</v>
       </c>
     </row>
     <row r="86">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4799,19 +4799,19 @@
         </is>
       </c>
       <c r="J86">
-        <v>3917</v>
+        <v>4332</v>
       </c>
       <c r="K86">
-        <v>2442</v>
+        <v>2667</v>
       </c>
       <c r="L86">
-        <v>1550</v>
+        <v>1776</v>
       </c>
       <c r="M86">
-        <v>0.6234</v>
+        <v>0.6157</v>
       </c>
       <c r="N86">
-        <v>0.3957</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="87">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4897,19 +4897,19 @@
         </is>
       </c>
       <c r="J88">
-        <v>1032</v>
+        <v>1276</v>
       </c>
       <c r="K88">
-        <v>601</v>
+        <v>796</v>
       </c>
       <c r="L88">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="M88">
-        <v>0.5824</v>
+        <v>0.6238</v>
       </c>
       <c r="N88">
-        <v>0.4651</v>
+        <v>0.4702</v>
       </c>
     </row>
     <row r="89">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4949,19 +4949,19 @@
         </is>
       </c>
       <c r="J89">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="K89">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L89">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M89">
-        <v>0.4528</v>
+        <v>0.4587</v>
       </c>
       <c r="N89">
-        <v>0.5333</v>
+        <v>0.5573</v>
       </c>
     </row>
     <row r="90">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5001,19 +5001,19 @@
         </is>
       </c>
       <c r="J90">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="K90">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="L90">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="M90">
-        <v>0.544</v>
+        <v>0.5496</v>
       </c>
       <c r="N90">
-        <v>0.5311</v>
+        <v>0.5385</v>
       </c>
     </row>
     <row r="91">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5053,19 +5053,19 @@
         </is>
       </c>
       <c r="J91">
-        <v>1978</v>
+        <v>2247</v>
       </c>
       <c r="K91">
-        <v>1363</v>
+        <v>1526</v>
       </c>
       <c r="L91">
-        <v>840</v>
+        <v>971</v>
       </c>
       <c r="M91">
-        <v>0.6891</v>
+        <v>0.6791</v>
       </c>
       <c r="N91">
-        <v>0.4247</v>
+        <v>0.4321</v>
       </c>
     </row>
     <row r="92">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5105,19 +5105,19 @@
         </is>
       </c>
       <c r="J92">
-        <v>19451</v>
+        <v>20138</v>
       </c>
       <c r="K92">
-        <v>13719</v>
+        <v>14261</v>
       </c>
       <c r="L92">
-        <v>7788</v>
+        <v>8169</v>
       </c>
       <c r="M92">
-        <v>0.7053</v>
+        <v>0.7082000000000001</v>
       </c>
       <c r="N92">
-        <v>0.4004</v>
+        <v>0.4057</v>
       </c>
     </row>
     <row r="93">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5157,19 +5157,19 @@
         </is>
       </c>
       <c r="J93">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="K93">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L93">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M93">
-        <v>0.5103</v>
+        <v>0.5177</v>
       </c>
       <c r="N93">
-        <v>0.5564</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="94">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5209,19 +5209,19 @@
         </is>
       </c>
       <c r="J94">
-        <v>1087</v>
+        <v>1159</v>
       </c>
       <c r="K94">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="L94">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="M94">
-        <v>0.5713</v>
+        <v>0.5738</v>
       </c>
       <c r="N94">
-        <v>0.4526</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="95">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5261,19 +5261,19 @@
         </is>
       </c>
       <c r="J95">
-        <v>2184</v>
+        <v>2358</v>
       </c>
       <c r="K95">
-        <v>1385</v>
+        <v>1492</v>
       </c>
       <c r="L95">
-        <v>840</v>
+        <v>929</v>
       </c>
       <c r="M95">
-        <v>0.6342</v>
+        <v>0.6327</v>
       </c>
       <c r="N95">
-        <v>0.3846</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="96">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5313,19 +5313,19 @@
         </is>
       </c>
       <c r="J96">
-        <v>5555</v>
+        <v>5854</v>
       </c>
       <c r="K96">
-        <v>3705</v>
+        <v>3894</v>
       </c>
       <c r="L96">
-        <v>3450</v>
+        <v>3619</v>
       </c>
       <c r="M96">
-        <v>0.667</v>
+        <v>0.6652</v>
       </c>
       <c r="N96">
-        <v>0.6211</v>
+        <v>0.6182</v>
       </c>
     </row>
     <row r="97">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5365,19 +5365,19 @@
         </is>
       </c>
       <c r="J97">
-        <v>1265</v>
+        <v>1308</v>
       </c>
       <c r="K97">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="L97">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="M97">
-        <v>0.6901</v>
+        <v>0.6873</v>
       </c>
       <c r="N97">
-        <v>0.5723</v>
+        <v>0.5711000000000001</v>
       </c>
     </row>
     <row r="98">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5417,19 +5417,19 @@
         </is>
       </c>
       <c r="J98">
-        <v>738</v>
+        <v>852</v>
       </c>
       <c r="K98">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="L98">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="M98">
-        <v>0.5095</v>
+        <v>0.5211</v>
       </c>
       <c r="N98">
-        <v>0.5312</v>
+        <v>0.5352</v>
       </c>
     </row>
     <row r="99">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5469,19 +5469,19 @@
         </is>
       </c>
       <c r="J99">
-        <v>3917</v>
+        <v>4332</v>
       </c>
       <c r="K99">
-        <v>2442</v>
+        <v>2667</v>
       </c>
       <c r="L99">
-        <v>1550</v>
+        <v>1776</v>
       </c>
       <c r="M99">
-        <v>0.6234</v>
+        <v>0.6157</v>
       </c>
       <c r="N99">
-        <v>0.3957</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="100">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5567,19 +5567,19 @@
         </is>
       </c>
       <c r="J101">
-        <v>1032</v>
+        <v>1276</v>
       </c>
       <c r="K101">
-        <v>601</v>
+        <v>796</v>
       </c>
       <c r="L101">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="M101">
-        <v>0.5824</v>
+        <v>0.6238</v>
       </c>
       <c r="N101">
-        <v>0.4651</v>
+        <v>0.4702</v>
       </c>
     </row>
     <row r="102">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5619,19 +5619,19 @@
         </is>
       </c>
       <c r="J102">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="K102">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L102">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M102">
-        <v>0.4528</v>
+        <v>0.4587</v>
       </c>
       <c r="N102">
-        <v>0.5333</v>
+        <v>0.5573</v>
       </c>
     </row>
     <row r="103">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5671,19 +5671,19 @@
         </is>
       </c>
       <c r="J103">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="K103">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="L103">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="M103">
-        <v>0.544</v>
+        <v>0.5496</v>
       </c>
       <c r="N103">
-        <v>0.5311</v>
+        <v>0.5385</v>
       </c>
     </row>
     <row r="104">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5723,19 +5723,19 @@
         </is>
       </c>
       <c r="J104">
-        <v>1978</v>
+        <v>2247</v>
       </c>
       <c r="K104">
-        <v>1363</v>
+        <v>1526</v>
       </c>
       <c r="L104">
-        <v>840</v>
+        <v>971</v>
       </c>
       <c r="M104">
-        <v>0.6891</v>
+        <v>0.6791</v>
       </c>
       <c r="N104">
-        <v>0.4247</v>
+        <v>0.4321</v>
       </c>
     </row>
     <row r="105">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5775,19 +5775,19 @@
         </is>
       </c>
       <c r="J105">
-        <v>6532</v>
+        <v>7391</v>
       </c>
       <c r="K105">
-        <v>4426</v>
+        <v>5145</v>
       </c>
       <c r="L105">
-        <v>3405</v>
+        <v>3749</v>
       </c>
       <c r="M105">
-        <v>0.6776</v>
+        <v>0.6961000000000001</v>
       </c>
       <c r="N105">
-        <v>0.5213</v>
+        <v>0.5072</v>
       </c>
     </row>
     <row r="106">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5827,19 +5827,19 @@
         </is>
       </c>
       <c r="J106">
-        <v>782</v>
+        <v>854</v>
       </c>
       <c r="K106">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="L106">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="M106">
-        <v>0.5639</v>
+        <v>0.5773</v>
       </c>
       <c r="N106">
-        <v>0.4271</v>
+        <v>0.4368</v>
       </c>
     </row>
     <row r="107">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5879,19 +5879,19 @@
         </is>
       </c>
       <c r="J107">
-        <v>48317</v>
+        <v>51947</v>
       </c>
       <c r="K107">
-        <v>32079</v>
+        <v>34658</v>
       </c>
       <c r="L107">
-        <v>22356</v>
+        <v>24236</v>
       </c>
       <c r="M107">
-        <v>0.6639</v>
+        <v>0.6672</v>
       </c>
       <c r="N107">
-        <v>0.4627</v>
+        <v>0.4666</v>
       </c>
     </row>
     <row r="108">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5931,19 +5931,19 @@
         </is>
       </c>
       <c r="J108">
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="K108">
-        <v>834</v>
+        <v>910</v>
       </c>
       <c r="L108">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="M108">
-        <v>0.6619</v>
+        <v>0.6594</v>
       </c>
       <c r="N108">
-        <v>0.6135</v>
+        <v>0.6274999999999999</v>
       </c>
     </row>
     <row r="109">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5983,19 +5983,19 @@
         </is>
       </c>
       <c r="J109">
-        <v>955</v>
+        <v>1120</v>
       </c>
       <c r="K109">
-        <v>476</v>
+        <v>588</v>
       </c>
       <c r="L109">
-        <v>437</v>
+        <v>527</v>
       </c>
       <c r="M109">
-        <v>0.4984</v>
+        <v>0.525</v>
       </c>
       <c r="N109">
-        <v>0.4576</v>
+        <v>0.4705</v>
       </c>
     </row>
     <row r="110">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6035,19 +6035,19 @@
         </is>
       </c>
       <c r="J110">
-        <v>6532</v>
+        <v>7391</v>
       </c>
       <c r="K110">
-        <v>4426</v>
+        <v>5145</v>
       </c>
       <c r="L110">
-        <v>3405</v>
+        <v>3749</v>
       </c>
       <c r="M110">
-        <v>0.6776</v>
+        <v>0.6961000000000001</v>
       </c>
       <c r="N110">
-        <v>0.5213</v>
+        <v>0.5072</v>
       </c>
     </row>
     <row r="111">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6087,19 +6087,19 @@
         </is>
       </c>
       <c r="J111">
-        <v>782</v>
+        <v>854</v>
       </c>
       <c r="K111">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="L111">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="M111">
-        <v>0.5639</v>
+        <v>0.5773</v>
       </c>
       <c r="N111">
-        <v>0.4271</v>
+        <v>0.4368</v>
       </c>
     </row>
     <row r="112">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6139,19 +6139,19 @@
         </is>
       </c>
       <c r="J112">
-        <v>48317</v>
+        <v>51947</v>
       </c>
       <c r="K112">
-        <v>32079</v>
+        <v>34658</v>
       </c>
       <c r="L112">
-        <v>22356</v>
+        <v>24236</v>
       </c>
       <c r="M112">
-        <v>0.6639</v>
+        <v>0.6672</v>
       </c>
       <c r="N112">
-        <v>0.4627</v>
+        <v>0.4666</v>
       </c>
     </row>
     <row r="113">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6191,19 +6191,19 @@
         </is>
       </c>
       <c r="J113">
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="K113">
-        <v>834</v>
+        <v>910</v>
       </c>
       <c r="L113">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="M113">
-        <v>0.6619</v>
+        <v>0.6594</v>
       </c>
       <c r="N113">
-        <v>0.6135</v>
+        <v>0.6274999999999999</v>
       </c>
     </row>
     <row r="114">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6243,19 +6243,19 @@
         </is>
       </c>
       <c r="J114">
-        <v>955</v>
+        <v>1120</v>
       </c>
       <c r="K114">
-        <v>476</v>
+        <v>588</v>
       </c>
       <c r="L114">
-        <v>437</v>
+        <v>527</v>
       </c>
       <c r="M114">
-        <v>0.4984</v>
+        <v>0.525</v>
       </c>
       <c r="N114">
-        <v>0.4576</v>
+        <v>0.4705</v>
       </c>
     </row>
     <row r="115">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6295,19 +6295,19 @@
         </is>
       </c>
       <c r="J115">
-        <v>19451</v>
+        <v>20138</v>
       </c>
       <c r="K115">
-        <v>13719</v>
+        <v>14261</v>
       </c>
       <c r="L115">
-        <v>7788</v>
+        <v>8169</v>
       </c>
       <c r="M115">
-        <v>0.7053</v>
+        <v>0.7082000000000001</v>
       </c>
       <c r="N115">
-        <v>0.4004</v>
+        <v>0.4057</v>
       </c>
     </row>
     <row r="116">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6347,19 +6347,19 @@
         </is>
       </c>
       <c r="J116">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="K116">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L116">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M116">
-        <v>0.5103</v>
+        <v>0.5177</v>
       </c>
       <c r="N116">
-        <v>0.5564</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6399,19 +6399,19 @@
         </is>
       </c>
       <c r="J117">
-        <v>1087</v>
+        <v>1159</v>
       </c>
       <c r="K117">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="L117">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="M117">
-        <v>0.5713</v>
+        <v>0.5738</v>
       </c>
       <c r="N117">
-        <v>0.4526</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="118">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6451,19 +6451,19 @@
         </is>
       </c>
       <c r="J118">
-        <v>2184</v>
+        <v>2358</v>
       </c>
       <c r="K118">
-        <v>1385</v>
+        <v>1492</v>
       </c>
       <c r="L118">
-        <v>840</v>
+        <v>929</v>
       </c>
       <c r="M118">
-        <v>0.6342</v>
+        <v>0.6327</v>
       </c>
       <c r="N118">
-        <v>0.3846</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="119">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6503,19 +6503,19 @@
         </is>
       </c>
       <c r="J119">
-        <v>5555</v>
+        <v>5854</v>
       </c>
       <c r="K119">
-        <v>3705</v>
+        <v>3894</v>
       </c>
       <c r="L119">
-        <v>3450</v>
+        <v>3619</v>
       </c>
       <c r="M119">
-        <v>0.667</v>
+        <v>0.6652</v>
       </c>
       <c r="N119">
-        <v>0.6211</v>
+        <v>0.6182</v>
       </c>
     </row>
     <row r="120">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6555,19 +6555,19 @@
         </is>
       </c>
       <c r="J120">
-        <v>1265</v>
+        <v>1308</v>
       </c>
       <c r="K120">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="L120">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="M120">
-        <v>0.6901</v>
+        <v>0.6873</v>
       </c>
       <c r="N120">
-        <v>0.5723</v>
+        <v>0.5711000000000001</v>
       </c>
     </row>
     <row r="121">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="J121">
-        <v>738</v>
+        <v>852</v>
       </c>
       <c r="K121">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="L121">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="M121">
-        <v>0.5095</v>
+        <v>0.5211</v>
       </c>
       <c r="N121">
-        <v>0.5312</v>
+        <v>0.5352</v>
       </c>
     </row>
     <row r="122">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6659,19 +6659,19 @@
         </is>
       </c>
       <c r="J122">
-        <v>3917</v>
+        <v>4332</v>
       </c>
       <c r="K122">
-        <v>2442</v>
+        <v>2667</v>
       </c>
       <c r="L122">
-        <v>1550</v>
+        <v>1776</v>
       </c>
       <c r="M122">
-        <v>0.6234</v>
+        <v>0.6157</v>
       </c>
       <c r="N122">
-        <v>0.3957</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="123">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6757,19 +6757,19 @@
         </is>
       </c>
       <c r="J124">
-        <v>1032</v>
+        <v>1276</v>
       </c>
       <c r="K124">
-        <v>601</v>
+        <v>796</v>
       </c>
       <c r="L124">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="M124">
-        <v>0.5824</v>
+        <v>0.6238</v>
       </c>
       <c r="N124">
-        <v>0.4651</v>
+        <v>0.4702</v>
       </c>
     </row>
     <row r="125">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6809,19 +6809,19 @@
         </is>
       </c>
       <c r="J125">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="K125">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L125">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M125">
-        <v>0.4528</v>
+        <v>0.4587</v>
       </c>
       <c r="N125">
-        <v>0.5333</v>
+        <v>0.5573</v>
       </c>
     </row>
     <row r="126">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -6861,19 +6861,19 @@
         </is>
       </c>
       <c r="J126">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="K126">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="L126">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="M126">
-        <v>0.544</v>
+        <v>0.5496</v>
       </c>
       <c r="N126">
-        <v>0.5311</v>
+        <v>0.5385</v>
       </c>
     </row>
     <row r="127">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="J127">
-        <v>1978</v>
+        <v>2247</v>
       </c>
       <c r="K127">
-        <v>1363</v>
+        <v>1526</v>
       </c>
       <c r="L127">
-        <v>840</v>
+        <v>971</v>
       </c>
       <c r="M127">
-        <v>0.6891</v>
+        <v>0.6791</v>
       </c>
       <c r="N127">
-        <v>0.4247</v>
+        <v>0.4321</v>
       </c>
     </row>
     <row r="128">
@@ -6956,7 +6956,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6965,19 +6965,19 @@
         </is>
       </c>
       <c r="J128">
-        <v>19451</v>
+        <v>20138</v>
       </c>
       <c r="K128">
-        <v>13719</v>
+        <v>14261</v>
       </c>
       <c r="L128">
-        <v>7788</v>
+        <v>8169</v>
       </c>
       <c r="M128">
-        <v>0.7053</v>
+        <v>0.7082000000000001</v>
       </c>
       <c r="N128">
-        <v>0.4004</v>
+        <v>0.4057</v>
       </c>
     </row>
     <row r="129">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7017,19 +7017,19 @@
         </is>
       </c>
       <c r="J129">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="K129">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="L129">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M129">
-        <v>0.5103</v>
+        <v>0.5177</v>
       </c>
       <c r="N129">
-        <v>0.5564</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="130">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="J130">
-        <v>1087</v>
+        <v>1159</v>
       </c>
       <c r="K130">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="L130">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="M130">
-        <v>0.5713</v>
+        <v>0.5738</v>
       </c>
       <c r="N130">
-        <v>0.4526</v>
+        <v>0.4599</v>
       </c>
     </row>
     <row r="131">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7121,19 +7121,19 @@
         </is>
       </c>
       <c r="J131">
-        <v>2184</v>
+        <v>2358</v>
       </c>
       <c r="K131">
-        <v>1385</v>
+        <v>1492</v>
       </c>
       <c r="L131">
-        <v>840</v>
+        <v>929</v>
       </c>
       <c r="M131">
-        <v>0.6342</v>
+        <v>0.6327</v>
       </c>
       <c r="N131">
-        <v>0.3846</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="132">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7173,19 +7173,19 @@
         </is>
       </c>
       <c r="J132">
-        <v>5555</v>
+        <v>5854</v>
       </c>
       <c r="K132">
-        <v>3705</v>
+        <v>3894</v>
       </c>
       <c r="L132">
-        <v>3450</v>
+        <v>3619</v>
       </c>
       <c r="M132">
-        <v>0.667</v>
+        <v>0.6652</v>
       </c>
       <c r="N132">
-        <v>0.6211</v>
+        <v>0.6182</v>
       </c>
     </row>
     <row r="133">
@@ -7210,7 +7210,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7219,13 +7219,19 @@
         </is>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M133">
+        <v>0.5</v>
+      </c>
+      <c r="N133">
+        <v>0.75</v>
       </c>
     </row>
     <row r="134">
@@ -7256,7 +7262,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7265,19 +7271,19 @@
         </is>
       </c>
       <c r="J134">
-        <v>1265</v>
+        <v>1308</v>
       </c>
       <c r="K134">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="L134">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="M134">
-        <v>0.6901</v>
+        <v>0.6873</v>
       </c>
       <c r="N134">
-        <v>0.5723</v>
+        <v>0.5711000000000001</v>
       </c>
     </row>
     <row r="135">
@@ -7308,7 +7314,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7317,19 +7323,19 @@
         </is>
       </c>
       <c r="J135">
-        <v>738</v>
+        <v>852</v>
       </c>
       <c r="K135">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="L135">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="M135">
-        <v>0.5095</v>
+        <v>0.5211</v>
       </c>
       <c r="N135">
-        <v>0.5312</v>
+        <v>0.5352</v>
       </c>
     </row>
     <row r="136">
@@ -7360,7 +7366,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7369,19 +7375,19 @@
         </is>
       </c>
       <c r="J136">
-        <v>3917</v>
+        <v>4332</v>
       </c>
       <c r="K136">
-        <v>2442</v>
+        <v>2667</v>
       </c>
       <c r="L136">
-        <v>1550</v>
+        <v>1776</v>
       </c>
       <c r="M136">
-        <v>0.6234</v>
+        <v>0.6157</v>
       </c>
       <c r="N136">
-        <v>0.3957</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="137">
@@ -7406,7 +7412,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7452,7 +7458,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7498,7 +7504,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7544,7 +7550,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7553,19 +7559,19 @@
         </is>
       </c>
       <c r="J140">
-        <v>1032</v>
+        <v>1276</v>
       </c>
       <c r="K140">
-        <v>601</v>
+        <v>796</v>
       </c>
       <c r="L140">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="M140">
-        <v>0.5824</v>
+        <v>0.6238</v>
       </c>
       <c r="N140">
-        <v>0.4651</v>
+        <v>0.4702</v>
       </c>
     </row>
     <row r="141">
@@ -7590,7 +7596,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7636,7 +7642,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7645,19 +7651,19 @@
         </is>
       </c>
       <c r="J142">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="K142">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L142">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M142">
-        <v>0.4528</v>
+        <v>0.4587</v>
       </c>
       <c r="N142">
-        <v>0.5333</v>
+        <v>0.5573</v>
       </c>
     </row>
     <row r="143">
@@ -7688,7 +7694,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7697,19 +7703,19 @@
         </is>
       </c>
       <c r="J143">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="K143">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="L143">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="M143">
-        <v>0.544</v>
+        <v>0.5496</v>
       </c>
       <c r="N143">
-        <v>0.5311</v>
+        <v>0.5385</v>
       </c>
     </row>
     <row r="144">
@@ -7740,7 +7746,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7749,19 +7755,19 @@
         </is>
       </c>
       <c r="J144">
-        <v>1978</v>
+        <v>2247</v>
       </c>
       <c r="K144">
-        <v>1363</v>
+        <v>1526</v>
       </c>
       <c r="L144">
-        <v>840</v>
+        <v>971</v>
       </c>
       <c r="M144">
-        <v>0.6891</v>
+        <v>0.6791</v>
       </c>
       <c r="N144">
-        <v>0.4247</v>
+        <v>0.4321</v>
       </c>
     </row>
     <row r="145">
@@ -7792,7 +7798,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7801,19 +7807,19 @@
         </is>
       </c>
       <c r="J145">
-        <v>6532</v>
+        <v>7391</v>
       </c>
       <c r="K145">
-        <v>4426</v>
+        <v>5145</v>
       </c>
       <c r="L145">
-        <v>3405</v>
+        <v>3749</v>
       </c>
       <c r="M145">
-        <v>0.6776</v>
+        <v>0.6961000000000001</v>
       </c>
       <c r="N145">
-        <v>0.5213</v>
+        <v>0.5072</v>
       </c>
     </row>
     <row r="146">
@@ -7844,7 +7850,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7853,19 +7859,19 @@
         </is>
       </c>
       <c r="J146">
-        <v>782</v>
+        <v>854</v>
       </c>
       <c r="K146">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="L146">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="M146">
-        <v>0.5639</v>
+        <v>0.5773</v>
       </c>
       <c r="N146">
-        <v>0.4271</v>
+        <v>0.4368</v>
       </c>
     </row>
     <row r="147">
@@ -7896,7 +7902,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7905,19 +7911,19 @@
         </is>
       </c>
       <c r="J147">
-        <v>48317</v>
+        <v>51947</v>
       </c>
       <c r="K147">
-        <v>32079</v>
+        <v>34658</v>
       </c>
       <c r="L147">
-        <v>22356</v>
+        <v>24236</v>
       </c>
       <c r="M147">
-        <v>0.6639</v>
+        <v>0.6672</v>
       </c>
       <c r="N147">
-        <v>0.4627</v>
+        <v>0.4666</v>
       </c>
     </row>
     <row r="148">
@@ -7948,7 +7954,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7957,19 +7963,19 @@
         </is>
       </c>
       <c r="J148">
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="K148">
-        <v>834</v>
+        <v>910</v>
       </c>
       <c r="L148">
-        <v>773</v>
+        <v>866</v>
       </c>
       <c r="M148">
-        <v>0.6619</v>
+        <v>0.6594</v>
       </c>
       <c r="N148">
-        <v>0.6135</v>
+        <v>0.6274999999999999</v>
       </c>
     </row>
     <row r="149">
@@ -8000,7 +8006,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8009,19 +8015,19 @@
         </is>
       </c>
       <c r="J149">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K149">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L149">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M149">
-        <v>0.7949000000000001</v>
+        <v>0.7955</v>
       </c>
       <c r="N149">
-        <v>0.4103</v>
+        <v>0.4318</v>
       </c>
     </row>
     <row r="150">
@@ -8046,7 +8052,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8098,7 +8104,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2020-03-25 08:00:00</t>
+          <t>2020-03-26 08:00:00</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -8107,19 +8113,1225 @@
         </is>
       </c>
       <c r="J151">
-        <v>955</v>
+        <v>1120</v>
       </c>
       <c r="K151">
-        <v>476</v>
+        <v>588</v>
       </c>
       <c r="L151">
-        <v>437</v>
+        <v>527</v>
       </c>
       <c r="M151">
-        <v>0.4984</v>
+        <v>0.525</v>
       </c>
       <c r="N151">
-        <v>0.4576</v>
+        <v>0.4705</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C152">
+        <v>702</v>
+      </c>
+      <c r="D152">
+        <v>551</v>
+      </c>
+      <c r="E152">
+        <v>212</v>
+      </c>
+      <c r="F152">
+        <v>0.7849</v>
+      </c>
+      <c r="G152">
+        <v>0.302</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="J152">
+        <v>20138</v>
+      </c>
+      <c r="K152">
+        <v>14261</v>
+      </c>
+      <c r="L152">
+        <v>8169</v>
+      </c>
+      <c r="M152">
+        <v>0.7082000000000001</v>
+      </c>
+      <c r="N152">
+        <v>0.4057</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C153">
+        <v>33</v>
+      </c>
+      <c r="D153">
+        <v>20</v>
+      </c>
+      <c r="E153">
+        <v>11</v>
+      </c>
+      <c r="F153">
+        <v>0.6061</v>
+      </c>
+      <c r="G153">
+        <v>0.3333</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J153">
+        <v>423</v>
+      </c>
+      <c r="K153">
+        <v>219</v>
+      </c>
+      <c r="L153">
+        <v>239</v>
+      </c>
+      <c r="M153">
+        <v>0.5177</v>
+      </c>
+      <c r="N153">
+        <v>0.5649999999999999</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C154">
+        <v>69</v>
+      </c>
+      <c r="D154">
+        <v>43</v>
+      </c>
+      <c r="E154">
+        <v>28</v>
+      </c>
+      <c r="F154">
+        <v>0.6232</v>
+      </c>
+      <c r="G154">
+        <v>0.4058</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J154">
+        <v>1159</v>
+      </c>
+      <c r="K154">
+        <v>665</v>
+      </c>
+      <c r="L154">
+        <v>533</v>
+      </c>
+      <c r="M154">
+        <v>0.5738</v>
+      </c>
+      <c r="N154">
+        <v>0.4599</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C155">
+        <v>176</v>
+      </c>
+      <c r="D155">
+        <v>107</v>
+      </c>
+      <c r="E155">
+        <v>57</v>
+      </c>
+      <c r="F155">
+        <v>0.608</v>
+      </c>
+      <c r="G155">
+        <v>0.3239</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J155">
+        <v>2358</v>
+      </c>
+      <c r="K155">
+        <v>1492</v>
+      </c>
+      <c r="L155">
+        <v>929</v>
+      </c>
+      <c r="M155">
+        <v>0.6327</v>
+      </c>
+      <c r="N155">
+        <v>0.394</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C156">
+        <v>346</v>
+      </c>
+      <c r="D156">
+        <v>229</v>
+      </c>
+      <c r="E156">
+        <v>147</v>
+      </c>
+      <c r="F156">
+        <v>0.6618000000000001</v>
+      </c>
+      <c r="G156">
+        <v>0.4249</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="J156">
+        <v>5854</v>
+      </c>
+      <c r="K156">
+        <v>3894</v>
+      </c>
+      <c r="L156">
+        <v>3619</v>
+      </c>
+      <c r="M156">
+        <v>0.6652</v>
+      </c>
+      <c r="N156">
+        <v>0.6182</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>0.5</v>
+      </c>
+      <c r="G157">
+        <v>0.5</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="J157">
+        <v>4</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+      <c r="M157">
+        <v>0.5</v>
+      </c>
+      <c r="N157">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C158">
+        <v>43</v>
+      </c>
+      <c r="D158">
+        <v>26</v>
+      </c>
+      <c r="E158">
+        <v>16</v>
+      </c>
+      <c r="F158">
+        <v>0.6047</v>
+      </c>
+      <c r="G158">
+        <v>0.3721</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J158">
+        <v>1308</v>
+      </c>
+      <c r="K158">
+        <v>899</v>
+      </c>
+      <c r="L158">
+        <v>747</v>
+      </c>
+      <c r="M158">
+        <v>0.6873</v>
+      </c>
+      <c r="N158">
+        <v>0.5711000000000001</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C159">
+        <v>116</v>
+      </c>
+      <c r="D159">
+        <v>67</v>
+      </c>
+      <c r="E159">
+        <v>46</v>
+      </c>
+      <c r="F159">
+        <v>0.5776</v>
+      </c>
+      <c r="G159">
+        <v>0.3966</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="J159">
+        <v>852</v>
+      </c>
+      <c r="K159">
+        <v>444</v>
+      </c>
+      <c r="L159">
+        <v>456</v>
+      </c>
+      <c r="M159">
+        <v>0.5211</v>
+      </c>
+      <c r="N159">
+        <v>0.5352</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C160">
+        <v>416</v>
+      </c>
+      <c r="D160">
+        <v>224</v>
+      </c>
+      <c r="E160">
+        <v>145</v>
+      </c>
+      <c r="F160">
+        <v>0.5385</v>
+      </c>
+      <c r="G160">
+        <v>0.3486</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="J160">
+        <v>4332</v>
+      </c>
+      <c r="K160">
+        <v>2667</v>
+      </c>
+      <c r="L160">
+        <v>1776</v>
+      </c>
+      <c r="M160">
+        <v>0.6157</v>
+      </c>
+      <c r="N160">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C164">
+        <v>253</v>
+      </c>
+      <c r="D164">
+        <v>204</v>
+      </c>
+      <c r="E164">
+        <v>81</v>
+      </c>
+      <c r="F164">
+        <v>0.8063</v>
+      </c>
+      <c r="G164">
+        <v>0.3202</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J164">
+        <v>1276</v>
+      </c>
+      <c r="K164">
+        <v>796</v>
+      </c>
+      <c r="L164">
+        <v>600</v>
+      </c>
+      <c r="M164">
+        <v>0.6238</v>
+      </c>
+      <c r="N164">
+        <v>0.4702</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C166">
+        <v>15</v>
+      </c>
+      <c r="D166">
+        <v>9</v>
+      </c>
+      <c r="E166">
+        <v>7</v>
+      </c>
+      <c r="F166">
+        <v>0.6</v>
+      </c>
+      <c r="G166">
+        <v>0.4667</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="J166">
+        <v>375</v>
+      </c>
+      <c r="K166">
+        <v>172</v>
+      </c>
+      <c r="L166">
+        <v>209</v>
+      </c>
+      <c r="M166">
+        <v>0.4587</v>
+      </c>
+      <c r="N166">
+        <v>0.5573</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C167">
+        <v>35</v>
+      </c>
+      <c r="D167">
+        <v>24</v>
+      </c>
+      <c r="E167">
+        <v>14</v>
+      </c>
+      <c r="F167">
+        <v>0.6857</v>
+      </c>
+      <c r="G167">
+        <v>0.4</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J167">
+        <v>806</v>
+      </c>
+      <c r="K167">
+        <v>443</v>
+      </c>
+      <c r="L167">
+        <v>434</v>
+      </c>
+      <c r="M167">
+        <v>0.5496</v>
+      </c>
+      <c r="N167">
+        <v>0.5385</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C168">
+        <v>283</v>
+      </c>
+      <c r="D168">
+        <v>174</v>
+      </c>
+      <c r="E168">
+        <v>91</v>
+      </c>
+      <c r="F168">
+        <v>0.6148</v>
+      </c>
+      <c r="G168">
+        <v>0.3216</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="J168">
+        <v>2247</v>
+      </c>
+      <c r="K168">
+        <v>1526</v>
+      </c>
+      <c r="L168">
+        <v>971</v>
+      </c>
+      <c r="M168">
+        <v>0.6791</v>
+      </c>
+      <c r="N168">
+        <v>0.4321</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C169">
+        <v>857</v>
+      </c>
+      <c r="D169">
+        <v>714</v>
+      </c>
+      <c r="E169">
+        <v>264</v>
+      </c>
+      <c r="F169">
+        <v>0.8331</v>
+      </c>
+      <c r="G169">
+        <v>0.3081</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="J169">
+        <v>7391</v>
+      </c>
+      <c r="K169">
+        <v>5145</v>
+      </c>
+      <c r="L169">
+        <v>3749</v>
+      </c>
+      <c r="M169">
+        <v>0.6961000000000001</v>
+      </c>
+      <c r="N169">
+        <v>0.5072</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C170">
+        <v>75</v>
+      </c>
+      <c r="D170">
+        <v>55</v>
+      </c>
+      <c r="E170">
+        <v>31</v>
+      </c>
+      <c r="F170">
+        <v>0.7333</v>
+      </c>
+      <c r="G170">
+        <v>0.4133</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="J170">
+        <v>854</v>
+      </c>
+      <c r="K170">
+        <v>493</v>
+      </c>
+      <c r="L170">
+        <v>373</v>
+      </c>
+      <c r="M170">
+        <v>0.5773</v>
+      </c>
+      <c r="N170">
+        <v>0.4368</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C171">
+        <v>3712</v>
+      </c>
+      <c r="D171">
+        <v>2638</v>
+      </c>
+      <c r="E171">
+        <v>1270</v>
+      </c>
+      <c r="F171">
+        <v>0.7107</v>
+      </c>
+      <c r="G171">
+        <v>0.3421</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J171">
+        <v>51947</v>
+      </c>
+      <c r="K171">
+        <v>34658</v>
+      </c>
+      <c r="L171">
+        <v>24236</v>
+      </c>
+      <c r="M171">
+        <v>0.6672</v>
+      </c>
+      <c r="N171">
+        <v>0.4666</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C172">
+        <v>113</v>
+      </c>
+      <c r="D172">
+        <v>72</v>
+      </c>
+      <c r="E172">
+        <v>54</v>
+      </c>
+      <c r="F172">
+        <v>0.6372</v>
+      </c>
+      <c r="G172">
+        <v>0.4779</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="J172">
+        <v>1380</v>
+      </c>
+      <c r="K172">
+        <v>910</v>
+      </c>
+      <c r="L172">
+        <v>866</v>
+      </c>
+      <c r="M172">
+        <v>0.6594</v>
+      </c>
+      <c r="N172">
+        <v>0.6274999999999999</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+      <c r="D173">
+        <v>4</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0.8</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="J173">
+        <v>44</v>
+      </c>
+      <c r="K173">
+        <v>35</v>
+      </c>
+      <c r="L173">
+        <v>19</v>
+      </c>
+      <c r="M173">
+        <v>0.7955</v>
+      </c>
+      <c r="N173">
+        <v>0.4318</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="J174">
+        <v>18</v>
+      </c>
+      <c r="K174">
+        <v>4</v>
+      </c>
+      <c r="L174">
+        <v>14</v>
+      </c>
+      <c r="M174">
+        <v>0.2222</v>
+      </c>
+      <c r="N174">
+        <v>0.7778</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C175">
+        <v>165</v>
+      </c>
+      <c r="D175">
+        <v>110</v>
+      </c>
+      <c r="E175">
+        <v>63</v>
+      </c>
+      <c r="F175">
+        <v>0.6667</v>
+      </c>
+      <c r="G175">
+        <v>0.3818</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="J175">
+        <v>1120</v>
+      </c>
+      <c r="K175">
+        <v>588</v>
+      </c>
+      <c r="L175">
+        <v>527</v>
+      </c>
+      <c r="M175">
+        <v>0.525</v>
+      </c>
+      <c r="N175">
+        <v>0.4705</v>
       </c>
     </row>
   </sheetData>

--- a/data/学习数据.xlsx
+++ b/data/学习数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:N223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,7 +446,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -455,19 +455,19 @@
         </is>
       </c>
       <c r="J2">
-        <v>20138</v>
+        <v>21092</v>
       </c>
       <c r="K2">
-        <v>14261</v>
+        <v>15024</v>
       </c>
       <c r="L2">
-        <v>8169</v>
+        <v>8869</v>
       </c>
       <c r="M2">
-        <v>0.7082000000000001</v>
+        <v>0.7123</v>
       </c>
       <c r="N2">
-        <v>0.4057</v>
+        <v>0.4205</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -507,19 +507,19 @@
         </is>
       </c>
       <c r="J3">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="K3">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="L3">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="M3">
-        <v>0.5177</v>
+        <v>0.5416</v>
       </c>
       <c r="N3">
-        <v>0.5649999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -559,19 +559,19 @@
         </is>
       </c>
       <c r="J4">
-        <v>1159</v>
+        <v>1273</v>
       </c>
       <c r="K4">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="L4">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="M4">
-        <v>0.5738</v>
+        <v>0.5813</v>
       </c>
       <c r="N4">
-        <v>0.4599</v>
+        <v>0.4572</v>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="J5">
-        <v>2358</v>
+        <v>2624</v>
       </c>
       <c r="K5">
-        <v>1492</v>
+        <v>1645</v>
       </c>
       <c r="L5">
-        <v>929</v>
+        <v>1061</v>
       </c>
       <c r="M5">
-        <v>0.6327</v>
+        <v>0.6269</v>
       </c>
       <c r="N5">
-        <v>0.394</v>
+        <v>0.4043</v>
       </c>
     </row>
     <row r="6">
@@ -654,7 +654,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -663,19 +663,19 @@
         </is>
       </c>
       <c r="J6">
-        <v>5854</v>
+        <v>6497</v>
       </c>
       <c r="K6">
-        <v>3894</v>
+        <v>4403</v>
       </c>
       <c r="L6">
-        <v>3619</v>
+        <v>3933</v>
       </c>
       <c r="M6">
-        <v>0.6652</v>
+        <v>0.6777</v>
       </c>
       <c r="N6">
-        <v>0.6182</v>
+        <v>0.6054</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -715,19 +715,19 @@
         </is>
       </c>
       <c r="J7">
-        <v>1308</v>
+        <v>1460</v>
       </c>
       <c r="K7">
-        <v>899</v>
+        <v>992</v>
       </c>
       <c r="L7">
-        <v>747</v>
+        <v>851</v>
       </c>
       <c r="M7">
-        <v>0.6873</v>
+        <v>0.6795</v>
       </c>
       <c r="N7">
-        <v>0.5711000000000001</v>
+        <v>0.5829</v>
       </c>
     </row>
     <row r="8">
@@ -758,7 +758,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -767,19 +767,19 @@
         </is>
       </c>
       <c r="J8">
-        <v>852</v>
+        <v>994</v>
       </c>
       <c r="K8">
-        <v>444</v>
+        <v>562</v>
       </c>
       <c r="L8">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="M8">
-        <v>0.5211</v>
+        <v>0.5654</v>
       </c>
       <c r="N8">
-        <v>0.5352</v>
+        <v>0.5412</v>
       </c>
     </row>
     <row r="9">
@@ -810,7 +810,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -819,19 +819,19 @@
         </is>
       </c>
       <c r="J9">
-        <v>4332</v>
+        <v>4800</v>
       </c>
       <c r="K9">
-        <v>2667</v>
+        <v>2949</v>
       </c>
       <c r="L9">
-        <v>1776</v>
+        <v>2087</v>
       </c>
       <c r="M9">
-        <v>0.6157</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="N9">
-        <v>0.41</v>
+        <v>0.4348</v>
       </c>
     </row>
     <row r="10">
@@ -856,7 +856,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -865,19 +865,19 @@
         </is>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="11">
@@ -908,7 +908,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -917,19 +917,19 @@
         </is>
       </c>
       <c r="J11">
-        <v>1276</v>
+        <v>1417</v>
       </c>
       <c r="K11">
-        <v>796</v>
+        <v>908</v>
       </c>
       <c r="L11">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="M11">
-        <v>0.6238</v>
+        <v>0.6408</v>
       </c>
       <c r="N11">
-        <v>0.4702</v>
+        <v>0.4933</v>
       </c>
     </row>
     <row r="12">
@@ -960,7 +960,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -969,19 +969,19 @@
         </is>
       </c>
       <c r="J12">
-        <v>375</v>
+        <v>485</v>
       </c>
       <c r="K12">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="L12">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="M12">
-        <v>0.4587</v>
+        <v>0.5423</v>
       </c>
       <c r="N12">
-        <v>0.5573</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="13">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1021,19 +1021,19 @@
         </is>
       </c>
       <c r="J13">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="K13">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="L13">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="M13">
-        <v>0.5496</v>
+        <v>0.5577</v>
       </c>
       <c r="N13">
-        <v>0.5385</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1073,19 +1073,19 @@
         </is>
       </c>
       <c r="J14">
-        <v>2247</v>
+        <v>2456</v>
       </c>
       <c r="K14">
-        <v>1526</v>
+        <v>1672</v>
       </c>
       <c r="L14">
-        <v>971</v>
+        <v>1106</v>
       </c>
       <c r="M14">
-        <v>0.6791</v>
+        <v>0.6808</v>
       </c>
       <c r="N14">
-        <v>0.4321</v>
+        <v>0.4503</v>
       </c>
     </row>
     <row r="15">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1125,19 +1125,19 @@
         </is>
       </c>
       <c r="J15">
-        <v>7391</v>
+        <v>8698</v>
       </c>
       <c r="K15">
-        <v>5145</v>
+        <v>6076</v>
       </c>
       <c r="L15">
-        <v>3749</v>
+        <v>4359</v>
       </c>
       <c r="M15">
-        <v>0.6961000000000001</v>
+        <v>0.6986</v>
       </c>
       <c r="N15">
-        <v>0.5072</v>
+        <v>0.5011</v>
       </c>
     </row>
     <row r="16">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1171,19 +1171,19 @@
         </is>
       </c>
       <c r="J16">
-        <v>854</v>
+        <v>923</v>
       </c>
       <c r="K16">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="L16">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="M16">
-        <v>0.5773</v>
+        <v>0.5829</v>
       </c>
       <c r="N16">
-        <v>0.4368</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="17">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1223,19 +1223,19 @@
         </is>
       </c>
       <c r="J17">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="K17">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="L17">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="M17">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="N17">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="18">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1275,19 +1275,19 @@
         </is>
       </c>
       <c r="J18">
-        <v>1380</v>
+        <v>1607</v>
       </c>
       <c r="K18">
-        <v>910</v>
+        <v>1100</v>
       </c>
       <c r="L18">
-        <v>866</v>
+        <v>994</v>
       </c>
       <c r="M18">
-        <v>0.6594</v>
+        <v>0.6845</v>
       </c>
       <c r="N18">
-        <v>0.6274999999999999</v>
+        <v>0.6185</v>
       </c>
     </row>
     <row r="19">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1327,19 +1327,19 @@
         </is>
       </c>
       <c r="J19">
-        <v>1120</v>
+        <v>1335</v>
       </c>
       <c r="K19">
-        <v>588</v>
+        <v>704</v>
       </c>
       <c r="L19">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="M19">
-        <v>0.525</v>
+        <v>0.5273</v>
       </c>
       <c r="N19">
-        <v>0.4705</v>
+        <v>0.4652</v>
       </c>
     </row>
     <row r="20">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="J20">
-        <v>20138</v>
+        <v>21092</v>
       </c>
       <c r="K20">
-        <v>14261</v>
+        <v>15024</v>
       </c>
       <c r="L20">
-        <v>8169</v>
+        <v>8869</v>
       </c>
       <c r="M20">
-        <v>0.7082000000000001</v>
+        <v>0.7123</v>
       </c>
       <c r="N20">
-        <v>0.4057</v>
+        <v>0.4205</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1431,19 +1431,19 @@
         </is>
       </c>
       <c r="J21">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="K21">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="L21">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="M21">
-        <v>0.5177</v>
+        <v>0.5416</v>
       </c>
       <c r="N21">
-        <v>0.5649999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="22">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1483,19 +1483,19 @@
         </is>
       </c>
       <c r="J22">
-        <v>1159</v>
+        <v>1273</v>
       </c>
       <c r="K22">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="L22">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="M22">
-        <v>0.5738</v>
+        <v>0.5813</v>
       </c>
       <c r="N22">
-        <v>0.4599</v>
+        <v>0.4572</v>
       </c>
     </row>
     <row r="23">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1535,19 +1535,19 @@
         </is>
       </c>
       <c r="J23">
-        <v>2358</v>
+        <v>2624</v>
       </c>
       <c r="K23">
-        <v>1492</v>
+        <v>1645</v>
       </c>
       <c r="L23">
-        <v>929</v>
+        <v>1061</v>
       </c>
       <c r="M23">
-        <v>0.6327</v>
+        <v>0.6269</v>
       </c>
       <c r="N23">
-        <v>0.394</v>
+        <v>0.4043</v>
       </c>
     </row>
     <row r="24">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1587,19 +1587,19 @@
         </is>
       </c>
       <c r="J24">
-        <v>5854</v>
+        <v>6497</v>
       </c>
       <c r="K24">
-        <v>3894</v>
+        <v>4403</v>
       </c>
       <c r="L24">
-        <v>3619</v>
+        <v>3933</v>
       </c>
       <c r="M24">
-        <v>0.6652</v>
+        <v>0.6777</v>
       </c>
       <c r="N24">
-        <v>0.6182</v>
+        <v>0.6054</v>
       </c>
     </row>
     <row r="25">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1639,19 +1639,19 @@
         </is>
       </c>
       <c r="J25">
-        <v>1308</v>
+        <v>1460</v>
       </c>
       <c r="K25">
-        <v>899</v>
+        <v>992</v>
       </c>
       <c r="L25">
-        <v>747</v>
+        <v>851</v>
       </c>
       <c r="M25">
-        <v>0.6873</v>
+        <v>0.6795</v>
       </c>
       <c r="N25">
-        <v>0.5711000000000001</v>
+        <v>0.5829</v>
       </c>
     </row>
     <row r="26">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1691,19 +1691,19 @@
         </is>
       </c>
       <c r="J26">
-        <v>852</v>
+        <v>994</v>
       </c>
       <c r="K26">
-        <v>444</v>
+        <v>562</v>
       </c>
       <c r="L26">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="M26">
-        <v>0.5211</v>
+        <v>0.5654</v>
       </c>
       <c r="N26">
-        <v>0.5352</v>
+        <v>0.5412</v>
       </c>
     </row>
     <row r="27">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1743,19 +1743,19 @@
         </is>
       </c>
       <c r="J27">
-        <v>4332</v>
+        <v>4800</v>
       </c>
       <c r="K27">
-        <v>2667</v>
+        <v>2949</v>
       </c>
       <c r="L27">
-        <v>1776</v>
+        <v>2087</v>
       </c>
       <c r="M27">
-        <v>0.6157</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="N27">
-        <v>0.41</v>
+        <v>0.4348</v>
       </c>
     </row>
     <row r="28">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1795,19 +1795,19 @@
         </is>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="29">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1847,19 +1847,19 @@
         </is>
       </c>
       <c r="J29">
-        <v>1276</v>
+        <v>1417</v>
       </c>
       <c r="K29">
-        <v>796</v>
+        <v>908</v>
       </c>
       <c r="L29">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="M29">
-        <v>0.6238</v>
+        <v>0.6408</v>
       </c>
       <c r="N29">
-        <v>0.4702</v>
+        <v>0.4933</v>
       </c>
     </row>
     <row r="30">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1899,19 +1899,19 @@
         </is>
       </c>
       <c r="J30">
-        <v>375</v>
+        <v>485</v>
       </c>
       <c r="K30">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="L30">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="M30">
-        <v>0.4587</v>
+        <v>0.5423</v>
       </c>
       <c r="N30">
-        <v>0.5573</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="31">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1951,19 +1951,19 @@
         </is>
       </c>
       <c r="J31">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="K31">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="L31">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="M31">
-        <v>0.5496</v>
+        <v>0.5577</v>
       </c>
       <c r="N31">
-        <v>0.5385</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2003,19 +2003,19 @@
         </is>
       </c>
       <c r="J32">
-        <v>2247</v>
+        <v>2456</v>
       </c>
       <c r="K32">
-        <v>1526</v>
+        <v>1672</v>
       </c>
       <c r="L32">
-        <v>971</v>
+        <v>1106</v>
       </c>
       <c r="M32">
-        <v>0.6791</v>
+        <v>0.6808</v>
       </c>
       <c r="N32">
-        <v>0.4321</v>
+        <v>0.4503</v>
       </c>
     </row>
     <row r="33">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2055,19 +2055,19 @@
         </is>
       </c>
       <c r="J33">
-        <v>7391</v>
+        <v>8698</v>
       </c>
       <c r="K33">
-        <v>5145</v>
+        <v>6076</v>
       </c>
       <c r="L33">
-        <v>3749</v>
+        <v>4359</v>
       </c>
       <c r="M33">
-        <v>0.6961000000000001</v>
+        <v>0.6986</v>
       </c>
       <c r="N33">
-        <v>0.5072</v>
+        <v>0.5011</v>
       </c>
     </row>
     <row r="34">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2107,19 +2107,19 @@
         </is>
       </c>
       <c r="J34">
-        <v>854</v>
+        <v>923</v>
       </c>
       <c r="K34">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="L34">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="M34">
-        <v>0.5773</v>
+        <v>0.5829</v>
       </c>
       <c r="N34">
-        <v>0.4368</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="35">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="J35">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="K35">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="L35">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="M35">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="N35">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="36">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2211,19 +2211,19 @@
         </is>
       </c>
       <c r="J36">
-        <v>1380</v>
+        <v>1607</v>
       </c>
       <c r="K36">
-        <v>910</v>
+        <v>1100</v>
       </c>
       <c r="L36">
-        <v>866</v>
+        <v>994</v>
       </c>
       <c r="M36">
-        <v>0.6594</v>
+        <v>0.6845</v>
       </c>
       <c r="N36">
-        <v>0.6274999999999999</v>
+        <v>0.6185</v>
       </c>
     </row>
     <row r="37">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2263,19 +2263,19 @@
         </is>
       </c>
       <c r="J37">
-        <v>1120</v>
+        <v>1335</v>
       </c>
       <c r="K37">
-        <v>588</v>
+        <v>704</v>
       </c>
       <c r="L37">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="M37">
-        <v>0.525</v>
+        <v>0.5273</v>
       </c>
       <c r="N37">
-        <v>0.4705</v>
+        <v>0.4652</v>
       </c>
     </row>
     <row r="38">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="J38">
-        <v>7391</v>
+        <v>8698</v>
       </c>
       <c r="K38">
-        <v>5145</v>
+        <v>6076</v>
       </c>
       <c r="L38">
-        <v>3749</v>
+        <v>4359</v>
       </c>
       <c r="M38">
-        <v>0.6961000000000001</v>
+        <v>0.6986</v>
       </c>
       <c r="N38">
-        <v>0.5072</v>
+        <v>0.5011</v>
       </c>
     </row>
     <row r="39">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2367,19 +2367,19 @@
         </is>
       </c>
       <c r="J39">
-        <v>854</v>
+        <v>923</v>
       </c>
       <c r="K39">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="L39">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="M39">
-        <v>0.5773</v>
+        <v>0.5829</v>
       </c>
       <c r="N39">
-        <v>0.4368</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="40">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="J40">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="K40">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="L40">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="M40">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="N40">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="41">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2471,19 +2471,19 @@
         </is>
       </c>
       <c r="J41">
-        <v>1380</v>
+        <v>1607</v>
       </c>
       <c r="K41">
-        <v>910</v>
+        <v>1100</v>
       </c>
       <c r="L41">
-        <v>866</v>
+        <v>994</v>
       </c>
       <c r="M41">
-        <v>0.6594</v>
+        <v>0.6845</v>
       </c>
       <c r="N41">
-        <v>0.6274999999999999</v>
+        <v>0.6185</v>
       </c>
     </row>
     <row r="42">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2523,19 +2523,19 @@
         </is>
       </c>
       <c r="J42">
-        <v>1120</v>
+        <v>1335</v>
       </c>
       <c r="K42">
-        <v>588</v>
+        <v>704</v>
       </c>
       <c r="L42">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="M42">
-        <v>0.525</v>
+        <v>0.5273</v>
       </c>
       <c r="N42">
-        <v>0.4705</v>
+        <v>0.4652</v>
       </c>
     </row>
     <row r="43">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2575,19 +2575,19 @@
         </is>
       </c>
       <c r="J43">
-        <v>20138</v>
+        <v>21092</v>
       </c>
       <c r="K43">
-        <v>14261</v>
+        <v>15024</v>
       </c>
       <c r="L43">
-        <v>8169</v>
+        <v>8869</v>
       </c>
       <c r="M43">
-        <v>0.7082000000000001</v>
+        <v>0.7123</v>
       </c>
       <c r="N43">
-        <v>0.4057</v>
+        <v>0.4205</v>
       </c>
     </row>
     <row r="44">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2627,19 +2627,19 @@
         </is>
       </c>
       <c r="J44">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="K44">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="L44">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="M44">
-        <v>0.5177</v>
+        <v>0.5416</v>
       </c>
       <c r="N44">
-        <v>0.5649999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="45">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2679,19 +2679,19 @@
         </is>
       </c>
       <c r="J45">
-        <v>1159</v>
+        <v>1273</v>
       </c>
       <c r="K45">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="L45">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="M45">
-        <v>0.5738</v>
+        <v>0.5813</v>
       </c>
       <c r="N45">
-        <v>0.4599</v>
+        <v>0.4572</v>
       </c>
     </row>
     <row r="46">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2731,19 +2731,19 @@
         </is>
       </c>
       <c r="J46">
-        <v>2358</v>
+        <v>2624</v>
       </c>
       <c r="K46">
-        <v>1492</v>
+        <v>1645</v>
       </c>
       <c r="L46">
-        <v>929</v>
+        <v>1061</v>
       </c>
       <c r="M46">
-        <v>0.6327</v>
+        <v>0.6269</v>
       </c>
       <c r="N46">
-        <v>0.394</v>
+        <v>0.4043</v>
       </c>
     </row>
     <row r="47">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2783,19 +2783,19 @@
         </is>
       </c>
       <c r="J47">
-        <v>5854</v>
+        <v>6497</v>
       </c>
       <c r="K47">
-        <v>3894</v>
+        <v>4403</v>
       </c>
       <c r="L47">
-        <v>3619</v>
+        <v>3933</v>
       </c>
       <c r="M47">
-        <v>0.6652</v>
+        <v>0.6777</v>
       </c>
       <c r="N47">
-        <v>0.6182</v>
+        <v>0.6054</v>
       </c>
     </row>
     <row r="48">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2835,19 +2835,19 @@
         </is>
       </c>
       <c r="J48">
-        <v>1308</v>
+        <v>1460</v>
       </c>
       <c r="K48">
-        <v>899</v>
+        <v>992</v>
       </c>
       <c r="L48">
-        <v>747</v>
+        <v>851</v>
       </c>
       <c r="M48">
-        <v>0.6873</v>
+        <v>0.6795</v>
       </c>
       <c r="N48">
-        <v>0.5711000000000001</v>
+        <v>0.5829</v>
       </c>
     </row>
     <row r="49">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2887,19 +2887,19 @@
         </is>
       </c>
       <c r="J49">
-        <v>852</v>
+        <v>994</v>
       </c>
       <c r="K49">
-        <v>444</v>
+        <v>562</v>
       </c>
       <c r="L49">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="M49">
-        <v>0.5211</v>
+        <v>0.5654</v>
       </c>
       <c r="N49">
-        <v>0.5352</v>
+        <v>0.5412</v>
       </c>
     </row>
     <row r="50">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2939,19 +2939,19 @@
         </is>
       </c>
       <c r="J50">
-        <v>4332</v>
+        <v>4800</v>
       </c>
       <c r="K50">
-        <v>2667</v>
+        <v>2949</v>
       </c>
       <c r="L50">
-        <v>1776</v>
+        <v>2087</v>
       </c>
       <c r="M50">
-        <v>0.6157</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="N50">
-        <v>0.41</v>
+        <v>0.4348</v>
       </c>
     </row>
     <row r="51">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2985,19 +2985,19 @@
         </is>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="52">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3037,19 +3037,19 @@
         </is>
       </c>
       <c r="J52">
-        <v>1276</v>
+        <v>1417</v>
       </c>
       <c r="K52">
-        <v>796</v>
+        <v>908</v>
       </c>
       <c r="L52">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="M52">
-        <v>0.6238</v>
+        <v>0.6408</v>
       </c>
       <c r="N52">
-        <v>0.4702</v>
+        <v>0.4933</v>
       </c>
     </row>
     <row r="53">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3089,19 +3089,19 @@
         </is>
       </c>
       <c r="J53">
-        <v>375</v>
+        <v>485</v>
       </c>
       <c r="K53">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="L53">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="M53">
-        <v>0.4587</v>
+        <v>0.5423</v>
       </c>
       <c r="N53">
-        <v>0.5573</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="54">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3141,19 +3141,19 @@
         </is>
       </c>
       <c r="J54">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="K54">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="L54">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="M54">
-        <v>0.5496</v>
+        <v>0.5577</v>
       </c>
       <c r="N54">
-        <v>0.5385</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3193,19 +3193,19 @@
         </is>
       </c>
       <c r="J55">
-        <v>2247</v>
+        <v>2456</v>
       </c>
       <c r="K55">
-        <v>1526</v>
+        <v>1672</v>
       </c>
       <c r="L55">
-        <v>971</v>
+        <v>1106</v>
       </c>
       <c r="M55">
-        <v>0.6791</v>
+        <v>0.6808</v>
       </c>
       <c r="N55">
-        <v>0.4321</v>
+        <v>0.4503</v>
       </c>
     </row>
     <row r="56">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3245,19 +3245,19 @@
         </is>
       </c>
       <c r="J56">
-        <v>20138</v>
+        <v>21092</v>
       </c>
       <c r="K56">
-        <v>14261</v>
+        <v>15024</v>
       </c>
       <c r="L56">
-        <v>8169</v>
+        <v>8869</v>
       </c>
       <c r="M56">
-        <v>0.7082000000000001</v>
+        <v>0.7123</v>
       </c>
       <c r="N56">
-        <v>0.4057</v>
+        <v>0.4205</v>
       </c>
     </row>
     <row r="57">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3297,19 +3297,19 @@
         </is>
       </c>
       <c r="J57">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="K57">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="L57">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="M57">
-        <v>0.5177</v>
+        <v>0.5416</v>
       </c>
       <c r="N57">
-        <v>0.5649999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="58">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3349,19 +3349,19 @@
         </is>
       </c>
       <c r="J58">
-        <v>1159</v>
+        <v>1273</v>
       </c>
       <c r="K58">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="L58">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="M58">
-        <v>0.5738</v>
+        <v>0.5813</v>
       </c>
       <c r="N58">
-        <v>0.4599</v>
+        <v>0.4572</v>
       </c>
     </row>
     <row r="59">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3401,19 +3401,19 @@
         </is>
       </c>
       <c r="J59">
-        <v>2358</v>
+        <v>2624</v>
       </c>
       <c r="K59">
-        <v>1492</v>
+        <v>1645</v>
       </c>
       <c r="L59">
-        <v>929</v>
+        <v>1061</v>
       </c>
       <c r="M59">
-        <v>0.6327</v>
+        <v>0.6269</v>
       </c>
       <c r="N59">
-        <v>0.394</v>
+        <v>0.4043</v>
       </c>
     </row>
     <row r="60">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3453,19 +3453,19 @@
         </is>
       </c>
       <c r="J60">
-        <v>5854</v>
+        <v>6497</v>
       </c>
       <c r="K60">
-        <v>3894</v>
+        <v>4403</v>
       </c>
       <c r="L60">
-        <v>3619</v>
+        <v>3933</v>
       </c>
       <c r="M60">
-        <v>0.6652</v>
+        <v>0.6777</v>
       </c>
       <c r="N60">
-        <v>0.6182</v>
+        <v>0.6054</v>
       </c>
     </row>
     <row r="61">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3505,19 +3505,19 @@
         </is>
       </c>
       <c r="J61">
-        <v>1308</v>
+        <v>1460</v>
       </c>
       <c r="K61">
-        <v>899</v>
+        <v>992</v>
       </c>
       <c r="L61">
-        <v>747</v>
+        <v>851</v>
       </c>
       <c r="M61">
-        <v>0.6873</v>
+        <v>0.6795</v>
       </c>
       <c r="N61">
-        <v>0.5711000000000001</v>
+        <v>0.5829</v>
       </c>
     </row>
     <row r="62">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3557,19 +3557,19 @@
         </is>
       </c>
       <c r="J62">
-        <v>852</v>
+        <v>994</v>
       </c>
       <c r="K62">
-        <v>444</v>
+        <v>562</v>
       </c>
       <c r="L62">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="M62">
-        <v>0.5211</v>
+        <v>0.5654</v>
       </c>
       <c r="N62">
-        <v>0.5352</v>
+        <v>0.5412</v>
       </c>
     </row>
     <row r="63">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3609,19 +3609,19 @@
         </is>
       </c>
       <c r="J63">
-        <v>4332</v>
+        <v>4800</v>
       </c>
       <c r="K63">
-        <v>2667</v>
+        <v>2949</v>
       </c>
       <c r="L63">
-        <v>1776</v>
+        <v>2087</v>
       </c>
       <c r="M63">
-        <v>0.6157</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="N63">
-        <v>0.41</v>
+        <v>0.4348</v>
       </c>
     </row>
     <row r="64">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3655,19 +3655,19 @@
         </is>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="65">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3707,19 +3707,19 @@
         </is>
       </c>
       <c r="J65">
-        <v>1276</v>
+        <v>1417</v>
       </c>
       <c r="K65">
-        <v>796</v>
+        <v>908</v>
       </c>
       <c r="L65">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="M65">
-        <v>0.6238</v>
+        <v>0.6408</v>
       </c>
       <c r="N65">
-        <v>0.4702</v>
+        <v>0.4933</v>
       </c>
     </row>
     <row r="66">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3759,19 +3759,19 @@
         </is>
       </c>
       <c r="J66">
-        <v>375</v>
+        <v>485</v>
       </c>
       <c r="K66">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="L66">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="M66">
-        <v>0.4587</v>
+        <v>0.5423</v>
       </c>
       <c r="N66">
-        <v>0.5573</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="67">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3811,19 +3811,19 @@
         </is>
       </c>
       <c r="J67">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="K67">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="L67">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="M67">
-        <v>0.5496</v>
+        <v>0.5577</v>
       </c>
       <c r="N67">
-        <v>0.5385</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="68">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3863,19 +3863,19 @@
         </is>
       </c>
       <c r="J68">
-        <v>2247</v>
+        <v>2456</v>
       </c>
       <c r="K68">
-        <v>1526</v>
+        <v>1672</v>
       </c>
       <c r="L68">
-        <v>971</v>
+        <v>1106</v>
       </c>
       <c r="M68">
-        <v>0.6791</v>
+        <v>0.6808</v>
       </c>
       <c r="N68">
-        <v>0.4321</v>
+        <v>0.4503</v>
       </c>
     </row>
     <row r="69">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3915,19 +3915,19 @@
         </is>
       </c>
       <c r="J69">
-        <v>7391</v>
+        <v>8698</v>
       </c>
       <c r="K69">
-        <v>5145</v>
+        <v>6076</v>
       </c>
       <c r="L69">
-        <v>3749</v>
+        <v>4359</v>
       </c>
       <c r="M69">
-        <v>0.6961000000000001</v>
+        <v>0.6986</v>
       </c>
       <c r="N69">
-        <v>0.5072</v>
+        <v>0.5011</v>
       </c>
     </row>
     <row r="70">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3967,19 +3967,19 @@
         </is>
       </c>
       <c r="J70">
-        <v>854</v>
+        <v>923</v>
       </c>
       <c r="K70">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="L70">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="M70">
-        <v>0.5773</v>
+        <v>0.5829</v>
       </c>
       <c r="N70">
-        <v>0.4368</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="71">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4019,19 +4019,19 @@
         </is>
       </c>
       <c r="J71">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="K71">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="L71">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="M71">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="N71">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="72">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4071,19 +4071,19 @@
         </is>
       </c>
       <c r="J72">
-        <v>1380</v>
+        <v>1607</v>
       </c>
       <c r="K72">
-        <v>910</v>
+        <v>1100</v>
       </c>
       <c r="L72">
-        <v>866</v>
+        <v>994</v>
       </c>
       <c r="M72">
-        <v>0.6594</v>
+        <v>0.6845</v>
       </c>
       <c r="N72">
-        <v>0.6274999999999999</v>
+        <v>0.6185</v>
       </c>
     </row>
     <row r="73">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4123,19 +4123,19 @@
         </is>
       </c>
       <c r="J73">
-        <v>1120</v>
+        <v>1335</v>
       </c>
       <c r="K73">
-        <v>588</v>
+        <v>704</v>
       </c>
       <c r="L73">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="M73">
-        <v>0.525</v>
+        <v>0.5273</v>
       </c>
       <c r="N73">
-        <v>0.4705</v>
+        <v>0.4652</v>
       </c>
     </row>
     <row r="74">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4175,19 +4175,19 @@
         </is>
       </c>
       <c r="J74">
-        <v>7391</v>
+        <v>8698</v>
       </c>
       <c r="K74">
-        <v>5145</v>
+        <v>6076</v>
       </c>
       <c r="L74">
-        <v>3749</v>
+        <v>4359</v>
       </c>
       <c r="M74">
-        <v>0.6961000000000001</v>
+        <v>0.6986</v>
       </c>
       <c r="N74">
-        <v>0.5072</v>
+        <v>0.5011</v>
       </c>
     </row>
     <row r="75">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4227,19 +4227,19 @@
         </is>
       </c>
       <c r="J75">
-        <v>854</v>
+        <v>923</v>
       </c>
       <c r="K75">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="L75">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="M75">
-        <v>0.5773</v>
+        <v>0.5829</v>
       </c>
       <c r="N75">
-        <v>0.4368</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="76">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4279,19 +4279,19 @@
         </is>
       </c>
       <c r="J76">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="K76">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="L76">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="M76">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="N76">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="77">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4331,19 +4331,19 @@
         </is>
       </c>
       <c r="J77">
-        <v>1380</v>
+        <v>1607</v>
       </c>
       <c r="K77">
-        <v>910</v>
+        <v>1100</v>
       </c>
       <c r="L77">
-        <v>866</v>
+        <v>994</v>
       </c>
       <c r="M77">
-        <v>0.6594</v>
+        <v>0.6845</v>
       </c>
       <c r="N77">
-        <v>0.6274999999999999</v>
+        <v>0.6185</v>
       </c>
     </row>
     <row r="78">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="J78">
-        <v>1120</v>
+        <v>1335</v>
       </c>
       <c r="K78">
-        <v>588</v>
+        <v>704</v>
       </c>
       <c r="L78">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="M78">
-        <v>0.525</v>
+        <v>0.5273</v>
       </c>
       <c r="N78">
-        <v>0.4705</v>
+        <v>0.4652</v>
       </c>
     </row>
     <row r="79">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4435,19 +4435,19 @@
         </is>
       </c>
       <c r="J79">
-        <v>20138</v>
+        <v>21092</v>
       </c>
       <c r="K79">
-        <v>14261</v>
+        <v>15024</v>
       </c>
       <c r="L79">
-        <v>8169</v>
+        <v>8869</v>
       </c>
       <c r="M79">
-        <v>0.7082000000000001</v>
+        <v>0.7123</v>
       </c>
       <c r="N79">
-        <v>0.4057</v>
+        <v>0.4205</v>
       </c>
     </row>
     <row r="80">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4487,19 +4487,19 @@
         </is>
       </c>
       <c r="J80">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="K80">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="L80">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="M80">
-        <v>0.5177</v>
+        <v>0.5416</v>
       </c>
       <c r="N80">
-        <v>0.5649999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="81">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4539,19 +4539,19 @@
         </is>
       </c>
       <c r="J81">
-        <v>1159</v>
+        <v>1273</v>
       </c>
       <c r="K81">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="L81">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="M81">
-        <v>0.5738</v>
+        <v>0.5813</v>
       </c>
       <c r="N81">
-        <v>0.4599</v>
+        <v>0.4572</v>
       </c>
     </row>
     <row r="82">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4591,19 +4591,19 @@
         </is>
       </c>
       <c r="J82">
-        <v>2358</v>
+        <v>2624</v>
       </c>
       <c r="K82">
-        <v>1492</v>
+        <v>1645</v>
       </c>
       <c r="L82">
-        <v>929</v>
+        <v>1061</v>
       </c>
       <c r="M82">
-        <v>0.6327</v>
+        <v>0.6269</v>
       </c>
       <c r="N82">
-        <v>0.394</v>
+        <v>0.4043</v>
       </c>
     </row>
     <row r="83">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4643,19 +4643,19 @@
         </is>
       </c>
       <c r="J83">
-        <v>5854</v>
+        <v>6497</v>
       </c>
       <c r="K83">
-        <v>3894</v>
+        <v>4403</v>
       </c>
       <c r="L83">
-        <v>3619</v>
+        <v>3933</v>
       </c>
       <c r="M83">
-        <v>0.6652</v>
+        <v>0.6777</v>
       </c>
       <c r="N83">
-        <v>0.6182</v>
+        <v>0.6054</v>
       </c>
     </row>
     <row r="84">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4695,19 +4695,19 @@
         </is>
       </c>
       <c r="J84">
-        <v>1308</v>
+        <v>1460</v>
       </c>
       <c r="K84">
-        <v>899</v>
+        <v>992</v>
       </c>
       <c r="L84">
-        <v>747</v>
+        <v>851</v>
       </c>
       <c r="M84">
-        <v>0.6873</v>
+        <v>0.6795</v>
       </c>
       <c r="N84">
-        <v>0.5711000000000001</v>
+        <v>0.5829</v>
       </c>
     </row>
     <row r="85">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4747,19 +4747,19 @@
         </is>
       </c>
       <c r="J85">
-        <v>852</v>
+        <v>994</v>
       </c>
       <c r="K85">
-        <v>444</v>
+        <v>562</v>
       </c>
       <c r="L85">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="M85">
-        <v>0.5211</v>
+        <v>0.5654</v>
       </c>
       <c r="N85">
-        <v>0.5352</v>
+        <v>0.5412</v>
       </c>
     </row>
     <row r="86">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4799,19 +4799,19 @@
         </is>
       </c>
       <c r="J86">
-        <v>4332</v>
+        <v>4800</v>
       </c>
       <c r="K86">
-        <v>2667</v>
+        <v>2949</v>
       </c>
       <c r="L86">
-        <v>1776</v>
+        <v>2087</v>
       </c>
       <c r="M86">
-        <v>0.6157</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="N86">
-        <v>0.41</v>
+        <v>0.4348</v>
       </c>
     </row>
     <row r="87">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4845,19 +4845,19 @@
         </is>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="88">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4897,19 +4897,19 @@
         </is>
       </c>
       <c r="J88">
-        <v>1276</v>
+        <v>1417</v>
       </c>
       <c r="K88">
-        <v>796</v>
+        <v>908</v>
       </c>
       <c r="L88">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="M88">
-        <v>0.6238</v>
+        <v>0.6408</v>
       </c>
       <c r="N88">
-        <v>0.4702</v>
+        <v>0.4933</v>
       </c>
     </row>
     <row r="89">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4949,19 +4949,19 @@
         </is>
       </c>
       <c r="J89">
-        <v>375</v>
+        <v>485</v>
       </c>
       <c r="K89">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="L89">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="M89">
-        <v>0.4587</v>
+        <v>0.5423</v>
       </c>
       <c r="N89">
-        <v>0.5573</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="90">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5001,19 +5001,19 @@
         </is>
       </c>
       <c r="J90">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="K90">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="L90">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="M90">
-        <v>0.5496</v>
+        <v>0.5577</v>
       </c>
       <c r="N90">
-        <v>0.5385</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5053,19 +5053,19 @@
         </is>
       </c>
       <c r="J91">
-        <v>2247</v>
+        <v>2456</v>
       </c>
       <c r="K91">
-        <v>1526</v>
+        <v>1672</v>
       </c>
       <c r="L91">
-        <v>971</v>
+        <v>1106</v>
       </c>
       <c r="M91">
-        <v>0.6791</v>
+        <v>0.6808</v>
       </c>
       <c r="N91">
-        <v>0.4321</v>
+        <v>0.4503</v>
       </c>
     </row>
     <row r="92">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5105,19 +5105,19 @@
         </is>
       </c>
       <c r="J92">
-        <v>20138</v>
+        <v>21092</v>
       </c>
       <c r="K92">
-        <v>14261</v>
+        <v>15024</v>
       </c>
       <c r="L92">
-        <v>8169</v>
+        <v>8869</v>
       </c>
       <c r="M92">
-        <v>0.7082000000000001</v>
+        <v>0.7123</v>
       </c>
       <c r="N92">
-        <v>0.4057</v>
+        <v>0.4205</v>
       </c>
     </row>
     <row r="93">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5157,19 +5157,19 @@
         </is>
       </c>
       <c r="J93">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="K93">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="L93">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="M93">
-        <v>0.5177</v>
+        <v>0.5416</v>
       </c>
       <c r="N93">
-        <v>0.5649999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="94">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5209,19 +5209,19 @@
         </is>
       </c>
       <c r="J94">
-        <v>1159</v>
+        <v>1273</v>
       </c>
       <c r="K94">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="L94">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="M94">
-        <v>0.5738</v>
+        <v>0.5813</v>
       </c>
       <c r="N94">
-        <v>0.4599</v>
+        <v>0.4572</v>
       </c>
     </row>
     <row r="95">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5261,19 +5261,19 @@
         </is>
       </c>
       <c r="J95">
-        <v>2358</v>
+        <v>2624</v>
       </c>
       <c r="K95">
-        <v>1492</v>
+        <v>1645</v>
       </c>
       <c r="L95">
-        <v>929</v>
+        <v>1061</v>
       </c>
       <c r="M95">
-        <v>0.6327</v>
+        <v>0.6269</v>
       </c>
       <c r="N95">
-        <v>0.394</v>
+        <v>0.4043</v>
       </c>
     </row>
     <row r="96">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5313,19 +5313,19 @@
         </is>
       </c>
       <c r="J96">
-        <v>5854</v>
+        <v>6497</v>
       </c>
       <c r="K96">
-        <v>3894</v>
+        <v>4403</v>
       </c>
       <c r="L96">
-        <v>3619</v>
+        <v>3933</v>
       </c>
       <c r="M96">
-        <v>0.6652</v>
+        <v>0.6777</v>
       </c>
       <c r="N96">
-        <v>0.6182</v>
+        <v>0.6054</v>
       </c>
     </row>
     <row r="97">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5365,19 +5365,19 @@
         </is>
       </c>
       <c r="J97">
-        <v>1308</v>
+        <v>1460</v>
       </c>
       <c r="K97">
-        <v>899</v>
+        <v>992</v>
       </c>
       <c r="L97">
-        <v>747</v>
+        <v>851</v>
       </c>
       <c r="M97">
-        <v>0.6873</v>
+        <v>0.6795</v>
       </c>
       <c r="N97">
-        <v>0.5711000000000001</v>
+        <v>0.5829</v>
       </c>
     </row>
     <row r="98">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5417,19 +5417,19 @@
         </is>
       </c>
       <c r="J98">
-        <v>852</v>
+        <v>994</v>
       </c>
       <c r="K98">
-        <v>444</v>
+        <v>562</v>
       </c>
       <c r="L98">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="M98">
-        <v>0.5211</v>
+        <v>0.5654</v>
       </c>
       <c r="N98">
-        <v>0.5352</v>
+        <v>0.5412</v>
       </c>
     </row>
     <row r="99">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5469,19 +5469,19 @@
         </is>
       </c>
       <c r="J99">
-        <v>4332</v>
+        <v>4800</v>
       </c>
       <c r="K99">
-        <v>2667</v>
+        <v>2949</v>
       </c>
       <c r="L99">
-        <v>1776</v>
+        <v>2087</v>
       </c>
       <c r="M99">
-        <v>0.6157</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="N99">
-        <v>0.41</v>
+        <v>0.4348</v>
       </c>
     </row>
     <row r="100">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5515,19 +5515,19 @@
         </is>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="101">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5567,19 +5567,19 @@
         </is>
       </c>
       <c r="J101">
-        <v>1276</v>
+        <v>1417</v>
       </c>
       <c r="K101">
-        <v>796</v>
+        <v>908</v>
       </c>
       <c r="L101">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="M101">
-        <v>0.6238</v>
+        <v>0.6408</v>
       </c>
       <c r="N101">
-        <v>0.4702</v>
+        <v>0.4933</v>
       </c>
     </row>
     <row r="102">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5619,19 +5619,19 @@
         </is>
       </c>
       <c r="J102">
-        <v>375</v>
+        <v>485</v>
       </c>
       <c r="K102">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="L102">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="M102">
-        <v>0.4587</v>
+        <v>0.5423</v>
       </c>
       <c r="N102">
-        <v>0.5573</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="103">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5671,19 +5671,19 @@
         </is>
       </c>
       <c r="J103">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="K103">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="L103">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="M103">
-        <v>0.5496</v>
+        <v>0.5577</v>
       </c>
       <c r="N103">
-        <v>0.5385</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="104">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5723,19 +5723,19 @@
         </is>
       </c>
       <c r="J104">
-        <v>2247</v>
+        <v>2456</v>
       </c>
       <c r="K104">
-        <v>1526</v>
+        <v>1672</v>
       </c>
       <c r="L104">
-        <v>971</v>
+        <v>1106</v>
       </c>
       <c r="M104">
-        <v>0.6791</v>
+        <v>0.6808</v>
       </c>
       <c r="N104">
-        <v>0.4321</v>
+        <v>0.4503</v>
       </c>
     </row>
     <row r="105">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5775,19 +5775,19 @@
         </is>
       </c>
       <c r="J105">
-        <v>7391</v>
+        <v>8698</v>
       </c>
       <c r="K105">
-        <v>5145</v>
+        <v>6076</v>
       </c>
       <c r="L105">
-        <v>3749</v>
+        <v>4359</v>
       </c>
       <c r="M105">
-        <v>0.6961000000000001</v>
+        <v>0.6986</v>
       </c>
       <c r="N105">
-        <v>0.5072</v>
+        <v>0.5011</v>
       </c>
     </row>
     <row r="106">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5827,19 +5827,19 @@
         </is>
       </c>
       <c r="J106">
-        <v>854</v>
+        <v>923</v>
       </c>
       <c r="K106">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="L106">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="M106">
-        <v>0.5773</v>
+        <v>0.5829</v>
       </c>
       <c r="N106">
-        <v>0.4368</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="107">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5879,19 +5879,19 @@
         </is>
       </c>
       <c r="J107">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="K107">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="L107">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="M107">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="N107">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="108">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5931,19 +5931,19 @@
         </is>
       </c>
       <c r="J108">
-        <v>1380</v>
+        <v>1607</v>
       </c>
       <c r="K108">
-        <v>910</v>
+        <v>1100</v>
       </c>
       <c r="L108">
-        <v>866</v>
+        <v>994</v>
       </c>
       <c r="M108">
-        <v>0.6594</v>
+        <v>0.6845</v>
       </c>
       <c r="N108">
-        <v>0.6274999999999999</v>
+        <v>0.6185</v>
       </c>
     </row>
     <row r="109">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5983,19 +5983,19 @@
         </is>
       </c>
       <c r="J109">
-        <v>1120</v>
+        <v>1335</v>
       </c>
       <c r="K109">
-        <v>588</v>
+        <v>704</v>
       </c>
       <c r="L109">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="M109">
-        <v>0.525</v>
+        <v>0.5273</v>
       </c>
       <c r="N109">
-        <v>0.4705</v>
+        <v>0.4652</v>
       </c>
     </row>
     <row r="110">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6035,19 +6035,19 @@
         </is>
       </c>
       <c r="J110">
-        <v>7391</v>
+        <v>8698</v>
       </c>
       <c r="K110">
-        <v>5145</v>
+        <v>6076</v>
       </c>
       <c r="L110">
-        <v>3749</v>
+        <v>4359</v>
       </c>
       <c r="M110">
-        <v>0.6961000000000001</v>
+        <v>0.6986</v>
       </c>
       <c r="N110">
-        <v>0.5072</v>
+        <v>0.5011</v>
       </c>
     </row>
     <row r="111">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6087,19 +6087,19 @@
         </is>
       </c>
       <c r="J111">
-        <v>854</v>
+        <v>923</v>
       </c>
       <c r="K111">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="L111">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="M111">
-        <v>0.5773</v>
+        <v>0.5829</v>
       </c>
       <c r="N111">
-        <v>0.4368</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="112">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6139,19 +6139,19 @@
         </is>
       </c>
       <c r="J112">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="K112">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="L112">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="M112">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="N112">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="113">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6191,19 +6191,19 @@
         </is>
       </c>
       <c r="J113">
-        <v>1380</v>
+        <v>1607</v>
       </c>
       <c r="K113">
-        <v>910</v>
+        <v>1100</v>
       </c>
       <c r="L113">
-        <v>866</v>
+        <v>994</v>
       </c>
       <c r="M113">
-        <v>0.6594</v>
+        <v>0.6845</v>
       </c>
       <c r="N113">
-        <v>0.6274999999999999</v>
+        <v>0.6185</v>
       </c>
     </row>
     <row r="114">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6243,19 +6243,19 @@
         </is>
       </c>
       <c r="J114">
-        <v>1120</v>
+        <v>1335</v>
       </c>
       <c r="K114">
-        <v>588</v>
+        <v>704</v>
       </c>
       <c r="L114">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="M114">
-        <v>0.525</v>
+        <v>0.5273</v>
       </c>
       <c r="N114">
-        <v>0.4705</v>
+        <v>0.4652</v>
       </c>
     </row>
     <row r="115">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6295,19 +6295,19 @@
         </is>
       </c>
       <c r="J115">
-        <v>20138</v>
+        <v>21092</v>
       </c>
       <c r="K115">
-        <v>14261</v>
+        <v>15024</v>
       </c>
       <c r="L115">
-        <v>8169</v>
+        <v>8869</v>
       </c>
       <c r="M115">
-        <v>0.7082000000000001</v>
+        <v>0.7123</v>
       </c>
       <c r="N115">
-        <v>0.4057</v>
+        <v>0.4205</v>
       </c>
     </row>
     <row r="116">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6347,19 +6347,19 @@
         </is>
       </c>
       <c r="J116">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="K116">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="L116">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="M116">
-        <v>0.5177</v>
+        <v>0.5416</v>
       </c>
       <c r="N116">
-        <v>0.5649999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="117">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6399,19 +6399,19 @@
         </is>
       </c>
       <c r="J117">
-        <v>1159</v>
+        <v>1273</v>
       </c>
       <c r="K117">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="L117">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="M117">
-        <v>0.5738</v>
+        <v>0.5813</v>
       </c>
       <c r="N117">
-        <v>0.4599</v>
+        <v>0.4572</v>
       </c>
     </row>
     <row r="118">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6451,19 +6451,19 @@
         </is>
       </c>
       <c r="J118">
-        <v>2358</v>
+        <v>2624</v>
       </c>
       <c r="K118">
-        <v>1492</v>
+        <v>1645</v>
       </c>
       <c r="L118">
-        <v>929</v>
+        <v>1061</v>
       </c>
       <c r="M118">
-        <v>0.6327</v>
+        <v>0.6269</v>
       </c>
       <c r="N118">
-        <v>0.394</v>
+        <v>0.4043</v>
       </c>
     </row>
     <row r="119">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6503,19 +6503,19 @@
         </is>
       </c>
       <c r="J119">
-        <v>5854</v>
+        <v>6497</v>
       </c>
       <c r="K119">
-        <v>3894</v>
+        <v>4403</v>
       </c>
       <c r="L119">
-        <v>3619</v>
+        <v>3933</v>
       </c>
       <c r="M119">
-        <v>0.6652</v>
+        <v>0.6777</v>
       </c>
       <c r="N119">
-        <v>0.6182</v>
+        <v>0.6054</v>
       </c>
     </row>
     <row r="120">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6555,19 +6555,19 @@
         </is>
       </c>
       <c r="J120">
-        <v>1308</v>
+        <v>1460</v>
       </c>
       <c r="K120">
-        <v>899</v>
+        <v>992</v>
       </c>
       <c r="L120">
-        <v>747</v>
+        <v>851</v>
       </c>
       <c r="M120">
-        <v>0.6873</v>
+        <v>0.6795</v>
       </c>
       <c r="N120">
-        <v>0.5711000000000001</v>
+        <v>0.5829</v>
       </c>
     </row>
     <row r="121">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="J121">
-        <v>852</v>
+        <v>994</v>
       </c>
       <c r="K121">
-        <v>444</v>
+        <v>562</v>
       </c>
       <c r="L121">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="M121">
-        <v>0.5211</v>
+        <v>0.5654</v>
       </c>
       <c r="N121">
-        <v>0.5352</v>
+        <v>0.5412</v>
       </c>
     </row>
     <row r="122">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6659,19 +6659,19 @@
         </is>
       </c>
       <c r="J122">
-        <v>4332</v>
+        <v>4800</v>
       </c>
       <c r="K122">
-        <v>2667</v>
+        <v>2949</v>
       </c>
       <c r="L122">
-        <v>1776</v>
+        <v>2087</v>
       </c>
       <c r="M122">
-        <v>0.6157</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="N122">
-        <v>0.41</v>
+        <v>0.4348</v>
       </c>
     </row>
     <row r="123">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6705,19 +6705,19 @@
         </is>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M123">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N123">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="124">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6757,19 +6757,19 @@
         </is>
       </c>
       <c r="J124">
-        <v>1276</v>
+        <v>1417</v>
       </c>
       <c r="K124">
-        <v>796</v>
+        <v>908</v>
       </c>
       <c r="L124">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="M124">
-        <v>0.6238</v>
+        <v>0.6408</v>
       </c>
       <c r="N124">
-        <v>0.4702</v>
+        <v>0.4933</v>
       </c>
     </row>
     <row r="125">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6809,19 +6809,19 @@
         </is>
       </c>
       <c r="J125">
-        <v>375</v>
+        <v>485</v>
       </c>
       <c r="K125">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="L125">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="M125">
-        <v>0.4587</v>
+        <v>0.5423</v>
       </c>
       <c r="N125">
-        <v>0.5573</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="126">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -6861,19 +6861,19 @@
         </is>
       </c>
       <c r="J126">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="K126">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="L126">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="M126">
-        <v>0.5496</v>
+        <v>0.5577</v>
       </c>
       <c r="N126">
-        <v>0.5385</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="127">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="J127">
-        <v>2247</v>
+        <v>2456</v>
       </c>
       <c r="K127">
-        <v>1526</v>
+        <v>1672</v>
       </c>
       <c r="L127">
-        <v>971</v>
+        <v>1106</v>
       </c>
       <c r="M127">
-        <v>0.6791</v>
+        <v>0.6808</v>
       </c>
       <c r="N127">
-        <v>0.4321</v>
+        <v>0.4503</v>
       </c>
     </row>
     <row r="128">
@@ -6956,7 +6956,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6965,19 +6965,19 @@
         </is>
       </c>
       <c r="J128">
-        <v>20138</v>
+        <v>21092</v>
       </c>
       <c r="K128">
-        <v>14261</v>
+        <v>15024</v>
       </c>
       <c r="L128">
-        <v>8169</v>
+        <v>8869</v>
       </c>
       <c r="M128">
-        <v>0.7082000000000001</v>
+        <v>0.7123</v>
       </c>
       <c r="N128">
-        <v>0.4057</v>
+        <v>0.4205</v>
       </c>
     </row>
     <row r="129">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7017,19 +7017,19 @@
         </is>
       </c>
       <c r="J129">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="K129">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="L129">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="M129">
-        <v>0.5177</v>
+        <v>0.5416</v>
       </c>
       <c r="N129">
-        <v>0.5649999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="130">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="J130">
-        <v>1159</v>
+        <v>1273</v>
       </c>
       <c r="K130">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="L130">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="M130">
-        <v>0.5738</v>
+        <v>0.5813</v>
       </c>
       <c r="N130">
-        <v>0.4599</v>
+        <v>0.4572</v>
       </c>
     </row>
     <row r="131">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7121,19 +7121,19 @@
         </is>
       </c>
       <c r="J131">
-        <v>2358</v>
+        <v>2624</v>
       </c>
       <c r="K131">
-        <v>1492</v>
+        <v>1645</v>
       </c>
       <c r="L131">
-        <v>929</v>
+        <v>1061</v>
       </c>
       <c r="M131">
-        <v>0.6327</v>
+        <v>0.6269</v>
       </c>
       <c r="N131">
-        <v>0.394</v>
+        <v>0.4043</v>
       </c>
     </row>
     <row r="132">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7173,19 +7173,19 @@
         </is>
       </c>
       <c r="J132">
-        <v>5854</v>
+        <v>6497</v>
       </c>
       <c r="K132">
-        <v>3894</v>
+        <v>4403</v>
       </c>
       <c r="L132">
-        <v>3619</v>
+        <v>3933</v>
       </c>
       <c r="M132">
-        <v>0.6652</v>
+        <v>0.6777</v>
       </c>
       <c r="N132">
-        <v>0.6182</v>
+        <v>0.6054</v>
       </c>
     </row>
     <row r="133">
@@ -7210,7 +7210,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7219,19 +7219,19 @@
         </is>
       </c>
       <c r="J133">
+        <v>6</v>
+      </c>
+      <c r="K133">
         <v>4</v>
       </c>
-      <c r="K133">
-        <v>2</v>
-      </c>
       <c r="L133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M133">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
       <c r="N133">
-        <v>0.75</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="134">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7271,19 +7271,19 @@
         </is>
       </c>
       <c r="J134">
-        <v>1308</v>
+        <v>1460</v>
       </c>
       <c r="K134">
-        <v>899</v>
+        <v>992</v>
       </c>
       <c r="L134">
-        <v>747</v>
+        <v>851</v>
       </c>
       <c r="M134">
-        <v>0.6873</v>
+        <v>0.6795</v>
       </c>
       <c r="N134">
-        <v>0.5711000000000001</v>
+        <v>0.5829</v>
       </c>
     </row>
     <row r="135">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7323,19 +7323,19 @@
         </is>
       </c>
       <c r="J135">
-        <v>852</v>
+        <v>994</v>
       </c>
       <c r="K135">
-        <v>444</v>
+        <v>562</v>
       </c>
       <c r="L135">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="M135">
-        <v>0.5211</v>
+        <v>0.5654</v>
       </c>
       <c r="N135">
-        <v>0.5352</v>
+        <v>0.5412</v>
       </c>
     </row>
     <row r="136">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7375,19 +7375,19 @@
         </is>
       </c>
       <c r="J136">
-        <v>4332</v>
+        <v>4800</v>
       </c>
       <c r="K136">
-        <v>2667</v>
+        <v>2949</v>
       </c>
       <c r="L136">
-        <v>1776</v>
+        <v>2087</v>
       </c>
       <c r="M136">
-        <v>0.6157</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="N136">
-        <v>0.41</v>
+        <v>0.4348</v>
       </c>
     </row>
     <row r="137">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7421,19 +7421,19 @@
         </is>
       </c>
       <c r="J137">
+        <v>2</v>
+      </c>
+      <c r="K137">
         <v>1</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
       </c>
       <c r="L137">
         <v>1</v>
       </c>
       <c r="M137">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N137">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7467,19 +7467,19 @@
         </is>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M138">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N138">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="139">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7559,19 +7559,19 @@
         </is>
       </c>
       <c r="J140">
-        <v>1276</v>
+        <v>1417</v>
       </c>
       <c r="K140">
-        <v>796</v>
+        <v>908</v>
       </c>
       <c r="L140">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="M140">
-        <v>0.6238</v>
+        <v>0.6408</v>
       </c>
       <c r="N140">
-        <v>0.4702</v>
+        <v>0.4933</v>
       </c>
     </row>
     <row r="141">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7651,19 +7651,19 @@
         </is>
       </c>
       <c r="J142">
-        <v>375</v>
+        <v>485</v>
       </c>
       <c r="K142">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="L142">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="M142">
-        <v>0.4587</v>
+        <v>0.5423</v>
       </c>
       <c r="N142">
-        <v>0.5573</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="143">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="J143">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="K143">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="L143">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="M143">
-        <v>0.5496</v>
+        <v>0.5577</v>
       </c>
       <c r="N143">
-        <v>0.5385</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="144">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7755,19 +7755,19 @@
         </is>
       </c>
       <c r="J144">
-        <v>2247</v>
+        <v>2456</v>
       </c>
       <c r="K144">
-        <v>1526</v>
+        <v>1672</v>
       </c>
       <c r="L144">
-        <v>971</v>
+        <v>1106</v>
       </c>
       <c r="M144">
-        <v>0.6791</v>
+        <v>0.6808</v>
       </c>
       <c r="N144">
-        <v>0.4321</v>
+        <v>0.4503</v>
       </c>
     </row>
     <row r="145">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7807,19 +7807,19 @@
         </is>
       </c>
       <c r="J145">
-        <v>7391</v>
+        <v>8698</v>
       </c>
       <c r="K145">
-        <v>5145</v>
+        <v>6076</v>
       </c>
       <c r="L145">
-        <v>3749</v>
+        <v>4359</v>
       </c>
       <c r="M145">
-        <v>0.6961000000000001</v>
+        <v>0.6986</v>
       </c>
       <c r="N145">
-        <v>0.5072</v>
+        <v>0.5011</v>
       </c>
     </row>
     <row r="146">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7859,19 +7859,19 @@
         </is>
       </c>
       <c r="J146">
-        <v>854</v>
+        <v>923</v>
       </c>
       <c r="K146">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="L146">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="M146">
-        <v>0.5773</v>
+        <v>0.5829</v>
       </c>
       <c r="N146">
-        <v>0.4368</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="147">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7911,19 +7911,19 @@
         </is>
       </c>
       <c r="J147">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="K147">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="L147">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="M147">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="N147">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="148">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7963,19 +7963,19 @@
         </is>
       </c>
       <c r="J148">
-        <v>1380</v>
+        <v>1607</v>
       </c>
       <c r="K148">
-        <v>910</v>
+        <v>1100</v>
       </c>
       <c r="L148">
-        <v>866</v>
+        <v>994</v>
       </c>
       <c r="M148">
-        <v>0.6594</v>
+        <v>0.6845</v>
       </c>
       <c r="N148">
-        <v>0.6274999999999999</v>
+        <v>0.6185</v>
       </c>
     </row>
     <row r="149">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8021,13 +8021,13 @@
         <v>35</v>
       </c>
       <c r="L149">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M149">
         <v>0.7955</v>
       </c>
       <c r="N149">
-        <v>0.4318</v>
+        <v>0.4773</v>
       </c>
     </row>
     <row r="150">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8061,19 +8061,19 @@
         </is>
       </c>
       <c r="J150">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K150">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L150">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M150">
-        <v>0.2222</v>
+        <v>0.3478</v>
       </c>
       <c r="N150">
-        <v>0.7778</v>
+        <v>0.6957</v>
       </c>
     </row>
     <row r="151">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -8113,19 +8113,19 @@
         </is>
       </c>
       <c r="J151">
-        <v>1120</v>
+        <v>1335</v>
       </c>
       <c r="K151">
-        <v>588</v>
+        <v>704</v>
       </c>
       <c r="L151">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="M151">
-        <v>0.525</v>
+        <v>0.5273</v>
       </c>
       <c r="N151">
-        <v>0.4705</v>
+        <v>0.4652</v>
       </c>
     </row>
     <row r="152">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8165,19 +8165,19 @@
         </is>
       </c>
       <c r="J152">
-        <v>20138</v>
+        <v>21092</v>
       </c>
       <c r="K152">
-        <v>14261</v>
+        <v>15024</v>
       </c>
       <c r="L152">
-        <v>8169</v>
+        <v>8869</v>
       </c>
       <c r="M152">
-        <v>0.7082000000000001</v>
+        <v>0.7123</v>
       </c>
       <c r="N152">
-        <v>0.4057</v>
+        <v>0.4205</v>
       </c>
     </row>
     <row r="153">
@@ -8208,7 +8208,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8217,19 +8217,19 @@
         </is>
       </c>
       <c r="J153">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="K153">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="L153">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="M153">
-        <v>0.5177</v>
+        <v>0.5416</v>
       </c>
       <c r="N153">
-        <v>0.5649999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="154">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8269,19 +8269,19 @@
         </is>
       </c>
       <c r="J154">
-        <v>1159</v>
+        <v>1273</v>
       </c>
       <c r="K154">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="L154">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="M154">
-        <v>0.5738</v>
+        <v>0.5813</v>
       </c>
       <c r="N154">
-        <v>0.4599</v>
+        <v>0.4572</v>
       </c>
     </row>
     <row r="155">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8321,19 +8321,19 @@
         </is>
       </c>
       <c r="J155">
-        <v>2358</v>
+        <v>2624</v>
       </c>
       <c r="K155">
-        <v>1492</v>
+        <v>1645</v>
       </c>
       <c r="L155">
-        <v>929</v>
+        <v>1061</v>
       </c>
       <c r="M155">
-        <v>0.6327</v>
+        <v>0.6269</v>
       </c>
       <c r="N155">
-        <v>0.394</v>
+        <v>0.4043</v>
       </c>
     </row>
     <row r="156">
@@ -8364,7 +8364,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8373,19 +8373,19 @@
         </is>
       </c>
       <c r="J156">
-        <v>5854</v>
+        <v>6497</v>
       </c>
       <c r="K156">
-        <v>3894</v>
+        <v>4403</v>
       </c>
       <c r="L156">
-        <v>3619</v>
+        <v>3933</v>
       </c>
       <c r="M156">
-        <v>0.6652</v>
+        <v>0.6777</v>
       </c>
       <c r="N156">
-        <v>0.6182</v>
+        <v>0.6054</v>
       </c>
     </row>
     <row r="157">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8425,19 +8425,19 @@
         </is>
       </c>
       <c r="J157">
+        <v>6</v>
+      </c>
+      <c r="K157">
         <v>4</v>
       </c>
-      <c r="K157">
-        <v>2</v>
-      </c>
       <c r="L157">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M157">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
       <c r="N157">
-        <v>0.75</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="158">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -8477,19 +8477,19 @@
         </is>
       </c>
       <c r="J158">
-        <v>1308</v>
+        <v>1460</v>
       </c>
       <c r="K158">
-        <v>899</v>
+        <v>992</v>
       </c>
       <c r="L158">
-        <v>747</v>
+        <v>851</v>
       </c>
       <c r="M158">
-        <v>0.6873</v>
+        <v>0.6795</v>
       </c>
       <c r="N158">
-        <v>0.5711000000000001</v>
+        <v>0.5829</v>
       </c>
     </row>
     <row r="159">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8529,19 +8529,19 @@
         </is>
       </c>
       <c r="J159">
-        <v>852</v>
+        <v>994</v>
       </c>
       <c r="K159">
-        <v>444</v>
+        <v>562</v>
       </c>
       <c r="L159">
-        <v>456</v>
+        <v>538</v>
       </c>
       <c r="M159">
-        <v>0.5211</v>
+        <v>0.5654</v>
       </c>
       <c r="N159">
-        <v>0.5352</v>
+        <v>0.5412</v>
       </c>
     </row>
     <row r="160">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -8581,19 +8581,19 @@
         </is>
       </c>
       <c r="J160">
-        <v>4332</v>
+        <v>4800</v>
       </c>
       <c r="K160">
-        <v>2667</v>
+        <v>2949</v>
       </c>
       <c r="L160">
-        <v>1776</v>
+        <v>2087</v>
       </c>
       <c r="M160">
-        <v>0.6157</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="N160">
-        <v>0.41</v>
+        <v>0.4348</v>
       </c>
     </row>
     <row r="161">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8627,19 +8627,19 @@
         </is>
       </c>
       <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161">
         <v>1</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
       </c>
       <c r="L161">
         <v>1</v>
       </c>
       <c r="M161">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N161">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="162">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -8673,19 +8673,19 @@
         </is>
       </c>
       <c r="J162">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K162">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M162">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N162">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="163">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -8765,19 +8765,19 @@
         </is>
       </c>
       <c r="J164">
-        <v>1276</v>
+        <v>1417</v>
       </c>
       <c r="K164">
-        <v>796</v>
+        <v>908</v>
       </c>
       <c r="L164">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="M164">
-        <v>0.6238</v>
+        <v>0.6408</v>
       </c>
       <c r="N164">
-        <v>0.4702</v>
+        <v>0.4933</v>
       </c>
     </row>
     <row r="165">
@@ -8802,7 +8802,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8857,19 +8857,19 @@
         </is>
       </c>
       <c r="J166">
-        <v>375</v>
+        <v>485</v>
       </c>
       <c r="K166">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="L166">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="M166">
-        <v>0.4587</v>
+        <v>0.5423</v>
       </c>
       <c r="N166">
-        <v>0.5573</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="167">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8909,19 +8909,19 @@
         </is>
       </c>
       <c r="J167">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="K167">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="L167">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="M167">
-        <v>0.5496</v>
+        <v>0.5577</v>
       </c>
       <c r="N167">
-        <v>0.5385</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="168">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8961,19 +8961,19 @@
         </is>
       </c>
       <c r="J168">
-        <v>2247</v>
+        <v>2456</v>
       </c>
       <c r="K168">
-        <v>1526</v>
+        <v>1672</v>
       </c>
       <c r="L168">
-        <v>971</v>
+        <v>1106</v>
       </c>
       <c r="M168">
-        <v>0.6791</v>
+        <v>0.6808</v>
       </c>
       <c r="N168">
-        <v>0.4321</v>
+        <v>0.4503</v>
       </c>
     </row>
     <row r="169">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9013,19 +9013,19 @@
         </is>
       </c>
       <c r="J169">
-        <v>7391</v>
+        <v>8698</v>
       </c>
       <c r="K169">
-        <v>5145</v>
+        <v>6076</v>
       </c>
       <c r="L169">
-        <v>3749</v>
+        <v>4359</v>
       </c>
       <c r="M169">
-        <v>0.6961000000000001</v>
+        <v>0.6986</v>
       </c>
       <c r="N169">
-        <v>0.5072</v>
+        <v>0.5011</v>
       </c>
     </row>
     <row r="170">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9065,19 +9065,19 @@
         </is>
       </c>
       <c r="J170">
-        <v>854</v>
+        <v>923</v>
       </c>
       <c r="K170">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="L170">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="M170">
-        <v>0.5773</v>
+        <v>0.5829</v>
       </c>
       <c r="N170">
-        <v>0.4368</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="171">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -9117,19 +9117,19 @@
         </is>
       </c>
       <c r="J171">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="K171">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="L171">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="M171">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="N171">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="172">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9169,19 +9169,19 @@
         </is>
       </c>
       <c r="J172">
-        <v>1380</v>
+        <v>1607</v>
       </c>
       <c r="K172">
-        <v>910</v>
+        <v>1100</v>
       </c>
       <c r="L172">
-        <v>866</v>
+        <v>994</v>
       </c>
       <c r="M172">
-        <v>0.6594</v>
+        <v>0.6845</v>
       </c>
       <c r="N172">
-        <v>0.6274999999999999</v>
+        <v>0.6185</v>
       </c>
     </row>
     <row r="173">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9227,13 +9227,13 @@
         <v>35</v>
       </c>
       <c r="L173">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M173">
         <v>0.7955</v>
       </c>
       <c r="N173">
-        <v>0.4318</v>
+        <v>0.4773</v>
       </c>
     </row>
     <row r="174">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9267,19 +9267,19 @@
         </is>
       </c>
       <c r="J174">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K174">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L174">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M174">
-        <v>0.2222</v>
+        <v>0.3478</v>
       </c>
       <c r="N174">
-        <v>0.7778</v>
+        <v>0.6957</v>
       </c>
     </row>
     <row r="175">
@@ -9310,7 +9310,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -9319,19 +9319,2443 @@
         </is>
       </c>
       <c r="J175">
-        <v>1120</v>
+        <v>1335</v>
       </c>
       <c r="K175">
-        <v>588</v>
+        <v>704</v>
       </c>
       <c r="L175">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="M175">
-        <v>0.525</v>
+        <v>0.5273</v>
       </c>
       <c r="N175">
-        <v>0.4705</v>
+        <v>0.4652</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C176">
+        <v>496</v>
+      </c>
+      <c r="D176">
+        <v>396</v>
+      </c>
+      <c r="E176">
+        <v>190</v>
+      </c>
+      <c r="F176">
+        <v>0.7984</v>
+      </c>
+      <c r="G176">
+        <v>0.3831</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="J176">
+        <v>21092</v>
+      </c>
+      <c r="K176">
+        <v>15024</v>
+      </c>
+      <c r="L176">
+        <v>8869</v>
+      </c>
+      <c r="M176">
+        <v>0.7123</v>
+      </c>
+      <c r="N176">
+        <v>0.4205</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C177">
+        <v>35</v>
+      </c>
+      <c r="D177">
+        <v>24</v>
+      </c>
+      <c r="E177">
+        <v>15</v>
+      </c>
+      <c r="F177">
+        <v>0.6857</v>
+      </c>
+      <c r="G177">
+        <v>0.4286</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J177">
+        <v>493</v>
+      </c>
+      <c r="K177">
+        <v>267</v>
+      </c>
+      <c r="L177">
+        <v>281</v>
+      </c>
+      <c r="M177">
+        <v>0.5416</v>
+      </c>
+      <c r="N177">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C178">
+        <v>56</v>
+      </c>
+      <c r="D178">
+        <v>37</v>
+      </c>
+      <c r="E178">
+        <v>15</v>
+      </c>
+      <c r="F178">
+        <v>0.6607</v>
+      </c>
+      <c r="G178">
+        <v>0.2679</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J178">
+        <v>1273</v>
+      </c>
+      <c r="K178">
+        <v>740</v>
+      </c>
+      <c r="L178">
+        <v>582</v>
+      </c>
+      <c r="M178">
+        <v>0.5813</v>
+      </c>
+      <c r="N178">
+        <v>0.4572</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C179">
+        <v>149</v>
+      </c>
+      <c r="D179">
+        <v>81</v>
+      </c>
+      <c r="E179">
+        <v>46</v>
+      </c>
+      <c r="F179">
+        <v>0.5436</v>
+      </c>
+      <c r="G179">
+        <v>0.3087</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J179">
+        <v>2624</v>
+      </c>
+      <c r="K179">
+        <v>1645</v>
+      </c>
+      <c r="L179">
+        <v>1061</v>
+      </c>
+      <c r="M179">
+        <v>0.6269</v>
+      </c>
+      <c r="N179">
+        <v>0.4043</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C180">
+        <v>167</v>
+      </c>
+      <c r="D180">
+        <v>97</v>
+      </c>
+      <c r="E180">
+        <v>71</v>
+      </c>
+      <c r="F180">
+        <v>0.5808</v>
+      </c>
+      <c r="G180">
+        <v>0.4251</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="J180">
+        <v>6497</v>
+      </c>
+      <c r="K180">
+        <v>4403</v>
+      </c>
+      <c r="L180">
+        <v>3933</v>
+      </c>
+      <c r="M180">
+        <v>0.6777</v>
+      </c>
+      <c r="N180">
+        <v>0.6054</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="J181">
+        <v>6</v>
+      </c>
+      <c r="K181">
+        <v>4</v>
+      </c>
+      <c r="L181">
+        <v>5</v>
+      </c>
+      <c r="M181">
+        <v>0.6667</v>
+      </c>
+      <c r="N181">
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C182">
+        <v>115</v>
+      </c>
+      <c r="D182">
+        <v>71</v>
+      </c>
+      <c r="E182">
+        <v>45</v>
+      </c>
+      <c r="F182">
+        <v>0.6173999999999999</v>
+      </c>
+      <c r="G182">
+        <v>0.3913</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J182">
+        <v>1460</v>
+      </c>
+      <c r="K182">
+        <v>992</v>
+      </c>
+      <c r="L182">
+        <v>851</v>
+      </c>
+      <c r="M182">
+        <v>0.6795</v>
+      </c>
+      <c r="N182">
+        <v>0.5829</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C183">
+        <v>105</v>
+      </c>
+      <c r="D183">
+        <v>89</v>
+      </c>
+      <c r="E183">
+        <v>25</v>
+      </c>
+      <c r="F183">
+        <v>0.8476</v>
+      </c>
+      <c r="G183">
+        <v>0.2381</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="J183">
+        <v>994</v>
+      </c>
+      <c r="K183">
+        <v>562</v>
+      </c>
+      <c r="L183">
+        <v>538</v>
+      </c>
+      <c r="M183">
+        <v>0.5654</v>
+      </c>
+      <c r="N183">
+        <v>0.5412</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C184">
+        <v>326</v>
+      </c>
+      <c r="D184">
+        <v>194</v>
+      </c>
+      <c r="E184">
+        <v>118</v>
+      </c>
+      <c r="F184">
+        <v>0.5951</v>
+      </c>
+      <c r="G184">
+        <v>0.362</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="J184">
+        <v>4800</v>
+      </c>
+      <c r="K184">
+        <v>2949</v>
+      </c>
+      <c r="L184">
+        <v>2087</v>
+      </c>
+      <c r="M184">
+        <v>0.6143999999999999</v>
+      </c>
+      <c r="N184">
+        <v>0.4348</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="J185">
+        <v>2</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>0.5</v>
+      </c>
+      <c r="N185">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J186">
+        <v>6</v>
+      </c>
+      <c r="K186">
+        <v>3</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>0.5</v>
+      </c>
+      <c r="N186">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C188">
+        <v>85</v>
+      </c>
+      <c r="D188">
+        <v>71</v>
+      </c>
+      <c r="E188">
+        <v>32</v>
+      </c>
+      <c r="F188">
+        <v>0.8353</v>
+      </c>
+      <c r="G188">
+        <v>0.3765</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J188">
+        <v>1417</v>
+      </c>
+      <c r="K188">
+        <v>908</v>
+      </c>
+      <c r="L188">
+        <v>699</v>
+      </c>
+      <c r="M188">
+        <v>0.6408</v>
+      </c>
+      <c r="N188">
+        <v>0.4933</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C190">
+        <v>29</v>
+      </c>
+      <c r="D190">
+        <v>23</v>
+      </c>
+      <c r="E190">
+        <v>15</v>
+      </c>
+      <c r="F190">
+        <v>0.7931</v>
+      </c>
+      <c r="G190">
+        <v>0.5172</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="J190">
+        <v>485</v>
+      </c>
+      <c r="K190">
+        <v>263</v>
+      </c>
+      <c r="L190">
+        <v>266</v>
+      </c>
+      <c r="M190">
+        <v>0.5423</v>
+      </c>
+      <c r="N190">
+        <v>0.5485</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C191">
+        <v>23</v>
+      </c>
+      <c r="D191">
+        <v>18</v>
+      </c>
+      <c r="E191">
+        <v>11</v>
+      </c>
+      <c r="F191">
+        <v>0.7826</v>
+      </c>
+      <c r="G191">
+        <v>0.4783</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J191">
+        <v>841</v>
+      </c>
+      <c r="K191">
+        <v>469</v>
+      </c>
+      <c r="L191">
+        <v>476</v>
+      </c>
+      <c r="M191">
+        <v>0.5577</v>
+      </c>
+      <c r="N191">
+        <v>0.5659999999999999</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C192">
+        <v>137</v>
+      </c>
+      <c r="D192">
+        <v>97</v>
+      </c>
+      <c r="E192">
+        <v>35</v>
+      </c>
+      <c r="F192">
+        <v>0.708</v>
+      </c>
+      <c r="G192">
+        <v>0.2555</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="J192">
+        <v>2456</v>
+      </c>
+      <c r="K192">
+        <v>1672</v>
+      </c>
+      <c r="L192">
+        <v>1106</v>
+      </c>
+      <c r="M192">
+        <v>0.6808</v>
+      </c>
+      <c r="N192">
+        <v>0.4503</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C193">
+        <v>815</v>
+      </c>
+      <c r="D193">
+        <v>628</v>
+      </c>
+      <c r="E193">
+        <v>244</v>
+      </c>
+      <c r="F193">
+        <v>0.7706</v>
+      </c>
+      <c r="G193">
+        <v>0.2994</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="J193">
+        <v>8698</v>
+      </c>
+      <c r="K193">
+        <v>6076</v>
+      </c>
+      <c r="L193">
+        <v>4359</v>
+      </c>
+      <c r="M193">
+        <v>0.6986</v>
+      </c>
+      <c r="N193">
+        <v>0.5011</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C194">
+        <v>42</v>
+      </c>
+      <c r="D194">
+        <v>31</v>
+      </c>
+      <c r="E194">
+        <v>12</v>
+      </c>
+      <c r="F194">
+        <v>0.7381</v>
+      </c>
+      <c r="G194">
+        <v>0.2857</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="J194">
+        <v>923</v>
+      </c>
+      <c r="K194">
+        <v>538</v>
+      </c>
+      <c r="L194">
+        <v>425</v>
+      </c>
+      <c r="M194">
+        <v>0.5829</v>
+      </c>
+      <c r="N194">
+        <v>0.4605</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C195">
+        <v>2862</v>
+      </c>
+      <c r="D195">
+        <v>2054</v>
+      </c>
+      <c r="E195">
+        <v>972</v>
+      </c>
+      <c r="F195">
+        <v>0.7177</v>
+      </c>
+      <c r="G195">
+        <v>0.3396</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J195">
+        <v>57090</v>
+      </c>
+      <c r="K195">
+        <v>38373</v>
+      </c>
+      <c r="L195">
+        <v>27198</v>
+      </c>
+      <c r="M195">
+        <v>0.6721</v>
+      </c>
+      <c r="N195">
+        <v>0.4764</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C196">
+        <v>130</v>
+      </c>
+      <c r="D196">
+        <v>106</v>
+      </c>
+      <c r="E196">
+        <v>52</v>
+      </c>
+      <c r="F196">
+        <v>0.8154</v>
+      </c>
+      <c r="G196">
+        <v>0.4</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="J196">
+        <v>1607</v>
+      </c>
+      <c r="K196">
+        <v>1100</v>
+      </c>
+      <c r="L196">
+        <v>994</v>
+      </c>
+      <c r="M196">
+        <v>0.6845</v>
+      </c>
+      <c r="N196">
+        <v>0.6185</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="J197">
+        <v>44</v>
+      </c>
+      <c r="K197">
+        <v>35</v>
+      </c>
+      <c r="L197">
+        <v>21</v>
+      </c>
+      <c r="M197">
+        <v>0.7955</v>
+      </c>
+      <c r="N197">
+        <v>0.4773</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>0.5</v>
+      </c>
+      <c r="G198">
+        <v>0.5</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="J198">
+        <v>23</v>
+      </c>
+      <c r="K198">
+        <v>8</v>
+      </c>
+      <c r="L198">
+        <v>16</v>
+      </c>
+      <c r="M198">
+        <v>0.3478</v>
+      </c>
+      <c r="N198">
+        <v>0.6957</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C199">
+        <v>147</v>
+      </c>
+      <c r="D199">
+        <v>87</v>
+      </c>
+      <c r="E199">
+        <v>43</v>
+      </c>
+      <c r="F199">
+        <v>0.5918</v>
+      </c>
+      <c r="G199">
+        <v>0.2925</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="J199">
+        <v>1335</v>
+      </c>
+      <c r="K199">
+        <v>704</v>
+      </c>
+      <c r="L199">
+        <v>621</v>
+      </c>
+      <c r="M199">
+        <v>0.5273</v>
+      </c>
+      <c r="N199">
+        <v>0.4652</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C200">
+        <v>493</v>
+      </c>
+      <c r="D200">
+        <v>309</v>
+      </c>
+      <c r="E200">
+        <v>143</v>
+      </c>
+      <c r="F200">
+        <v>0.6268</v>
+      </c>
+      <c r="G200">
+        <v>0.2901</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="J200">
+        <v>8698</v>
+      </c>
+      <c r="K200">
+        <v>6076</v>
+      </c>
+      <c r="L200">
+        <v>4359</v>
+      </c>
+      <c r="M200">
+        <v>0.6986</v>
+      </c>
+      <c r="N200">
+        <v>0.5011</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C201">
+        <v>29</v>
+      </c>
+      <c r="D201">
+        <v>15</v>
+      </c>
+      <c r="E201">
+        <v>14</v>
+      </c>
+      <c r="F201">
+        <v>0.5172</v>
+      </c>
+      <c r="G201">
+        <v>0.4828</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="J201">
+        <v>923</v>
+      </c>
+      <c r="K201">
+        <v>538</v>
+      </c>
+      <c r="L201">
+        <v>425</v>
+      </c>
+      <c r="M201">
+        <v>0.5829</v>
+      </c>
+      <c r="N201">
+        <v>0.4605</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C202">
+        <v>2317</v>
+      </c>
+      <c r="D202">
+        <v>1687</v>
+      </c>
+      <c r="E202">
+        <v>698</v>
+      </c>
+      <c r="F202">
+        <v>0.7281</v>
+      </c>
+      <c r="G202">
+        <v>0.3013</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J202">
+        <v>57090</v>
+      </c>
+      <c r="K202">
+        <v>38373</v>
+      </c>
+      <c r="L202">
+        <v>27198</v>
+      </c>
+      <c r="M202">
+        <v>0.6721</v>
+      </c>
+      <c r="N202">
+        <v>0.4764</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C203">
+        <v>102</v>
+      </c>
+      <c r="D203">
+        <v>87</v>
+      </c>
+      <c r="E203">
+        <v>37</v>
+      </c>
+      <c r="F203">
+        <v>0.8529</v>
+      </c>
+      <c r="G203">
+        <v>0.3627</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="J203">
+        <v>1607</v>
+      </c>
+      <c r="K203">
+        <v>1100</v>
+      </c>
+      <c r="L203">
+        <v>994</v>
+      </c>
+      <c r="M203">
+        <v>0.6845</v>
+      </c>
+      <c r="N203">
+        <v>0.6185</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="J204">
+        <v>44</v>
+      </c>
+      <c r="K204">
+        <v>35</v>
+      </c>
+      <c r="L204">
+        <v>21</v>
+      </c>
+      <c r="M204">
+        <v>0.7955</v>
+      </c>
+      <c r="N204">
+        <v>0.4773</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+      <c r="D205">
+        <v>3</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>0.3333</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="J205">
+        <v>23</v>
+      </c>
+      <c r="K205">
+        <v>8</v>
+      </c>
+      <c r="L205">
+        <v>16</v>
+      </c>
+      <c r="M205">
+        <v>0.3478</v>
+      </c>
+      <c r="N205">
+        <v>0.6957</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C206">
+        <v>65</v>
+      </c>
+      <c r="D206">
+        <v>29</v>
+      </c>
+      <c r="E206">
+        <v>14</v>
+      </c>
+      <c r="F206">
+        <v>0.4462</v>
+      </c>
+      <c r="G206">
+        <v>0.2154</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="J206">
+        <v>1335</v>
+      </c>
+      <c r="K206">
+        <v>704</v>
+      </c>
+      <c r="L206">
+        <v>621</v>
+      </c>
+      <c r="M206">
+        <v>0.5273</v>
+      </c>
+      <c r="N206">
+        <v>0.4652</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C207">
+        <v>470</v>
+      </c>
+      <c r="D207">
+        <v>373</v>
+      </c>
+      <c r="E207">
+        <v>122</v>
+      </c>
+      <c r="F207">
+        <v>0.7936</v>
+      </c>
+      <c r="G207">
+        <v>0.2596</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="J207">
+        <v>21092</v>
+      </c>
+      <c r="K207">
+        <v>15024</v>
+      </c>
+      <c r="L207">
+        <v>8869</v>
+      </c>
+      <c r="M207">
+        <v>0.7123</v>
+      </c>
+      <c r="N207">
+        <v>0.4205</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C208">
+        <v>35</v>
+      </c>
+      <c r="D208">
+        <v>23</v>
+      </c>
+      <c r="E208">
+        <v>13</v>
+      </c>
+      <c r="F208">
+        <v>0.6571</v>
+      </c>
+      <c r="G208">
+        <v>0.3714</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J208">
+        <v>493</v>
+      </c>
+      <c r="K208">
+        <v>267</v>
+      </c>
+      <c r="L208">
+        <v>281</v>
+      </c>
+      <c r="M208">
+        <v>0.5416</v>
+      </c>
+      <c r="N208">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C209">
+        <v>61</v>
+      </c>
+      <c r="D209">
+        <v>40</v>
+      </c>
+      <c r="E209">
+        <v>14</v>
+      </c>
+      <c r="F209">
+        <v>0.6556999999999999</v>
+      </c>
+      <c r="G209">
+        <v>0.2295</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J209">
+        <v>1273</v>
+      </c>
+      <c r="K209">
+        <v>740</v>
+      </c>
+      <c r="L209">
+        <v>582</v>
+      </c>
+      <c r="M209">
+        <v>0.5813</v>
+      </c>
+      <c r="N209">
+        <v>0.4572</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C210">
+        <v>117</v>
+      </c>
+      <c r="D210">
+        <v>72</v>
+      </c>
+      <c r="E210">
+        <v>26</v>
+      </c>
+      <c r="F210">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="G210">
+        <v>0.2222</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J210">
+        <v>2624</v>
+      </c>
+      <c r="K210">
+        <v>1645</v>
+      </c>
+      <c r="L210">
+        <v>1061</v>
+      </c>
+      <c r="M210">
+        <v>0.6269</v>
+      </c>
+      <c r="N210">
+        <v>0.4043</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C211">
+        <v>475</v>
+      </c>
+      <c r="D211">
+        <v>411</v>
+      </c>
+      <c r="E211">
+        <v>137</v>
+      </c>
+      <c r="F211">
+        <v>0.8653</v>
+      </c>
+      <c r="G211">
+        <v>0.2884</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="J211">
+        <v>6497</v>
+      </c>
+      <c r="K211">
+        <v>4403</v>
+      </c>
+      <c r="L211">
+        <v>3933</v>
+      </c>
+      <c r="M211">
+        <v>0.6777</v>
+      </c>
+      <c r="N211">
+        <v>0.6054</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="J212">
+        <v>6</v>
+      </c>
+      <c r="K212">
+        <v>4</v>
+      </c>
+      <c r="L212">
+        <v>5</v>
+      </c>
+      <c r="M212">
+        <v>0.6667</v>
+      </c>
+      <c r="N212">
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C213">
+        <v>37</v>
+      </c>
+      <c r="D213">
+        <v>23</v>
+      </c>
+      <c r="E213">
+        <v>21</v>
+      </c>
+      <c r="F213">
+        <v>0.6216</v>
+      </c>
+      <c r="G213">
+        <v>0.5676</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J213">
+        <v>1460</v>
+      </c>
+      <c r="K213">
+        <v>992</v>
+      </c>
+      <c r="L213">
+        <v>851</v>
+      </c>
+      <c r="M213">
+        <v>0.6795</v>
+      </c>
+      <c r="N213">
+        <v>0.5829</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C214">
+        <v>41</v>
+      </c>
+      <c r="D214">
+        <v>32</v>
+      </c>
+      <c r="E214">
+        <v>20</v>
+      </c>
+      <c r="F214">
+        <v>0.7805</v>
+      </c>
+      <c r="G214">
+        <v>0.4878</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="J214">
+        <v>994</v>
+      </c>
+      <c r="K214">
+        <v>562</v>
+      </c>
+      <c r="L214">
+        <v>538</v>
+      </c>
+      <c r="M214">
+        <v>0.5654</v>
+      </c>
+      <c r="N214">
+        <v>0.5412</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C215">
+        <v>153</v>
+      </c>
+      <c r="D215">
+        <v>93</v>
+      </c>
+      <c r="E215">
+        <v>56</v>
+      </c>
+      <c r="F215">
+        <v>0.6078</v>
+      </c>
+      <c r="G215">
+        <v>0.366</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="J215">
+        <v>4800</v>
+      </c>
+      <c r="K215">
+        <v>2949</v>
+      </c>
+      <c r="L215">
+        <v>2087</v>
+      </c>
+      <c r="M215">
+        <v>0.6143999999999999</v>
+      </c>
+      <c r="N215">
+        <v>0.4348</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="J216">
+        <v>2</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>0.5</v>
+      </c>
+      <c r="N216">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C217">
+        <v>5</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>0.6</v>
+      </c>
+      <c r="G217">
+        <v>0.2</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J217">
+        <v>6</v>
+      </c>
+      <c r="K217">
+        <v>3</v>
+      </c>
+      <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
+        <v>0.5</v>
+      </c>
+      <c r="N217">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C219">
+        <v>57</v>
+      </c>
+      <c r="D219">
+        <v>41</v>
+      </c>
+      <c r="E219">
+        <v>17</v>
+      </c>
+      <c r="F219">
+        <v>0.7193000000000001</v>
+      </c>
+      <c r="G219">
+        <v>0.2982</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J219">
+        <v>1417</v>
+      </c>
+      <c r="K219">
+        <v>908</v>
+      </c>
+      <c r="L219">
+        <v>699</v>
+      </c>
+      <c r="M219">
+        <v>0.6408</v>
+      </c>
+      <c r="N219">
+        <v>0.4933</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C221">
+        <v>80</v>
+      </c>
+      <c r="D221">
+        <v>67</v>
+      </c>
+      <c r="E221">
+        <v>27</v>
+      </c>
+      <c r="F221">
+        <v>0.8375</v>
+      </c>
+      <c r="G221">
+        <v>0.3375</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="J221">
+        <v>485</v>
+      </c>
+      <c r="K221">
+        <v>263</v>
+      </c>
+      <c r="L221">
+        <v>266</v>
+      </c>
+      <c r="M221">
+        <v>0.5423</v>
+      </c>
+      <c r="N221">
+        <v>0.5485</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C222">
+        <v>12</v>
+      </c>
+      <c r="D222">
+        <v>8</v>
+      </c>
+      <c r="E222">
+        <v>7</v>
+      </c>
+      <c r="F222">
+        <v>0.6667</v>
+      </c>
+      <c r="G222">
+        <v>0.5833</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J222">
+        <v>841</v>
+      </c>
+      <c r="K222">
+        <v>469</v>
+      </c>
+      <c r="L222">
+        <v>476</v>
+      </c>
+      <c r="M222">
+        <v>0.5577</v>
+      </c>
+      <c r="N222">
+        <v>0.5659999999999999</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C223">
+        <v>74</v>
+      </c>
+      <c r="D223">
+        <v>51</v>
+      </c>
+      <c r="E223">
+        <v>24</v>
+      </c>
+      <c r="F223">
+        <v>0.6892</v>
+      </c>
+      <c r="G223">
+        <v>0.3243</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="J223">
+        <v>2456</v>
+      </c>
+      <c r="K223">
+        <v>1672</v>
+      </c>
+      <c r="L223">
+        <v>1106</v>
+      </c>
+      <c r="M223">
+        <v>0.6808</v>
+      </c>
+      <c r="N223">
+        <v>0.4503</v>
       </c>
     </row>
   </sheetData>

--- a/data/学习数据.xlsx
+++ b/data/学习数据.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N223"/>
+  <dimension ref="A1:N247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,7 +446,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -455,19 +455,19 @@
         </is>
       </c>
       <c r="J2">
-        <v>21092</v>
+        <v>21291</v>
       </c>
       <c r="K2">
-        <v>15024</v>
+        <v>15199</v>
       </c>
       <c r="L2">
-        <v>8869</v>
+        <v>9138</v>
       </c>
       <c r="M2">
-        <v>0.7123</v>
+        <v>0.7139</v>
       </c>
       <c r="N2">
-        <v>0.4205</v>
+        <v>0.4292</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -507,19 +507,19 @@
         </is>
       </c>
       <c r="J3">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K3">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L3">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M3">
-        <v>0.5416</v>
+        <v>0.5409</v>
       </c>
       <c r="N3">
-        <v>0.57</v>
+        <v>0.5868</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -559,19 +559,19 @@
         </is>
       </c>
       <c r="J4">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="K4">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="L4">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="M4">
-        <v>0.5813</v>
+        <v>0.58</v>
       </c>
       <c r="N4">
-        <v>0.4572</v>
+        <v>0.4668</v>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="J5">
-        <v>2624</v>
+        <v>2672</v>
       </c>
       <c r="K5">
-        <v>1645</v>
+        <v>1671</v>
       </c>
       <c r="L5">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="M5">
-        <v>0.6269</v>
+        <v>0.6254</v>
       </c>
       <c r="N5">
-        <v>0.4043</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="6">
@@ -654,7 +654,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -663,19 +663,19 @@
         </is>
       </c>
       <c r="J6">
-        <v>6497</v>
+        <v>6582</v>
       </c>
       <c r="K6">
-        <v>4403</v>
+        <v>4461</v>
       </c>
       <c r="L6">
-        <v>3933</v>
+        <v>4045</v>
       </c>
       <c r="M6">
-        <v>0.6777</v>
+        <v>0.6778</v>
       </c>
       <c r="N6">
-        <v>0.6054</v>
+        <v>0.6146</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -715,19 +715,19 @@
         </is>
       </c>
       <c r="J7">
-        <v>1460</v>
+        <v>1506</v>
       </c>
       <c r="K7">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="L7">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="M7">
-        <v>0.6795</v>
+        <v>0.6813</v>
       </c>
       <c r="N7">
-        <v>0.5829</v>
+        <v>0.6016</v>
       </c>
     </row>
     <row r="8">
@@ -758,7 +758,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -767,19 +767,19 @@
         </is>
       </c>
       <c r="J8">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="K8">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L8">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="M8">
-        <v>0.5654</v>
+        <v>0.5653</v>
       </c>
       <c r="N8">
-        <v>0.5412</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="9">
@@ -810,7 +810,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -819,19 +819,19 @@
         </is>
       </c>
       <c r="J9">
-        <v>4800</v>
+        <v>5023</v>
       </c>
       <c r="K9">
-        <v>2949</v>
+        <v>3078</v>
       </c>
       <c r="L9">
-        <v>2087</v>
+        <v>2234</v>
       </c>
       <c r="M9">
-        <v>0.6143999999999999</v>
+        <v>0.6128</v>
       </c>
       <c r="N9">
-        <v>0.4348</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="10">
@@ -856,7 +856,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -865,19 +865,19 @@
         </is>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>2</v>
       </c>
       <c r="M10">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="N10">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11">
@@ -908,7 +908,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -917,19 +917,19 @@
         </is>
       </c>
       <c r="J11">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="K11">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="L11">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="M11">
-        <v>0.6408</v>
+        <v>0.6418</v>
       </c>
       <c r="N11">
-        <v>0.4933</v>
+        <v>0.5021</v>
       </c>
     </row>
     <row r="12">
@@ -960,7 +960,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -969,19 +969,19 @@
         </is>
       </c>
       <c r="J12">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="K12">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L12">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="M12">
-        <v>0.5423</v>
+        <v>0.5571</v>
       </c>
       <c r="N12">
-        <v>0.5485</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="13">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1021,19 +1021,19 @@
         </is>
       </c>
       <c r="J13">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="K13">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L13">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M13">
-        <v>0.5577</v>
+        <v>0.5574</v>
       </c>
       <c r="N13">
-        <v>0.5659999999999999</v>
+        <v>0.5728</v>
       </c>
     </row>
     <row r="14">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1073,19 +1073,19 @@
         </is>
       </c>
       <c r="J14">
-        <v>2456</v>
+        <v>2503</v>
       </c>
       <c r="K14">
-        <v>1672</v>
+        <v>1701</v>
       </c>
       <c r="L14">
-        <v>1106</v>
+        <v>1148</v>
       </c>
       <c r="M14">
-        <v>0.6808</v>
+        <v>0.6796</v>
       </c>
       <c r="N14">
-        <v>0.4503</v>
+        <v>0.4586</v>
       </c>
     </row>
     <row r="15">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1125,19 +1125,19 @@
         </is>
       </c>
       <c r="J15">
-        <v>8698</v>
+        <v>8936</v>
       </c>
       <c r="K15">
-        <v>6076</v>
+        <v>6251</v>
       </c>
       <c r="L15">
-        <v>4359</v>
+        <v>4581</v>
       </c>
       <c r="M15">
-        <v>0.6986</v>
+        <v>0.6995</v>
       </c>
       <c r="N15">
-        <v>0.5011</v>
+        <v>0.5125999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1171,19 +1171,19 @@
         </is>
       </c>
       <c r="J16">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="K16">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L16">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="M16">
-        <v>0.5829</v>
+        <v>0.5848</v>
       </c>
       <c r="N16">
-        <v>0.4605</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="17">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1223,19 +1223,19 @@
         </is>
       </c>
       <c r="J17">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="K17">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="L17">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="M17">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="N17">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="18">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1275,19 +1275,19 @@
         </is>
       </c>
       <c r="J18">
-        <v>1607</v>
+        <v>1629</v>
       </c>
       <c r="K18">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="L18">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="M18">
-        <v>0.6845</v>
+        <v>0.6869</v>
       </c>
       <c r="N18">
-        <v>0.6185</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="19">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1327,19 +1327,19 @@
         </is>
       </c>
       <c r="J19">
-        <v>1335</v>
+        <v>1375</v>
       </c>
       <c r="K19">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="L19">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="M19">
         <v>0.5273</v>
       </c>
       <c r="N19">
-        <v>0.4652</v>
+        <v>0.4807</v>
       </c>
     </row>
     <row r="20">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="J20">
-        <v>21092</v>
+        <v>21291</v>
       </c>
       <c r="K20">
-        <v>15024</v>
+        <v>15199</v>
       </c>
       <c r="L20">
-        <v>8869</v>
+        <v>9138</v>
       </c>
       <c r="M20">
-        <v>0.7123</v>
+        <v>0.7139</v>
       </c>
       <c r="N20">
-        <v>0.4205</v>
+        <v>0.4292</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1431,19 +1431,19 @@
         </is>
       </c>
       <c r="J21">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K21">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L21">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M21">
-        <v>0.5416</v>
+        <v>0.5409</v>
       </c>
       <c r="N21">
-        <v>0.57</v>
+        <v>0.5868</v>
       </c>
     </row>
     <row r="22">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1483,19 +1483,19 @@
         </is>
       </c>
       <c r="J22">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="K22">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="L22">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="M22">
-        <v>0.5813</v>
+        <v>0.58</v>
       </c>
       <c r="N22">
-        <v>0.4572</v>
+        <v>0.4668</v>
       </c>
     </row>
     <row r="23">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1535,19 +1535,19 @@
         </is>
       </c>
       <c r="J23">
-        <v>2624</v>
+        <v>2672</v>
       </c>
       <c r="K23">
-        <v>1645</v>
+        <v>1671</v>
       </c>
       <c r="L23">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="M23">
-        <v>0.6269</v>
+        <v>0.6254</v>
       </c>
       <c r="N23">
-        <v>0.4043</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="24">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1587,19 +1587,19 @@
         </is>
       </c>
       <c r="J24">
-        <v>6497</v>
+        <v>6582</v>
       </c>
       <c r="K24">
-        <v>4403</v>
+        <v>4461</v>
       </c>
       <c r="L24">
-        <v>3933</v>
+        <v>4045</v>
       </c>
       <c r="M24">
-        <v>0.6777</v>
+        <v>0.6778</v>
       </c>
       <c r="N24">
-        <v>0.6054</v>
+        <v>0.6146</v>
       </c>
     </row>
     <row r="25">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1639,19 +1639,19 @@
         </is>
       </c>
       <c r="J25">
-        <v>1460</v>
+        <v>1506</v>
       </c>
       <c r="K25">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="L25">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="M25">
-        <v>0.6795</v>
+        <v>0.6813</v>
       </c>
       <c r="N25">
-        <v>0.5829</v>
+        <v>0.6016</v>
       </c>
     </row>
     <row r="26">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1691,19 +1691,19 @@
         </is>
       </c>
       <c r="J26">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="K26">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L26">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="M26">
-        <v>0.5654</v>
+        <v>0.5653</v>
       </c>
       <c r="N26">
-        <v>0.5412</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="27">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1743,19 +1743,19 @@
         </is>
       </c>
       <c r="J27">
-        <v>4800</v>
+        <v>5023</v>
       </c>
       <c r="K27">
-        <v>2949</v>
+        <v>3078</v>
       </c>
       <c r="L27">
-        <v>2087</v>
+        <v>2234</v>
       </c>
       <c r="M27">
-        <v>0.6143999999999999</v>
+        <v>0.6128</v>
       </c>
       <c r="N27">
-        <v>0.4348</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="28">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1795,19 +1795,19 @@
         </is>
       </c>
       <c r="J28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L28">
         <v>2</v>
       </c>
       <c r="M28">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="N28">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1847,19 +1847,19 @@
         </is>
       </c>
       <c r="J29">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="K29">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="L29">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="M29">
-        <v>0.6408</v>
+        <v>0.6418</v>
       </c>
       <c r="N29">
-        <v>0.4933</v>
+        <v>0.5021</v>
       </c>
     </row>
     <row r="30">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1899,19 +1899,19 @@
         </is>
       </c>
       <c r="J30">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="K30">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L30">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="M30">
-        <v>0.5423</v>
+        <v>0.5571</v>
       </c>
       <c r="N30">
-        <v>0.5485</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="31">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1951,19 +1951,19 @@
         </is>
       </c>
       <c r="J31">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="K31">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L31">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M31">
-        <v>0.5577</v>
+        <v>0.5574</v>
       </c>
       <c r="N31">
-        <v>0.5659999999999999</v>
+        <v>0.5728</v>
       </c>
     </row>
     <row r="32">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2003,19 +2003,19 @@
         </is>
       </c>
       <c r="J32">
-        <v>2456</v>
+        <v>2503</v>
       </c>
       <c r="K32">
-        <v>1672</v>
+        <v>1701</v>
       </c>
       <c r="L32">
-        <v>1106</v>
+        <v>1148</v>
       </c>
       <c r="M32">
-        <v>0.6808</v>
+        <v>0.6796</v>
       </c>
       <c r="N32">
-        <v>0.4503</v>
+        <v>0.4586</v>
       </c>
     </row>
     <row r="33">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2055,19 +2055,19 @@
         </is>
       </c>
       <c r="J33">
-        <v>8698</v>
+        <v>8936</v>
       </c>
       <c r="K33">
-        <v>6076</v>
+        <v>6251</v>
       </c>
       <c r="L33">
-        <v>4359</v>
+        <v>4581</v>
       </c>
       <c r="M33">
-        <v>0.6986</v>
+        <v>0.6995</v>
       </c>
       <c r="N33">
-        <v>0.5011</v>
+        <v>0.5125999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2107,19 +2107,19 @@
         </is>
       </c>
       <c r="J34">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="K34">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L34">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="M34">
-        <v>0.5829</v>
+        <v>0.5848</v>
       </c>
       <c r="N34">
-        <v>0.4605</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="35">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="J35">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="K35">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="L35">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="M35">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="N35">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="36">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2211,19 +2211,19 @@
         </is>
       </c>
       <c r="J36">
-        <v>1607</v>
+        <v>1629</v>
       </c>
       <c r="K36">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="L36">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="M36">
-        <v>0.6845</v>
+        <v>0.6869</v>
       </c>
       <c r="N36">
-        <v>0.6185</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="37">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2263,19 +2263,19 @@
         </is>
       </c>
       <c r="J37">
-        <v>1335</v>
+        <v>1375</v>
       </c>
       <c r="K37">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="L37">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="M37">
         <v>0.5273</v>
       </c>
       <c r="N37">
-        <v>0.4652</v>
+        <v>0.4807</v>
       </c>
     </row>
     <row r="38">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="J38">
-        <v>8698</v>
+        <v>8936</v>
       </c>
       <c r="K38">
-        <v>6076</v>
+        <v>6251</v>
       </c>
       <c r="L38">
-        <v>4359</v>
+        <v>4581</v>
       </c>
       <c r="M38">
-        <v>0.6986</v>
+        <v>0.6995</v>
       </c>
       <c r="N38">
-        <v>0.5011</v>
+        <v>0.5125999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2367,19 +2367,19 @@
         </is>
       </c>
       <c r="J39">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="K39">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L39">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="M39">
-        <v>0.5829</v>
+        <v>0.5848</v>
       </c>
       <c r="N39">
-        <v>0.4605</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="40">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2419,19 +2419,19 @@
         </is>
       </c>
       <c r="J40">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="K40">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="L40">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="M40">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="N40">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="41">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2471,19 +2471,19 @@
         </is>
       </c>
       <c r="J41">
-        <v>1607</v>
+        <v>1629</v>
       </c>
       <c r="K41">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="L41">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="M41">
-        <v>0.6845</v>
+        <v>0.6869</v>
       </c>
       <c r="N41">
-        <v>0.6185</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="42">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2523,19 +2523,19 @@
         </is>
       </c>
       <c r="J42">
-        <v>1335</v>
+        <v>1375</v>
       </c>
       <c r="K42">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="L42">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="M42">
         <v>0.5273</v>
       </c>
       <c r="N42">
-        <v>0.4652</v>
+        <v>0.4807</v>
       </c>
     </row>
     <row r="43">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2575,19 +2575,19 @@
         </is>
       </c>
       <c r="J43">
-        <v>21092</v>
+        <v>21291</v>
       </c>
       <c r="K43">
-        <v>15024</v>
+        <v>15199</v>
       </c>
       <c r="L43">
-        <v>8869</v>
+        <v>9138</v>
       </c>
       <c r="M43">
-        <v>0.7123</v>
+        <v>0.7139</v>
       </c>
       <c r="N43">
-        <v>0.4205</v>
+        <v>0.4292</v>
       </c>
     </row>
     <row r="44">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2627,19 +2627,19 @@
         </is>
       </c>
       <c r="J44">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K44">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L44">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M44">
-        <v>0.5416</v>
+        <v>0.5409</v>
       </c>
       <c r="N44">
-        <v>0.57</v>
+        <v>0.5868</v>
       </c>
     </row>
     <row r="45">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2679,19 +2679,19 @@
         </is>
       </c>
       <c r="J45">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="K45">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="L45">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="M45">
-        <v>0.5813</v>
+        <v>0.58</v>
       </c>
       <c r="N45">
-        <v>0.4572</v>
+        <v>0.4668</v>
       </c>
     </row>
     <row r="46">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2731,19 +2731,19 @@
         </is>
       </c>
       <c r="J46">
-        <v>2624</v>
+        <v>2672</v>
       </c>
       <c r="K46">
-        <v>1645</v>
+        <v>1671</v>
       </c>
       <c r="L46">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="M46">
-        <v>0.6269</v>
+        <v>0.6254</v>
       </c>
       <c r="N46">
-        <v>0.4043</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="47">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2783,19 +2783,19 @@
         </is>
       </c>
       <c r="J47">
-        <v>6497</v>
+        <v>6582</v>
       </c>
       <c r="K47">
-        <v>4403</v>
+        <v>4461</v>
       </c>
       <c r="L47">
-        <v>3933</v>
+        <v>4045</v>
       </c>
       <c r="M47">
-        <v>0.6777</v>
+        <v>0.6778</v>
       </c>
       <c r="N47">
-        <v>0.6054</v>
+        <v>0.6146</v>
       </c>
     </row>
     <row r="48">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2835,19 +2835,19 @@
         </is>
       </c>
       <c r="J48">
-        <v>1460</v>
+        <v>1506</v>
       </c>
       <c r="K48">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="L48">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="M48">
-        <v>0.6795</v>
+        <v>0.6813</v>
       </c>
       <c r="N48">
-        <v>0.5829</v>
+        <v>0.6016</v>
       </c>
     </row>
     <row r="49">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2887,19 +2887,19 @@
         </is>
       </c>
       <c r="J49">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="K49">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L49">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="M49">
-        <v>0.5654</v>
+        <v>0.5653</v>
       </c>
       <c r="N49">
-        <v>0.5412</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="50">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2939,19 +2939,19 @@
         </is>
       </c>
       <c r="J50">
-        <v>4800</v>
+        <v>5023</v>
       </c>
       <c r="K50">
-        <v>2949</v>
+        <v>3078</v>
       </c>
       <c r="L50">
-        <v>2087</v>
+        <v>2234</v>
       </c>
       <c r="M50">
-        <v>0.6143999999999999</v>
+        <v>0.6128</v>
       </c>
       <c r="N50">
-        <v>0.4348</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="51">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2985,19 +2985,19 @@
         </is>
       </c>
       <c r="J51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L51">
         <v>2</v>
       </c>
       <c r="M51">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="N51">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="52">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3037,19 +3037,19 @@
         </is>
       </c>
       <c r="J52">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="K52">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="L52">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="M52">
-        <v>0.6408</v>
+        <v>0.6418</v>
       </c>
       <c r="N52">
-        <v>0.4933</v>
+        <v>0.5021</v>
       </c>
     </row>
     <row r="53">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3089,19 +3089,19 @@
         </is>
       </c>
       <c r="J53">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="K53">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L53">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="M53">
-        <v>0.5423</v>
+        <v>0.5571</v>
       </c>
       <c r="N53">
-        <v>0.5485</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="54">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3141,19 +3141,19 @@
         </is>
       </c>
       <c r="J54">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="K54">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L54">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M54">
-        <v>0.5577</v>
+        <v>0.5574</v>
       </c>
       <c r="N54">
-        <v>0.5659999999999999</v>
+        <v>0.5728</v>
       </c>
     </row>
     <row r="55">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3193,19 +3193,19 @@
         </is>
       </c>
       <c r="J55">
-        <v>2456</v>
+        <v>2503</v>
       </c>
       <c r="K55">
-        <v>1672</v>
+        <v>1701</v>
       </c>
       <c r="L55">
-        <v>1106</v>
+        <v>1148</v>
       </c>
       <c r="M55">
-        <v>0.6808</v>
+        <v>0.6796</v>
       </c>
       <c r="N55">
-        <v>0.4503</v>
+        <v>0.4586</v>
       </c>
     </row>
     <row r="56">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3245,19 +3245,19 @@
         </is>
       </c>
       <c r="J56">
-        <v>21092</v>
+        <v>21291</v>
       </c>
       <c r="K56">
-        <v>15024</v>
+        <v>15199</v>
       </c>
       <c r="L56">
-        <v>8869</v>
+        <v>9138</v>
       </c>
       <c r="M56">
-        <v>0.7123</v>
+        <v>0.7139</v>
       </c>
       <c r="N56">
-        <v>0.4205</v>
+        <v>0.4292</v>
       </c>
     </row>
     <row r="57">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3297,19 +3297,19 @@
         </is>
       </c>
       <c r="J57">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K57">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L57">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M57">
-        <v>0.5416</v>
+        <v>0.5409</v>
       </c>
       <c r="N57">
-        <v>0.57</v>
+        <v>0.5868</v>
       </c>
     </row>
     <row r="58">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3349,19 +3349,19 @@
         </is>
       </c>
       <c r="J58">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="K58">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="L58">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="M58">
-        <v>0.5813</v>
+        <v>0.58</v>
       </c>
       <c r="N58">
-        <v>0.4572</v>
+        <v>0.4668</v>
       </c>
     </row>
     <row r="59">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3401,19 +3401,19 @@
         </is>
       </c>
       <c r="J59">
-        <v>2624</v>
+        <v>2672</v>
       </c>
       <c r="K59">
-        <v>1645</v>
+        <v>1671</v>
       </c>
       <c r="L59">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="M59">
-        <v>0.6269</v>
+        <v>0.6254</v>
       </c>
       <c r="N59">
-        <v>0.4043</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="60">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3453,19 +3453,19 @@
         </is>
       </c>
       <c r="J60">
-        <v>6497</v>
+        <v>6582</v>
       </c>
       <c r="K60">
-        <v>4403</v>
+        <v>4461</v>
       </c>
       <c r="L60">
-        <v>3933</v>
+        <v>4045</v>
       </c>
       <c r="M60">
-        <v>0.6777</v>
+        <v>0.6778</v>
       </c>
       <c r="N60">
-        <v>0.6054</v>
+        <v>0.6146</v>
       </c>
     </row>
     <row r="61">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3505,19 +3505,19 @@
         </is>
       </c>
       <c r="J61">
-        <v>1460</v>
+        <v>1506</v>
       </c>
       <c r="K61">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="L61">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="M61">
-        <v>0.6795</v>
+        <v>0.6813</v>
       </c>
       <c r="N61">
-        <v>0.5829</v>
+        <v>0.6016</v>
       </c>
     </row>
     <row r="62">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3557,19 +3557,19 @@
         </is>
       </c>
       <c r="J62">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="K62">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L62">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="M62">
-        <v>0.5654</v>
+        <v>0.5653</v>
       </c>
       <c r="N62">
-        <v>0.5412</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="63">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3609,19 +3609,19 @@
         </is>
       </c>
       <c r="J63">
-        <v>4800</v>
+        <v>5023</v>
       </c>
       <c r="K63">
-        <v>2949</v>
+        <v>3078</v>
       </c>
       <c r="L63">
-        <v>2087</v>
+        <v>2234</v>
       </c>
       <c r="M63">
-        <v>0.6143999999999999</v>
+        <v>0.6128</v>
       </c>
       <c r="N63">
-        <v>0.4348</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="64">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3655,19 +3655,19 @@
         </is>
       </c>
       <c r="J64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L64">
         <v>2</v>
       </c>
       <c r="M64">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="N64">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="65">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3707,19 +3707,19 @@
         </is>
       </c>
       <c r="J65">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="K65">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="L65">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="M65">
-        <v>0.6408</v>
+        <v>0.6418</v>
       </c>
       <c r="N65">
-        <v>0.4933</v>
+        <v>0.5021</v>
       </c>
     </row>
     <row r="66">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3759,19 +3759,19 @@
         </is>
       </c>
       <c r="J66">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="K66">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L66">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="M66">
-        <v>0.5423</v>
+        <v>0.5571</v>
       </c>
       <c r="N66">
-        <v>0.5485</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="67">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3811,19 +3811,19 @@
         </is>
       </c>
       <c r="J67">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="K67">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L67">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M67">
-        <v>0.5577</v>
+        <v>0.5574</v>
       </c>
       <c r="N67">
-        <v>0.5659999999999999</v>
+        <v>0.5728</v>
       </c>
     </row>
     <row r="68">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3863,19 +3863,19 @@
         </is>
       </c>
       <c r="J68">
-        <v>2456</v>
+        <v>2503</v>
       </c>
       <c r="K68">
-        <v>1672</v>
+        <v>1701</v>
       </c>
       <c r="L68">
-        <v>1106</v>
+        <v>1148</v>
       </c>
       <c r="M68">
-        <v>0.6808</v>
+        <v>0.6796</v>
       </c>
       <c r="N68">
-        <v>0.4503</v>
+        <v>0.4586</v>
       </c>
     </row>
     <row r="69">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3915,19 +3915,19 @@
         </is>
       </c>
       <c r="J69">
-        <v>8698</v>
+        <v>8936</v>
       </c>
       <c r="K69">
-        <v>6076</v>
+        <v>6251</v>
       </c>
       <c r="L69">
-        <v>4359</v>
+        <v>4581</v>
       </c>
       <c r="M69">
-        <v>0.6986</v>
+        <v>0.6995</v>
       </c>
       <c r="N69">
-        <v>0.5011</v>
+        <v>0.5125999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3967,19 +3967,19 @@
         </is>
       </c>
       <c r="J70">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="K70">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L70">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="M70">
-        <v>0.5829</v>
+        <v>0.5848</v>
       </c>
       <c r="N70">
-        <v>0.4605</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="71">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4019,19 +4019,19 @@
         </is>
       </c>
       <c r="J71">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="K71">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="L71">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="M71">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="N71">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="72">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4071,19 +4071,19 @@
         </is>
       </c>
       <c r="J72">
-        <v>1607</v>
+        <v>1629</v>
       </c>
       <c r="K72">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="L72">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="M72">
-        <v>0.6845</v>
+        <v>0.6869</v>
       </c>
       <c r="N72">
-        <v>0.6185</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="73">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4123,19 +4123,19 @@
         </is>
       </c>
       <c r="J73">
-        <v>1335</v>
+        <v>1375</v>
       </c>
       <c r="K73">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="L73">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="M73">
         <v>0.5273</v>
       </c>
       <c r="N73">
-        <v>0.4652</v>
+        <v>0.4807</v>
       </c>
     </row>
     <row r="74">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4175,19 +4175,19 @@
         </is>
       </c>
       <c r="J74">
-        <v>8698</v>
+        <v>8936</v>
       </c>
       <c r="K74">
-        <v>6076</v>
+        <v>6251</v>
       </c>
       <c r="L74">
-        <v>4359</v>
+        <v>4581</v>
       </c>
       <c r="M74">
-        <v>0.6986</v>
+        <v>0.6995</v>
       </c>
       <c r="N74">
-        <v>0.5011</v>
+        <v>0.5125999999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4227,19 +4227,19 @@
         </is>
       </c>
       <c r="J75">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="K75">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L75">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="M75">
-        <v>0.5829</v>
+        <v>0.5848</v>
       </c>
       <c r="N75">
-        <v>0.4605</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="76">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4279,19 +4279,19 @@
         </is>
       </c>
       <c r="J76">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="K76">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="L76">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="M76">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="N76">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="77">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4331,19 +4331,19 @@
         </is>
       </c>
       <c r="J77">
-        <v>1607</v>
+        <v>1629</v>
       </c>
       <c r="K77">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="L77">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="M77">
-        <v>0.6845</v>
+        <v>0.6869</v>
       </c>
       <c r="N77">
-        <v>0.6185</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="78">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="J78">
-        <v>1335</v>
+        <v>1375</v>
       </c>
       <c r="K78">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="L78">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="M78">
         <v>0.5273</v>
       </c>
       <c r="N78">
-        <v>0.4652</v>
+        <v>0.4807</v>
       </c>
     </row>
     <row r="79">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4435,19 +4435,19 @@
         </is>
       </c>
       <c r="J79">
-        <v>21092</v>
+        <v>21291</v>
       </c>
       <c r="K79">
-        <v>15024</v>
+        <v>15199</v>
       </c>
       <c r="L79">
-        <v>8869</v>
+        <v>9138</v>
       </c>
       <c r="M79">
-        <v>0.7123</v>
+        <v>0.7139</v>
       </c>
       <c r="N79">
-        <v>0.4205</v>
+        <v>0.4292</v>
       </c>
     </row>
     <row r="80">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4487,19 +4487,19 @@
         </is>
       </c>
       <c r="J80">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K80">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L80">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M80">
-        <v>0.5416</v>
+        <v>0.5409</v>
       </c>
       <c r="N80">
-        <v>0.57</v>
+        <v>0.5868</v>
       </c>
     </row>
     <row r="81">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4539,19 +4539,19 @@
         </is>
       </c>
       <c r="J81">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="K81">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="L81">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="M81">
-        <v>0.5813</v>
+        <v>0.58</v>
       </c>
       <c r="N81">
-        <v>0.4572</v>
+        <v>0.4668</v>
       </c>
     </row>
     <row r="82">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4591,19 +4591,19 @@
         </is>
       </c>
       <c r="J82">
-        <v>2624</v>
+        <v>2672</v>
       </c>
       <c r="K82">
-        <v>1645</v>
+        <v>1671</v>
       </c>
       <c r="L82">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="M82">
-        <v>0.6269</v>
+        <v>0.6254</v>
       </c>
       <c r="N82">
-        <v>0.4043</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="83">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4643,19 +4643,19 @@
         </is>
       </c>
       <c r="J83">
-        <v>6497</v>
+        <v>6582</v>
       </c>
       <c r="K83">
-        <v>4403</v>
+        <v>4461</v>
       </c>
       <c r="L83">
-        <v>3933</v>
+        <v>4045</v>
       </c>
       <c r="M83">
-        <v>0.6777</v>
+        <v>0.6778</v>
       </c>
       <c r="N83">
-        <v>0.6054</v>
+        <v>0.6146</v>
       </c>
     </row>
     <row r="84">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4695,19 +4695,19 @@
         </is>
       </c>
       <c r="J84">
-        <v>1460</v>
+        <v>1506</v>
       </c>
       <c r="K84">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="L84">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="M84">
-        <v>0.6795</v>
+        <v>0.6813</v>
       </c>
       <c r="N84">
-        <v>0.5829</v>
+        <v>0.6016</v>
       </c>
     </row>
     <row r="85">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4747,19 +4747,19 @@
         </is>
       </c>
       <c r="J85">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="K85">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L85">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="M85">
-        <v>0.5654</v>
+        <v>0.5653</v>
       </c>
       <c r="N85">
-        <v>0.5412</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="86">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4799,19 +4799,19 @@
         </is>
       </c>
       <c r="J86">
-        <v>4800</v>
+        <v>5023</v>
       </c>
       <c r="K86">
-        <v>2949</v>
+        <v>3078</v>
       </c>
       <c r="L86">
-        <v>2087</v>
+        <v>2234</v>
       </c>
       <c r="M86">
-        <v>0.6143999999999999</v>
+        <v>0.6128</v>
       </c>
       <c r="N86">
-        <v>0.4348</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="87">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4845,19 +4845,19 @@
         </is>
       </c>
       <c r="J87">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L87">
         <v>2</v>
       </c>
       <c r="M87">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="N87">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="88">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4897,19 +4897,19 @@
         </is>
       </c>
       <c r="J88">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="K88">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="L88">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="M88">
-        <v>0.6408</v>
+        <v>0.6418</v>
       </c>
       <c r="N88">
-        <v>0.4933</v>
+        <v>0.5021</v>
       </c>
     </row>
     <row r="89">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4949,19 +4949,19 @@
         </is>
       </c>
       <c r="J89">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="K89">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L89">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="M89">
-        <v>0.5423</v>
+        <v>0.5571</v>
       </c>
       <c r="N89">
-        <v>0.5485</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="90">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5001,19 +5001,19 @@
         </is>
       </c>
       <c r="J90">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="K90">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L90">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M90">
-        <v>0.5577</v>
+        <v>0.5574</v>
       </c>
       <c r="N90">
-        <v>0.5659999999999999</v>
+        <v>0.5728</v>
       </c>
     </row>
     <row r="91">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5053,19 +5053,19 @@
         </is>
       </c>
       <c r="J91">
-        <v>2456</v>
+        <v>2503</v>
       </c>
       <c r="K91">
-        <v>1672</v>
+        <v>1701</v>
       </c>
       <c r="L91">
-        <v>1106</v>
+        <v>1148</v>
       </c>
       <c r="M91">
-        <v>0.6808</v>
+        <v>0.6796</v>
       </c>
       <c r="N91">
-        <v>0.4503</v>
+        <v>0.4586</v>
       </c>
     </row>
     <row r="92">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5105,19 +5105,19 @@
         </is>
       </c>
       <c r="J92">
-        <v>21092</v>
+        <v>21291</v>
       </c>
       <c r="K92">
-        <v>15024</v>
+        <v>15199</v>
       </c>
       <c r="L92">
-        <v>8869</v>
+        <v>9138</v>
       </c>
       <c r="M92">
-        <v>0.7123</v>
+        <v>0.7139</v>
       </c>
       <c r="N92">
-        <v>0.4205</v>
+        <v>0.4292</v>
       </c>
     </row>
     <row r="93">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5157,19 +5157,19 @@
         </is>
       </c>
       <c r="J93">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K93">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L93">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M93">
-        <v>0.5416</v>
+        <v>0.5409</v>
       </c>
       <c r="N93">
-        <v>0.57</v>
+        <v>0.5868</v>
       </c>
     </row>
     <row r="94">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5209,19 +5209,19 @@
         </is>
       </c>
       <c r="J94">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="K94">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="L94">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="M94">
-        <v>0.5813</v>
+        <v>0.58</v>
       </c>
       <c r="N94">
-        <v>0.4572</v>
+        <v>0.4668</v>
       </c>
     </row>
     <row r="95">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5261,19 +5261,19 @@
         </is>
       </c>
       <c r="J95">
-        <v>2624</v>
+        <v>2672</v>
       </c>
       <c r="K95">
-        <v>1645</v>
+        <v>1671</v>
       </c>
       <c r="L95">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="M95">
-        <v>0.6269</v>
+        <v>0.6254</v>
       </c>
       <c r="N95">
-        <v>0.4043</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="96">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5313,19 +5313,19 @@
         </is>
       </c>
       <c r="J96">
-        <v>6497</v>
+        <v>6582</v>
       </c>
       <c r="K96">
-        <v>4403</v>
+        <v>4461</v>
       </c>
       <c r="L96">
-        <v>3933</v>
+        <v>4045</v>
       </c>
       <c r="M96">
-        <v>0.6777</v>
+        <v>0.6778</v>
       </c>
       <c r="N96">
-        <v>0.6054</v>
+        <v>0.6146</v>
       </c>
     </row>
     <row r="97">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5365,19 +5365,19 @@
         </is>
       </c>
       <c r="J97">
-        <v>1460</v>
+        <v>1506</v>
       </c>
       <c r="K97">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="L97">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="M97">
-        <v>0.6795</v>
+        <v>0.6813</v>
       </c>
       <c r="N97">
-        <v>0.5829</v>
+        <v>0.6016</v>
       </c>
     </row>
     <row r="98">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5417,19 +5417,19 @@
         </is>
       </c>
       <c r="J98">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="K98">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L98">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="M98">
-        <v>0.5654</v>
+        <v>0.5653</v>
       </c>
       <c r="N98">
-        <v>0.5412</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="99">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5469,19 +5469,19 @@
         </is>
       </c>
       <c r="J99">
-        <v>4800</v>
+        <v>5023</v>
       </c>
       <c r="K99">
-        <v>2949</v>
+        <v>3078</v>
       </c>
       <c r="L99">
-        <v>2087</v>
+        <v>2234</v>
       </c>
       <c r="M99">
-        <v>0.6143999999999999</v>
+        <v>0.6128</v>
       </c>
       <c r="N99">
-        <v>0.4348</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="100">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5515,19 +5515,19 @@
         </is>
       </c>
       <c r="J100">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L100">
         <v>2</v>
       </c>
       <c r="M100">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="N100">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="101">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5567,19 +5567,19 @@
         </is>
       </c>
       <c r="J101">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="K101">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="L101">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="M101">
-        <v>0.6408</v>
+        <v>0.6418</v>
       </c>
       <c r="N101">
-        <v>0.4933</v>
+        <v>0.5021</v>
       </c>
     </row>
     <row r="102">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5619,19 +5619,19 @@
         </is>
       </c>
       <c r="J102">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="K102">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L102">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="M102">
-        <v>0.5423</v>
+        <v>0.5571</v>
       </c>
       <c r="N102">
-        <v>0.5485</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="103">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5671,19 +5671,19 @@
         </is>
       </c>
       <c r="J103">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="K103">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L103">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M103">
-        <v>0.5577</v>
+        <v>0.5574</v>
       </c>
       <c r="N103">
-        <v>0.5659999999999999</v>
+        <v>0.5728</v>
       </c>
     </row>
     <row r="104">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5723,19 +5723,19 @@
         </is>
       </c>
       <c r="J104">
-        <v>2456</v>
+        <v>2503</v>
       </c>
       <c r="K104">
-        <v>1672</v>
+        <v>1701</v>
       </c>
       <c r="L104">
-        <v>1106</v>
+        <v>1148</v>
       </c>
       <c r="M104">
-        <v>0.6808</v>
+        <v>0.6796</v>
       </c>
       <c r="N104">
-        <v>0.4503</v>
+        <v>0.4586</v>
       </c>
     </row>
     <row r="105">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5775,19 +5775,19 @@
         </is>
       </c>
       <c r="J105">
-        <v>8698</v>
+        <v>8936</v>
       </c>
       <c r="K105">
-        <v>6076</v>
+        <v>6251</v>
       </c>
       <c r="L105">
-        <v>4359</v>
+        <v>4581</v>
       </c>
       <c r="M105">
-        <v>0.6986</v>
+        <v>0.6995</v>
       </c>
       <c r="N105">
-        <v>0.5011</v>
+        <v>0.5125999999999999</v>
       </c>
     </row>
     <row r="106">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5827,19 +5827,19 @@
         </is>
       </c>
       <c r="J106">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="K106">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L106">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="M106">
-        <v>0.5829</v>
+        <v>0.5848</v>
       </c>
       <c r="N106">
-        <v>0.4605</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="107">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -5879,19 +5879,19 @@
         </is>
       </c>
       <c r="J107">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="K107">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="L107">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="M107">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="N107">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="108">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5931,19 +5931,19 @@
         </is>
       </c>
       <c r="J108">
-        <v>1607</v>
+        <v>1629</v>
       </c>
       <c r="K108">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="L108">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="M108">
-        <v>0.6845</v>
+        <v>0.6869</v>
       </c>
       <c r="N108">
-        <v>0.6185</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="109">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5983,19 +5983,19 @@
         </is>
       </c>
       <c r="J109">
-        <v>1335</v>
+        <v>1375</v>
       </c>
       <c r="K109">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="L109">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="M109">
         <v>0.5273</v>
       </c>
       <c r="N109">
-        <v>0.4652</v>
+        <v>0.4807</v>
       </c>
     </row>
     <row r="110">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6035,19 +6035,19 @@
         </is>
       </c>
       <c r="J110">
-        <v>8698</v>
+        <v>8936</v>
       </c>
       <c r="K110">
-        <v>6076</v>
+        <v>6251</v>
       </c>
       <c r="L110">
-        <v>4359</v>
+        <v>4581</v>
       </c>
       <c r="M110">
-        <v>0.6986</v>
+        <v>0.6995</v>
       </c>
       <c r="N110">
-        <v>0.5011</v>
+        <v>0.5125999999999999</v>
       </c>
     </row>
     <row r="111">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6087,19 +6087,19 @@
         </is>
       </c>
       <c r="J111">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="K111">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L111">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="M111">
-        <v>0.5829</v>
+        <v>0.5848</v>
       </c>
       <c r="N111">
-        <v>0.4605</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="112">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6139,19 +6139,19 @@
         </is>
       </c>
       <c r="J112">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="K112">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="L112">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="M112">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="N112">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="113">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6191,19 +6191,19 @@
         </is>
       </c>
       <c r="J113">
-        <v>1607</v>
+        <v>1629</v>
       </c>
       <c r="K113">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="L113">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="M113">
-        <v>0.6845</v>
+        <v>0.6869</v>
       </c>
       <c r="N113">
-        <v>0.6185</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="114">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6243,19 +6243,19 @@
         </is>
       </c>
       <c r="J114">
-        <v>1335</v>
+        <v>1375</v>
       </c>
       <c r="K114">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="L114">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="M114">
         <v>0.5273</v>
       </c>
       <c r="N114">
-        <v>0.4652</v>
+        <v>0.4807</v>
       </c>
     </row>
     <row r="115">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6295,19 +6295,19 @@
         </is>
       </c>
       <c r="J115">
-        <v>21092</v>
+        <v>21291</v>
       </c>
       <c r="K115">
-        <v>15024</v>
+        <v>15199</v>
       </c>
       <c r="L115">
-        <v>8869</v>
+        <v>9138</v>
       </c>
       <c r="M115">
-        <v>0.7123</v>
+        <v>0.7139</v>
       </c>
       <c r="N115">
-        <v>0.4205</v>
+        <v>0.4292</v>
       </c>
     </row>
     <row r="116">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6347,19 +6347,19 @@
         </is>
       </c>
       <c r="J116">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K116">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L116">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M116">
-        <v>0.5416</v>
+        <v>0.5409</v>
       </c>
       <c r="N116">
-        <v>0.57</v>
+        <v>0.5868</v>
       </c>
     </row>
     <row r="117">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6399,19 +6399,19 @@
         </is>
       </c>
       <c r="J117">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="K117">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="L117">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="M117">
-        <v>0.5813</v>
+        <v>0.58</v>
       </c>
       <c r="N117">
-        <v>0.4572</v>
+        <v>0.4668</v>
       </c>
     </row>
     <row r="118">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6451,19 +6451,19 @@
         </is>
       </c>
       <c r="J118">
-        <v>2624</v>
+        <v>2672</v>
       </c>
       <c r="K118">
-        <v>1645</v>
+        <v>1671</v>
       </c>
       <c r="L118">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="M118">
-        <v>0.6269</v>
+        <v>0.6254</v>
       </c>
       <c r="N118">
-        <v>0.4043</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="119">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6503,19 +6503,19 @@
         </is>
       </c>
       <c r="J119">
-        <v>6497</v>
+        <v>6582</v>
       </c>
       <c r="K119">
-        <v>4403</v>
+        <v>4461</v>
       </c>
       <c r="L119">
-        <v>3933</v>
+        <v>4045</v>
       </c>
       <c r="M119">
-        <v>0.6777</v>
+        <v>0.6778</v>
       </c>
       <c r="N119">
-        <v>0.6054</v>
+        <v>0.6146</v>
       </c>
     </row>
     <row r="120">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6555,19 +6555,19 @@
         </is>
       </c>
       <c r="J120">
-        <v>1460</v>
+        <v>1506</v>
       </c>
       <c r="K120">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="L120">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="M120">
-        <v>0.6795</v>
+        <v>0.6813</v>
       </c>
       <c r="N120">
-        <v>0.5829</v>
+        <v>0.6016</v>
       </c>
     </row>
     <row r="121">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="J121">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="K121">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L121">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="M121">
-        <v>0.5654</v>
+        <v>0.5653</v>
       </c>
       <c r="N121">
-        <v>0.5412</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="122">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6659,19 +6659,19 @@
         </is>
       </c>
       <c r="J122">
-        <v>4800</v>
+        <v>5023</v>
       </c>
       <c r="K122">
-        <v>2949</v>
+        <v>3078</v>
       </c>
       <c r="L122">
-        <v>2087</v>
+        <v>2234</v>
       </c>
       <c r="M122">
-        <v>0.6143999999999999</v>
+        <v>0.6128</v>
       </c>
       <c r="N122">
-        <v>0.4348</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="123">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6705,19 +6705,19 @@
         </is>
       </c>
       <c r="J123">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K123">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L123">
         <v>2</v>
       </c>
       <c r="M123">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="N123">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="124">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6757,19 +6757,19 @@
         </is>
       </c>
       <c r="J124">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="K124">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="L124">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="M124">
-        <v>0.6408</v>
+        <v>0.6418</v>
       </c>
       <c r="N124">
-        <v>0.4933</v>
+        <v>0.5021</v>
       </c>
     </row>
     <row r="125">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6809,19 +6809,19 @@
         </is>
       </c>
       <c r="J125">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="K125">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L125">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="M125">
-        <v>0.5423</v>
+        <v>0.5571</v>
       </c>
       <c r="N125">
-        <v>0.5485</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="126">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -6861,19 +6861,19 @@
         </is>
       </c>
       <c r="J126">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="K126">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L126">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M126">
-        <v>0.5577</v>
+        <v>0.5574</v>
       </c>
       <c r="N126">
-        <v>0.5659999999999999</v>
+        <v>0.5728</v>
       </c>
     </row>
     <row r="127">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="J127">
-        <v>2456</v>
+        <v>2503</v>
       </c>
       <c r="K127">
-        <v>1672</v>
+        <v>1701</v>
       </c>
       <c r="L127">
-        <v>1106</v>
+        <v>1148</v>
       </c>
       <c r="M127">
-        <v>0.6808</v>
+        <v>0.6796</v>
       </c>
       <c r="N127">
-        <v>0.4503</v>
+        <v>0.4586</v>
       </c>
     </row>
     <row r="128">
@@ -6956,7 +6956,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6965,19 +6965,19 @@
         </is>
       </c>
       <c r="J128">
-        <v>21092</v>
+        <v>21291</v>
       </c>
       <c r="K128">
-        <v>15024</v>
+        <v>15199</v>
       </c>
       <c r="L128">
-        <v>8869</v>
+        <v>9138</v>
       </c>
       <c r="M128">
-        <v>0.7123</v>
+        <v>0.7139</v>
       </c>
       <c r="N128">
-        <v>0.4205</v>
+        <v>0.4292</v>
       </c>
     </row>
     <row r="129">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7017,19 +7017,19 @@
         </is>
       </c>
       <c r="J129">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K129">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L129">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M129">
-        <v>0.5416</v>
+        <v>0.5409</v>
       </c>
       <c r="N129">
-        <v>0.57</v>
+        <v>0.5868</v>
       </c>
     </row>
     <row r="130">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="J130">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="K130">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="L130">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="M130">
-        <v>0.5813</v>
+        <v>0.58</v>
       </c>
       <c r="N130">
-        <v>0.4572</v>
+        <v>0.4668</v>
       </c>
     </row>
     <row r="131">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7121,19 +7121,19 @@
         </is>
       </c>
       <c r="J131">
-        <v>2624</v>
+        <v>2672</v>
       </c>
       <c r="K131">
-        <v>1645</v>
+        <v>1671</v>
       </c>
       <c r="L131">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="M131">
-        <v>0.6269</v>
+        <v>0.6254</v>
       </c>
       <c r="N131">
-        <v>0.4043</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="132">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7173,19 +7173,19 @@
         </is>
       </c>
       <c r="J132">
-        <v>6497</v>
+        <v>6582</v>
       </c>
       <c r="K132">
-        <v>4403</v>
+        <v>4461</v>
       </c>
       <c r="L132">
-        <v>3933</v>
+        <v>4045</v>
       </c>
       <c r="M132">
-        <v>0.6777</v>
+        <v>0.6778</v>
       </c>
       <c r="N132">
-        <v>0.6054</v>
+        <v>0.6146</v>
       </c>
     </row>
     <row r="133">
@@ -7210,7 +7210,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7219,19 +7219,19 @@
         </is>
       </c>
       <c r="J133">
+        <v>7</v>
+      </c>
+      <c r="K133">
+        <v>5</v>
+      </c>
+      <c r="L133">
         <v>6</v>
       </c>
-      <c r="K133">
-        <v>4</v>
-      </c>
-      <c r="L133">
-        <v>5</v>
-      </c>
       <c r="M133">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="N133">
-        <v>0.8333</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="134">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7271,19 +7271,19 @@
         </is>
       </c>
       <c r="J134">
-        <v>1460</v>
+        <v>1506</v>
       </c>
       <c r="K134">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="L134">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="M134">
-        <v>0.6795</v>
+        <v>0.6813</v>
       </c>
       <c r="N134">
-        <v>0.5829</v>
+        <v>0.6016</v>
       </c>
     </row>
     <row r="135">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7323,19 +7323,19 @@
         </is>
       </c>
       <c r="J135">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="K135">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L135">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="M135">
-        <v>0.5654</v>
+        <v>0.5653</v>
       </c>
       <c r="N135">
-        <v>0.5412</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="136">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7375,19 +7375,19 @@
         </is>
       </c>
       <c r="J136">
-        <v>4800</v>
+        <v>5023</v>
       </c>
       <c r="K136">
-        <v>2949</v>
+        <v>3078</v>
       </c>
       <c r="L136">
-        <v>2087</v>
+        <v>2234</v>
       </c>
       <c r="M136">
-        <v>0.6143999999999999</v>
+        <v>0.6128</v>
       </c>
       <c r="N136">
-        <v>0.4348</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="137">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7427,13 +7427,13 @@
         <v>1</v>
       </c>
       <c r="L137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M137">
         <v>0.5</v>
       </c>
       <c r="N137">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7467,19 +7467,19 @@
         </is>
       </c>
       <c r="J138">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L138">
         <v>2</v>
       </c>
       <c r="M138">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="N138">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7559,19 +7559,19 @@
         </is>
       </c>
       <c r="J140">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="K140">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="L140">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="M140">
-        <v>0.6408</v>
+        <v>0.6418</v>
       </c>
       <c r="N140">
-        <v>0.4933</v>
+        <v>0.5021</v>
       </c>
     </row>
     <row r="141">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7651,19 +7651,19 @@
         </is>
       </c>
       <c r="J142">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="K142">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L142">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="M142">
-        <v>0.5423</v>
+        <v>0.5571</v>
       </c>
       <c r="N142">
-        <v>0.5485</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="143">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="J143">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="K143">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L143">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M143">
-        <v>0.5577</v>
+        <v>0.5574</v>
       </c>
       <c r="N143">
-        <v>0.5659999999999999</v>
+        <v>0.5728</v>
       </c>
     </row>
     <row r="144">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7755,19 +7755,19 @@
         </is>
       </c>
       <c r="J144">
-        <v>2456</v>
+        <v>2503</v>
       </c>
       <c r="K144">
-        <v>1672</v>
+        <v>1701</v>
       </c>
       <c r="L144">
-        <v>1106</v>
+        <v>1148</v>
       </c>
       <c r="M144">
-        <v>0.6808</v>
+        <v>0.6796</v>
       </c>
       <c r="N144">
-        <v>0.4503</v>
+        <v>0.4586</v>
       </c>
     </row>
     <row r="145">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7807,19 +7807,19 @@
         </is>
       </c>
       <c r="J145">
-        <v>8698</v>
+        <v>8936</v>
       </c>
       <c r="K145">
-        <v>6076</v>
+        <v>6251</v>
       </c>
       <c r="L145">
-        <v>4359</v>
+        <v>4581</v>
       </c>
       <c r="M145">
-        <v>0.6986</v>
+        <v>0.6995</v>
       </c>
       <c r="N145">
-        <v>0.5011</v>
+        <v>0.5125999999999999</v>
       </c>
     </row>
     <row r="146">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7859,19 +7859,19 @@
         </is>
       </c>
       <c r="J146">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="K146">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L146">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="M146">
-        <v>0.5829</v>
+        <v>0.5848</v>
       </c>
       <c r="N146">
-        <v>0.4605</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="147">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7911,19 +7911,19 @@
         </is>
       </c>
       <c r="J147">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="K147">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="L147">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="M147">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="N147">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="148">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7963,19 +7963,19 @@
         </is>
       </c>
       <c r="J148">
-        <v>1607</v>
+        <v>1629</v>
       </c>
       <c r="K148">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="L148">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="M148">
-        <v>0.6845</v>
+        <v>0.6869</v>
       </c>
       <c r="N148">
-        <v>0.6185</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="149">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8067,13 +8067,13 @@
         <v>8</v>
       </c>
       <c r="L150">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M150">
         <v>0.3478</v>
       </c>
       <c r="N150">
-        <v>0.6957</v>
+        <v>0.7826</v>
       </c>
     </row>
     <row r="151">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -8113,19 +8113,19 @@
         </is>
       </c>
       <c r="J151">
-        <v>1335</v>
+        <v>1375</v>
       </c>
       <c r="K151">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="L151">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="M151">
         <v>0.5273</v>
       </c>
       <c r="N151">
-        <v>0.4652</v>
+        <v>0.4807</v>
       </c>
     </row>
     <row r="152">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8165,19 +8165,19 @@
         </is>
       </c>
       <c r="J152">
-        <v>21092</v>
+        <v>21291</v>
       </c>
       <c r="K152">
-        <v>15024</v>
+        <v>15199</v>
       </c>
       <c r="L152">
-        <v>8869</v>
+        <v>9138</v>
       </c>
       <c r="M152">
-        <v>0.7123</v>
+        <v>0.7139</v>
       </c>
       <c r="N152">
-        <v>0.4205</v>
+        <v>0.4292</v>
       </c>
     </row>
     <row r="153">
@@ -8208,7 +8208,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8217,19 +8217,19 @@
         </is>
       </c>
       <c r="J153">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K153">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L153">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M153">
-        <v>0.5416</v>
+        <v>0.5409</v>
       </c>
       <c r="N153">
-        <v>0.57</v>
+        <v>0.5868</v>
       </c>
     </row>
     <row r="154">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8269,19 +8269,19 @@
         </is>
       </c>
       <c r="J154">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="K154">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="L154">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="M154">
-        <v>0.5813</v>
+        <v>0.58</v>
       </c>
       <c r="N154">
-        <v>0.4572</v>
+        <v>0.4668</v>
       </c>
     </row>
     <row r="155">
@@ -8312,7 +8312,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8321,19 +8321,19 @@
         </is>
       </c>
       <c r="J155">
-        <v>2624</v>
+        <v>2672</v>
       </c>
       <c r="K155">
-        <v>1645</v>
+        <v>1671</v>
       </c>
       <c r="L155">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="M155">
-        <v>0.6269</v>
+        <v>0.6254</v>
       </c>
       <c r="N155">
-        <v>0.4043</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="156">
@@ -8364,7 +8364,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8373,19 +8373,19 @@
         </is>
       </c>
       <c r="J156">
-        <v>6497</v>
+        <v>6582</v>
       </c>
       <c r="K156">
-        <v>4403</v>
+        <v>4461</v>
       </c>
       <c r="L156">
-        <v>3933</v>
+        <v>4045</v>
       </c>
       <c r="M156">
-        <v>0.6777</v>
+        <v>0.6778</v>
       </c>
       <c r="N156">
-        <v>0.6054</v>
+        <v>0.6146</v>
       </c>
     </row>
     <row r="157">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8425,19 +8425,19 @@
         </is>
       </c>
       <c r="J157">
+        <v>7</v>
+      </c>
+      <c r="K157">
+        <v>5</v>
+      </c>
+      <c r="L157">
         <v>6</v>
       </c>
-      <c r="K157">
-        <v>4</v>
-      </c>
-      <c r="L157">
-        <v>5</v>
-      </c>
       <c r="M157">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="N157">
-        <v>0.8333</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="158">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -8477,19 +8477,19 @@
         </is>
       </c>
       <c r="J158">
-        <v>1460</v>
+        <v>1506</v>
       </c>
       <c r="K158">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="L158">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="M158">
-        <v>0.6795</v>
+        <v>0.6813</v>
       </c>
       <c r="N158">
-        <v>0.5829</v>
+        <v>0.6016</v>
       </c>
     </row>
     <row r="159">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8529,19 +8529,19 @@
         </is>
       </c>
       <c r="J159">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="K159">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L159">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="M159">
-        <v>0.5654</v>
+        <v>0.5653</v>
       </c>
       <c r="N159">
-        <v>0.5412</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="160">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -8581,19 +8581,19 @@
         </is>
       </c>
       <c r="J160">
-        <v>4800</v>
+        <v>5023</v>
       </c>
       <c r="K160">
-        <v>2949</v>
+        <v>3078</v>
       </c>
       <c r="L160">
-        <v>2087</v>
+        <v>2234</v>
       </c>
       <c r="M160">
-        <v>0.6143999999999999</v>
+        <v>0.6128</v>
       </c>
       <c r="N160">
-        <v>0.4348</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="161">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8633,13 +8633,13 @@
         <v>1</v>
       </c>
       <c r="L161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M161">
         <v>0.5</v>
       </c>
       <c r="N161">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -8673,19 +8673,19 @@
         </is>
       </c>
       <c r="J162">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K162">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L162">
         <v>2</v>
       </c>
       <c r="M162">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="N162">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="163">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -8765,19 +8765,19 @@
         </is>
       </c>
       <c r="J164">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="K164">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="L164">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="M164">
-        <v>0.6408</v>
+        <v>0.6418</v>
       </c>
       <c r="N164">
-        <v>0.4933</v>
+        <v>0.5021</v>
       </c>
     </row>
     <row r="165">
@@ -8802,7 +8802,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8857,19 +8857,19 @@
         </is>
       </c>
       <c r="J166">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="K166">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L166">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="M166">
-        <v>0.5423</v>
+        <v>0.5571</v>
       </c>
       <c r="N166">
-        <v>0.5485</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="167">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8909,19 +8909,19 @@
         </is>
       </c>
       <c r="J167">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="K167">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L167">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M167">
-        <v>0.5577</v>
+        <v>0.5574</v>
       </c>
       <c r="N167">
-        <v>0.5659999999999999</v>
+        <v>0.5728</v>
       </c>
     </row>
     <row r="168">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8961,19 +8961,19 @@
         </is>
       </c>
       <c r="J168">
-        <v>2456</v>
+        <v>2503</v>
       </c>
       <c r="K168">
-        <v>1672</v>
+        <v>1701</v>
       </c>
       <c r="L168">
-        <v>1106</v>
+        <v>1148</v>
       </c>
       <c r="M168">
-        <v>0.6808</v>
+        <v>0.6796</v>
       </c>
       <c r="N168">
-        <v>0.4503</v>
+        <v>0.4586</v>
       </c>
     </row>
     <row r="169">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9013,19 +9013,19 @@
         </is>
       </c>
       <c r="J169">
-        <v>8698</v>
+        <v>8936</v>
       </c>
       <c r="K169">
-        <v>6076</v>
+        <v>6251</v>
       </c>
       <c r="L169">
-        <v>4359</v>
+        <v>4581</v>
       </c>
       <c r="M169">
-        <v>0.6986</v>
+        <v>0.6995</v>
       </c>
       <c r="N169">
-        <v>0.5011</v>
+        <v>0.5125999999999999</v>
       </c>
     </row>
     <row r="170">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9065,19 +9065,19 @@
         </is>
       </c>
       <c r="J170">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="K170">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L170">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="M170">
-        <v>0.5829</v>
+        <v>0.5848</v>
       </c>
       <c r="N170">
-        <v>0.4605</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="171">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -9117,19 +9117,19 @@
         </is>
       </c>
       <c r="J171">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="K171">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="L171">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="M171">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="N171">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="172">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9169,19 +9169,19 @@
         </is>
       </c>
       <c r="J172">
-        <v>1607</v>
+        <v>1629</v>
       </c>
       <c r="K172">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="L172">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="M172">
-        <v>0.6845</v>
+        <v>0.6869</v>
       </c>
       <c r="N172">
-        <v>0.6185</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="173">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9273,13 +9273,13 @@
         <v>8</v>
       </c>
       <c r="L174">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M174">
         <v>0.3478</v>
       </c>
       <c r="N174">
-        <v>0.6957</v>
+        <v>0.7826</v>
       </c>
     </row>
     <row r="175">
@@ -9310,7 +9310,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -9319,19 +9319,19 @@
         </is>
       </c>
       <c r="J175">
-        <v>1335</v>
+        <v>1375</v>
       </c>
       <c r="K175">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="L175">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="M175">
         <v>0.5273</v>
       </c>
       <c r="N175">
-        <v>0.4652</v>
+        <v>0.4807</v>
       </c>
     </row>
     <row r="176">
@@ -9362,7 +9362,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -9371,19 +9371,19 @@
         </is>
       </c>
       <c r="J176">
-        <v>21092</v>
+        <v>21291</v>
       </c>
       <c r="K176">
-        <v>15024</v>
+        <v>15199</v>
       </c>
       <c r="L176">
-        <v>8869</v>
+        <v>9138</v>
       </c>
       <c r="M176">
-        <v>0.7123</v>
+        <v>0.7139</v>
       </c>
       <c r="N176">
-        <v>0.4205</v>
+        <v>0.4292</v>
       </c>
     </row>
     <row r="177">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -9423,19 +9423,19 @@
         </is>
       </c>
       <c r="J177">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K177">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L177">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M177">
-        <v>0.5416</v>
+        <v>0.5409</v>
       </c>
       <c r="N177">
-        <v>0.57</v>
+        <v>0.5868</v>
       </c>
     </row>
     <row r="178">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -9475,19 +9475,19 @@
         </is>
       </c>
       <c r="J178">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="K178">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="L178">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="M178">
-        <v>0.5813</v>
+        <v>0.58</v>
       </c>
       <c r="N178">
-        <v>0.4572</v>
+        <v>0.4668</v>
       </c>
     </row>
     <row r="179">
@@ -9518,7 +9518,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -9527,19 +9527,19 @@
         </is>
       </c>
       <c r="J179">
-        <v>2624</v>
+        <v>2672</v>
       </c>
       <c r="K179">
-        <v>1645</v>
+        <v>1671</v>
       </c>
       <c r="L179">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="M179">
-        <v>0.6269</v>
+        <v>0.6254</v>
       </c>
       <c r="N179">
-        <v>0.4043</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="180">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -9579,19 +9579,19 @@
         </is>
       </c>
       <c r="J180">
-        <v>6497</v>
+        <v>6582</v>
       </c>
       <c r="K180">
-        <v>4403</v>
+        <v>4461</v>
       </c>
       <c r="L180">
-        <v>3933</v>
+        <v>4045</v>
       </c>
       <c r="M180">
-        <v>0.6777</v>
+        <v>0.6778</v>
       </c>
       <c r="N180">
-        <v>0.6054</v>
+        <v>0.6146</v>
       </c>
     </row>
     <row r="181">
@@ -9622,7 +9622,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -9631,19 +9631,19 @@
         </is>
       </c>
       <c r="J181">
+        <v>7</v>
+      </c>
+      <c r="K181">
+        <v>5</v>
+      </c>
+      <c r="L181">
         <v>6</v>
       </c>
-      <c r="K181">
-        <v>4</v>
-      </c>
-      <c r="L181">
-        <v>5</v>
-      </c>
       <c r="M181">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="N181">
-        <v>0.8333</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="182">
@@ -9674,7 +9674,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -9683,19 +9683,19 @@
         </is>
       </c>
       <c r="J182">
-        <v>1460</v>
+        <v>1506</v>
       </c>
       <c r="K182">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="L182">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="M182">
-        <v>0.6795</v>
+        <v>0.6813</v>
       </c>
       <c r="N182">
-        <v>0.5829</v>
+        <v>0.6016</v>
       </c>
     </row>
     <row r="183">
@@ -9726,7 +9726,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -9735,19 +9735,19 @@
         </is>
       </c>
       <c r="J183">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="K183">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L183">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="M183">
-        <v>0.5654</v>
+        <v>0.5653</v>
       </c>
       <c r="N183">
-        <v>0.5412</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="184">
@@ -9778,7 +9778,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -9787,19 +9787,19 @@
         </is>
       </c>
       <c r="J184">
-        <v>4800</v>
+        <v>5023</v>
       </c>
       <c r="K184">
-        <v>2949</v>
+        <v>3078</v>
       </c>
       <c r="L184">
-        <v>2087</v>
+        <v>2234</v>
       </c>
       <c r="M184">
-        <v>0.6143999999999999</v>
+        <v>0.6128</v>
       </c>
       <c r="N184">
-        <v>0.4348</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="185">
@@ -9830,7 +9830,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -9845,13 +9845,13 @@
         <v>1</v>
       </c>
       <c r="L185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M185">
         <v>0.5</v>
       </c>
       <c r="N185">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -9885,19 +9885,19 @@
         </is>
       </c>
       <c r="J186">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K186">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L186">
         <v>2</v>
       </c>
       <c r="M186">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="N186">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="187">
@@ -9922,7 +9922,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -9977,19 +9977,19 @@
         </is>
       </c>
       <c r="J188">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="K188">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="L188">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="M188">
-        <v>0.6408</v>
+        <v>0.6418</v>
       </c>
       <c r="N188">
-        <v>0.4933</v>
+        <v>0.5021</v>
       </c>
     </row>
     <row r="189">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -10069,19 +10069,19 @@
         </is>
       </c>
       <c r="J190">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="K190">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L190">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="M190">
-        <v>0.5423</v>
+        <v>0.5571</v>
       </c>
       <c r="N190">
-        <v>0.5485</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="191">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -10121,19 +10121,19 @@
         </is>
       </c>
       <c r="J191">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="K191">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L191">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M191">
-        <v>0.5577</v>
+        <v>0.5574</v>
       </c>
       <c r="N191">
-        <v>0.5659999999999999</v>
+        <v>0.5728</v>
       </c>
     </row>
     <row r="192">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -10173,19 +10173,19 @@
         </is>
       </c>
       <c r="J192">
-        <v>2456</v>
+        <v>2503</v>
       </c>
       <c r="K192">
-        <v>1672</v>
+        <v>1701</v>
       </c>
       <c r="L192">
-        <v>1106</v>
+        <v>1148</v>
       </c>
       <c r="M192">
-        <v>0.6808</v>
+        <v>0.6796</v>
       </c>
       <c r="N192">
-        <v>0.4503</v>
+        <v>0.4586</v>
       </c>
     </row>
     <row r="193">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -10225,19 +10225,19 @@
         </is>
       </c>
       <c r="J193">
-        <v>8698</v>
+        <v>8936</v>
       </c>
       <c r="K193">
-        <v>6076</v>
+        <v>6251</v>
       </c>
       <c r="L193">
-        <v>4359</v>
+        <v>4581</v>
       </c>
       <c r="M193">
-        <v>0.6986</v>
+        <v>0.6995</v>
       </c>
       <c r="N193">
-        <v>0.5011</v>
+        <v>0.5125999999999999</v>
       </c>
     </row>
     <row r="194">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -10277,19 +10277,19 @@
         </is>
       </c>
       <c r="J194">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="K194">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L194">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="M194">
-        <v>0.5829</v>
+        <v>0.5848</v>
       </c>
       <c r="N194">
-        <v>0.4605</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="195">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -10329,19 +10329,19 @@
         </is>
       </c>
       <c r="J195">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="K195">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="L195">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="M195">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="N195">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="196">
@@ -10372,7 +10372,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -10381,19 +10381,19 @@
         </is>
       </c>
       <c r="J196">
-        <v>1607</v>
+        <v>1629</v>
       </c>
       <c r="K196">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="L196">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="M196">
-        <v>0.6845</v>
+        <v>0.6869</v>
       </c>
       <c r="N196">
-        <v>0.6185</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="197">
@@ -10418,7 +10418,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -10470,7 +10470,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -10485,13 +10485,13 @@
         <v>8</v>
       </c>
       <c r="L198">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M198">
         <v>0.3478</v>
       </c>
       <c r="N198">
-        <v>0.6957</v>
+        <v>0.7826</v>
       </c>
     </row>
     <row r="199">
@@ -10522,7 +10522,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -10531,19 +10531,19 @@
         </is>
       </c>
       <c r="J199">
-        <v>1335</v>
+        <v>1375</v>
       </c>
       <c r="K199">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="L199">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="M199">
         <v>0.5273</v>
       </c>
       <c r="N199">
-        <v>0.4652</v>
+        <v>0.4807</v>
       </c>
     </row>
     <row r="200">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -10583,19 +10583,19 @@
         </is>
       </c>
       <c r="J200">
-        <v>8698</v>
+        <v>8936</v>
       </c>
       <c r="K200">
-        <v>6076</v>
+        <v>6251</v>
       </c>
       <c r="L200">
-        <v>4359</v>
+        <v>4581</v>
       </c>
       <c r="M200">
-        <v>0.6986</v>
+        <v>0.6995</v>
       </c>
       <c r="N200">
-        <v>0.5011</v>
+        <v>0.5125999999999999</v>
       </c>
     </row>
     <row r="201">
@@ -10626,7 +10626,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -10635,19 +10635,19 @@
         </is>
       </c>
       <c r="J201">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="K201">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L201">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="M201">
-        <v>0.5829</v>
+        <v>0.5848</v>
       </c>
       <c r="N201">
-        <v>0.4605</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="202">
@@ -10678,7 +10678,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -10687,19 +10687,19 @@
         </is>
       </c>
       <c r="J202">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="K202">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="L202">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="M202">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="N202">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="203">
@@ -10730,7 +10730,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -10739,19 +10739,19 @@
         </is>
       </c>
       <c r="J203">
-        <v>1607</v>
+        <v>1629</v>
       </c>
       <c r="K203">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="L203">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="M203">
-        <v>0.6845</v>
+        <v>0.6869</v>
       </c>
       <c r="N203">
-        <v>0.6185</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="204">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -10843,13 +10843,13 @@
         <v>8</v>
       </c>
       <c r="L205">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M205">
         <v>0.3478</v>
       </c>
       <c r="N205">
-        <v>0.6957</v>
+        <v>0.7826</v>
       </c>
     </row>
     <row r="206">
@@ -10880,7 +10880,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -10889,19 +10889,19 @@
         </is>
       </c>
       <c r="J206">
-        <v>1335</v>
+        <v>1375</v>
       </c>
       <c r="K206">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="L206">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="M206">
         <v>0.5273</v>
       </c>
       <c r="N206">
-        <v>0.4652</v>
+        <v>0.4807</v>
       </c>
     </row>
     <row r="207">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -10941,19 +10941,19 @@
         </is>
       </c>
       <c r="J207">
-        <v>21092</v>
+        <v>21291</v>
       </c>
       <c r="K207">
-        <v>15024</v>
+        <v>15199</v>
       </c>
       <c r="L207">
-        <v>8869</v>
+        <v>9138</v>
       </c>
       <c r="M207">
-        <v>0.7123</v>
+        <v>0.7139</v>
       </c>
       <c r="N207">
-        <v>0.4205</v>
+        <v>0.4292</v>
       </c>
     </row>
     <row r="208">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -10993,19 +10993,19 @@
         </is>
       </c>
       <c r="J208">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K208">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L208">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M208">
-        <v>0.5416</v>
+        <v>0.5409</v>
       </c>
       <c r="N208">
-        <v>0.57</v>
+        <v>0.5868</v>
       </c>
     </row>
     <row r="209">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -11045,19 +11045,19 @@
         </is>
       </c>
       <c r="J209">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="K209">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="L209">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="M209">
-        <v>0.5813</v>
+        <v>0.58</v>
       </c>
       <c r="N209">
-        <v>0.4572</v>
+        <v>0.4668</v>
       </c>
     </row>
     <row r="210">
@@ -11088,7 +11088,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -11097,19 +11097,19 @@
         </is>
       </c>
       <c r="J210">
-        <v>2624</v>
+        <v>2672</v>
       </c>
       <c r="K210">
-        <v>1645</v>
+        <v>1671</v>
       </c>
       <c r="L210">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="M210">
-        <v>0.6269</v>
+        <v>0.6254</v>
       </c>
       <c r="N210">
-        <v>0.4043</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="211">
@@ -11140,7 +11140,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -11149,19 +11149,19 @@
         </is>
       </c>
       <c r="J211">
-        <v>6497</v>
+        <v>6582</v>
       </c>
       <c r="K211">
-        <v>4403</v>
+        <v>4461</v>
       </c>
       <c r="L211">
-        <v>3933</v>
+        <v>4045</v>
       </c>
       <c r="M211">
-        <v>0.6777</v>
+        <v>0.6778</v>
       </c>
       <c r="N211">
-        <v>0.6054</v>
+        <v>0.6146</v>
       </c>
     </row>
     <row r="212">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -11201,19 +11201,19 @@
         </is>
       </c>
       <c r="J212">
+        <v>7</v>
+      </c>
+      <c r="K212">
+        <v>5</v>
+      </c>
+      <c r="L212">
         <v>6</v>
       </c>
-      <c r="K212">
-        <v>4</v>
-      </c>
-      <c r="L212">
-        <v>5</v>
-      </c>
       <c r="M212">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="N212">
-        <v>0.8333</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="213">
@@ -11244,7 +11244,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -11253,19 +11253,19 @@
         </is>
       </c>
       <c r="J213">
-        <v>1460</v>
+        <v>1506</v>
       </c>
       <c r="K213">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="L213">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="M213">
-        <v>0.6795</v>
+        <v>0.6813</v>
       </c>
       <c r="N213">
-        <v>0.5829</v>
+        <v>0.6016</v>
       </c>
     </row>
     <row r="214">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -11305,19 +11305,19 @@
         </is>
       </c>
       <c r="J214">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="K214">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="L214">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="M214">
-        <v>0.5654</v>
+        <v>0.5653</v>
       </c>
       <c r="N214">
-        <v>0.5412</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="215">
@@ -11348,7 +11348,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -11357,19 +11357,19 @@
         </is>
       </c>
       <c r="J215">
-        <v>4800</v>
+        <v>5023</v>
       </c>
       <c r="K215">
-        <v>2949</v>
+        <v>3078</v>
       </c>
       <c r="L215">
-        <v>2087</v>
+        <v>2234</v>
       </c>
       <c r="M215">
-        <v>0.6143999999999999</v>
+        <v>0.6128</v>
       </c>
       <c r="N215">
-        <v>0.4348</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="216">
@@ -11394,7 +11394,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -11409,13 +11409,13 @@
         <v>1</v>
       </c>
       <c r="L216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M216">
         <v>0.5</v>
       </c>
       <c r="N216">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -11446,7 +11446,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -11455,19 +11455,19 @@
         </is>
       </c>
       <c r="J217">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K217">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L217">
         <v>2</v>
       </c>
       <c r="M217">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="N217">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="218">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -11547,19 +11547,19 @@
         </is>
       </c>
       <c r="J219">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="K219">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="L219">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="M219">
-        <v>0.6408</v>
+        <v>0.6418</v>
       </c>
       <c r="N219">
-        <v>0.4933</v>
+        <v>0.5021</v>
       </c>
     </row>
     <row r="220">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -11630,7 +11630,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -11639,19 +11639,19 @@
         </is>
       </c>
       <c r="J221">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="K221">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="L221">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="M221">
-        <v>0.5423</v>
+        <v>0.5571</v>
       </c>
       <c r="N221">
-        <v>0.5485</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="222">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -11691,19 +11691,19 @@
         </is>
       </c>
       <c r="J222">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="K222">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L222">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M222">
-        <v>0.5577</v>
+        <v>0.5574</v>
       </c>
       <c r="N222">
-        <v>0.5659999999999999</v>
+        <v>0.5728</v>
       </c>
     </row>
     <row r="223">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -11743,19 +11743,1225 @@
         </is>
       </c>
       <c r="J223">
-        <v>2456</v>
+        <v>2503</v>
       </c>
       <c r="K223">
-        <v>1672</v>
+        <v>1701</v>
       </c>
       <c r="L223">
-        <v>1106</v>
+        <v>1148</v>
       </c>
       <c r="M223">
-        <v>0.6808</v>
+        <v>0.6796</v>
       </c>
       <c r="N223">
-        <v>0.4503</v>
+        <v>0.4586</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C224">
+        <v>246</v>
+      </c>
+      <c r="D224">
+        <v>179</v>
+      </c>
+      <c r="E224">
+        <v>105</v>
+      </c>
+      <c r="F224">
+        <v>0.7276</v>
+      </c>
+      <c r="G224">
+        <v>0.4268</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="J224">
+        <v>8936</v>
+      </c>
+      <c r="K224">
+        <v>6251</v>
+      </c>
+      <c r="L224">
+        <v>4581</v>
+      </c>
+      <c r="M224">
+        <v>0.6995</v>
+      </c>
+      <c r="N224">
+        <v>0.5125999999999999</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C225">
+        <v>9</v>
+      </c>
+      <c r="D225">
+        <v>7</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0.7778</v>
+      </c>
+      <c r="G225">
+        <v>0.1111</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="J225">
+        <v>932</v>
+      </c>
+      <c r="K225">
+        <v>545</v>
+      </c>
+      <c r="L225">
+        <v>444</v>
+      </c>
+      <c r="M225">
+        <v>0.5848</v>
+      </c>
+      <c r="N225">
+        <v>0.4764</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="C226">
+        <v>1058</v>
+      </c>
+      <c r="D226">
+        <v>750</v>
+      </c>
+      <c r="E226">
+        <v>434</v>
+      </c>
+      <c r="F226">
+        <v>0.7089</v>
+      </c>
+      <c r="G226">
+        <v>0.4102</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="J226">
+        <v>58129</v>
+      </c>
+      <c r="K226">
+        <v>39103</v>
+      </c>
+      <c r="L226">
+        <v>28316</v>
+      </c>
+      <c r="M226">
+        <v>0.6727</v>
+      </c>
+      <c r="N226">
+        <v>0.4871</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C227">
+        <v>24</v>
+      </c>
+      <c r="D227">
+        <v>20</v>
+      </c>
+      <c r="E227">
+        <v>9</v>
+      </c>
+      <c r="F227">
+        <v>0.8333</v>
+      </c>
+      <c r="G227">
+        <v>0.375</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="J227">
+        <v>1629</v>
+      </c>
+      <c r="K227">
+        <v>1119</v>
+      </c>
+      <c r="L227">
+        <v>1021</v>
+      </c>
+      <c r="M227">
+        <v>0.6869</v>
+      </c>
+      <c r="N227">
+        <v>0.6268</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="J228">
+        <v>44</v>
+      </c>
+      <c r="K228">
+        <v>35</v>
+      </c>
+      <c r="L228">
+        <v>21</v>
+      </c>
+      <c r="M228">
+        <v>0.7955</v>
+      </c>
+      <c r="N228">
+        <v>0.4773</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="J229">
+        <v>23</v>
+      </c>
+      <c r="K229">
+        <v>8</v>
+      </c>
+      <c r="L229">
+        <v>18</v>
+      </c>
+      <c r="M229">
+        <v>0.3478</v>
+      </c>
+      <c r="N229">
+        <v>0.7826</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C230">
+        <v>44</v>
+      </c>
+      <c r="D230">
+        <v>23</v>
+      </c>
+      <c r="E230">
+        <v>10</v>
+      </c>
+      <c r="F230">
+        <v>0.5227000000000001</v>
+      </c>
+      <c r="G230">
+        <v>0.2273</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="J230">
+        <v>1375</v>
+      </c>
+      <c r="K230">
+        <v>725</v>
+      </c>
+      <c r="L230">
+        <v>661</v>
+      </c>
+      <c r="M230">
+        <v>0.5273</v>
+      </c>
+      <c r="N230">
+        <v>0.4807</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="C231">
+        <v>203</v>
+      </c>
+      <c r="D231">
+        <v>181</v>
+      </c>
+      <c r="E231">
+        <v>95</v>
+      </c>
+      <c r="F231">
+        <v>0.8915999999999999</v>
+      </c>
+      <c r="G231">
+        <v>0.468</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>总部</t>
+        </is>
+      </c>
+      <c r="J231">
+        <v>21291</v>
+      </c>
+      <c r="K231">
+        <v>15199</v>
+      </c>
+      <c r="L231">
+        <v>9138</v>
+      </c>
+      <c r="M231">
+        <v>0.7139</v>
+      </c>
+      <c r="N231">
+        <v>0.4292</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C232">
+        <v>7</v>
+      </c>
+      <c r="D232">
+        <v>3</v>
+      </c>
+      <c r="E232">
+        <v>5</v>
+      </c>
+      <c r="F232">
+        <v>0.4286</v>
+      </c>
+      <c r="G232">
+        <v>0.7143</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="J232">
+        <v>501</v>
+      </c>
+      <c r="K232">
+        <v>271</v>
+      </c>
+      <c r="L232">
+        <v>294</v>
+      </c>
+      <c r="M232">
+        <v>0.5409</v>
+      </c>
+      <c r="N232">
+        <v>0.5868</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C233">
+        <v>10</v>
+      </c>
+      <c r="D233">
+        <v>4</v>
+      </c>
+      <c r="E233">
+        <v>5</v>
+      </c>
+      <c r="F233">
+        <v>0.4</v>
+      </c>
+      <c r="G233">
+        <v>0.5</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="J233">
+        <v>1281</v>
+      </c>
+      <c r="K233">
+        <v>743</v>
+      </c>
+      <c r="L233">
+        <v>598</v>
+      </c>
+      <c r="M233">
+        <v>0.58</v>
+      </c>
+      <c r="N233">
+        <v>0.4668</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C234">
+        <v>51</v>
+      </c>
+      <c r="D234">
+        <v>30</v>
+      </c>
+      <c r="E234">
+        <v>24</v>
+      </c>
+      <c r="F234">
+        <v>0.5881999999999999</v>
+      </c>
+      <c r="G234">
+        <v>0.4706</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="J234">
+        <v>2672</v>
+      </c>
+      <c r="K234">
+        <v>1671</v>
+      </c>
+      <c r="L234">
+        <v>1117</v>
+      </c>
+      <c r="M234">
+        <v>0.6254</v>
+      </c>
+      <c r="N234">
+        <v>0.418</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C235">
+        <v>90</v>
+      </c>
+      <c r="D235">
+        <v>62</v>
+      </c>
+      <c r="E235">
+        <v>38</v>
+      </c>
+      <c r="F235">
+        <v>0.6889</v>
+      </c>
+      <c r="G235">
+        <v>0.4222</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="J235">
+        <v>6582</v>
+      </c>
+      <c r="K235">
+        <v>4461</v>
+      </c>
+      <c r="L235">
+        <v>4045</v>
+      </c>
+      <c r="M235">
+        <v>0.6778</v>
+      </c>
+      <c r="N235">
+        <v>0.6146</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="J236">
+        <v>7</v>
+      </c>
+      <c r="K236">
+        <v>5</v>
+      </c>
+      <c r="L236">
+        <v>6</v>
+      </c>
+      <c r="M236">
+        <v>0.7143</v>
+      </c>
+      <c r="N236">
+        <v>0.8571</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C237">
+        <v>46</v>
+      </c>
+      <c r="D237">
+        <v>33</v>
+      </c>
+      <c r="E237">
+        <v>20</v>
+      </c>
+      <c r="F237">
+        <v>0.7174</v>
+      </c>
+      <c r="G237">
+        <v>0.4348</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="J237">
+        <v>1506</v>
+      </c>
+      <c r="K237">
+        <v>1026</v>
+      </c>
+      <c r="L237">
+        <v>906</v>
+      </c>
+      <c r="M237">
+        <v>0.6813</v>
+      </c>
+      <c r="N237">
+        <v>0.6016</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C238">
+        <v>16</v>
+      </c>
+      <c r="D238">
+        <v>9</v>
+      </c>
+      <c r="E238">
+        <v>8</v>
+      </c>
+      <c r="F238">
+        <v>0.5625</v>
+      </c>
+      <c r="G238">
+        <v>0.5</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="J238">
+        <v>1010</v>
+      </c>
+      <c r="K238">
+        <v>571</v>
+      </c>
+      <c r="L238">
+        <v>554</v>
+      </c>
+      <c r="M238">
+        <v>0.5653</v>
+      </c>
+      <c r="N238">
+        <v>0.5485</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C239">
+        <v>216</v>
+      </c>
+      <c r="D239">
+        <v>128</v>
+      </c>
+      <c r="E239">
+        <v>77</v>
+      </c>
+      <c r="F239">
+        <v>0.5926</v>
+      </c>
+      <c r="G239">
+        <v>0.3565</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="J239">
+        <v>5023</v>
+      </c>
+      <c r="K239">
+        <v>3078</v>
+      </c>
+      <c r="L239">
+        <v>2234</v>
+      </c>
+      <c r="M239">
+        <v>0.6128</v>
+      </c>
+      <c r="N239">
+        <v>0.4448</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="J240">
+        <v>2</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>0.5</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J241">
+        <v>8</v>
+      </c>
+      <c r="K241">
+        <v>5</v>
+      </c>
+      <c r="L241">
+        <v>2</v>
+      </c>
+      <c r="M241">
+        <v>0.625</v>
+      </c>
+      <c r="N241">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C243">
+        <v>15</v>
+      </c>
+      <c r="D243">
+        <v>11</v>
+      </c>
+      <c r="E243">
+        <v>5</v>
+      </c>
+      <c r="F243">
+        <v>0.7333</v>
+      </c>
+      <c r="G243">
+        <v>0.3333</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J243">
+        <v>1432</v>
+      </c>
+      <c r="K243">
+        <v>919</v>
+      </c>
+      <c r="L243">
+        <v>719</v>
+      </c>
+      <c r="M243">
+        <v>0.6418</v>
+      </c>
+      <c r="N243">
+        <v>0.5021</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C245">
+        <v>23</v>
+      </c>
+      <c r="D245">
+        <v>21</v>
+      </c>
+      <c r="E245">
+        <v>19</v>
+      </c>
+      <c r="F245">
+        <v>0.913</v>
+      </c>
+      <c r="G245">
+        <v>0.8260999999999999</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="J245">
+        <v>508</v>
+      </c>
+      <c r="K245">
+        <v>283</v>
+      </c>
+      <c r="L245">
+        <v>316</v>
+      </c>
+      <c r="M245">
+        <v>0.5571</v>
+      </c>
+      <c r="N245">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="J246">
+        <v>845</v>
+      </c>
+      <c r="K246">
+        <v>471</v>
+      </c>
+      <c r="L246">
+        <v>484</v>
+      </c>
+      <c r="M246">
+        <v>0.5574</v>
+      </c>
+      <c r="N246">
+        <v>0.5728</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C247">
+        <v>48</v>
+      </c>
+      <c r="D247">
+        <v>29</v>
+      </c>
+      <c r="E247">
+        <v>11</v>
+      </c>
+      <c r="F247">
+        <v>0.6042</v>
+      </c>
+      <c r="G247">
+        <v>0.2292</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="J247">
+        <v>2503</v>
+      </c>
+      <c r="K247">
+        <v>1701</v>
+      </c>
+      <c r="L247">
+        <v>1148</v>
+      </c>
+      <c r="M247">
+        <v>0.6796</v>
+      </c>
+      <c r="N247">
+        <v>0.4586</v>
       </c>
     </row>
   </sheetData>

--- a/data/学习数据.xlsx
+++ b/data/学习数据.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24060" windowHeight="9940"/>
+    <workbookView windowWidth="24060" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result!$A$1:$N$295</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result!$A$1:$N$319</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>当日_时间</t>
   </si>
@@ -67,7 +67,7 @@
     <t>总部</t>
   </si>
   <si>
-    <t>2020-03-31 08:00:00</t>
+    <t>2020-04-01 08:00:00</t>
   </si>
   <si>
     <t>长沙</t>
@@ -177,16 +177,19 @@
   <si>
     <t>2020-03-30</t>
   </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -211,10 +214,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,31 +275,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -279,16 +313,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,47 +344,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,19 +360,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,61 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,13 +450,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,13 +516,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,31 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,30 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -595,10 +574,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -619,6 +596,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -633,163 +651,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1144,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N295"/>
+  <dimension ref="A1:N319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C254" sqref="C254"/>
+      <selection activeCell="G257" sqref="G257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
@@ -1225,19 +1228,19 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>21859</v>
+        <v>22136</v>
       </c>
       <c r="K2">
-        <v>15554</v>
+        <v>15775</v>
       </c>
       <c r="L2">
-        <v>9651</v>
+        <v>9865</v>
       </c>
       <c r="M2">
-        <v>0.7116</v>
+        <v>0.7126</v>
       </c>
       <c r="N2">
-        <v>0.4415</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:14">
@@ -1269,19 +1272,19 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K3">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L3">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M3">
-        <v>0.5639</v>
+        <v>0.5678</v>
       </c>
       <c r="N3">
-        <v>0.6147</v>
+        <v>0.6175</v>
       </c>
     </row>
     <row r="4" hidden="1" spans="1:14">
@@ -1313,19 +1316,19 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K4">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L4">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M4">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N4">
-        <v>0.4909</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="5" hidden="1" spans="1:14">
@@ -1357,19 +1360,19 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>2874</v>
+        <v>2941</v>
       </c>
       <c r="K5">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="L5">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="M5">
-        <v>0.6263</v>
+        <v>0.6222</v>
       </c>
       <c r="N5">
-        <v>0.4283</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="6" hidden="1" spans="1:14">
@@ -1401,19 +1404,19 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K6">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L6">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M6">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N6">
-        <v>0.6218</v>
+        <v>0.6235</v>
       </c>
     </row>
     <row r="7" hidden="1" spans="1:14">
@@ -1445,19 +1448,19 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="K7">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="L7">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="M7">
-        <v>0.6791</v>
+        <v>0.6763</v>
       </c>
       <c r="N7">
-        <v>0.6207</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="8" hidden="1" spans="1:14">
@@ -1489,19 +1492,19 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K8">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L8">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M8">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N8">
-        <v>0.5634</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="9" hidden="1" spans="1:14">
@@ -1533,19 +1536,19 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>5353</v>
+        <v>5655</v>
       </c>
       <c r="K9">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="L9">
-        <v>2455</v>
+        <v>2620</v>
       </c>
       <c r="M9">
-        <v>0.6154</v>
+        <v>0.6218</v>
       </c>
       <c r="N9">
-        <v>0.4586</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="10" hidden="1" spans="1:14">
@@ -1615,19 +1618,19 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="K11">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="L11">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M11">
-        <v>0.6441</v>
+        <v>0.6442</v>
       </c>
       <c r="N11">
-        <v>0.5102</v>
+        <v>0.5162</v>
       </c>
     </row>
     <row r="12" hidden="1" spans="1:14">
@@ -1659,19 +1662,19 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K12">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L12">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M12">
-        <v>0.562</v>
+        <v>0.5609</v>
       </c>
       <c r="N12">
-        <v>0.6504</v>
+        <v>0.6642</v>
       </c>
     </row>
     <row r="13" hidden="1" spans="1:14">
@@ -1703,19 +1706,19 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="K13">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L13">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M13">
-        <v>0.5528</v>
+        <v>0.5558</v>
       </c>
       <c r="N13">
-        <v>0.59</v>
+        <v>0.6002</v>
       </c>
     </row>
     <row r="14" hidden="1" spans="1:14">
@@ -1747,19 +1750,19 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>2653</v>
+        <v>2727</v>
       </c>
       <c r="K14">
-        <v>1808</v>
+        <v>1863</v>
       </c>
       <c r="L14">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="M14">
-        <v>0.6815</v>
+        <v>0.6832</v>
       </c>
       <c r="N14">
-        <v>0.4681</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="15" hidden="1" spans="1:14">
@@ -1791,19 +1794,19 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K15">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L15">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M15">
-        <v>0.7006</v>
+        <v>0.6981</v>
       </c>
       <c r="N15">
-        <v>0.5218</v>
+        <v>0.5204</v>
       </c>
     </row>
     <row r="16" hidden="1" spans="1:14">
@@ -1829,19 +1832,19 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="K16">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L16">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M16">
-        <v>0.5833</v>
+        <v>0.5827</v>
       </c>
       <c r="N16">
-        <v>0.4837</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="17" hidden="1" spans="1:14">
@@ -1873,19 +1876,19 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="K17">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="L17">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="M17">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="N17">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="18" hidden="1" spans="1:14">
@@ -1917,19 +1920,19 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="K18">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="L18">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="M18">
-        <v>0.6875</v>
+        <v>0.6876</v>
       </c>
       <c r="N18">
-        <v>0.6297</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="19" hidden="1" spans="1:14">
@@ -1961,19 +1964,19 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="K19">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L19">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M19">
-        <v>0.5329</v>
+        <v>0.5343</v>
       </c>
       <c r="N19">
-        <v>0.501</v>
+        <v>0.5089</v>
       </c>
     </row>
     <row r="20" hidden="1" spans="1:14">
@@ -2005,19 +2008,19 @@
         <v>15</v>
       </c>
       <c r="J20">
-        <v>21859</v>
+        <v>22136</v>
       </c>
       <c r="K20">
-        <v>15554</v>
+        <v>15775</v>
       </c>
       <c r="L20">
-        <v>9651</v>
+        <v>9865</v>
       </c>
       <c r="M20">
-        <v>0.7116</v>
+        <v>0.7126</v>
       </c>
       <c r="N20">
-        <v>0.4415</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="21" hidden="1" spans="1:14">
@@ -2049,19 +2052,19 @@
         <v>17</v>
       </c>
       <c r="J21">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K21">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L21">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M21">
-        <v>0.5639</v>
+        <v>0.5678</v>
       </c>
       <c r="N21">
-        <v>0.6147</v>
+        <v>0.6175</v>
       </c>
     </row>
     <row r="22" hidden="1" spans="1:14">
@@ -2093,19 +2096,19 @@
         <v>18</v>
       </c>
       <c r="J22">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K22">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L22">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M22">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N22">
-        <v>0.4909</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="23" hidden="1" spans="1:14">
@@ -2137,19 +2140,19 @@
         <v>19</v>
       </c>
       <c r="J23">
-        <v>2874</v>
+        <v>2941</v>
       </c>
       <c r="K23">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="L23">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="M23">
-        <v>0.6263</v>
+        <v>0.6222</v>
       </c>
       <c r="N23">
-        <v>0.4283</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="24" hidden="1" spans="1:14">
@@ -2181,19 +2184,19 @@
         <v>20</v>
       </c>
       <c r="J24">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K24">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L24">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M24">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N24">
-        <v>0.6218</v>
+        <v>0.6235</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="1:14">
@@ -2225,19 +2228,19 @@
         <v>21</v>
       </c>
       <c r="J25">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="K25">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="L25">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="M25">
-        <v>0.6791</v>
+        <v>0.6763</v>
       </c>
       <c r="N25">
-        <v>0.6207</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="1:14">
@@ -2269,19 +2272,19 @@
         <v>22</v>
       </c>
       <c r="J26">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K26">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L26">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M26">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N26">
-        <v>0.5634</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="27" hidden="1" spans="1:14">
@@ -2313,19 +2316,19 @@
         <v>23</v>
       </c>
       <c r="J27">
-        <v>5353</v>
+        <v>5655</v>
       </c>
       <c r="K27">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="L27">
-        <v>2455</v>
+        <v>2620</v>
       </c>
       <c r="M27">
-        <v>0.6154</v>
+        <v>0.6218</v>
       </c>
       <c r="N27">
-        <v>0.4586</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="28" hidden="1" spans="1:14">
@@ -2401,19 +2404,19 @@
         <v>25</v>
       </c>
       <c r="J29">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="K29">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="L29">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M29">
-        <v>0.6441</v>
+        <v>0.6442</v>
       </c>
       <c r="N29">
-        <v>0.5102</v>
+        <v>0.5162</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:14">
@@ -2445,19 +2448,19 @@
         <v>26</v>
       </c>
       <c r="J30">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K30">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L30">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M30">
-        <v>0.562</v>
+        <v>0.5609</v>
       </c>
       <c r="N30">
-        <v>0.6504</v>
+        <v>0.6642</v>
       </c>
     </row>
     <row r="31" hidden="1" spans="1:14">
@@ -2489,19 +2492,19 @@
         <v>27</v>
       </c>
       <c r="J31">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="K31">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L31">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M31">
-        <v>0.5528</v>
+        <v>0.5558</v>
       </c>
       <c r="N31">
-        <v>0.59</v>
+        <v>0.6002</v>
       </c>
     </row>
     <row r="32" hidden="1" spans="1:14">
@@ -2533,19 +2536,19 @@
         <v>28</v>
       </c>
       <c r="J32">
-        <v>2653</v>
+        <v>2727</v>
       </c>
       <c r="K32">
-        <v>1808</v>
+        <v>1863</v>
       </c>
       <c r="L32">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="M32">
-        <v>0.6815</v>
+        <v>0.6832</v>
       </c>
       <c r="N32">
-        <v>0.4681</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="33" hidden="1" spans="1:14">
@@ -2577,19 +2580,19 @@
         <v>29</v>
       </c>
       <c r="J33">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K33">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L33">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M33">
-        <v>0.7006</v>
+        <v>0.6981</v>
       </c>
       <c r="N33">
-        <v>0.5218</v>
+        <v>0.5204</v>
       </c>
     </row>
     <row r="34" hidden="1" spans="1:14">
@@ -2621,19 +2624,19 @@
         <v>30</v>
       </c>
       <c r="J34">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="K34">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L34">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M34">
-        <v>0.5833</v>
+        <v>0.5827</v>
       </c>
       <c r="N34">
-        <v>0.4837</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:14">
@@ -2665,19 +2668,19 @@
         <v>31</v>
       </c>
       <c r="J35">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="K35">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="L35">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="M35">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="N35">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:14">
@@ -2709,19 +2712,19 @@
         <v>32</v>
       </c>
       <c r="J36">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="K36">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="L36">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="M36">
-        <v>0.6875</v>
+        <v>0.6876</v>
       </c>
       <c r="N36">
-        <v>0.6297</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="37" hidden="1" spans="1:14">
@@ -2753,19 +2756,19 @@
         <v>33</v>
       </c>
       <c r="J37">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="K37">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L37">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M37">
-        <v>0.5329</v>
+        <v>0.5343</v>
       </c>
       <c r="N37">
-        <v>0.501</v>
+        <v>0.5089</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:14">
@@ -2797,19 +2800,19 @@
         <v>29</v>
       </c>
       <c r="J38">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K38">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L38">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M38">
-        <v>0.7006</v>
+        <v>0.6981</v>
       </c>
       <c r="N38">
-        <v>0.5218</v>
+        <v>0.5204</v>
       </c>
     </row>
     <row r="39" hidden="1" spans="1:14">
@@ -2841,19 +2844,19 @@
         <v>30</v>
       </c>
       <c r="J39">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="K39">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L39">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M39">
-        <v>0.5833</v>
+        <v>0.5827</v>
       </c>
       <c r="N39">
-        <v>0.4837</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="40" hidden="1" spans="1:14">
@@ -2885,19 +2888,19 @@
         <v>31</v>
       </c>
       <c r="J40">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="K40">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="L40">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="M40">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="N40">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="41" hidden="1" spans="1:14">
@@ -2929,19 +2932,19 @@
         <v>32</v>
       </c>
       <c r="J41">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="K41">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="L41">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="M41">
-        <v>0.6875</v>
+        <v>0.6876</v>
       </c>
       <c r="N41">
-        <v>0.6297</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:14">
@@ -2973,19 +2976,19 @@
         <v>33</v>
       </c>
       <c r="J42">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="K42">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L42">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M42">
-        <v>0.5329</v>
+        <v>0.5343</v>
       </c>
       <c r="N42">
-        <v>0.501</v>
+        <v>0.5089</v>
       </c>
     </row>
     <row r="43" hidden="1" spans="1:14">
@@ -3017,19 +3020,19 @@
         <v>15</v>
       </c>
       <c r="J43">
-        <v>21859</v>
+        <v>22136</v>
       </c>
       <c r="K43">
-        <v>15554</v>
+        <v>15775</v>
       </c>
       <c r="L43">
-        <v>9651</v>
+        <v>9865</v>
       </c>
       <c r="M43">
-        <v>0.7116</v>
+        <v>0.7126</v>
       </c>
       <c r="N43">
-        <v>0.4415</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:14">
@@ -3061,19 +3064,19 @@
         <v>17</v>
       </c>
       <c r="J44">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K44">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L44">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M44">
-        <v>0.5639</v>
+        <v>0.5678</v>
       </c>
       <c r="N44">
-        <v>0.6147</v>
+        <v>0.6175</v>
       </c>
     </row>
     <row r="45" hidden="1" spans="1:14">
@@ -3105,19 +3108,19 @@
         <v>18</v>
       </c>
       <c r="J45">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K45">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L45">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M45">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N45">
-        <v>0.4909</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="46" hidden="1" spans="1:14">
@@ -3149,19 +3152,19 @@
         <v>19</v>
       </c>
       <c r="J46">
-        <v>2874</v>
+        <v>2941</v>
       </c>
       <c r="K46">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="L46">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="M46">
-        <v>0.6263</v>
+        <v>0.6222</v>
       </c>
       <c r="N46">
-        <v>0.4283</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="47" hidden="1" spans="1:14">
@@ -3193,19 +3196,19 @@
         <v>20</v>
       </c>
       <c r="J47">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K47">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L47">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M47">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N47">
-        <v>0.6218</v>
+        <v>0.6235</v>
       </c>
     </row>
     <row r="48" hidden="1" spans="1:14">
@@ -3237,19 +3240,19 @@
         <v>21</v>
       </c>
       <c r="J48">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="K48">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="L48">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="M48">
-        <v>0.6791</v>
+        <v>0.6763</v>
       </c>
       <c r="N48">
-        <v>0.6207</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="49" hidden="1" spans="1:14">
@@ -3281,19 +3284,19 @@
         <v>22</v>
       </c>
       <c r="J49">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K49">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L49">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M49">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N49">
-        <v>0.5634</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="50" hidden="1" spans="1:14">
@@ -3325,19 +3328,19 @@
         <v>23</v>
       </c>
       <c r="J50">
-        <v>5353</v>
+        <v>5655</v>
       </c>
       <c r="K50">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="L50">
-        <v>2455</v>
+        <v>2620</v>
       </c>
       <c r="M50">
-        <v>0.6154</v>
+        <v>0.6218</v>
       </c>
       <c r="N50">
-        <v>0.4586</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="51" hidden="1" spans="1:14">
@@ -3407,19 +3410,19 @@
         <v>25</v>
       </c>
       <c r="J52">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="K52">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="L52">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M52">
-        <v>0.6441</v>
+        <v>0.6442</v>
       </c>
       <c r="N52">
-        <v>0.5102</v>
+        <v>0.5162</v>
       </c>
     </row>
     <row r="53" hidden="1" spans="1:14">
@@ -3451,19 +3454,19 @@
         <v>26</v>
       </c>
       <c r="J53">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K53">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L53">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M53">
-        <v>0.562</v>
+        <v>0.5609</v>
       </c>
       <c r="N53">
-        <v>0.6504</v>
+        <v>0.6642</v>
       </c>
     </row>
     <row r="54" hidden="1" spans="1:14">
@@ -3495,19 +3498,19 @@
         <v>27</v>
       </c>
       <c r="J54">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="K54">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L54">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M54">
-        <v>0.5528</v>
+        <v>0.5558</v>
       </c>
       <c r="N54">
-        <v>0.59</v>
+        <v>0.6002</v>
       </c>
     </row>
     <row r="55" hidden="1" spans="1:14">
@@ -3539,19 +3542,19 @@
         <v>28</v>
       </c>
       <c r="J55">
-        <v>2653</v>
+        <v>2727</v>
       </c>
       <c r="K55">
-        <v>1808</v>
+        <v>1863</v>
       </c>
       <c r="L55">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="M55">
-        <v>0.6815</v>
+        <v>0.6832</v>
       </c>
       <c r="N55">
-        <v>0.4681</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="56" hidden="1" spans="1:14">
@@ -3583,19 +3586,19 @@
         <v>15</v>
       </c>
       <c r="J56">
-        <v>21859</v>
+        <v>22136</v>
       </c>
       <c r="K56">
-        <v>15554</v>
+        <v>15775</v>
       </c>
       <c r="L56">
-        <v>9651</v>
+        <v>9865</v>
       </c>
       <c r="M56">
-        <v>0.7116</v>
+        <v>0.7126</v>
       </c>
       <c r="N56">
-        <v>0.4415</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="57" hidden="1" spans="1:14">
@@ -3627,19 +3630,19 @@
         <v>17</v>
       </c>
       <c r="J57">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K57">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L57">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M57">
-        <v>0.5639</v>
+        <v>0.5678</v>
       </c>
       <c r="N57">
-        <v>0.6147</v>
+        <v>0.6175</v>
       </c>
     </row>
     <row r="58" hidden="1" spans="1:14">
@@ -3671,19 +3674,19 @@
         <v>18</v>
       </c>
       <c r="J58">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K58">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L58">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M58">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N58">
-        <v>0.4909</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="59" hidden="1" spans="1:14">
@@ -3715,19 +3718,19 @@
         <v>19</v>
       </c>
       <c r="J59">
-        <v>2874</v>
+        <v>2941</v>
       </c>
       <c r="K59">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="L59">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="M59">
-        <v>0.6263</v>
+        <v>0.6222</v>
       </c>
       <c r="N59">
-        <v>0.4283</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:14">
@@ -3759,19 +3762,19 @@
         <v>20</v>
       </c>
       <c r="J60">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K60">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L60">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M60">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N60">
-        <v>0.6218</v>
+        <v>0.6235</v>
       </c>
     </row>
     <row r="61" hidden="1" spans="1:14">
@@ -3803,19 +3806,19 @@
         <v>21</v>
       </c>
       <c r="J61">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="K61">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="L61">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="M61">
-        <v>0.6791</v>
+        <v>0.6763</v>
       </c>
       <c r="N61">
-        <v>0.6207</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="62" hidden="1" spans="1:14">
@@ -3847,19 +3850,19 @@
         <v>22</v>
       </c>
       <c r="J62">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K62">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L62">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M62">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N62">
-        <v>0.5634</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="1:14">
@@ -3891,19 +3894,19 @@
         <v>23</v>
       </c>
       <c r="J63">
-        <v>5353</v>
+        <v>5655</v>
       </c>
       <c r="K63">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="L63">
-        <v>2455</v>
+        <v>2620</v>
       </c>
       <c r="M63">
-        <v>0.6154</v>
+        <v>0.6218</v>
       </c>
       <c r="N63">
-        <v>0.4586</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="64" hidden="1" spans="1:14">
@@ -3973,19 +3976,19 @@
         <v>25</v>
       </c>
       <c r="J65">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="K65">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="L65">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M65">
-        <v>0.6441</v>
+        <v>0.6442</v>
       </c>
       <c r="N65">
-        <v>0.5102</v>
+        <v>0.5162</v>
       </c>
     </row>
     <row r="66" hidden="1" spans="1:14">
@@ -4017,19 +4020,19 @@
         <v>26</v>
       </c>
       <c r="J66">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K66">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L66">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M66">
-        <v>0.562</v>
+        <v>0.5609</v>
       </c>
       <c r="N66">
-        <v>0.6504</v>
+        <v>0.6642</v>
       </c>
     </row>
     <row r="67" hidden="1" spans="1:14">
@@ -4061,19 +4064,19 @@
         <v>27</v>
       </c>
       <c r="J67">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="K67">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L67">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M67">
-        <v>0.5528</v>
+        <v>0.5558</v>
       </c>
       <c r="N67">
-        <v>0.59</v>
+        <v>0.6002</v>
       </c>
     </row>
     <row r="68" hidden="1" spans="1:14">
@@ -4105,19 +4108,19 @@
         <v>28</v>
       </c>
       <c r="J68">
-        <v>2653</v>
+        <v>2727</v>
       </c>
       <c r="K68">
-        <v>1808</v>
+        <v>1863</v>
       </c>
       <c r="L68">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="M68">
-        <v>0.6815</v>
+        <v>0.6832</v>
       </c>
       <c r="N68">
-        <v>0.4681</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="69" hidden="1" spans="1:14">
@@ -4149,19 +4152,19 @@
         <v>29</v>
       </c>
       <c r="J69">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K69">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L69">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M69">
-        <v>0.7006</v>
+        <v>0.6981</v>
       </c>
       <c r="N69">
-        <v>0.5218</v>
+        <v>0.5204</v>
       </c>
     </row>
     <row r="70" hidden="1" spans="1:14">
@@ -4193,19 +4196,19 @@
         <v>30</v>
       </c>
       <c r="J70">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="K70">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L70">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M70">
-        <v>0.5833</v>
+        <v>0.5827</v>
       </c>
       <c r="N70">
-        <v>0.4837</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="71" hidden="1" spans="1:14">
@@ -4237,19 +4240,19 @@
         <v>31</v>
       </c>
       <c r="J71">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="K71">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="L71">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="M71">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="N71">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="72" hidden="1" spans="1:14">
@@ -4281,19 +4284,19 @@
         <v>32</v>
       </c>
       <c r="J72">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="K72">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="L72">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="M72">
-        <v>0.6875</v>
+        <v>0.6876</v>
       </c>
       <c r="N72">
-        <v>0.6297</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="73" hidden="1" spans="1:14">
@@ -4325,19 +4328,19 @@
         <v>33</v>
       </c>
       <c r="J73">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="K73">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L73">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M73">
-        <v>0.5329</v>
+        <v>0.5343</v>
       </c>
       <c r="N73">
-        <v>0.501</v>
+        <v>0.5089</v>
       </c>
     </row>
     <row r="74" hidden="1" spans="1:14">
@@ -4369,19 +4372,19 @@
         <v>29</v>
       </c>
       <c r="J74">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K74">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L74">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M74">
-        <v>0.7006</v>
+        <v>0.6981</v>
       </c>
       <c r="N74">
-        <v>0.5218</v>
+        <v>0.5204</v>
       </c>
     </row>
     <row r="75" hidden="1" spans="1:14">
@@ -4413,19 +4416,19 @@
         <v>30</v>
       </c>
       <c r="J75">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="K75">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L75">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M75">
-        <v>0.5833</v>
+        <v>0.5827</v>
       </c>
       <c r="N75">
-        <v>0.4837</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="76" hidden="1" spans="1:14">
@@ -4457,19 +4460,19 @@
         <v>31</v>
       </c>
       <c r="J76">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="K76">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="L76">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="M76">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="N76">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="77" hidden="1" spans="1:14">
@@ -4501,19 +4504,19 @@
         <v>32</v>
       </c>
       <c r="J77">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="K77">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="L77">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="M77">
-        <v>0.6875</v>
+        <v>0.6876</v>
       </c>
       <c r="N77">
-        <v>0.6297</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="78" hidden="1" spans="1:14">
@@ -4545,19 +4548,19 @@
         <v>33</v>
       </c>
       <c r="J78">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="K78">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L78">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M78">
-        <v>0.5329</v>
+        <v>0.5343</v>
       </c>
       <c r="N78">
-        <v>0.501</v>
+        <v>0.5089</v>
       </c>
     </row>
     <row r="79" hidden="1" spans="1:14">
@@ -4589,19 +4592,19 @@
         <v>15</v>
       </c>
       <c r="J79">
-        <v>21859</v>
+        <v>22136</v>
       </c>
       <c r="K79">
-        <v>15554</v>
+        <v>15775</v>
       </c>
       <c r="L79">
-        <v>9651</v>
+        <v>9865</v>
       </c>
       <c r="M79">
-        <v>0.7116</v>
+        <v>0.7126</v>
       </c>
       <c r="N79">
-        <v>0.4415</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="80" hidden="1" spans="1:14">
@@ -4633,19 +4636,19 @@
         <v>17</v>
       </c>
       <c r="J80">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K80">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L80">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M80">
-        <v>0.5639</v>
+        <v>0.5678</v>
       </c>
       <c r="N80">
-        <v>0.6147</v>
+        <v>0.6175</v>
       </c>
     </row>
     <row r="81" hidden="1" spans="1:14">
@@ -4677,19 +4680,19 @@
         <v>18</v>
       </c>
       <c r="J81">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K81">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L81">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M81">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N81">
-        <v>0.4909</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="82" hidden="1" spans="1:14">
@@ -4721,19 +4724,19 @@
         <v>19</v>
       </c>
       <c r="J82">
-        <v>2874</v>
+        <v>2941</v>
       </c>
       <c r="K82">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="L82">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="M82">
-        <v>0.6263</v>
+        <v>0.6222</v>
       </c>
       <c r="N82">
-        <v>0.4283</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="83" hidden="1" spans="1:14">
@@ -4765,19 +4768,19 @@
         <v>20</v>
       </c>
       <c r="J83">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K83">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L83">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M83">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N83">
-        <v>0.6218</v>
+        <v>0.6235</v>
       </c>
     </row>
     <row r="84" hidden="1" spans="1:14">
@@ -4809,19 +4812,19 @@
         <v>21</v>
       </c>
       <c r="J84">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="K84">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="L84">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="M84">
-        <v>0.6791</v>
+        <v>0.6763</v>
       </c>
       <c r="N84">
-        <v>0.6207</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="85" hidden="1" spans="1:14">
@@ -4853,19 +4856,19 @@
         <v>22</v>
       </c>
       <c r="J85">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K85">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L85">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M85">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N85">
-        <v>0.5634</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="86" hidden="1" spans="1:14">
@@ -4897,19 +4900,19 @@
         <v>23</v>
       </c>
       <c r="J86">
-        <v>5353</v>
+        <v>5655</v>
       </c>
       <c r="K86">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="L86">
-        <v>2455</v>
+        <v>2620</v>
       </c>
       <c r="M86">
-        <v>0.6154</v>
+        <v>0.6218</v>
       </c>
       <c r="N86">
-        <v>0.4586</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="87" hidden="1" spans="1:14">
@@ -4979,19 +4982,19 @@
         <v>25</v>
       </c>
       <c r="J88">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="K88">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="L88">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M88">
-        <v>0.6441</v>
+        <v>0.6442</v>
       </c>
       <c r="N88">
-        <v>0.5102</v>
+        <v>0.5162</v>
       </c>
     </row>
     <row r="89" hidden="1" spans="1:14">
@@ -5023,19 +5026,19 @@
         <v>26</v>
       </c>
       <c r="J89">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K89">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L89">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M89">
-        <v>0.562</v>
+        <v>0.5609</v>
       </c>
       <c r="N89">
-        <v>0.6504</v>
+        <v>0.6642</v>
       </c>
     </row>
     <row r="90" hidden="1" spans="1:14">
@@ -5067,19 +5070,19 @@
         <v>27</v>
       </c>
       <c r="J90">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="K90">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L90">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M90">
-        <v>0.5528</v>
+        <v>0.5558</v>
       </c>
       <c r="N90">
-        <v>0.59</v>
+        <v>0.6002</v>
       </c>
     </row>
     <row r="91" hidden="1" spans="1:14">
@@ -5111,19 +5114,19 @@
         <v>28</v>
       </c>
       <c r="J91">
-        <v>2653</v>
+        <v>2727</v>
       </c>
       <c r="K91">
-        <v>1808</v>
+        <v>1863</v>
       </c>
       <c r="L91">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="M91">
-        <v>0.6815</v>
+        <v>0.6832</v>
       </c>
       <c r="N91">
-        <v>0.4681</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="92" hidden="1" spans="1:14">
@@ -5155,19 +5158,19 @@
         <v>15</v>
       </c>
       <c r="J92">
-        <v>21859</v>
+        <v>22136</v>
       </c>
       <c r="K92">
-        <v>15554</v>
+        <v>15775</v>
       </c>
       <c r="L92">
-        <v>9651</v>
+        <v>9865</v>
       </c>
       <c r="M92">
-        <v>0.7116</v>
+        <v>0.7126</v>
       </c>
       <c r="N92">
-        <v>0.4415</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="93" hidden="1" spans="1:14">
@@ -5199,19 +5202,19 @@
         <v>17</v>
       </c>
       <c r="J93">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K93">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L93">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M93">
-        <v>0.5639</v>
+        <v>0.5678</v>
       </c>
       <c r="N93">
-        <v>0.6147</v>
+        <v>0.6175</v>
       </c>
     </row>
     <row r="94" hidden="1" spans="1:14">
@@ -5243,19 +5246,19 @@
         <v>18</v>
       </c>
       <c r="J94">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K94">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L94">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M94">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N94">
-        <v>0.4909</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="95" hidden="1" spans="1:14">
@@ -5287,19 +5290,19 @@
         <v>19</v>
       </c>
       <c r="J95">
-        <v>2874</v>
+        <v>2941</v>
       </c>
       <c r="K95">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="L95">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="M95">
-        <v>0.6263</v>
+        <v>0.6222</v>
       </c>
       <c r="N95">
-        <v>0.4283</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="96" hidden="1" spans="1:14">
@@ -5331,19 +5334,19 @@
         <v>20</v>
       </c>
       <c r="J96">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K96">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L96">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M96">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N96">
-        <v>0.6218</v>
+        <v>0.6235</v>
       </c>
     </row>
     <row r="97" hidden="1" spans="1:14">
@@ -5375,19 +5378,19 @@
         <v>21</v>
       </c>
       <c r="J97">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="K97">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="L97">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="M97">
-        <v>0.6791</v>
+        <v>0.6763</v>
       </c>
       <c r="N97">
-        <v>0.6207</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="98" hidden="1" spans="1:14">
@@ -5419,19 +5422,19 @@
         <v>22</v>
       </c>
       <c r="J98">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K98">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L98">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M98">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N98">
-        <v>0.5634</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="99" hidden="1" spans="1:14">
@@ -5463,19 +5466,19 @@
         <v>23</v>
       </c>
       <c r="J99">
-        <v>5353</v>
+        <v>5655</v>
       </c>
       <c r="K99">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="L99">
-        <v>2455</v>
+        <v>2620</v>
       </c>
       <c r="M99">
-        <v>0.6154</v>
+        <v>0.6218</v>
       </c>
       <c r="N99">
-        <v>0.4586</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="100" hidden="1" spans="1:14">
@@ -5545,19 +5548,19 @@
         <v>25</v>
       </c>
       <c r="J101">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="K101">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="L101">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M101">
-        <v>0.6441</v>
+        <v>0.6442</v>
       </c>
       <c r="N101">
-        <v>0.5102</v>
+        <v>0.5162</v>
       </c>
     </row>
     <row r="102" hidden="1" spans="1:14">
@@ -5589,19 +5592,19 @@
         <v>26</v>
       </c>
       <c r="J102">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K102">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L102">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M102">
-        <v>0.562</v>
+        <v>0.5609</v>
       </c>
       <c r="N102">
-        <v>0.6504</v>
+        <v>0.6642</v>
       </c>
     </row>
     <row r="103" hidden="1" spans="1:14">
@@ -5633,19 +5636,19 @@
         <v>27</v>
       </c>
       <c r="J103">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="K103">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L103">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M103">
-        <v>0.5528</v>
+        <v>0.5558</v>
       </c>
       <c r="N103">
-        <v>0.59</v>
+        <v>0.6002</v>
       </c>
     </row>
     <row r="104" hidden="1" spans="1:14">
@@ -5677,19 +5680,19 @@
         <v>28</v>
       </c>
       <c r="J104">
-        <v>2653</v>
+        <v>2727</v>
       </c>
       <c r="K104">
-        <v>1808</v>
+        <v>1863</v>
       </c>
       <c r="L104">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="M104">
-        <v>0.6815</v>
+        <v>0.6832</v>
       </c>
       <c r="N104">
-        <v>0.4681</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="105" hidden="1" spans="1:14">
@@ -5721,19 +5724,19 @@
         <v>29</v>
       </c>
       <c r="J105">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K105">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L105">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M105">
-        <v>0.7006</v>
+        <v>0.6981</v>
       </c>
       <c r="N105">
-        <v>0.5218</v>
+        <v>0.5204</v>
       </c>
     </row>
     <row r="106" hidden="1" spans="1:14">
@@ -5765,19 +5768,19 @@
         <v>30</v>
       </c>
       <c r="J106">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="K106">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L106">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M106">
-        <v>0.5833</v>
+        <v>0.5827</v>
       </c>
       <c r="N106">
-        <v>0.4837</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="107" hidden="1" spans="1:14">
@@ -5809,19 +5812,19 @@
         <v>31</v>
       </c>
       <c r="J107">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="K107">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="L107">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="M107">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="N107">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="108" hidden="1" spans="1:14">
@@ -5853,19 +5856,19 @@
         <v>32</v>
       </c>
       <c r="J108">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="K108">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="L108">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="M108">
-        <v>0.6875</v>
+        <v>0.6876</v>
       </c>
       <c r="N108">
-        <v>0.6297</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="109" hidden="1" spans="1:14">
@@ -5897,19 +5900,19 @@
         <v>33</v>
       </c>
       <c r="J109">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="K109">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L109">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M109">
-        <v>0.5329</v>
+        <v>0.5343</v>
       </c>
       <c r="N109">
-        <v>0.501</v>
+        <v>0.5089</v>
       </c>
     </row>
     <row r="110" hidden="1" spans="1:14">
@@ -5941,19 +5944,19 @@
         <v>29</v>
       </c>
       <c r="J110">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K110">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L110">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M110">
-        <v>0.7006</v>
+        <v>0.6981</v>
       </c>
       <c r="N110">
-        <v>0.5218</v>
+        <v>0.5204</v>
       </c>
     </row>
     <row r="111" hidden="1" spans="1:14">
@@ -5985,19 +5988,19 @@
         <v>30</v>
       </c>
       <c r="J111">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="K111">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L111">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M111">
-        <v>0.5833</v>
+        <v>0.5827</v>
       </c>
       <c r="N111">
-        <v>0.4837</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="112" hidden="1" spans="1:14">
@@ -6029,19 +6032,19 @@
         <v>31</v>
       </c>
       <c r="J112">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="K112">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="L112">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="M112">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="N112">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="113" hidden="1" spans="1:14">
@@ -6073,19 +6076,19 @@
         <v>32</v>
       </c>
       <c r="J113">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="K113">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="L113">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="M113">
-        <v>0.6875</v>
+        <v>0.6876</v>
       </c>
       <c r="N113">
-        <v>0.6297</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="114" hidden="1" spans="1:14">
@@ -6117,19 +6120,19 @@
         <v>33</v>
       </c>
       <c r="J114">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="K114">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L114">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M114">
-        <v>0.5329</v>
+        <v>0.5343</v>
       </c>
       <c r="N114">
-        <v>0.501</v>
+        <v>0.5089</v>
       </c>
     </row>
     <row r="115" hidden="1" spans="1:14">
@@ -6161,19 +6164,19 @@
         <v>15</v>
       </c>
       <c r="J115">
-        <v>21859</v>
+        <v>22136</v>
       </c>
       <c r="K115">
-        <v>15554</v>
+        <v>15775</v>
       </c>
       <c r="L115">
-        <v>9651</v>
+        <v>9865</v>
       </c>
       <c r="M115">
-        <v>0.7116</v>
+        <v>0.7126</v>
       </c>
       <c r="N115">
-        <v>0.4415</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="116" hidden="1" spans="1:14">
@@ -6205,19 +6208,19 @@
         <v>17</v>
       </c>
       <c r="J116">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K116">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L116">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M116">
-        <v>0.5639</v>
+        <v>0.5678</v>
       </c>
       <c r="N116">
-        <v>0.6147</v>
+        <v>0.6175</v>
       </c>
     </row>
     <row r="117" hidden="1" spans="1:14">
@@ -6249,19 +6252,19 @@
         <v>18</v>
       </c>
       <c r="J117">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K117">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L117">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M117">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N117">
-        <v>0.4909</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="118" hidden="1" spans="1:14">
@@ -6293,19 +6296,19 @@
         <v>19</v>
       </c>
       <c r="J118">
-        <v>2874</v>
+        <v>2941</v>
       </c>
       <c r="K118">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="L118">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="M118">
-        <v>0.6263</v>
+        <v>0.6222</v>
       </c>
       <c r="N118">
-        <v>0.4283</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="119" hidden="1" spans="1:14">
@@ -6337,19 +6340,19 @@
         <v>20</v>
       </c>
       <c r="J119">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K119">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L119">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M119">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N119">
-        <v>0.6218</v>
+        <v>0.6235</v>
       </c>
     </row>
     <row r="120" hidden="1" spans="1:14">
@@ -6381,19 +6384,19 @@
         <v>21</v>
       </c>
       <c r="J120">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="K120">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="L120">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="M120">
-        <v>0.6791</v>
+        <v>0.6763</v>
       </c>
       <c r="N120">
-        <v>0.6207</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="121" hidden="1" spans="1:14">
@@ -6425,19 +6428,19 @@
         <v>22</v>
       </c>
       <c r="J121">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K121">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L121">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M121">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N121">
-        <v>0.5634</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="122" hidden="1" spans="1:14">
@@ -6469,19 +6472,19 @@
         <v>23</v>
       </c>
       <c r="J122">
-        <v>5353</v>
+        <v>5655</v>
       </c>
       <c r="K122">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="L122">
-        <v>2455</v>
+        <v>2620</v>
       </c>
       <c r="M122">
-        <v>0.6154</v>
+        <v>0.6218</v>
       </c>
       <c r="N122">
-        <v>0.4586</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="123" hidden="1" spans="1:14">
@@ -6551,19 +6554,19 @@
         <v>25</v>
       </c>
       <c r="J124">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="K124">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="L124">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M124">
-        <v>0.6441</v>
+        <v>0.6442</v>
       </c>
       <c r="N124">
-        <v>0.5102</v>
+        <v>0.5162</v>
       </c>
     </row>
     <row r="125" hidden="1" spans="1:14">
@@ -6595,19 +6598,19 @@
         <v>26</v>
       </c>
       <c r="J125">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K125">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L125">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M125">
-        <v>0.562</v>
+        <v>0.5609</v>
       </c>
       <c r="N125">
-        <v>0.6504</v>
+        <v>0.6642</v>
       </c>
     </row>
     <row r="126" hidden="1" spans="1:14">
@@ -6639,19 +6642,19 @@
         <v>27</v>
       </c>
       <c r="J126">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="K126">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L126">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M126">
-        <v>0.5528</v>
+        <v>0.5558</v>
       </c>
       <c r="N126">
-        <v>0.59</v>
+        <v>0.6002</v>
       </c>
     </row>
     <row r="127" hidden="1" spans="1:14">
@@ -6683,19 +6686,19 @@
         <v>28</v>
       </c>
       <c r="J127">
-        <v>2653</v>
+        <v>2727</v>
       </c>
       <c r="K127">
-        <v>1808</v>
+        <v>1863</v>
       </c>
       <c r="L127">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="M127">
-        <v>0.6815</v>
+        <v>0.6832</v>
       </c>
       <c r="N127">
-        <v>0.4681</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="128" hidden="1" spans="1:14">
@@ -6727,19 +6730,19 @@
         <v>15</v>
       </c>
       <c r="J128">
-        <v>21859</v>
+        <v>22136</v>
       </c>
       <c r="K128">
-        <v>15554</v>
+        <v>15775</v>
       </c>
       <c r="L128">
-        <v>9651</v>
+        <v>9865</v>
       </c>
       <c r="M128">
-        <v>0.7116</v>
+        <v>0.7126</v>
       </c>
       <c r="N128">
-        <v>0.4415</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="129" hidden="1" spans="1:14">
@@ -6771,19 +6774,19 @@
         <v>17</v>
       </c>
       <c r="J129">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K129">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L129">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M129">
-        <v>0.5639</v>
+        <v>0.5678</v>
       </c>
       <c r="N129">
-        <v>0.6147</v>
+        <v>0.6175</v>
       </c>
     </row>
     <row r="130" hidden="1" spans="1:14">
@@ -6815,19 +6818,19 @@
         <v>18</v>
       </c>
       <c r="J130">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K130">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L130">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M130">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N130">
-        <v>0.4909</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="131" hidden="1" spans="1:14">
@@ -6859,19 +6862,19 @@
         <v>19</v>
       </c>
       <c r="J131">
-        <v>2874</v>
+        <v>2941</v>
       </c>
       <c r="K131">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="L131">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="M131">
-        <v>0.6263</v>
+        <v>0.6222</v>
       </c>
       <c r="N131">
-        <v>0.4283</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="132" hidden="1" spans="1:14">
@@ -6903,19 +6906,19 @@
         <v>20</v>
       </c>
       <c r="J132">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K132">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L132">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M132">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N132">
-        <v>0.6218</v>
+        <v>0.6235</v>
       </c>
     </row>
     <row r="133" hidden="1" spans="1:14">
@@ -6941,19 +6944,19 @@
         <v>41</v>
       </c>
       <c r="J133">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L133">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M133">
         <v>0.5</v>
       </c>
       <c r="N133">
-        <v>0.9</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="134" hidden="1" spans="1:14">
@@ -6985,19 +6988,19 @@
         <v>21</v>
       </c>
       <c r="J134">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="K134">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="L134">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="M134">
-        <v>0.6791</v>
+        <v>0.6763</v>
       </c>
       <c r="N134">
-        <v>0.6207</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="135" hidden="1" spans="1:14">
@@ -7029,19 +7032,19 @@
         <v>22</v>
       </c>
       <c r="J135">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K135">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L135">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M135">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N135">
-        <v>0.5634</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="136" hidden="1" spans="1:14">
@@ -7073,19 +7076,19 @@
         <v>23</v>
       </c>
       <c r="J136">
-        <v>5353</v>
+        <v>5655</v>
       </c>
       <c r="K136">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="L136">
-        <v>2455</v>
+        <v>2620</v>
       </c>
       <c r="M136">
-        <v>0.6154</v>
+        <v>0.6218</v>
       </c>
       <c r="N136">
-        <v>0.4586</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="137" hidden="1" spans="1:14">
@@ -7111,19 +7114,19 @@
         <v>42</v>
       </c>
       <c r="J137">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K137">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L137">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M137">
-        <v>0.3571</v>
+        <v>0.4211</v>
       </c>
       <c r="N137">
-        <v>0.5714</v>
+        <v>0.5789</v>
       </c>
     </row>
     <row r="138" hidden="1" spans="1:14">
@@ -7225,22 +7228,22 @@
         <v>25</v>
       </c>
       <c r="J140">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="K140">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="L140">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M140">
-        <v>0.6441</v>
+        <v>0.6442</v>
       </c>
       <c r="N140">
-        <v>0.5102</v>
-      </c>
-    </row>
-    <row r="141" hidden="1" spans="1:12">
+        <v>0.5162</v>
+      </c>
+    </row>
+    <row r="141" hidden="1" spans="1:14">
       <c r="A141" t="s">
         <v>40</v>
       </c>
@@ -7263,13 +7266,19 @@
         <v>44</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>0.5</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
       </c>
     </row>
     <row r="142" hidden="1" spans="1:14">
@@ -7301,19 +7310,19 @@
         <v>26</v>
       </c>
       <c r="J142">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K142">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L142">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M142">
-        <v>0.562</v>
+        <v>0.5609</v>
       </c>
       <c r="N142">
-        <v>0.6504</v>
+        <v>0.6642</v>
       </c>
     </row>
     <row r="143" hidden="1" spans="1:14">
@@ -7345,19 +7354,19 @@
         <v>27</v>
       </c>
       <c r="J143">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="K143">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L143">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M143">
-        <v>0.5528</v>
+        <v>0.5558</v>
       </c>
       <c r="N143">
-        <v>0.59</v>
+        <v>0.6002</v>
       </c>
     </row>
     <row r="144" hidden="1" spans="1:14">
@@ -7389,19 +7398,19 @@
         <v>28</v>
       </c>
       <c r="J144">
-        <v>2653</v>
+        <v>2727</v>
       </c>
       <c r="K144">
-        <v>1808</v>
+        <v>1863</v>
       </c>
       <c r="L144">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="M144">
-        <v>0.6815</v>
+        <v>0.6832</v>
       </c>
       <c r="N144">
-        <v>0.4681</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="145" hidden="1" spans="1:14">
@@ -7433,19 +7442,19 @@
         <v>29</v>
       </c>
       <c r="J145">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K145">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L145">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M145">
-        <v>0.7006</v>
+        <v>0.6981</v>
       </c>
       <c r="N145">
-        <v>0.5218</v>
+        <v>0.5204</v>
       </c>
     </row>
     <row r="146" hidden="1" spans="1:14">
@@ -7477,19 +7486,19 @@
         <v>30</v>
       </c>
       <c r="J146">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="K146">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L146">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M146">
-        <v>0.5833</v>
+        <v>0.5827</v>
       </c>
       <c r="N146">
-        <v>0.4837</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="147" hidden="1" spans="1:14">
@@ -7521,19 +7530,19 @@
         <v>31</v>
       </c>
       <c r="J147">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="K147">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="L147">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="M147">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="N147">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="148" hidden="1" spans="1:14">
@@ -7565,19 +7574,19 @@
         <v>32</v>
       </c>
       <c r="J148">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="K148">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="L148">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="M148">
-        <v>0.6875</v>
+        <v>0.6876</v>
       </c>
       <c r="N148">
-        <v>0.6297</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="149" hidden="1" spans="1:14">
@@ -7691,19 +7700,19 @@
         <v>33</v>
       </c>
       <c r="J151">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="K151">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L151">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M151">
-        <v>0.5329</v>
+        <v>0.5343</v>
       </c>
       <c r="N151">
-        <v>0.501</v>
+        <v>0.5089</v>
       </c>
     </row>
     <row r="152" hidden="1" spans="1:14">
@@ -7735,19 +7744,19 @@
         <v>15</v>
       </c>
       <c r="J152">
-        <v>21859</v>
+        <v>22136</v>
       </c>
       <c r="K152">
-        <v>15554</v>
+        <v>15775</v>
       </c>
       <c r="L152">
-        <v>9651</v>
+        <v>9865</v>
       </c>
       <c r="M152">
-        <v>0.7116</v>
+        <v>0.7126</v>
       </c>
       <c r="N152">
-        <v>0.4415</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="153" hidden="1" spans="1:14">
@@ -7779,19 +7788,19 @@
         <v>17</v>
       </c>
       <c r="J153">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K153">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L153">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M153">
-        <v>0.5639</v>
+        <v>0.5678</v>
       </c>
       <c r="N153">
-        <v>0.6147</v>
+        <v>0.6175</v>
       </c>
     </row>
     <row r="154" hidden="1" spans="1:14">
@@ -7823,19 +7832,19 @@
         <v>18</v>
       </c>
       <c r="J154">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K154">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L154">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M154">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N154">
-        <v>0.4909</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="155" hidden="1" spans="1:14">
@@ -7867,19 +7876,19 @@
         <v>19</v>
       </c>
       <c r="J155">
-        <v>2874</v>
+        <v>2941</v>
       </c>
       <c r="K155">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="L155">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="M155">
-        <v>0.6263</v>
+        <v>0.6222</v>
       </c>
       <c r="N155">
-        <v>0.4283</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="156" hidden="1" spans="1:14">
@@ -7911,19 +7920,19 @@
         <v>20</v>
       </c>
       <c r="J156">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K156">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L156">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M156">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N156">
-        <v>0.6218</v>
+        <v>0.6235</v>
       </c>
     </row>
     <row r="157" hidden="1" spans="1:14">
@@ -7955,19 +7964,19 @@
         <v>41</v>
       </c>
       <c r="J157">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K157">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L157">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M157">
         <v>0.5</v>
       </c>
       <c r="N157">
-        <v>0.9</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="158" hidden="1" spans="1:14">
@@ -7999,19 +8008,19 @@
         <v>21</v>
       </c>
       <c r="J158">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="K158">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="L158">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="M158">
-        <v>0.6791</v>
+        <v>0.6763</v>
       </c>
       <c r="N158">
-        <v>0.6207</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="159" hidden="1" spans="1:14">
@@ -8043,19 +8052,19 @@
         <v>22</v>
       </c>
       <c r="J159">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K159">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L159">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M159">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N159">
-        <v>0.5634</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="160" hidden="1" spans="1:14">
@@ -8087,19 +8096,19 @@
         <v>23</v>
       </c>
       <c r="J160">
-        <v>5353</v>
+        <v>5655</v>
       </c>
       <c r="K160">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="L160">
-        <v>2455</v>
+        <v>2620</v>
       </c>
       <c r="M160">
-        <v>0.6154</v>
+        <v>0.6218</v>
       </c>
       <c r="N160">
-        <v>0.4586</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="161" hidden="1" spans="1:14">
@@ -8125,19 +8134,19 @@
         <v>42</v>
       </c>
       <c r="J161">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K161">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L161">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M161">
-        <v>0.3571</v>
+        <v>0.4211</v>
       </c>
       <c r="N161">
-        <v>0.5714</v>
+        <v>0.5789</v>
       </c>
     </row>
     <row r="162" hidden="1" spans="1:14">
@@ -8239,22 +8248,22 @@
         <v>25</v>
       </c>
       <c r="J164">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="K164">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="L164">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M164">
-        <v>0.6441</v>
+        <v>0.6442</v>
       </c>
       <c r="N164">
-        <v>0.5102</v>
-      </c>
-    </row>
-    <row r="165" hidden="1" spans="1:12">
+        <v>0.5162</v>
+      </c>
+    </row>
+    <row r="165" hidden="1" spans="1:14">
       <c r="A165" t="s">
         <v>47</v>
       </c>
@@ -8277,13 +8286,19 @@
         <v>44</v>
       </c>
       <c r="J165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>0.5</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
       </c>
     </row>
     <row r="166" hidden="1" spans="1:14">
@@ -8315,19 +8330,19 @@
         <v>26</v>
       </c>
       <c r="J166">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K166">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L166">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M166">
-        <v>0.562</v>
+        <v>0.5609</v>
       </c>
       <c r="N166">
-        <v>0.6504</v>
+        <v>0.6642</v>
       </c>
     </row>
     <row r="167" hidden="1" spans="1:14">
@@ -8359,19 +8374,19 @@
         <v>27</v>
       </c>
       <c r="J167">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="K167">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L167">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M167">
-        <v>0.5528</v>
+        <v>0.5558</v>
       </c>
       <c r="N167">
-        <v>0.59</v>
+        <v>0.6002</v>
       </c>
     </row>
     <row r="168" hidden="1" spans="1:14">
@@ -8403,19 +8418,19 @@
         <v>28</v>
       </c>
       <c r="J168">
-        <v>2653</v>
+        <v>2727</v>
       </c>
       <c r="K168">
-        <v>1808</v>
+        <v>1863</v>
       </c>
       <c r="L168">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="M168">
-        <v>0.6815</v>
+        <v>0.6832</v>
       </c>
       <c r="N168">
-        <v>0.4681</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="169" hidden="1" spans="1:14">
@@ -8447,19 +8462,19 @@
         <v>29</v>
       </c>
       <c r="J169">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K169">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L169">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M169">
-        <v>0.7006</v>
+        <v>0.6981</v>
       </c>
       <c r="N169">
-        <v>0.5218</v>
+        <v>0.5204</v>
       </c>
     </row>
     <row r="170" hidden="1" spans="1:14">
@@ -8491,19 +8506,19 @@
         <v>30</v>
       </c>
       <c r="J170">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="K170">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L170">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M170">
-        <v>0.5833</v>
+        <v>0.5827</v>
       </c>
       <c r="N170">
-        <v>0.4837</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="171" hidden="1" spans="1:14">
@@ -8535,19 +8550,19 @@
         <v>31</v>
       </c>
       <c r="J171">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="K171">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="L171">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="M171">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="N171">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="172" hidden="1" spans="1:14">
@@ -8579,19 +8594,19 @@
         <v>32</v>
       </c>
       <c r="J172">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="K172">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="L172">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="M172">
-        <v>0.6875</v>
+        <v>0.6876</v>
       </c>
       <c r="N172">
-        <v>0.6297</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="173" hidden="1" spans="1:14">
@@ -8705,19 +8720,19 @@
         <v>33</v>
       </c>
       <c r="J175">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="K175">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L175">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M175">
-        <v>0.5329</v>
+        <v>0.5343</v>
       </c>
       <c r="N175">
-        <v>0.501</v>
+        <v>0.5089</v>
       </c>
     </row>
     <row r="176" hidden="1" spans="1:14">
@@ -8749,19 +8764,19 @@
         <v>15</v>
       </c>
       <c r="J176">
-        <v>21859</v>
+        <v>22136</v>
       </c>
       <c r="K176">
-        <v>15554</v>
+        <v>15775</v>
       </c>
       <c r="L176">
-        <v>9651</v>
+        <v>9865</v>
       </c>
       <c r="M176">
-        <v>0.7116</v>
+        <v>0.7126</v>
       </c>
       <c r="N176">
-        <v>0.4415</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="177" hidden="1" spans="1:14">
@@ -8793,19 +8808,19 @@
         <v>17</v>
       </c>
       <c r="J177">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K177">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L177">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M177">
-        <v>0.5639</v>
+        <v>0.5678</v>
       </c>
       <c r="N177">
-        <v>0.6147</v>
+        <v>0.6175</v>
       </c>
     </row>
     <row r="178" hidden="1" spans="1:14">
@@ -8837,19 +8852,19 @@
         <v>18</v>
       </c>
       <c r="J178">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K178">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L178">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M178">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N178">
-        <v>0.4909</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="179" hidden="1" spans="1:14">
@@ -8881,19 +8896,19 @@
         <v>19</v>
       </c>
       <c r="J179">
-        <v>2874</v>
+        <v>2941</v>
       </c>
       <c r="K179">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="L179">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="M179">
-        <v>0.6263</v>
+        <v>0.6222</v>
       </c>
       <c r="N179">
-        <v>0.4283</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="180" hidden="1" spans="1:14">
@@ -8925,19 +8940,19 @@
         <v>20</v>
       </c>
       <c r="J180">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K180">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L180">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M180">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N180">
-        <v>0.6218</v>
+        <v>0.6235</v>
       </c>
     </row>
     <row r="181" hidden="1" spans="1:14">
@@ -8969,19 +8984,19 @@
         <v>41</v>
       </c>
       <c r="J181">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K181">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L181">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M181">
         <v>0.5</v>
       </c>
       <c r="N181">
-        <v>0.9</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="182" hidden="1" spans="1:14">
@@ -9013,19 +9028,19 @@
         <v>21</v>
       </c>
       <c r="J182">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="K182">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="L182">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="M182">
-        <v>0.6791</v>
+        <v>0.6763</v>
       </c>
       <c r="N182">
-        <v>0.6207</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="183" hidden="1" spans="1:14">
@@ -9057,19 +9072,19 @@
         <v>22</v>
       </c>
       <c r="J183">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K183">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L183">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M183">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N183">
-        <v>0.5634</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="184" hidden="1" spans="1:14">
@@ -9101,19 +9116,19 @@
         <v>23</v>
       </c>
       <c r="J184">
-        <v>5353</v>
+        <v>5655</v>
       </c>
       <c r="K184">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="L184">
-        <v>2455</v>
+        <v>2620</v>
       </c>
       <c r="M184">
-        <v>0.6154</v>
+        <v>0.6218</v>
       </c>
       <c r="N184">
-        <v>0.4586</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="185" hidden="1" spans="1:14">
@@ -9145,19 +9160,19 @@
         <v>42</v>
       </c>
       <c r="J185">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K185">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L185">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M185">
-        <v>0.3571</v>
+        <v>0.4211</v>
       </c>
       <c r="N185">
-        <v>0.5714</v>
+        <v>0.5789</v>
       </c>
     </row>
     <row r="186" hidden="1" spans="1:14">
@@ -9259,22 +9274,22 @@
         <v>25</v>
       </c>
       <c r="J188">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="K188">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="L188">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M188">
-        <v>0.6441</v>
+        <v>0.6442</v>
       </c>
       <c r="N188">
-        <v>0.5102</v>
-      </c>
-    </row>
-    <row r="189" hidden="1" spans="1:12">
+        <v>0.5162</v>
+      </c>
+    </row>
+    <row r="189" hidden="1" spans="1:14">
       <c r="A189" t="s">
         <v>48</v>
       </c>
@@ -9297,13 +9312,19 @@
         <v>44</v>
       </c>
       <c r="J189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>0.5</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
       </c>
     </row>
     <row r="190" hidden="1" spans="1:14">
@@ -9335,19 +9356,19 @@
         <v>26</v>
       </c>
       <c r="J190">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K190">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L190">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M190">
-        <v>0.562</v>
+        <v>0.5609</v>
       </c>
       <c r="N190">
-        <v>0.6504</v>
+        <v>0.6642</v>
       </c>
     </row>
     <row r="191" hidden="1" spans="1:14">
@@ -9379,19 +9400,19 @@
         <v>27</v>
       </c>
       <c r="J191">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="K191">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L191">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M191">
-        <v>0.5528</v>
+        <v>0.5558</v>
       </c>
       <c r="N191">
-        <v>0.59</v>
+        <v>0.6002</v>
       </c>
     </row>
     <row r="192" hidden="1" spans="1:14">
@@ -9423,19 +9444,19 @@
         <v>28</v>
       </c>
       <c r="J192">
-        <v>2653</v>
+        <v>2727</v>
       </c>
       <c r="K192">
-        <v>1808</v>
+        <v>1863</v>
       </c>
       <c r="L192">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="M192">
-        <v>0.6815</v>
+        <v>0.6832</v>
       </c>
       <c r="N192">
-        <v>0.4681</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="193" hidden="1" spans="1:14">
@@ -9467,19 +9488,19 @@
         <v>29</v>
       </c>
       <c r="J193">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K193">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L193">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M193">
-        <v>0.7006</v>
+        <v>0.6981</v>
       </c>
       <c r="N193">
-        <v>0.5218</v>
+        <v>0.5204</v>
       </c>
     </row>
     <row r="194" hidden="1" spans="1:14">
@@ -9511,19 +9532,19 @@
         <v>30</v>
       </c>
       <c r="J194">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="K194">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L194">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M194">
-        <v>0.5833</v>
+        <v>0.5827</v>
       </c>
       <c r="N194">
-        <v>0.4837</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="195" hidden="1" spans="1:14">
@@ -9555,19 +9576,19 @@
         <v>31</v>
       </c>
       <c r="J195">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="K195">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="L195">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="M195">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="N195">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="196" hidden="1" spans="1:14">
@@ -9599,19 +9620,19 @@
         <v>32</v>
       </c>
       <c r="J196">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="K196">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="L196">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="M196">
-        <v>0.6875</v>
+        <v>0.6876</v>
       </c>
       <c r="N196">
-        <v>0.6297</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="197" hidden="1" spans="1:14">
@@ -9725,19 +9746,19 @@
         <v>33</v>
       </c>
       <c r="J199">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="K199">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L199">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M199">
-        <v>0.5329</v>
+        <v>0.5343</v>
       </c>
       <c r="N199">
-        <v>0.501</v>
+        <v>0.5089</v>
       </c>
     </row>
     <row r="200" hidden="1" spans="1:14">
@@ -9769,19 +9790,19 @@
         <v>29</v>
       </c>
       <c r="J200">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K200">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L200">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M200">
-        <v>0.7006</v>
+        <v>0.6981</v>
       </c>
       <c r="N200">
-        <v>0.5218</v>
+        <v>0.5204</v>
       </c>
     </row>
     <row r="201" hidden="1" spans="1:14">
@@ -9813,19 +9834,19 @@
         <v>30</v>
       </c>
       <c r="J201">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="K201">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L201">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M201">
-        <v>0.5833</v>
+        <v>0.5827</v>
       </c>
       <c r="N201">
-        <v>0.4837</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="202" hidden="1" spans="1:14">
@@ -9857,19 +9878,19 @@
         <v>31</v>
       </c>
       <c r="J202">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="K202">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="L202">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="M202">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="N202">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="203" hidden="1" spans="1:14">
@@ -9901,19 +9922,19 @@
         <v>32</v>
       </c>
       <c r="J203">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="K203">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="L203">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="M203">
-        <v>0.6875</v>
+        <v>0.6876</v>
       </c>
       <c r="N203">
-        <v>0.6297</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="204" hidden="1" spans="1:14">
@@ -10027,19 +10048,19 @@
         <v>33</v>
       </c>
       <c r="J206">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="K206">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L206">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M206">
-        <v>0.5329</v>
+        <v>0.5343</v>
       </c>
       <c r="N206">
-        <v>0.501</v>
+        <v>0.5089</v>
       </c>
     </row>
     <row r="207" hidden="1" spans="1:14">
@@ -10071,19 +10092,19 @@
         <v>15</v>
       </c>
       <c r="J207">
-        <v>21859</v>
+        <v>22136</v>
       </c>
       <c r="K207">
-        <v>15554</v>
+        <v>15775</v>
       </c>
       <c r="L207">
-        <v>9651</v>
+        <v>9865</v>
       </c>
       <c r="M207">
-        <v>0.7116</v>
+        <v>0.7126</v>
       </c>
       <c r="N207">
-        <v>0.4415</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="208" hidden="1" spans="1:14">
@@ -10115,19 +10136,19 @@
         <v>17</v>
       </c>
       <c r="J208">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K208">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L208">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M208">
-        <v>0.5639</v>
+        <v>0.5678</v>
       </c>
       <c r="N208">
-        <v>0.6147</v>
+        <v>0.6175</v>
       </c>
     </row>
     <row r="209" hidden="1" spans="1:14">
@@ -10159,19 +10180,19 @@
         <v>18</v>
       </c>
       <c r="J209">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K209">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L209">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M209">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N209">
-        <v>0.4909</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="210" hidden="1" spans="1:14">
@@ -10203,19 +10224,19 @@
         <v>19</v>
       </c>
       <c r="J210">
-        <v>2874</v>
+        <v>2941</v>
       </c>
       <c r="K210">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="L210">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="M210">
-        <v>0.6263</v>
+        <v>0.6222</v>
       </c>
       <c r="N210">
-        <v>0.4283</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="211" hidden="1" spans="1:14">
@@ -10247,19 +10268,19 @@
         <v>20</v>
       </c>
       <c r="J211">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K211">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L211">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M211">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N211">
-        <v>0.6218</v>
+        <v>0.6235</v>
       </c>
     </row>
     <row r="212" hidden="1" spans="1:14">
@@ -10291,19 +10312,19 @@
         <v>41</v>
       </c>
       <c r="J212">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K212">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L212">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M212">
         <v>0.5</v>
       </c>
       <c r="N212">
-        <v>0.9</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="213" hidden="1" spans="1:14">
@@ -10335,19 +10356,19 @@
         <v>21</v>
       </c>
       <c r="J213">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="K213">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="L213">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="M213">
-        <v>0.6791</v>
+        <v>0.6763</v>
       </c>
       <c r="N213">
-        <v>0.6207</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="214" hidden="1" spans="1:14">
@@ -10379,19 +10400,19 @@
         <v>22</v>
       </c>
       <c r="J214">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K214">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L214">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M214">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N214">
-        <v>0.5634</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="215" hidden="1" spans="1:14">
@@ -10423,19 +10444,19 @@
         <v>23</v>
       </c>
       <c r="J215">
-        <v>5353</v>
+        <v>5655</v>
       </c>
       <c r="K215">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="L215">
-        <v>2455</v>
+        <v>2620</v>
       </c>
       <c r="M215">
-        <v>0.6154</v>
+        <v>0.6218</v>
       </c>
       <c r="N215">
-        <v>0.4586</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="216" hidden="1" spans="1:14">
@@ -10461,19 +10482,19 @@
         <v>42</v>
       </c>
       <c r="J216">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K216">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L216">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M216">
-        <v>0.3571</v>
+        <v>0.4211</v>
       </c>
       <c r="N216">
-        <v>0.5714</v>
+        <v>0.5789</v>
       </c>
     </row>
     <row r="217" hidden="1" spans="1:14">
@@ -10581,22 +10602,22 @@
         <v>25</v>
       </c>
       <c r="J219">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="K219">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="L219">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M219">
-        <v>0.6441</v>
+        <v>0.6442</v>
       </c>
       <c r="N219">
-        <v>0.5102</v>
-      </c>
-    </row>
-    <row r="220" hidden="1" spans="1:12">
+        <v>0.5162</v>
+      </c>
+    </row>
+    <row r="220" hidden="1" spans="1:14">
       <c r="A220" t="s">
         <v>49</v>
       </c>
@@ -10619,13 +10640,19 @@
         <v>44</v>
       </c>
       <c r="J220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L220">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M220">
+        <v>0.5</v>
+      </c>
+      <c r="N220">
+        <v>1</v>
       </c>
     </row>
     <row r="221" hidden="1" spans="1:14">
@@ -10657,19 +10684,19 @@
         <v>26</v>
       </c>
       <c r="J221">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K221">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L221">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M221">
-        <v>0.562</v>
+        <v>0.5609</v>
       </c>
       <c r="N221">
-        <v>0.6504</v>
+        <v>0.6642</v>
       </c>
     </row>
     <row r="222" hidden="1" spans="1:14">
@@ -10701,19 +10728,19 @@
         <v>27</v>
       </c>
       <c r="J222">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="K222">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L222">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M222">
-        <v>0.5528</v>
+        <v>0.5558</v>
       </c>
       <c r="N222">
-        <v>0.59</v>
+        <v>0.6002</v>
       </c>
     </row>
     <row r="223" hidden="1" spans="1:14">
@@ -10745,19 +10772,19 @@
         <v>28</v>
       </c>
       <c r="J223">
-        <v>2653</v>
+        <v>2727</v>
       </c>
       <c r="K223">
-        <v>1808</v>
+        <v>1863</v>
       </c>
       <c r="L223">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="M223">
-        <v>0.6815</v>
+        <v>0.6832</v>
       </c>
       <c r="N223">
-        <v>0.4681</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="224" hidden="1" spans="1:14">
@@ -10789,19 +10816,19 @@
         <v>29</v>
       </c>
       <c r="J224">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K224">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L224">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M224">
-        <v>0.7006</v>
+        <v>0.6981</v>
       </c>
       <c r="N224">
-        <v>0.5218</v>
+        <v>0.5204</v>
       </c>
     </row>
     <row r="225" hidden="1" spans="1:14">
@@ -10833,19 +10860,19 @@
         <v>30</v>
       </c>
       <c r="J225">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="K225">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L225">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M225">
-        <v>0.5833</v>
+        <v>0.5827</v>
       </c>
       <c r="N225">
-        <v>0.4837</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="226" hidden="1" spans="1:14">
@@ -10877,19 +10904,19 @@
         <v>31</v>
       </c>
       <c r="J226">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="K226">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="L226">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="M226">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="N226">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="227" hidden="1" spans="1:14">
@@ -10921,19 +10948,19 @@
         <v>32</v>
       </c>
       <c r="J227">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="K227">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="L227">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="M227">
-        <v>0.6875</v>
+        <v>0.6876</v>
       </c>
       <c r="N227">
-        <v>0.6297</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="228" hidden="1" spans="1:14">
@@ -11041,19 +11068,19 @@
         <v>33</v>
       </c>
       <c r="J230">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="K230">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L230">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M230">
-        <v>0.5329</v>
+        <v>0.5343</v>
       </c>
       <c r="N230">
-        <v>0.501</v>
+        <v>0.5089</v>
       </c>
     </row>
     <row r="231" hidden="1" spans="1:14">
@@ -11085,19 +11112,19 @@
         <v>15</v>
       </c>
       <c r="J231">
-        <v>21859</v>
+        <v>22136</v>
       </c>
       <c r="K231">
-        <v>15554</v>
+        <v>15775</v>
       </c>
       <c r="L231">
-        <v>9651</v>
+        <v>9865</v>
       </c>
       <c r="M231">
-        <v>0.7116</v>
+        <v>0.7126</v>
       </c>
       <c r="N231">
-        <v>0.4415</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="232" hidden="1" spans="1:14">
@@ -11129,19 +11156,19 @@
         <v>17</v>
       </c>
       <c r="J232">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K232">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L232">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M232">
-        <v>0.5639</v>
+        <v>0.5678</v>
       </c>
       <c r="N232">
-        <v>0.6147</v>
+        <v>0.6175</v>
       </c>
     </row>
     <row r="233" hidden="1" spans="1:14">
@@ -11173,19 +11200,19 @@
         <v>18</v>
       </c>
       <c r="J233">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K233">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L233">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M233">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N233">
-        <v>0.4909</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="234" hidden="1" spans="1:14">
@@ -11217,19 +11244,19 @@
         <v>19</v>
       </c>
       <c r="J234">
-        <v>2874</v>
+        <v>2941</v>
       </c>
       <c r="K234">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="L234">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="M234">
-        <v>0.6263</v>
+        <v>0.6222</v>
       </c>
       <c r="N234">
-        <v>0.4283</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="235" hidden="1" spans="1:14">
@@ -11261,19 +11288,19 @@
         <v>20</v>
       </c>
       <c r="J235">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K235">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L235">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M235">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N235">
-        <v>0.6218</v>
+        <v>0.6235</v>
       </c>
     </row>
     <row r="236" hidden="1" spans="1:14">
@@ -11305,19 +11332,19 @@
         <v>41</v>
       </c>
       <c r="J236">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K236">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L236">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M236">
         <v>0.5</v>
       </c>
       <c r="N236">
-        <v>0.9</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="237" hidden="1" spans="1:14">
@@ -11349,19 +11376,19 @@
         <v>21</v>
       </c>
       <c r="J237">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="K237">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="L237">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="M237">
-        <v>0.6791</v>
+        <v>0.6763</v>
       </c>
       <c r="N237">
-        <v>0.6207</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="238" hidden="1" spans="1:14">
@@ -11393,19 +11420,19 @@
         <v>22</v>
       </c>
       <c r="J238">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K238">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L238">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M238">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N238">
-        <v>0.5634</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="239" hidden="1" spans="1:14">
@@ -11437,19 +11464,19 @@
         <v>23</v>
       </c>
       <c r="J239">
-        <v>5353</v>
+        <v>5655</v>
       </c>
       <c r="K239">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="L239">
-        <v>2455</v>
+        <v>2620</v>
       </c>
       <c r="M239">
-        <v>0.6154</v>
+        <v>0.6218</v>
       </c>
       <c r="N239">
-        <v>0.4586</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="240" hidden="1" spans="1:14">
@@ -11475,19 +11502,19 @@
         <v>42</v>
       </c>
       <c r="J240">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K240">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L240">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M240">
-        <v>0.3571</v>
+        <v>0.4211</v>
       </c>
       <c r="N240">
-        <v>0.5714</v>
+        <v>0.5789</v>
       </c>
     </row>
     <row r="241" hidden="1" spans="1:14">
@@ -11595,22 +11622,22 @@
         <v>25</v>
       </c>
       <c r="J243">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="K243">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="L243">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M243">
-        <v>0.6441</v>
+        <v>0.6442</v>
       </c>
       <c r="N243">
-        <v>0.5102</v>
-      </c>
-    </row>
-    <row r="244" hidden="1" spans="1:12">
+        <v>0.5162</v>
+      </c>
+    </row>
+    <row r="244" hidden="1" spans="1:14">
       <c r="A244" t="s">
         <v>50</v>
       </c>
@@ -11633,13 +11660,19 @@
         <v>44</v>
       </c>
       <c r="J244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L244">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M244">
+        <v>0.5</v>
+      </c>
+      <c r="N244">
+        <v>1</v>
       </c>
     </row>
     <row r="245" hidden="1" spans="1:14">
@@ -11671,19 +11704,19 @@
         <v>26</v>
       </c>
       <c r="J245">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K245">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L245">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M245">
-        <v>0.562</v>
+        <v>0.5609</v>
       </c>
       <c r="N245">
-        <v>0.6504</v>
+        <v>0.6642</v>
       </c>
     </row>
     <row r="246" hidden="1" spans="1:14">
@@ -11715,19 +11748,19 @@
         <v>27</v>
       </c>
       <c r="J246">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="K246">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L246">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M246">
-        <v>0.5528</v>
+        <v>0.5558</v>
       </c>
       <c r="N246">
-        <v>0.59</v>
+        <v>0.6002</v>
       </c>
     </row>
     <row r="247" hidden="1" spans="1:14">
@@ -11759,22 +11792,22 @@
         <v>28</v>
       </c>
       <c r="J247">
-        <v>2653</v>
+        <v>2727</v>
       </c>
       <c r="K247">
-        <v>1808</v>
+        <v>1863</v>
       </c>
       <c r="L247">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="M247">
-        <v>0.6815</v>
+        <v>0.6832</v>
       </c>
       <c r="N247">
-        <v>0.4681</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14">
+        <v>0.4738</v>
+      </c>
+    </row>
+    <row r="248" hidden="1" spans="1:14">
       <c r="A248" t="s">
         <v>51</v>
       </c>
@@ -11803,22 +11836,22 @@
         <v>15</v>
       </c>
       <c r="J248">
-        <v>21859</v>
+        <v>22136</v>
       </c>
       <c r="K248">
-        <v>15554</v>
+        <v>15775</v>
       </c>
       <c r="L248">
-        <v>9651</v>
+        <v>9865</v>
       </c>
       <c r="M248">
-        <v>0.7116</v>
+        <v>0.7126</v>
       </c>
       <c r="N248">
-        <v>0.4415</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14">
+        <v>0.4457</v>
+      </c>
+    </row>
+    <row r="249" hidden="1" spans="1:14">
       <c r="A249" t="s">
         <v>51</v>
       </c>
@@ -11847,22 +11880,22 @@
         <v>17</v>
       </c>
       <c r="J249">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K249">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L249">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M249">
-        <v>0.5639</v>
+        <v>0.5678</v>
       </c>
       <c r="N249">
-        <v>0.6147</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14">
+        <v>0.6175</v>
+      </c>
+    </row>
+    <row r="250" hidden="1" spans="1:14">
       <c r="A250" t="s">
         <v>51</v>
       </c>
@@ -11891,22 +11924,22 @@
         <v>18</v>
       </c>
       <c r="J250">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K250">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L250">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M250">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N250">
-        <v>0.4909</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14">
+        <v>0.5023</v>
+      </c>
+    </row>
+    <row r="251" hidden="1" spans="1:14">
       <c r="A251" t="s">
         <v>51</v>
       </c>
@@ -11935,22 +11968,22 @@
         <v>19</v>
       </c>
       <c r="J251">
-        <v>2874</v>
+        <v>2941</v>
       </c>
       <c r="K251">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="L251">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="M251">
-        <v>0.6263</v>
+        <v>0.6222</v>
       </c>
       <c r="N251">
-        <v>0.4283</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14">
+        <v>0.4356</v>
+      </c>
+    </row>
+    <row r="252" hidden="1" spans="1:14">
       <c r="A252" t="s">
         <v>51</v>
       </c>
@@ -11979,22 +12012,22 @@
         <v>20</v>
       </c>
       <c r="J252">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K252">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L252">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M252">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N252">
-        <v>0.6218</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14">
+        <v>0.6235</v>
+      </c>
+    </row>
+    <row r="253" hidden="1" spans="1:14">
       <c r="A253" t="s">
         <v>51</v>
       </c>
@@ -12023,22 +12056,22 @@
         <v>41</v>
       </c>
       <c r="J253">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K253">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L253">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M253">
         <v>0.5</v>
       </c>
       <c r="N253">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14">
+        <v>0.9167</v>
+      </c>
+    </row>
+    <row r="254" hidden="1" spans="1:14">
       <c r="A254" t="s">
         <v>51</v>
       </c>
@@ -12067,22 +12100,22 @@
         <v>21</v>
       </c>
       <c r="J254">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="K254">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="L254">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="M254">
-        <v>0.6791</v>
+        <v>0.6763</v>
       </c>
       <c r="N254">
-        <v>0.6207</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14">
+        <v>0.6213</v>
+      </c>
+    </row>
+    <row r="255" hidden="1" spans="1:14">
       <c r="A255" t="s">
         <v>51</v>
       </c>
@@ -12111,22 +12144,22 @@
         <v>22</v>
       </c>
       <c r="J255">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K255">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L255">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M255">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N255">
-        <v>0.5634</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14">
+        <v>0.5697</v>
+      </c>
+    </row>
+    <row r="256" hidden="1" spans="1:14">
       <c r="A256" t="s">
         <v>51</v>
       </c>
@@ -12155,22 +12188,22 @@
         <v>23</v>
       </c>
       <c r="J256">
-        <v>5353</v>
+        <v>5655</v>
       </c>
       <c r="K256">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="L256">
-        <v>2455</v>
+        <v>2620</v>
       </c>
       <c r="M256">
-        <v>0.6154</v>
+        <v>0.6218</v>
       </c>
       <c r="N256">
-        <v>0.4586</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14">
+        <v>0.4633</v>
+      </c>
+    </row>
+    <row r="257" hidden="1" spans="1:14">
       <c r="A257" t="s">
         <v>51</v>
       </c>
@@ -12193,22 +12226,22 @@
         <v>42</v>
       </c>
       <c r="J257">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K257">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L257">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M257">
-        <v>0.3571</v>
+        <v>0.4211</v>
       </c>
       <c r="N257">
-        <v>0.5714</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14">
+        <v>0.5789</v>
+      </c>
+    </row>
+    <row r="258" hidden="1" spans="1:14">
       <c r="A258" t="s">
         <v>51</v>
       </c>
@@ -12252,7 +12285,7 @@
         <v>0.3846</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" hidden="1" spans="1:12">
       <c r="A259" t="s">
         <v>51</v>
       </c>
@@ -12284,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" hidden="1" spans="1:14">
       <c r="A260" t="s">
         <v>51</v>
       </c>
@@ -12313,22 +12346,22 @@
         <v>25</v>
       </c>
       <c r="J260">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="K260">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="L260">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M260">
-        <v>0.6441</v>
+        <v>0.6442</v>
       </c>
       <c r="N260">
-        <v>0.5102</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12">
+        <v>0.5162</v>
+      </c>
+    </row>
+    <row r="261" hidden="1" spans="1:14">
       <c r="A261" t="s">
         <v>51</v>
       </c>
@@ -12351,16 +12384,22 @@
         <v>44</v>
       </c>
       <c r="J261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>0.5</v>
+      </c>
+      <c r="N261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" hidden="1" spans="1:14">
       <c r="A262" t="s">
         <v>51</v>
       </c>
@@ -12389,22 +12428,22 @@
         <v>26</v>
       </c>
       <c r="J262">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K262">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L262">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M262">
-        <v>0.562</v>
+        <v>0.5609</v>
       </c>
       <c r="N262">
-        <v>0.6504</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14">
+        <v>0.6642</v>
+      </c>
+    </row>
+    <row r="263" hidden="1" spans="1:14">
       <c r="A263" t="s">
         <v>51</v>
       </c>
@@ -12433,22 +12472,22 @@
         <v>27</v>
       </c>
       <c r="J263">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="K263">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L263">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M263">
-        <v>0.5528</v>
+        <v>0.5558</v>
       </c>
       <c r="N263">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14">
+        <v>0.6002</v>
+      </c>
+    </row>
+    <row r="264" hidden="1" spans="1:14">
       <c r="A264" t="s">
         <v>51</v>
       </c>
@@ -12477,22 +12516,22 @@
         <v>28</v>
       </c>
       <c r="J264">
-        <v>2653</v>
+        <v>2727</v>
       </c>
       <c r="K264">
-        <v>1808</v>
+        <v>1863</v>
       </c>
       <c r="L264">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="M264">
-        <v>0.6815</v>
+        <v>0.6832</v>
       </c>
       <c r="N264">
-        <v>0.4681</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14">
+        <v>0.4738</v>
+      </c>
+    </row>
+    <row r="265" hidden="1" spans="1:14">
       <c r="A265" t="s">
         <v>51</v>
       </c>
@@ -12521,22 +12560,22 @@
         <v>29</v>
       </c>
       <c r="J265">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K265">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L265">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M265">
-        <v>0.7006</v>
+        <v>0.6981</v>
       </c>
       <c r="N265">
-        <v>0.5218</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14">
+        <v>0.5204</v>
+      </c>
+    </row>
+    <row r="266" hidden="1" spans="1:14">
       <c r="A266" t="s">
         <v>51</v>
       </c>
@@ -12565,22 +12604,22 @@
         <v>30</v>
       </c>
       <c r="J266">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="K266">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L266">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M266">
-        <v>0.5833</v>
+        <v>0.5827</v>
       </c>
       <c r="N266">
-        <v>0.4837</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14">
+        <v>0.4929</v>
+      </c>
+    </row>
+    <row r="267" hidden="1" spans="1:14">
       <c r="A267" t="s">
         <v>51</v>
       </c>
@@ -12609,22 +12648,22 @@
         <v>31</v>
       </c>
       <c r="J267">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="K267">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="L267">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="M267">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="N267">
-        <v>0.4992</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14">
+        <v>0.5032</v>
+      </c>
+    </row>
+    <row r="268" hidden="1" spans="1:14">
       <c r="A268" t="s">
         <v>51</v>
       </c>
@@ -12653,22 +12692,22 @@
         <v>32</v>
       </c>
       <c r="J268">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="K268">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="L268">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="M268">
-        <v>0.6875</v>
+        <v>0.6876</v>
       </c>
       <c r="N268">
-        <v>0.6297</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14">
+        <v>0.6389</v>
+      </c>
+    </row>
+    <row r="269" hidden="1" spans="1:14">
       <c r="A269" t="s">
         <v>51</v>
       </c>
@@ -12706,7 +12745,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" hidden="1" spans="1:14">
       <c r="A270" t="s">
         <v>51</v>
       </c>
@@ -12744,7 +12783,7 @@
         <v>0.7826</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" hidden="1" spans="1:14">
       <c r="A271" t="s">
         <v>51</v>
       </c>
@@ -12773,19 +12812,19 @@
         <v>33</v>
       </c>
       <c r="J271">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="K271">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L271">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M271">
-        <v>0.5329</v>
+        <v>0.5343</v>
       </c>
       <c r="N271">
-        <v>0.501</v>
+        <v>0.5089</v>
       </c>
     </row>
     <row r="272" hidden="1" spans="1:14">
@@ -12817,19 +12856,19 @@
         <v>15</v>
       </c>
       <c r="J272">
-        <v>21859</v>
+        <v>22136</v>
       </c>
       <c r="K272">
-        <v>15554</v>
+        <v>15775</v>
       </c>
       <c r="L272">
-        <v>9651</v>
+        <v>9865</v>
       </c>
       <c r="M272">
-        <v>0.7116</v>
+        <v>0.7126</v>
       </c>
       <c r="N272">
-        <v>0.4415</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="273" hidden="1" spans="1:14">
@@ -12861,19 +12900,19 @@
         <v>17</v>
       </c>
       <c r="J273">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K273">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="L273">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M273">
-        <v>0.5639</v>
+        <v>0.5678</v>
       </c>
       <c r="N273">
-        <v>0.6147</v>
+        <v>0.6175</v>
       </c>
     </row>
     <row r="274" hidden="1" spans="1:14">
@@ -12905,19 +12944,19 @@
         <v>18</v>
       </c>
       <c r="J274">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K274">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L274">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M274">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N274">
-        <v>0.4909</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="275" hidden="1" spans="1:14">
@@ -12949,19 +12988,19 @@
         <v>19</v>
       </c>
       <c r="J275">
-        <v>2874</v>
+        <v>2941</v>
       </c>
       <c r="K275">
-        <v>1800</v>
+        <v>1830</v>
       </c>
       <c r="L275">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="M275">
-        <v>0.6263</v>
+        <v>0.6222</v>
       </c>
       <c r="N275">
-        <v>0.4283</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="276" hidden="1" spans="1:14">
@@ -12993,19 +13032,19 @@
         <v>20</v>
       </c>
       <c r="J276">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K276">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L276">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M276">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N276">
-        <v>0.6218</v>
+        <v>0.6235</v>
       </c>
     </row>
     <row r="277" hidden="1" spans="1:14">
@@ -13037,19 +13076,19 @@
         <v>41</v>
       </c>
       <c r="J277">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K277">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L277">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M277">
         <v>0.5</v>
       </c>
       <c r="N277">
-        <v>0.9</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="278" hidden="1" spans="1:14">
@@ -13081,19 +13120,19 @@
         <v>21</v>
       </c>
       <c r="J278">
-        <v>1558</v>
+        <v>1600</v>
       </c>
       <c r="K278">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="L278">
-        <v>967</v>
+        <v>994</v>
       </c>
       <c r="M278">
-        <v>0.6791</v>
+        <v>0.6763</v>
       </c>
       <c r="N278">
-        <v>0.6207</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="279" hidden="1" spans="1:14">
@@ -13125,19 +13164,19 @@
         <v>22</v>
       </c>
       <c r="J279">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K279">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L279">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M279">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N279">
-        <v>0.5634</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="280" hidden="1" spans="1:14">
@@ -13169,19 +13208,19 @@
         <v>23</v>
       </c>
       <c r="J280">
-        <v>5353</v>
+        <v>5655</v>
       </c>
       <c r="K280">
-        <v>3294</v>
+        <v>3516</v>
       </c>
       <c r="L280">
-        <v>2455</v>
+        <v>2620</v>
       </c>
       <c r="M280">
-        <v>0.6154</v>
+        <v>0.6218</v>
       </c>
       <c r="N280">
-        <v>0.4586</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="281" hidden="1" spans="1:14">
@@ -13213,19 +13252,19 @@
         <v>42</v>
       </c>
       <c r="J281">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K281">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L281">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M281">
-        <v>0.3571</v>
+        <v>0.4211</v>
       </c>
       <c r="N281">
-        <v>0.5714</v>
+        <v>0.5789</v>
       </c>
     </row>
     <row r="282" hidden="1" spans="1:14">
@@ -13333,22 +13372,22 @@
         <v>25</v>
       </c>
       <c r="J284">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="K284">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="L284">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="M284">
-        <v>0.6441</v>
+        <v>0.6442</v>
       </c>
       <c r="N284">
-        <v>0.5102</v>
-      </c>
-    </row>
-    <row r="285" hidden="1" spans="1:12">
+        <v>0.5162</v>
+      </c>
+    </row>
+    <row r="285" hidden="1" spans="1:14">
       <c r="A285" t="s">
         <v>52</v>
       </c>
@@ -13371,13 +13410,19 @@
         <v>44</v>
       </c>
       <c r="J285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L285">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>0.5</v>
+      </c>
+      <c r="N285">
+        <v>1</v>
       </c>
     </row>
     <row r="286" hidden="1" spans="1:14">
@@ -13409,19 +13454,19 @@
         <v>26</v>
       </c>
       <c r="J286">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K286">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L286">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M286">
-        <v>0.562</v>
+        <v>0.5609</v>
       </c>
       <c r="N286">
-        <v>0.6504</v>
+        <v>0.6642</v>
       </c>
     </row>
     <row r="287" hidden="1" spans="1:14">
@@ -13453,19 +13498,19 @@
         <v>27</v>
       </c>
       <c r="J287">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="K287">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L287">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="M287">
-        <v>0.5528</v>
+        <v>0.5558</v>
       </c>
       <c r="N287">
-        <v>0.59</v>
+        <v>0.6002</v>
       </c>
     </row>
     <row r="288" hidden="1" spans="1:14">
@@ -13497,19 +13542,19 @@
         <v>28</v>
       </c>
       <c r="J288">
-        <v>2653</v>
+        <v>2727</v>
       </c>
       <c r="K288">
-        <v>1808</v>
+        <v>1863</v>
       </c>
       <c r="L288">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="M288">
-        <v>0.6815</v>
+        <v>0.6832</v>
       </c>
       <c r="N288">
-        <v>0.4681</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="289" hidden="1" spans="1:14">
@@ -13541,19 +13586,19 @@
         <v>29</v>
       </c>
       <c r="J289">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K289">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L289">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M289">
-        <v>0.7006</v>
+        <v>0.6981</v>
       </c>
       <c r="N289">
-        <v>0.5218</v>
+        <v>0.5204</v>
       </c>
     </row>
     <row r="290" hidden="1" spans="1:14">
@@ -13585,19 +13630,19 @@
         <v>30</v>
       </c>
       <c r="J290">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="K290">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L290">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M290">
-        <v>0.5833</v>
+        <v>0.5827</v>
       </c>
       <c r="N290">
-        <v>0.4837</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="291" hidden="1" spans="1:14">
@@ -13629,19 +13674,19 @@
         <v>31</v>
       </c>
       <c r="J291">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="K291">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="L291">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="M291">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="N291">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="292" hidden="1" spans="1:14">
@@ -13673,19 +13718,19 @@
         <v>32</v>
       </c>
       <c r="J292">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="K292">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="L292">
-        <v>1066</v>
+        <v>1088</v>
       </c>
       <c r="M292">
-        <v>0.6875</v>
+        <v>0.6876</v>
       </c>
       <c r="N292">
-        <v>0.6297</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="293" hidden="1" spans="1:14">
@@ -13793,26 +13838,1052 @@
         <v>33</v>
       </c>
       <c r="J295">
-        <v>1445</v>
+        <v>1458</v>
       </c>
       <c r="K295">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="L295">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M295">
-        <v>0.5329</v>
+        <v>0.5343</v>
       </c>
       <c r="N295">
-        <v>0.501</v>
+        <v>0.5089</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
+      <c r="A296" t="s">
+        <v>53</v>
+      </c>
+      <c r="B296" t="s">
+        <v>15</v>
+      </c>
+      <c r="C296">
+        <v>280</v>
+      </c>
+      <c r="D296">
+        <v>222</v>
+      </c>
+      <c r="E296">
+        <v>89</v>
+      </c>
+      <c r="F296">
+        <v>0.7929</v>
+      </c>
+      <c r="G296">
+        <v>0.3179</v>
+      </c>
+      <c r="H296" t="s">
+        <v>16</v>
+      </c>
+      <c r="I296" t="s">
+        <v>15</v>
+      </c>
+      <c r="J296">
+        <v>22136</v>
+      </c>
+      <c r="K296">
+        <v>15775</v>
+      </c>
+      <c r="L296">
+        <v>9865</v>
+      </c>
+      <c r="M296">
+        <v>0.7126</v>
+      </c>
+      <c r="N296">
+        <v>0.4457</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
+      <c r="A297" t="s">
+        <v>53</v>
+      </c>
+      <c r="B297" t="s">
+        <v>17</v>
+      </c>
+      <c r="C297">
+        <v>13</v>
+      </c>
+      <c r="D297">
+        <v>10</v>
+      </c>
+      <c r="E297">
+        <v>6</v>
+      </c>
+      <c r="F297">
+        <v>0.7692</v>
+      </c>
+      <c r="G297">
+        <v>0.4615</v>
+      </c>
+      <c r="H297" t="s">
+        <v>16</v>
+      </c>
+      <c r="I297" t="s">
+        <v>17</v>
+      </c>
+      <c r="J297">
+        <v>583</v>
+      </c>
+      <c r="K297">
+        <v>331</v>
+      </c>
+      <c r="L297">
+        <v>360</v>
+      </c>
+      <c r="M297">
+        <v>0.5678</v>
+      </c>
+      <c r="N297">
+        <v>0.6175</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
+      <c r="A298" t="s">
+        <v>53</v>
+      </c>
+      <c r="B298" t="s">
+        <v>18</v>
+      </c>
+      <c r="C298">
+        <v>10</v>
+      </c>
+      <c r="D298">
+        <v>5</v>
+      </c>
+      <c r="E298">
+        <v>3</v>
+      </c>
+      <c r="F298">
+        <v>0.5</v>
+      </c>
+      <c r="G298">
+        <v>0.3</v>
+      </c>
+      <c r="H298" t="s">
+        <v>16</v>
+      </c>
+      <c r="I298" t="s">
+        <v>18</v>
+      </c>
+      <c r="J298">
+        <v>1322</v>
+      </c>
+      <c r="K298">
+        <v>764</v>
+      </c>
+      <c r="L298">
+        <v>664</v>
+      </c>
+      <c r="M298">
+        <v>0.5779</v>
+      </c>
+      <c r="N298">
+        <v>0.5023</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
+      <c r="A299" t="s">
+        <v>53</v>
+      </c>
+      <c r="B299" t="s">
+        <v>19</v>
+      </c>
+      <c r="C299">
+        <v>67</v>
+      </c>
+      <c r="D299">
+        <v>29</v>
+      </c>
+      <c r="E299">
+        <v>24</v>
+      </c>
+      <c r="F299">
+        <v>0.4328</v>
+      </c>
+      <c r="G299">
+        <v>0.3582</v>
+      </c>
+      <c r="H299" t="s">
+        <v>16</v>
+      </c>
+      <c r="I299" t="s">
+        <v>19</v>
+      </c>
+      <c r="J299">
+        <v>2941</v>
+      </c>
+      <c r="K299">
+        <v>1830</v>
+      </c>
+      <c r="L299">
+        <v>1281</v>
+      </c>
+      <c r="M299">
+        <v>0.6222</v>
+      </c>
+      <c r="N299">
+        <v>0.4356</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
+      <c r="A300" t="s">
+        <v>53</v>
+      </c>
+      <c r="B300" t="s">
+        <v>20</v>
+      </c>
+      <c r="C300">
+        <v>151</v>
+      </c>
+      <c r="D300">
+        <v>112</v>
+      </c>
+      <c r="E300">
+        <v>55</v>
+      </c>
+      <c r="F300">
+        <v>0.7417</v>
+      </c>
+      <c r="G300">
+        <v>0.3642</v>
+      </c>
+      <c r="H300" t="s">
+        <v>16</v>
+      </c>
+      <c r="I300" t="s">
+        <v>20</v>
+      </c>
+      <c r="J300">
+        <v>7062</v>
+      </c>
+      <c r="K300">
+        <v>4814</v>
+      </c>
+      <c r="L300">
+        <v>4403</v>
+      </c>
+      <c r="M300">
+        <v>0.6817</v>
+      </c>
+      <c r="N300">
+        <v>0.6235</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
+      <c r="A301" t="s">
+        <v>53</v>
+      </c>
+      <c r="B301" t="s">
+        <v>41</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>2</v>
+      </c>
+      <c r="F301">
+        <v>0.5</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="H301" t="s">
+        <v>16</v>
+      </c>
+      <c r="I301" t="s">
+        <v>41</v>
+      </c>
+      <c r="J301">
+        <v>12</v>
+      </c>
+      <c r="K301">
+        <v>6</v>
+      </c>
+      <c r="L301">
+        <v>11</v>
+      </c>
+      <c r="M301">
+        <v>0.5</v>
+      </c>
+      <c r="N301">
+        <v>0.9167</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
+      <c r="A302" t="s">
+        <v>53</v>
+      </c>
+      <c r="B302" t="s">
+        <v>21</v>
+      </c>
+      <c r="C302">
+        <v>43</v>
+      </c>
+      <c r="D302">
+        <v>24</v>
+      </c>
+      <c r="E302">
+        <v>13</v>
+      </c>
+      <c r="F302">
+        <v>0.5581</v>
+      </c>
+      <c r="G302">
+        <v>0.3023</v>
+      </c>
+      <c r="H302" t="s">
+        <v>16</v>
+      </c>
+      <c r="I302" t="s">
+        <v>21</v>
+      </c>
+      <c r="J302">
+        <v>1600</v>
+      </c>
+      <c r="K302">
+        <v>1082</v>
+      </c>
+      <c r="L302">
+        <v>994</v>
+      </c>
+      <c r="M302">
+        <v>0.6763</v>
+      </c>
+      <c r="N302">
+        <v>0.6213</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
+      <c r="A303" t="s">
+        <v>53</v>
+      </c>
+      <c r="B303" t="s">
+        <v>22</v>
+      </c>
+      <c r="C303">
+        <v>9</v>
+      </c>
+      <c r="D303">
+        <v>3</v>
+      </c>
+      <c r="E303">
+        <v>4</v>
+      </c>
+      <c r="F303">
+        <v>0.3333</v>
+      </c>
+      <c r="G303">
+        <v>0.4444</v>
+      </c>
+      <c r="H303" t="s">
+        <v>16</v>
+      </c>
+      <c r="I303" t="s">
+        <v>22</v>
+      </c>
+      <c r="J303">
+        <v>1055</v>
+      </c>
+      <c r="K303">
+        <v>592</v>
+      </c>
+      <c r="L303">
+        <v>601</v>
+      </c>
+      <c r="M303">
+        <v>0.5611</v>
+      </c>
+      <c r="N303">
+        <v>0.5697</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
+      <c r="A304" t="s">
+        <v>53</v>
+      </c>
+      <c r="B304" t="s">
+        <v>23</v>
+      </c>
+      <c r="C304">
+        <v>301</v>
+      </c>
+      <c r="D304">
+        <v>220</v>
+      </c>
+      <c r="E304">
+        <v>108</v>
+      </c>
+      <c r="F304">
+        <v>0.7309</v>
+      </c>
+      <c r="G304">
+        <v>0.3588</v>
+      </c>
+      <c r="H304" t="s">
+        <v>16</v>
+      </c>
+      <c r="I304" t="s">
+        <v>23</v>
+      </c>
+      <c r="J304">
+        <v>5655</v>
+      </c>
+      <c r="K304">
+        <v>3516</v>
+      </c>
+      <c r="L304">
+        <v>2620</v>
+      </c>
+      <c r="M304">
+        <v>0.6218</v>
+      </c>
+      <c r="N304">
+        <v>0.4633</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14">
+      <c r="A305" t="s">
+        <v>53</v>
+      </c>
+      <c r="B305" t="s">
+        <v>42</v>
+      </c>
+      <c r="C305">
+        <v>5</v>
+      </c>
+      <c r="D305">
+        <v>3</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305">
+        <v>0.6</v>
+      </c>
+      <c r="G305">
+        <v>0.2</v>
+      </c>
+      <c r="H305" t="s">
+        <v>16</v>
+      </c>
+      <c r="I305" t="s">
+        <v>42</v>
+      </c>
+      <c r="J305">
+        <v>19</v>
+      </c>
+      <c r="K305">
+        <v>8</v>
+      </c>
+      <c r="L305">
+        <v>11</v>
+      </c>
+      <c r="M305">
+        <v>0.4211</v>
+      </c>
+      <c r="N305">
+        <v>0.5789</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14">
+      <c r="A306" t="s">
+        <v>53</v>
+      </c>
+      <c r="B306" t="s">
+        <v>24</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="H306" t="s">
+        <v>16</v>
+      </c>
+      <c r="I306" t="s">
+        <v>24</v>
+      </c>
+      <c r="J306">
+        <v>13</v>
+      </c>
+      <c r="K306">
+        <v>6</v>
+      </c>
+      <c r="L306">
+        <v>5</v>
+      </c>
+      <c r="M306">
+        <v>0.4615</v>
+      </c>
+      <c r="N306">
+        <v>0.3846</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12">
+      <c r="A307" t="s">
+        <v>53</v>
+      </c>
+      <c r="B307" t="s">
+        <v>43</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="H307" t="s">
+        <v>16</v>
+      </c>
+      <c r="I307" t="s">
+        <v>43</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
+      <c r="A308" t="s">
+        <v>53</v>
+      </c>
+      <c r="B308" t="s">
+        <v>25</v>
+      </c>
+      <c r="C308">
+        <v>20</v>
+      </c>
+      <c r="D308">
+        <v>13</v>
+      </c>
+      <c r="E308">
+        <v>6</v>
+      </c>
+      <c r="F308">
+        <v>0.65</v>
+      </c>
+      <c r="G308">
+        <v>0.3</v>
+      </c>
+      <c r="H308" t="s">
+        <v>16</v>
+      </c>
+      <c r="I308" t="s">
+        <v>25</v>
+      </c>
+      <c r="J308">
+        <v>1484</v>
+      </c>
+      <c r="K308">
+        <v>956</v>
+      </c>
+      <c r="L308">
+        <v>766</v>
+      </c>
+      <c r="M308">
+        <v>0.6442</v>
+      </c>
+      <c r="N308">
+        <v>0.5162</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14">
+      <c r="A309" t="s">
+        <v>53</v>
+      </c>
+      <c r="B309" t="s">
+        <v>44</v>
+      </c>
+      <c r="C309">
+        <v>2</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <v>0.5</v>
+      </c>
+      <c r="G309">
+        <v>0.5</v>
+      </c>
+      <c r="H309" t="s">
+        <v>16</v>
+      </c>
+      <c r="I309" t="s">
+        <v>44</v>
+      </c>
+      <c r="J309">
+        <v>2</v>
+      </c>
+      <c r="K309">
+        <v>1</v>
+      </c>
+      <c r="L309">
+        <v>2</v>
+      </c>
+      <c r="M309">
+        <v>0.5</v>
+      </c>
+      <c r="N309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
+      <c r="A310" t="s">
+        <v>53</v>
+      </c>
+      <c r="B310" t="s">
+        <v>26</v>
+      </c>
+      <c r="C310">
+        <v>10</v>
+      </c>
+      <c r="D310">
+        <v>5</v>
+      </c>
+      <c r="E310">
+        <v>3</v>
+      </c>
+      <c r="F310">
+        <v>0.5</v>
+      </c>
+      <c r="G310">
+        <v>0.3</v>
+      </c>
+      <c r="H310" t="s">
+        <v>16</v>
+      </c>
+      <c r="I310" t="s">
+        <v>26</v>
+      </c>
+      <c r="J310">
+        <v>542</v>
+      </c>
+      <c r="K310">
+        <v>304</v>
+      </c>
+      <c r="L310">
+        <v>360</v>
+      </c>
+      <c r="M310">
+        <v>0.5609</v>
+      </c>
+      <c r="N310">
+        <v>0.6642</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14">
+      <c r="A311" t="s">
+        <v>53</v>
+      </c>
+      <c r="B311" t="s">
+        <v>27</v>
+      </c>
+      <c r="C311">
+        <v>20</v>
+      </c>
+      <c r="D311">
+        <v>12</v>
+      </c>
+      <c r="E311">
+        <v>12</v>
+      </c>
+      <c r="F311">
+        <v>0.6</v>
+      </c>
+      <c r="G311">
+        <v>0.6</v>
+      </c>
+      <c r="H311" t="s">
+        <v>16</v>
+      </c>
+      <c r="I311" t="s">
+        <v>27</v>
+      </c>
+      <c r="J311">
+        <v>878</v>
+      </c>
+      <c r="K311">
+        <v>488</v>
+      </c>
+      <c r="L311">
+        <v>527</v>
+      </c>
+      <c r="M311">
+        <v>0.5558</v>
+      </c>
+      <c r="N311">
+        <v>0.6002</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14">
+      <c r="A312" t="s">
+        <v>53</v>
+      </c>
+      <c r="B312" t="s">
+        <v>28</v>
+      </c>
+      <c r="C312">
+        <v>74</v>
+      </c>
+      <c r="D312">
+        <v>55</v>
+      </c>
+      <c r="E312">
+        <v>22</v>
+      </c>
+      <c r="F312">
+        <v>0.7432</v>
+      </c>
+      <c r="G312">
+        <v>0.2973</v>
+      </c>
+      <c r="H312" t="s">
+        <v>16</v>
+      </c>
+      <c r="I312" t="s">
+        <v>28</v>
+      </c>
+      <c r="J312">
+        <v>2727</v>
+      </c>
+      <c r="K312">
+        <v>1863</v>
+      </c>
+      <c r="L312">
+        <v>1292</v>
+      </c>
+      <c r="M312">
+        <v>0.6832</v>
+      </c>
+      <c r="N312">
+        <v>0.4738</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14">
+      <c r="A313" t="s">
+        <v>53</v>
+      </c>
+      <c r="B313" t="s">
+        <v>29</v>
+      </c>
+      <c r="C313">
+        <v>629</v>
+      </c>
+      <c r="D313">
+        <v>416</v>
+      </c>
+      <c r="E313">
+        <v>215</v>
+      </c>
+      <c r="F313">
+        <v>0.6614</v>
+      </c>
+      <c r="G313">
+        <v>0.3418</v>
+      </c>
+      <c r="H313" t="s">
+        <v>16</v>
+      </c>
+      <c r="I313" t="s">
+        <v>29</v>
+      </c>
+      <c r="J313">
+        <v>10147</v>
+      </c>
+      <c r="K313">
+        <v>7084</v>
+      </c>
+      <c r="L313">
+        <v>5280</v>
+      </c>
+      <c r="M313">
+        <v>0.6981</v>
+      </c>
+      <c r="N313">
+        <v>0.5204</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14">
+      <c r="A314" t="s">
+        <v>53</v>
+      </c>
+      <c r="B314" t="s">
+        <v>30</v>
+      </c>
+      <c r="C314">
+        <v>8</v>
+      </c>
+      <c r="D314">
+        <v>4</v>
+      </c>
+      <c r="E314">
+        <v>3</v>
+      </c>
+      <c r="F314">
+        <v>0.5</v>
+      </c>
+      <c r="G314">
+        <v>0.375</v>
+      </c>
+      <c r="H314" t="s">
+        <v>16</v>
+      </c>
+      <c r="I314" t="s">
+        <v>30</v>
+      </c>
+      <c r="J314">
+        <v>992</v>
+      </c>
+      <c r="K314">
+        <v>578</v>
+      </c>
+      <c r="L314">
+        <v>489</v>
+      </c>
+      <c r="M314">
+        <v>0.5827</v>
+      </c>
+      <c r="N314">
+        <v>0.4929</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14">
+      <c r="A315" t="s">
+        <v>53</v>
+      </c>
+      <c r="B315" t="s">
+        <v>31</v>
+      </c>
+      <c r="C315">
+        <v>1667</v>
+      </c>
+      <c r="D315">
+        <v>1153</v>
+      </c>
+      <c r="E315">
+        <v>581</v>
+      </c>
+      <c r="F315">
+        <v>0.6917</v>
+      </c>
+      <c r="G315">
+        <v>0.3485</v>
+      </c>
+      <c r="H315" t="s">
+        <v>16</v>
+      </c>
+      <c r="I315" t="s">
+        <v>31</v>
+      </c>
+      <c r="J315">
+        <v>62423</v>
+      </c>
+      <c r="K315">
+        <v>42009</v>
+      </c>
+      <c r="L315">
+        <v>31411</v>
+      </c>
+      <c r="M315">
+        <v>0.673</v>
+      </c>
+      <c r="N315">
+        <v>0.5032</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14">
+      <c r="A316" t="s">
+        <v>53</v>
+      </c>
+      <c r="B316" t="s">
+        <v>32</v>
+      </c>
+      <c r="C316">
+        <v>10</v>
+      </c>
+      <c r="D316">
+        <v>7</v>
+      </c>
+      <c r="E316">
+        <v>8</v>
+      </c>
+      <c r="F316">
+        <v>0.7</v>
+      </c>
+      <c r="G316">
+        <v>0.8</v>
+      </c>
+      <c r="H316" t="s">
+        <v>16</v>
+      </c>
+      <c r="I316" t="s">
+        <v>32</v>
+      </c>
+      <c r="J316">
+        <v>1703</v>
+      </c>
+      <c r="K316">
+        <v>1171</v>
+      </c>
+      <c r="L316">
+        <v>1088</v>
+      </c>
+      <c r="M316">
+        <v>0.6876</v>
+      </c>
+      <c r="N316">
+        <v>0.6389</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14">
+      <c r="A317" t="s">
+        <v>53</v>
+      </c>
+      <c r="B317" t="s">
+        <v>45</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="H317" t="s">
+        <v>16</v>
+      </c>
+      <c r="I317" t="s">
+        <v>45</v>
+      </c>
+      <c r="J317">
+        <v>44</v>
+      </c>
+      <c r="K317">
+        <v>35</v>
+      </c>
+      <c r="L317">
+        <v>22</v>
+      </c>
+      <c r="M317">
+        <v>0.7955</v>
+      </c>
+      <c r="N317">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14">
+      <c r="A318" t="s">
+        <v>53</v>
+      </c>
+      <c r="B318" t="s">
+        <v>46</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="H318" t="s">
+        <v>16</v>
+      </c>
+      <c r="I318" t="s">
+        <v>46</v>
+      </c>
+      <c r="J318">
+        <v>23</v>
+      </c>
+      <c r="K318">
+        <v>8</v>
+      </c>
+      <c r="L318">
+        <v>18</v>
+      </c>
+      <c r="M318">
+        <v>0.3478</v>
+      </c>
+      <c r="N318">
+        <v>0.7826</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14">
+      <c r="A319" t="s">
+        <v>53</v>
+      </c>
+      <c r="B319" t="s">
+        <v>33</v>
+      </c>
+      <c r="C319">
+        <v>12</v>
+      </c>
+      <c r="D319">
+        <v>10</v>
+      </c>
+      <c r="E319">
+        <v>5</v>
+      </c>
+      <c r="F319">
+        <v>0.8333</v>
+      </c>
+      <c r="G319">
+        <v>0.4167</v>
+      </c>
+      <c r="H319" t="s">
+        <v>16</v>
+      </c>
+      <c r="I319" t="s">
+        <v>33</v>
+      </c>
+      <c r="J319">
+        <v>1458</v>
+      </c>
+      <c r="K319">
+        <v>779</v>
+      </c>
+      <c r="L319">
+        <v>742</v>
+      </c>
+      <c r="M319">
+        <v>0.5343</v>
+      </c>
+      <c r="N319">
+        <v>0.5089</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N295">
+  <autoFilter ref="A1:N319">
     <filterColumn colId="0">
       <customFilters>
-        <customFilter operator="equal" val="2020-03-29"/>
+        <customFilter operator="equal" val="2020-03-31"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/data/学习数据.xlsx
+++ b/data/学习数据.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24060" windowHeight="9300"/>
+    <workbookView windowWidth="24860" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result!$A$1:$N$343</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result!$A$1:$N$396</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>当日_时间</t>
   </si>
@@ -67,7 +67,7 @@
     <t>总部</t>
   </si>
   <si>
-    <t>2020-04-02 08:00:00</t>
+    <t>2020-04-03 08:00:00</t>
   </si>
   <si>
     <t>长沙</t>
@@ -183,14 +183,32 @@
   <si>
     <t>2020-04-01</t>
   </si>
+  <si>
+    <t>2020-04-02</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -200,13 +218,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,18 +236,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,29 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -295,38 +275,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -348,7 +297,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,19 +399,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,13 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,67 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,25 +495,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,11 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,16 +600,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,41 +657,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,156 +667,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,15 +1168,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N343"/>
+  <dimension ref="A1:N372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" width="13.0982142857143" customWidth="1"/>
+    <col min="1" max="1" width="14.8839285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1234,19 +1252,19 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K2">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L2">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M2">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N2">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1278,19 +1296,19 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K3">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L3">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M3">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N3">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1322,19 +1340,19 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K4">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L4">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M4">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N4">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1366,19 +1384,19 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K5">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L5">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M5">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N5">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1410,19 +1428,19 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K6">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L6">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M6">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N6">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1454,19 +1472,19 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K7">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L7">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M7">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N7">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1498,19 +1516,19 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K8">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L8">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M8">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N8">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1542,19 +1560,19 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K9">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L9">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M9">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N9">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1624,19 +1642,19 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K11">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L11">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M11">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N11">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1668,19 +1686,19 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K12">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L12">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M12">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N12">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1712,19 +1730,19 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K13">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L13">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M13">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N13">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1756,19 +1774,19 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K14">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L14">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M14">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N14">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1800,19 +1818,19 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K15">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L15">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M15">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N15">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1838,19 +1856,19 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K16">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L16">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M16">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N16">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1882,19 +1900,19 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K17">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L17">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M17">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N17">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1926,19 +1944,19 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K18">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L18">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M18">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N18">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1970,19 +1988,19 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K19">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L19">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M19">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N19">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2014,19 +2032,19 @@
         <v>15</v>
       </c>
       <c r="J20">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K20">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L20">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M20">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N20">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2058,19 +2076,19 @@
         <v>17</v>
       </c>
       <c r="J21">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K21">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L21">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M21">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N21">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2102,19 +2120,19 @@
         <v>18</v>
       </c>
       <c r="J22">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K22">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L22">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M22">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N22">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2146,19 +2164,19 @@
         <v>19</v>
       </c>
       <c r="J23">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K23">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L23">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M23">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N23">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2190,19 +2208,19 @@
         <v>20</v>
       </c>
       <c r="J24">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K24">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L24">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M24">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N24">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2234,19 +2252,19 @@
         <v>21</v>
       </c>
       <c r="J25">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K25">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L25">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M25">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N25">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2278,19 +2296,19 @@
         <v>22</v>
       </c>
       <c r="J26">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K26">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L26">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M26">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N26">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2322,19 +2340,19 @@
         <v>23</v>
       </c>
       <c r="J27">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K27">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L27">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M27">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N27">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2410,19 +2428,19 @@
         <v>25</v>
       </c>
       <c r="J29">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K29">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L29">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M29">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N29">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2454,19 +2472,19 @@
         <v>26</v>
       </c>
       <c r="J30">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K30">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L30">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M30">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N30">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2498,19 +2516,19 @@
         <v>27</v>
       </c>
       <c r="J31">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K31">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L31">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M31">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N31">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2542,19 +2560,19 @@
         <v>28</v>
       </c>
       <c r="J32">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K32">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L32">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M32">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N32">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2586,19 +2604,19 @@
         <v>29</v>
       </c>
       <c r="J33">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K33">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L33">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M33">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N33">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2630,19 +2648,19 @@
         <v>30</v>
       </c>
       <c r="J34">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K34">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L34">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M34">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N34">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2674,19 +2692,19 @@
         <v>31</v>
       </c>
       <c r="J35">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K35">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L35">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M35">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N35">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2718,19 +2736,19 @@
         <v>32</v>
       </c>
       <c r="J36">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K36">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L36">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M36">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N36">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2762,19 +2780,19 @@
         <v>33</v>
       </c>
       <c r="J37">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K37">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L37">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M37">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N37">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2806,19 +2824,19 @@
         <v>29</v>
       </c>
       <c r="J38">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K38">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L38">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M38">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N38">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2850,19 +2868,19 @@
         <v>30</v>
       </c>
       <c r="J39">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K39">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L39">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M39">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N39">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2894,19 +2912,19 @@
         <v>31</v>
       </c>
       <c r="J40">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K40">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L40">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M40">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N40">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2938,19 +2956,19 @@
         <v>32</v>
       </c>
       <c r="J41">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K41">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L41">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M41">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N41">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2982,19 +3000,19 @@
         <v>33</v>
       </c>
       <c r="J42">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K42">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L42">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M42">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N42">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3026,19 +3044,19 @@
         <v>15</v>
       </c>
       <c r="J43">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K43">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L43">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M43">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N43">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3070,19 +3088,19 @@
         <v>17</v>
       </c>
       <c r="J44">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K44">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L44">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M44">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N44">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3114,19 +3132,19 @@
         <v>18</v>
       </c>
       <c r="J45">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K45">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L45">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M45">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N45">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3158,19 +3176,19 @@
         <v>19</v>
       </c>
       <c r="J46">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K46">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L46">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M46">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N46">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3202,19 +3220,19 @@
         <v>20</v>
       </c>
       <c r="J47">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K47">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L47">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M47">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N47">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3246,19 +3264,19 @@
         <v>21</v>
       </c>
       <c r="J48">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K48">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L48">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M48">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N48">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3290,19 +3308,19 @@
         <v>22</v>
       </c>
       <c r="J49">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K49">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L49">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M49">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N49">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3334,19 +3352,19 @@
         <v>23</v>
       </c>
       <c r="J50">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K50">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L50">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M50">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N50">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3416,19 +3434,19 @@
         <v>25</v>
       </c>
       <c r="J52">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K52">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L52">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M52">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N52">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3460,19 +3478,19 @@
         <v>26</v>
       </c>
       <c r="J53">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K53">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L53">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M53">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N53">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3504,19 +3522,19 @@
         <v>27</v>
       </c>
       <c r="J54">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K54">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L54">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M54">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N54">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3548,19 +3566,19 @@
         <v>28</v>
       </c>
       <c r="J55">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K55">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L55">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M55">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N55">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3592,19 +3610,19 @@
         <v>15</v>
       </c>
       <c r="J56">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K56">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L56">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M56">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N56">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3636,19 +3654,19 @@
         <v>17</v>
       </c>
       <c r="J57">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K57">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L57">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M57">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N57">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3680,19 +3698,19 @@
         <v>18</v>
       </c>
       <c r="J58">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K58">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L58">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M58">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N58">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3724,19 +3742,19 @@
         <v>19</v>
       </c>
       <c r="J59">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K59">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L59">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M59">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N59">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3768,19 +3786,19 @@
         <v>20</v>
       </c>
       <c r="J60">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K60">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L60">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M60">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N60">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3812,19 +3830,19 @@
         <v>21</v>
       </c>
       <c r="J61">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K61">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L61">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M61">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N61">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3856,19 +3874,19 @@
         <v>22</v>
       </c>
       <c r="J62">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K62">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L62">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M62">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N62">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3900,19 +3918,19 @@
         <v>23</v>
       </c>
       <c r="J63">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K63">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L63">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M63">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N63">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3982,19 +4000,19 @@
         <v>25</v>
       </c>
       <c r="J65">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K65">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L65">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M65">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N65">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4026,19 +4044,19 @@
         <v>26</v>
       </c>
       <c r="J66">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K66">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L66">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M66">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N66">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4070,19 +4088,19 @@
         <v>27</v>
       </c>
       <c r="J67">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K67">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L67">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M67">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N67">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4114,19 +4132,19 @@
         <v>28</v>
       </c>
       <c r="J68">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K68">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L68">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M68">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N68">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4158,19 +4176,19 @@
         <v>29</v>
       </c>
       <c r="J69">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K69">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L69">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M69">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N69">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4202,19 +4220,19 @@
         <v>30</v>
       </c>
       <c r="J70">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K70">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L70">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M70">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N70">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4246,19 +4264,19 @@
         <v>31</v>
       </c>
       <c r="J71">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K71">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L71">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M71">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N71">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4290,19 +4308,19 @@
         <v>32</v>
       </c>
       <c r="J72">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K72">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L72">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M72">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N72">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4334,19 +4352,19 @@
         <v>33</v>
       </c>
       <c r="J73">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K73">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L73">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M73">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N73">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4378,19 +4396,19 @@
         <v>29</v>
       </c>
       <c r="J74">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K74">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L74">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M74">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N74">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4422,19 +4440,19 @@
         <v>30</v>
       </c>
       <c r="J75">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K75">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L75">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M75">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N75">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4466,19 +4484,19 @@
         <v>31</v>
       </c>
       <c r="J76">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K76">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L76">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M76">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N76">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4510,19 +4528,19 @@
         <v>32</v>
       </c>
       <c r="J77">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K77">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L77">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M77">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N77">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4554,19 +4572,19 @@
         <v>33</v>
       </c>
       <c r="J78">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K78">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L78">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M78">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N78">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4598,19 +4616,19 @@
         <v>15</v>
       </c>
       <c r="J79">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K79">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L79">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M79">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N79">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4642,19 +4660,19 @@
         <v>17</v>
       </c>
       <c r="J80">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K80">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L80">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M80">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N80">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4686,19 +4704,19 @@
         <v>18</v>
       </c>
       <c r="J81">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K81">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L81">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M81">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N81">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4730,19 +4748,19 @@
         <v>19</v>
       </c>
       <c r="J82">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K82">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L82">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M82">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N82">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4774,19 +4792,19 @@
         <v>20</v>
       </c>
       <c r="J83">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K83">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L83">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M83">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N83">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4818,19 +4836,19 @@
         <v>21</v>
       </c>
       <c r="J84">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K84">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L84">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M84">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N84">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4862,19 +4880,19 @@
         <v>22</v>
       </c>
       <c r="J85">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K85">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L85">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M85">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N85">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4906,19 +4924,19 @@
         <v>23</v>
       </c>
       <c r="J86">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K86">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L86">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M86">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N86">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4988,19 +5006,19 @@
         <v>25</v>
       </c>
       <c r="J88">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K88">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L88">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M88">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N88">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5032,19 +5050,19 @@
         <v>26</v>
       </c>
       <c r="J89">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K89">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L89">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M89">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N89">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5076,19 +5094,19 @@
         <v>27</v>
       </c>
       <c r="J90">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K90">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L90">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M90">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N90">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5120,19 +5138,19 @@
         <v>28</v>
       </c>
       <c r="J91">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K91">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L91">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M91">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N91">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5164,19 +5182,19 @@
         <v>15</v>
       </c>
       <c r="J92">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K92">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L92">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M92">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N92">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5208,19 +5226,19 @@
         <v>17</v>
       </c>
       <c r="J93">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K93">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L93">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M93">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N93">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5252,19 +5270,19 @@
         <v>18</v>
       </c>
       <c r="J94">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K94">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L94">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M94">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N94">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5296,19 +5314,19 @@
         <v>19</v>
       </c>
       <c r="J95">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K95">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L95">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M95">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N95">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5340,19 +5358,19 @@
         <v>20</v>
       </c>
       <c r="J96">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K96">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L96">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M96">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N96">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5384,19 +5402,19 @@
         <v>21</v>
       </c>
       <c r="J97">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K97">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L97">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M97">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N97">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5428,19 +5446,19 @@
         <v>22</v>
       </c>
       <c r="J98">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K98">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L98">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M98">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N98">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5472,19 +5490,19 @@
         <v>23</v>
       </c>
       <c r="J99">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K99">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L99">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M99">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N99">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5554,19 +5572,19 @@
         <v>25</v>
       </c>
       <c r="J101">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K101">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L101">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M101">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N101">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5598,19 +5616,19 @@
         <v>26</v>
       </c>
       <c r="J102">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K102">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L102">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M102">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N102">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5642,19 +5660,19 @@
         <v>27</v>
       </c>
       <c r="J103">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K103">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L103">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M103">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N103">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5686,19 +5704,19 @@
         <v>28</v>
       </c>
       <c r="J104">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K104">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L104">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M104">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N104">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5730,19 +5748,19 @@
         <v>29</v>
       </c>
       <c r="J105">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K105">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L105">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M105">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N105">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5774,19 +5792,19 @@
         <v>30</v>
       </c>
       <c r="J106">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K106">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L106">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M106">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N106">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5818,19 +5836,19 @@
         <v>31</v>
       </c>
       <c r="J107">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K107">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L107">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M107">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N107">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5862,19 +5880,19 @@
         <v>32</v>
       </c>
       <c r="J108">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K108">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L108">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M108">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N108">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5906,19 +5924,19 @@
         <v>33</v>
       </c>
       <c r="J109">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K109">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L109">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M109">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N109">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5950,19 +5968,19 @@
         <v>29</v>
       </c>
       <c r="J110">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K110">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L110">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M110">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N110">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5994,19 +6012,19 @@
         <v>30</v>
       </c>
       <c r="J111">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K111">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L111">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M111">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N111">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6038,19 +6056,19 @@
         <v>31</v>
       </c>
       <c r="J112">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K112">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L112">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M112">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N112">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -6082,19 +6100,19 @@
         <v>32</v>
       </c>
       <c r="J113">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K113">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L113">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M113">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N113">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6126,19 +6144,19 @@
         <v>33</v>
       </c>
       <c r="J114">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K114">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L114">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M114">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N114">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6170,19 +6188,19 @@
         <v>15</v>
       </c>
       <c r="J115">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K115">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L115">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M115">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N115">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6214,19 +6232,19 @@
         <v>17</v>
       </c>
       <c r="J116">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K116">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L116">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M116">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N116">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6258,19 +6276,19 @@
         <v>18</v>
       </c>
       <c r="J117">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K117">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L117">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M117">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N117">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6302,19 +6320,19 @@
         <v>19</v>
       </c>
       <c r="J118">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K118">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L118">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M118">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N118">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6346,19 +6364,19 @@
         <v>20</v>
       </c>
       <c r="J119">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K119">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L119">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M119">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N119">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6390,19 +6408,19 @@
         <v>21</v>
       </c>
       <c r="J120">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K120">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L120">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M120">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N120">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6434,19 +6452,19 @@
         <v>22</v>
       </c>
       <c r="J121">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K121">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L121">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M121">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N121">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6478,19 +6496,19 @@
         <v>23</v>
       </c>
       <c r="J122">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K122">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L122">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M122">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N122">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6560,19 +6578,19 @@
         <v>25</v>
       </c>
       <c r="J124">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K124">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L124">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M124">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N124">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6604,19 +6622,19 @@
         <v>26</v>
       </c>
       <c r="J125">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K125">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L125">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M125">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N125">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6648,19 +6666,19 @@
         <v>27</v>
       </c>
       <c r="J126">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K126">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L126">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M126">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N126">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6692,19 +6710,19 @@
         <v>28</v>
       </c>
       <c r="J127">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K127">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L127">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M127">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N127">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6736,19 +6754,19 @@
         <v>15</v>
       </c>
       <c r="J128">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K128">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L128">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M128">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N128">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6780,19 +6798,19 @@
         <v>17</v>
       </c>
       <c r="J129">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K129">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L129">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M129">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N129">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6824,19 +6842,19 @@
         <v>18</v>
       </c>
       <c r="J130">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K130">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L130">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M130">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N130">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6868,19 +6886,19 @@
         <v>19</v>
       </c>
       <c r="J131">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K131">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L131">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M131">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N131">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6912,19 +6930,19 @@
         <v>20</v>
       </c>
       <c r="J132">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K132">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L132">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M132">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N132">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6994,19 +7012,19 @@
         <v>21</v>
       </c>
       <c r="J134">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K134">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L134">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M134">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N134">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -7038,19 +7056,19 @@
         <v>22</v>
       </c>
       <c r="J135">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K135">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L135">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M135">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N135">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -7082,19 +7100,19 @@
         <v>23</v>
       </c>
       <c r="J136">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K136">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L136">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M136">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N136">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -7120,19 +7138,19 @@
         <v>42</v>
       </c>
       <c r="J137">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="K137">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L137">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M137">
-        <v>0.6111</v>
+        <v>0.4</v>
       </c>
       <c r="N137">
-        <v>0.4444</v>
+        <v>0.3733</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -7173,7 +7191,7 @@
         <v>0.4286</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
         <v>40</v>
       </c>
@@ -7196,13 +7214,19 @@
         <v>43</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>0.5</v>
+      </c>
+      <c r="N139">
+        <v>0.5</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -7234,19 +7258,19 @@
         <v>25</v>
       </c>
       <c r="J140">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K140">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L140">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M140">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N140">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -7316,19 +7340,19 @@
         <v>26</v>
       </c>
       <c r="J142">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K142">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L142">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M142">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N142">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -7360,19 +7384,19 @@
         <v>27</v>
       </c>
       <c r="J143">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K143">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L143">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M143">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N143">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -7404,19 +7428,19 @@
         <v>28</v>
       </c>
       <c r="J144">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K144">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L144">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M144">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N144">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -7448,19 +7472,19 @@
         <v>29</v>
       </c>
       <c r="J145">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K145">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L145">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M145">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N145">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -7492,19 +7516,19 @@
         <v>30</v>
       </c>
       <c r="J146">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K146">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L146">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M146">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N146">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -7536,19 +7560,19 @@
         <v>31</v>
       </c>
       <c r="J147">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K147">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L147">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M147">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N147">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -7580,19 +7604,19 @@
         <v>32</v>
       </c>
       <c r="J148">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K148">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L148">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M148">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N148">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -7624,19 +7648,19 @@
         <v>45</v>
       </c>
       <c r="J149">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K149">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L149">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M149">
-        <v>0.7955</v>
+        <v>0.7167</v>
       </c>
       <c r="N149">
-        <v>0.5</v>
+        <v>0.4833</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7662,19 +7686,19 @@
         <v>46</v>
       </c>
       <c r="J150">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K150">
         <v>8</v>
       </c>
       <c r="L150">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M150">
-        <v>0.3478</v>
+        <v>0.32</v>
       </c>
       <c r="N150">
-        <v>0.8696</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -7706,19 +7730,19 @@
         <v>33</v>
       </c>
       <c r="J151">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K151">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L151">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M151">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N151">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -7750,19 +7774,19 @@
         <v>15</v>
       </c>
       <c r="J152">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K152">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L152">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M152">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N152">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -7794,19 +7818,19 @@
         <v>17</v>
       </c>
       <c r="J153">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K153">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L153">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M153">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N153">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -7838,19 +7862,19 @@
         <v>18</v>
       </c>
       <c r="J154">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K154">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L154">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M154">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N154">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7882,19 +7906,19 @@
         <v>19</v>
       </c>
       <c r="J155">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K155">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L155">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M155">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N155">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7926,19 +7950,19 @@
         <v>20</v>
       </c>
       <c r="J156">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K156">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L156">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M156">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N156">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -8014,19 +8038,19 @@
         <v>21</v>
       </c>
       <c r="J158">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K158">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L158">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M158">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N158">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -8058,19 +8082,19 @@
         <v>22</v>
       </c>
       <c r="J159">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K159">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L159">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M159">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N159">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -8102,19 +8126,19 @@
         <v>23</v>
       </c>
       <c r="J160">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K160">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L160">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M160">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N160">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -8140,19 +8164,19 @@
         <v>42</v>
       </c>
       <c r="J161">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="K161">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L161">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M161">
-        <v>0.6111</v>
+        <v>0.4</v>
       </c>
       <c r="N161">
-        <v>0.4444</v>
+        <v>0.3733</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -8193,7 +8217,7 @@
         <v>0.4286</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:14">
       <c r="A163" t="s">
         <v>47</v>
       </c>
@@ -8216,13 +8240,19 @@
         <v>43</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L163">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>0.5</v>
+      </c>
+      <c r="N163">
+        <v>0.5</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -8254,19 +8284,19 @@
         <v>25</v>
       </c>
       <c r="J164">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K164">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L164">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M164">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N164">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -8336,19 +8366,19 @@
         <v>26</v>
       </c>
       <c r="J166">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K166">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L166">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M166">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N166">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -8380,19 +8410,19 @@
         <v>27</v>
       </c>
       <c r="J167">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K167">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L167">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M167">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N167">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -8424,19 +8454,19 @@
         <v>28</v>
       </c>
       <c r="J168">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K168">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L168">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M168">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N168">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -8468,19 +8498,19 @@
         <v>29</v>
       </c>
       <c r="J169">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K169">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L169">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M169">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N169">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -8512,19 +8542,19 @@
         <v>30</v>
       </c>
       <c r="J170">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K170">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L170">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M170">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N170">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -8556,19 +8586,19 @@
         <v>31</v>
       </c>
       <c r="J171">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K171">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L171">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M171">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N171">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -8600,19 +8630,19 @@
         <v>32</v>
       </c>
       <c r="J172">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K172">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L172">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M172">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N172">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -8644,19 +8674,19 @@
         <v>45</v>
       </c>
       <c r="J173">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K173">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L173">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M173">
-        <v>0.7955</v>
+        <v>0.7167</v>
       </c>
       <c r="N173">
-        <v>0.5</v>
+        <v>0.4833</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -8682,19 +8712,19 @@
         <v>46</v>
       </c>
       <c r="J174">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K174">
         <v>8</v>
       </c>
       <c r="L174">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M174">
-        <v>0.3478</v>
+        <v>0.32</v>
       </c>
       <c r="N174">
-        <v>0.8696</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -8726,19 +8756,19 @@
         <v>33</v>
       </c>
       <c r="J175">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K175">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L175">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M175">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N175">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -8770,19 +8800,19 @@
         <v>15</v>
       </c>
       <c r="J176">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K176">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L176">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M176">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N176">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -8814,19 +8844,19 @@
         <v>17</v>
       </c>
       <c r="J177">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K177">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L177">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M177">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N177">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -8858,19 +8888,19 @@
         <v>18</v>
       </c>
       <c r="J178">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K178">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L178">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M178">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N178">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -8902,19 +8932,19 @@
         <v>19</v>
       </c>
       <c r="J179">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K179">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L179">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M179">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N179">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -8946,19 +8976,19 @@
         <v>20</v>
       </c>
       <c r="J180">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K180">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L180">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M180">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N180">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -9034,19 +9064,19 @@
         <v>21</v>
       </c>
       <c r="J182">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K182">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L182">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M182">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N182">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -9078,19 +9108,19 @@
         <v>22</v>
       </c>
       <c r="J183">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K183">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L183">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M183">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N183">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -9122,19 +9152,19 @@
         <v>23</v>
       </c>
       <c r="J184">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K184">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L184">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M184">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N184">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -9166,19 +9196,19 @@
         <v>42</v>
       </c>
       <c r="J185">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="K185">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L185">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M185">
-        <v>0.6111</v>
+        <v>0.4</v>
       </c>
       <c r="N185">
-        <v>0.4444</v>
+        <v>0.3733</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -9219,7 +9249,7 @@
         <v>0.4286</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:14">
       <c r="A187" t="s">
         <v>48</v>
       </c>
@@ -9242,13 +9272,19 @@
         <v>43</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L187">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>0.5</v>
+      </c>
+      <c r="N187">
+        <v>0.5</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -9280,19 +9316,19 @@
         <v>25</v>
       </c>
       <c r="J188">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K188">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L188">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M188">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N188">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -9362,19 +9398,19 @@
         <v>26</v>
       </c>
       <c r="J190">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K190">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L190">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M190">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N190">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -9406,19 +9442,19 @@
         <v>27</v>
       </c>
       <c r="J191">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K191">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L191">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M191">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N191">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -9450,19 +9486,19 @@
         <v>28</v>
       </c>
       <c r="J192">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K192">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L192">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M192">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N192">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -9494,19 +9530,19 @@
         <v>29</v>
       </c>
       <c r="J193">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K193">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L193">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M193">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N193">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -9538,19 +9574,19 @@
         <v>30</v>
       </c>
       <c r="J194">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K194">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L194">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M194">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N194">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -9582,19 +9618,19 @@
         <v>31</v>
       </c>
       <c r="J195">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K195">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L195">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M195">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N195">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -9626,19 +9662,19 @@
         <v>32</v>
       </c>
       <c r="J196">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K196">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L196">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M196">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N196">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -9664,19 +9700,19 @@
         <v>45</v>
       </c>
       <c r="J197">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K197">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L197">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M197">
-        <v>0.7955</v>
+        <v>0.7167</v>
       </c>
       <c r="N197">
-        <v>0.5</v>
+        <v>0.4833</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -9708,19 +9744,19 @@
         <v>46</v>
       </c>
       <c r="J198">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K198">
         <v>8</v>
       </c>
       <c r="L198">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M198">
-        <v>0.3478</v>
+        <v>0.32</v>
       </c>
       <c r="N198">
-        <v>0.8696</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -9752,19 +9788,19 @@
         <v>33</v>
       </c>
       <c r="J199">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K199">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L199">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M199">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N199">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -9796,19 +9832,19 @@
         <v>29</v>
       </c>
       <c r="J200">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K200">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L200">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M200">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N200">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -9840,19 +9876,19 @@
         <v>30</v>
       </c>
       <c r="J201">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K201">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L201">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M201">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N201">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -9884,19 +9920,19 @@
         <v>31</v>
       </c>
       <c r="J202">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K202">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L202">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M202">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N202">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -9928,19 +9964,19 @@
         <v>32</v>
       </c>
       <c r="J203">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K203">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L203">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M203">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N203">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -9966,19 +10002,19 @@
         <v>45</v>
       </c>
       <c r="J204">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K204">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L204">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M204">
-        <v>0.7955</v>
+        <v>0.7167</v>
       </c>
       <c r="N204">
-        <v>0.5</v>
+        <v>0.4833</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -10010,19 +10046,19 @@
         <v>46</v>
       </c>
       <c r="J205">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K205">
         <v>8</v>
       </c>
       <c r="L205">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M205">
-        <v>0.3478</v>
+        <v>0.32</v>
       </c>
       <c r="N205">
-        <v>0.8696</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -10054,19 +10090,19 @@
         <v>33</v>
       </c>
       <c r="J206">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K206">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L206">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M206">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N206">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -10098,19 +10134,19 @@
         <v>15</v>
       </c>
       <c r="J207">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K207">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L207">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M207">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N207">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -10142,19 +10178,19 @@
         <v>17</v>
       </c>
       <c r="J208">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K208">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L208">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M208">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N208">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -10186,19 +10222,19 @@
         <v>18</v>
       </c>
       <c r="J209">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K209">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L209">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M209">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N209">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -10230,19 +10266,19 @@
         <v>19</v>
       </c>
       <c r="J210">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K210">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L210">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M210">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N210">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -10274,19 +10310,19 @@
         <v>20</v>
       </c>
       <c r="J211">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K211">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L211">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M211">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N211">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -10362,19 +10398,19 @@
         <v>21</v>
       </c>
       <c r="J213">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K213">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L213">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M213">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N213">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -10406,19 +10442,19 @@
         <v>22</v>
       </c>
       <c r="J214">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K214">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L214">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M214">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N214">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -10450,19 +10486,19 @@
         <v>23</v>
       </c>
       <c r="J215">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K215">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L215">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M215">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N215">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -10488,19 +10524,19 @@
         <v>42</v>
       </c>
       <c r="J216">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="K216">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L216">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M216">
-        <v>0.6111</v>
+        <v>0.4</v>
       </c>
       <c r="N216">
-        <v>0.4444</v>
+        <v>0.3733</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -10547,7 +10583,7 @@
         <v>0.4286</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:14">
       <c r="A218" t="s">
         <v>49</v>
       </c>
@@ -10570,13 +10606,19 @@
         <v>43</v>
       </c>
       <c r="J218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L218">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>0.5</v>
+      </c>
+      <c r="N218">
+        <v>0.5</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -10608,19 +10650,19 @@
         <v>25</v>
       </c>
       <c r="J219">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K219">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L219">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M219">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N219">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -10690,19 +10732,19 @@
         <v>26</v>
       </c>
       <c r="J221">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K221">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L221">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M221">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N221">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -10734,19 +10776,19 @@
         <v>27</v>
       </c>
       <c r="J222">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K222">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L222">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M222">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N222">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -10778,19 +10820,19 @@
         <v>28</v>
       </c>
       <c r="J223">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K223">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L223">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M223">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N223">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -10822,19 +10864,19 @@
         <v>29</v>
       </c>
       <c r="J224">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K224">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L224">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M224">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N224">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -10866,19 +10908,19 @@
         <v>30</v>
       </c>
       <c r="J225">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K225">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L225">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M225">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N225">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -10910,19 +10952,19 @@
         <v>31</v>
       </c>
       <c r="J226">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K226">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L226">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M226">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N226">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -10954,19 +10996,19 @@
         <v>32</v>
       </c>
       <c r="J227">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K227">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L227">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M227">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N227">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -10992,19 +11034,19 @@
         <v>45</v>
       </c>
       <c r="J228">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K228">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L228">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M228">
-        <v>0.7955</v>
+        <v>0.7167</v>
       </c>
       <c r="N228">
-        <v>0.5</v>
+        <v>0.4833</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -11030,19 +11072,19 @@
         <v>46</v>
       </c>
       <c r="J229">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K229">
         <v>8</v>
       </c>
       <c r="L229">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M229">
-        <v>0.3478</v>
+        <v>0.32</v>
       </c>
       <c r="N229">
-        <v>0.8696</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -11074,19 +11116,19 @@
         <v>33</v>
       </c>
       <c r="J230">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K230">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L230">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M230">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N230">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -11118,19 +11160,19 @@
         <v>15</v>
       </c>
       <c r="J231">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K231">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L231">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M231">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N231">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -11162,19 +11204,19 @@
         <v>17</v>
       </c>
       <c r="J232">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K232">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L232">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M232">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N232">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -11206,19 +11248,19 @@
         <v>18</v>
       </c>
       <c r="J233">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K233">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L233">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M233">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N233">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -11250,19 +11292,19 @@
         <v>19</v>
       </c>
       <c r="J234">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K234">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L234">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M234">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N234">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -11294,19 +11336,19 @@
         <v>20</v>
       </c>
       <c r="J235">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K235">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L235">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M235">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N235">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -11382,19 +11424,19 @@
         <v>21</v>
       </c>
       <c r="J237">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K237">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L237">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M237">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N237">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -11426,19 +11468,19 @@
         <v>22</v>
       </c>
       <c r="J238">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K238">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L238">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M238">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N238">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -11470,19 +11512,19 @@
         <v>23</v>
       </c>
       <c r="J239">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K239">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L239">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M239">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N239">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -11508,19 +11550,19 @@
         <v>42</v>
       </c>
       <c r="J240">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="K240">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L240">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M240">
-        <v>0.6111</v>
+        <v>0.4</v>
       </c>
       <c r="N240">
-        <v>0.4444</v>
+        <v>0.3733</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -11567,7 +11609,7 @@
         <v>0.4286</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:14">
       <c r="A242" t="s">
         <v>50</v>
       </c>
@@ -11590,13 +11632,19 @@
         <v>43</v>
       </c>
       <c r="J242">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L242">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>0.5</v>
+      </c>
+      <c r="N242">
+        <v>0.5</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -11628,19 +11676,19 @@
         <v>25</v>
       </c>
       <c r="J243">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K243">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L243">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M243">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N243">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -11710,19 +11758,19 @@
         <v>26</v>
       </c>
       <c r="J245">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K245">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L245">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M245">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N245">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -11754,19 +11802,19 @@
         <v>27</v>
       </c>
       <c r="J246">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K246">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L246">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M246">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N246">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -11798,19 +11846,19 @@
         <v>28</v>
       </c>
       <c r="J247">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K247">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L247">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M247">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N247">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -11842,19 +11890,19 @@
         <v>15</v>
       </c>
       <c r="J248">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K248">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L248">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M248">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N248">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -11886,19 +11934,19 @@
         <v>17</v>
       </c>
       <c r="J249">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K249">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L249">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M249">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N249">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -11930,19 +11978,19 @@
         <v>18</v>
       </c>
       <c r="J250">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K250">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L250">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M250">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N250">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -11974,19 +12022,19 @@
         <v>19</v>
       </c>
       <c r="J251">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K251">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L251">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M251">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N251">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -12018,19 +12066,19 @@
         <v>20</v>
       </c>
       <c r="J252">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K252">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L252">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M252">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N252">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -12106,19 +12154,19 @@
         <v>21</v>
       </c>
       <c r="J254">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K254">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L254">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M254">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N254">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -12150,19 +12198,19 @@
         <v>22</v>
       </c>
       <c r="J255">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K255">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L255">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M255">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N255">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -12194,19 +12242,19 @@
         <v>23</v>
       </c>
       <c r="J256">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K256">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L256">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M256">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N256">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -12232,19 +12280,19 @@
         <v>42</v>
       </c>
       <c r="J257">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="K257">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L257">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M257">
-        <v>0.6111</v>
+        <v>0.4</v>
       </c>
       <c r="N257">
-        <v>0.4444</v>
+        <v>0.3733</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -12291,7 +12339,7 @@
         <v>0.4286</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:14">
       <c r="A259" t="s">
         <v>51</v>
       </c>
@@ -12314,13 +12362,19 @@
         <v>43</v>
       </c>
       <c r="J259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L259">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M259">
+        <v>0.5</v>
+      </c>
+      <c r="N259">
+        <v>0.5</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -12352,19 +12406,19 @@
         <v>25</v>
       </c>
       <c r="J260">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K260">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L260">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M260">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N260">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -12434,19 +12488,19 @@
         <v>26</v>
       </c>
       <c r="J262">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K262">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L262">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M262">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N262">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -12478,19 +12532,19 @@
         <v>27</v>
       </c>
       <c r="J263">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K263">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L263">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M263">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N263">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -12522,19 +12576,19 @@
         <v>28</v>
       </c>
       <c r="J264">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K264">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L264">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M264">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N264">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -12566,19 +12620,19 @@
         <v>29</v>
       </c>
       <c r="J265">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K265">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L265">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M265">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N265">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -12610,19 +12664,19 @@
         <v>30</v>
       </c>
       <c r="J266">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K266">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L266">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M266">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N266">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -12654,19 +12708,19 @@
         <v>31</v>
       </c>
       <c r="J267">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K267">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L267">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M267">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N267">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -12698,19 +12752,19 @@
         <v>32</v>
       </c>
       <c r="J268">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K268">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L268">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M268">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N268">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -12736,19 +12790,19 @@
         <v>45</v>
       </c>
       <c r="J269">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K269">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L269">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M269">
-        <v>0.7955</v>
+        <v>0.7167</v>
       </c>
       <c r="N269">
-        <v>0.5</v>
+        <v>0.4833</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -12774,19 +12828,19 @@
         <v>46</v>
       </c>
       <c r="J270">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K270">
         <v>8</v>
       </c>
       <c r="L270">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M270">
-        <v>0.3478</v>
+        <v>0.32</v>
       </c>
       <c r="N270">
-        <v>0.8696</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -12818,19 +12872,19 @@
         <v>33</v>
       </c>
       <c r="J271">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K271">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L271">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M271">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N271">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -12862,19 +12916,19 @@
         <v>15</v>
       </c>
       <c r="J272">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K272">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L272">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M272">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N272">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -12906,19 +12960,19 @@
         <v>17</v>
       </c>
       <c r="J273">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K273">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L273">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M273">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N273">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="274" spans="1:14">
@@ -12950,19 +13004,19 @@
         <v>18</v>
       </c>
       <c r="J274">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K274">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L274">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M274">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N274">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -12994,19 +13048,19 @@
         <v>19</v>
       </c>
       <c r="J275">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K275">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L275">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M275">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N275">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -13038,19 +13092,19 @@
         <v>20</v>
       </c>
       <c r="J276">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K276">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L276">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M276">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N276">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -13126,19 +13180,19 @@
         <v>21</v>
       </c>
       <c r="J278">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K278">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L278">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M278">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N278">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -13170,19 +13224,19 @@
         <v>22</v>
       </c>
       <c r="J279">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K279">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L279">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M279">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N279">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -13214,19 +13268,19 @@
         <v>23</v>
       </c>
       <c r="J280">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K280">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L280">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M280">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N280">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -13258,19 +13312,19 @@
         <v>42</v>
       </c>
       <c r="J281">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="K281">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L281">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M281">
-        <v>0.6111</v>
+        <v>0.4</v>
       </c>
       <c r="N281">
-        <v>0.4444</v>
+        <v>0.3733</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -13317,7 +13371,7 @@
         <v>0.4286</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:14">
       <c r="A283" t="s">
         <v>52</v>
       </c>
@@ -13340,13 +13394,19 @@
         <v>43</v>
       </c>
       <c r="J283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L283">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M283">
+        <v>0.5</v>
+      </c>
+      <c r="N283">
+        <v>0.5</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -13378,19 +13438,19 @@
         <v>25</v>
       </c>
       <c r="J284">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K284">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L284">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M284">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N284">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -13460,19 +13520,19 @@
         <v>26</v>
       </c>
       <c r="J286">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K286">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L286">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M286">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N286">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="287" spans="1:14">
@@ -13504,19 +13564,19 @@
         <v>27</v>
       </c>
       <c r="J287">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K287">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L287">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M287">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N287">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="288" spans="1:14">
@@ -13548,19 +13608,19 @@
         <v>28</v>
       </c>
       <c r="J288">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K288">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L288">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M288">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N288">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="289" spans="1:14">
@@ -13592,19 +13652,19 @@
         <v>29</v>
       </c>
       <c r="J289">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K289">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L289">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M289">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N289">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -13636,19 +13696,19 @@
         <v>30</v>
       </c>
       <c r="J290">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K290">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L290">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M290">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N290">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="291" spans="1:14">
@@ -13680,19 +13740,19 @@
         <v>31</v>
       </c>
       <c r="J291">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K291">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L291">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M291">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N291">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -13724,19 +13784,19 @@
         <v>32</v>
       </c>
       <c r="J292">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K292">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L292">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M292">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N292">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -13762,19 +13822,19 @@
         <v>45</v>
       </c>
       <c r="J293">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K293">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L293">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M293">
-        <v>0.7955</v>
+        <v>0.7167</v>
       </c>
       <c r="N293">
-        <v>0.5</v>
+        <v>0.4833</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -13800,19 +13860,19 @@
         <v>46</v>
       </c>
       <c r="J294">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K294">
         <v>8</v>
       </c>
       <c r="L294">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M294">
-        <v>0.3478</v>
+        <v>0.32</v>
       </c>
       <c r="N294">
-        <v>0.8696</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -13844,19 +13904,19 @@
         <v>33</v>
       </c>
       <c r="J295">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K295">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L295">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M295">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N295">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -13888,19 +13948,19 @@
         <v>15</v>
       </c>
       <c r="J296">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K296">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L296">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M296">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N296">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -13932,19 +13992,19 @@
         <v>17</v>
       </c>
       <c r="J297">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K297">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L297">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M297">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N297">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -13976,19 +14036,19 @@
         <v>18</v>
       </c>
       <c r="J298">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K298">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L298">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M298">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N298">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="299" spans="1:14">
@@ -14020,19 +14080,19 @@
         <v>19</v>
       </c>
       <c r="J299">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K299">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L299">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M299">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N299">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="300" spans="1:14">
@@ -14064,19 +14124,19 @@
         <v>20</v>
       </c>
       <c r="J300">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K300">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L300">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M300">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N300">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -14152,19 +14212,19 @@
         <v>21</v>
       </c>
       <c r="J302">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K302">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L302">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M302">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N302">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="303" spans="1:14">
@@ -14196,19 +14256,19 @@
         <v>22</v>
       </c>
       <c r="J303">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K303">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L303">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M303">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N303">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -14240,19 +14300,19 @@
         <v>23</v>
       </c>
       <c r="J304">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K304">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L304">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M304">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N304">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -14284,19 +14344,19 @@
         <v>42</v>
       </c>
       <c r="J305">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="K305">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L305">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M305">
-        <v>0.6111</v>
+        <v>0.4</v>
       </c>
       <c r="N305">
-        <v>0.4444</v>
+        <v>0.3733</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -14315,6 +14375,8 @@
       <c r="E306">
         <v>0</v>
       </c>
+      <c r="F306"/>
+      <c r="G306"/>
       <c r="H306" t="s">
         <v>16</v>
       </c>
@@ -14337,7 +14399,7 @@
         <v>0.4286</v>
       </c>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:14">
       <c r="A307" t="s">
         <v>53</v>
       </c>
@@ -14360,13 +14422,19 @@
         <v>43</v>
       </c>
       <c r="J307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L307">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M307">
+        <v>0.5</v>
+      </c>
+      <c r="N307">
+        <v>0.5</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -14398,19 +14466,19 @@
         <v>25</v>
       </c>
       <c r="J308">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K308">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L308">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M308">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N308">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -14486,19 +14554,19 @@
         <v>26</v>
       </c>
       <c r="J310">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K310">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L310">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M310">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N310">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -14530,19 +14598,19 @@
         <v>27</v>
       </c>
       <c r="J311">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K311">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L311">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M311">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N311">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -14574,19 +14642,19 @@
         <v>28</v>
       </c>
       <c r="J312">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K312">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L312">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M312">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N312">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -14618,19 +14686,19 @@
         <v>29</v>
       </c>
       <c r="J313">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K313">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L313">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M313">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N313">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -14662,19 +14730,19 @@
         <v>30</v>
       </c>
       <c r="J314">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K314">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L314">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M314">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N314">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -14706,19 +14774,19 @@
         <v>31</v>
       </c>
       <c r="J315">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K315">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L315">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M315">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N315">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -14750,19 +14818,19 @@
         <v>32</v>
       </c>
       <c r="J316">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K316">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L316">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M316">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N316">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -14788,19 +14856,19 @@
         <v>45</v>
       </c>
       <c r="J317">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K317">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L317">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M317">
-        <v>0.7955</v>
+        <v>0.7167</v>
       </c>
       <c r="N317">
-        <v>0.5</v>
+        <v>0.4833</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -14826,19 +14894,19 @@
         <v>46</v>
       </c>
       <c r="J318">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K318">
         <v>8</v>
       </c>
       <c r="L318">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M318">
-        <v>0.3478</v>
+        <v>0.32</v>
       </c>
       <c r="N318">
-        <v>0.8696</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -14870,19 +14938,19 @@
         <v>33</v>
       </c>
       <c r="J319">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K319">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L319">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M319">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N319">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -14914,19 +14982,19 @@
         <v>15</v>
       </c>
       <c r="J320">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K320">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L320">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M320">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N320">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -14958,19 +15026,19 @@
         <v>17</v>
       </c>
       <c r="J321">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K321">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L321">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M321">
-        <v>0.583</v>
+        <v>0.5833</v>
       </c>
       <c r="N321">
-        <v>0.583</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -15002,19 +15070,19 @@
         <v>18</v>
       </c>
       <c r="J322">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="K322">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="L322">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="M322">
-        <v>0.5792</v>
+        <v>0.5879</v>
       </c>
       <c r="N322">
-        <v>0.506</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="323" spans="1:14">
@@ -15046,19 +15114,19 @@
         <v>19</v>
       </c>
       <c r="J323">
-        <v>2959</v>
+        <v>2967</v>
       </c>
       <c r="K323">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="L323">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="M323">
-        <v>0.6232</v>
+        <v>0.6239</v>
       </c>
       <c r="N323">
-        <v>0.4387</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="324" spans="1:14">
@@ -15090,19 +15158,19 @@
         <v>20</v>
       </c>
       <c r="J324">
-        <v>7203</v>
+        <v>7306</v>
       </c>
       <c r="K324">
-        <v>4926</v>
+        <v>5009</v>
       </c>
       <c r="L324">
-        <v>4480</v>
+        <v>4545</v>
       </c>
       <c r="M324">
-        <v>0.6839</v>
+        <v>0.6856</v>
       </c>
       <c r="N324">
-        <v>0.622</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="325" spans="1:14">
@@ -15121,6 +15189,8 @@
       <c r="E325">
         <v>0</v>
       </c>
+      <c r="F325"/>
+      <c r="G325"/>
       <c r="H325" t="s">
         <v>16</v>
       </c>
@@ -15172,19 +15242,19 @@
         <v>21</v>
       </c>
       <c r="J326">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="K326">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="L326">
-        <v>1009</v>
+        <v>1022</v>
       </c>
       <c r="M326">
-        <v>0.6724</v>
+        <v>0.6738</v>
       </c>
       <c r="N326">
-        <v>0.6213</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="327" spans="1:14">
@@ -15216,19 +15286,19 @@
         <v>22</v>
       </c>
       <c r="J327">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="K327">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L327">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="M327">
-        <v>0.5614</v>
+        <v>0.5601</v>
       </c>
       <c r="N327">
-        <v>0.5737</v>
+        <v>0.5741</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -15260,19 +15330,19 @@
         <v>23</v>
       </c>
       <c r="J328">
-        <v>5741</v>
+        <v>7410</v>
       </c>
       <c r="K328">
-        <v>3577</v>
+        <v>5050</v>
       </c>
       <c r="L328">
-        <v>2691</v>
+        <v>3226</v>
       </c>
       <c r="M328">
-        <v>0.6231</v>
+        <v>0.6815</v>
       </c>
       <c r="N328">
-        <v>0.4687</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -15304,19 +15374,19 @@
         <v>42</v>
       </c>
       <c r="J329">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="K329">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L329">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M329">
-        <v>0.6111</v>
+        <v>0.4</v>
       </c>
       <c r="N329">
-        <v>0.4444</v>
+        <v>0.3733</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -15363,7 +15433,7 @@
         <v>0.4286</v>
       </c>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:14">
       <c r="A331" t="s">
         <v>54</v>
       </c>
@@ -15386,13 +15456,19 @@
         <v>43</v>
       </c>
       <c r="J331">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L331">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M331">
+        <v>0.5</v>
+      </c>
+      <c r="N331">
+        <v>0.5</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -15424,19 +15500,19 @@
         <v>25</v>
       </c>
       <c r="J332">
-        <v>1493</v>
+        <v>1504</v>
       </c>
       <c r="K332">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="L332">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="M332">
-        <v>0.645</v>
+        <v>0.6469</v>
       </c>
       <c r="N332">
-        <v>0.5224</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -15455,6 +15531,8 @@
       <c r="E333">
         <v>0</v>
       </c>
+      <c r="F333"/>
+      <c r="G333"/>
       <c r="H333" t="s">
         <v>16</v>
       </c>
@@ -15506,19 +15584,19 @@
         <v>26</v>
       </c>
       <c r="J334">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K334">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L334">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M334">
-        <v>0.5606</v>
+        <v>0.5787</v>
       </c>
       <c r="N334">
-        <v>0.6745</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -15550,19 +15628,19 @@
         <v>27</v>
       </c>
       <c r="J335">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="K335">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L335">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M335">
-        <v>0.5561</v>
+        <v>0.5564</v>
       </c>
       <c r="N335">
-        <v>0.6076</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -15594,19 +15672,19 @@
         <v>28</v>
       </c>
       <c r="J336">
-        <v>2774</v>
+        <v>2862</v>
       </c>
       <c r="K336">
-        <v>1900</v>
+        <v>1979</v>
       </c>
       <c r="L336">
-        <v>1322</v>
+        <v>1380</v>
       </c>
       <c r="M336">
-        <v>0.6849</v>
+        <v>0.6915</v>
       </c>
       <c r="N336">
-        <v>0.4766</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="337" spans="1:14">
@@ -15638,19 +15716,19 @@
         <v>29</v>
       </c>
       <c r="J337">
-        <v>11992</v>
+        <v>10894</v>
       </c>
       <c r="K337">
-        <v>8680</v>
+        <v>7683</v>
       </c>
       <c r="L337">
-        <v>5926</v>
+        <v>5738</v>
       </c>
       <c r="M337">
-        <v>0.7238</v>
+        <v>0.7053</v>
       </c>
       <c r="N337">
-        <v>0.4942</v>
+        <v>0.5267</v>
       </c>
     </row>
     <row r="338" spans="1:14">
@@ -15682,19 +15760,19 @@
         <v>30</v>
       </c>
       <c r="J338">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="K338">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="L338">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M338">
-        <v>0.5827</v>
+        <v>0.5922</v>
       </c>
       <c r="N338">
-        <v>0.4935</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="339" spans="1:14">
@@ -15726,19 +15804,19 @@
         <v>31</v>
       </c>
       <c r="J339">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="K339">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="L339">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="M339">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="N339">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -15770,19 +15848,19 @@
         <v>32</v>
       </c>
       <c r="J340">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K340">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L340">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M340">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N340">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -15808,19 +15886,19 @@
         <v>45</v>
       </c>
       <c r="J341">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="K341">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L341">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M341">
-        <v>0.7955</v>
+        <v>0.7167</v>
       </c>
       <c r="N341">
-        <v>0.5</v>
+        <v>0.4833</v>
       </c>
     </row>
     <row r="342" spans="1:14">
@@ -15846,19 +15924,19 @@
         <v>46</v>
       </c>
       <c r="J342">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K342">
         <v>8</v>
       </c>
       <c r="L342">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M342">
-        <v>0.3478</v>
+        <v>0.32</v>
       </c>
       <c r="N342">
-        <v>0.8696</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="343" spans="1:14">
@@ -15890,23 +15968,1235 @@
         <v>33</v>
       </c>
       <c r="J343">
+        <v>2120</v>
+      </c>
+      <c r="K343">
+        <v>1345</v>
+      </c>
+      <c r="L343">
+        <v>994</v>
+      </c>
+      <c r="M343">
+        <v>0.6344</v>
+      </c>
+      <c r="N343">
+        <v>0.4689</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14">
+      <c r="A344" t="s">
+        <v>55</v>
+      </c>
+      <c r="B344" t="s">
+        <v>15</v>
+      </c>
+      <c r="C344">
+        <v>396</v>
+      </c>
+      <c r="D344">
+        <v>343</v>
+      </c>
+      <c r="E344">
+        <v>160</v>
+      </c>
+      <c r="F344">
+        <v>0.8662</v>
+      </c>
+      <c r="G344">
+        <v>0.404</v>
+      </c>
+      <c r="H344" t="s">
+        <v>16</v>
+      </c>
+      <c r="I344" t="s">
+        <v>15</v>
+      </c>
+      <c r="J344">
+        <v>22872</v>
+      </c>
+      <c r="K344">
+        <v>16386</v>
+      </c>
+      <c r="L344">
+        <v>10357</v>
+      </c>
+      <c r="M344">
+        <v>0.7164</v>
+      </c>
+      <c r="N344">
+        <v>0.4528</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14">
+      <c r="A345" t="s">
+        <v>55</v>
+      </c>
+      <c r="B345" t="s">
+        <v>17</v>
+      </c>
+      <c r="C345">
+        <v>4</v>
+      </c>
+      <c r="D345">
+        <v>3</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>0.75</v>
+      </c>
+      <c r="G345">
+        <v>0.25</v>
+      </c>
+      <c r="H345" t="s">
+        <v>16</v>
+      </c>
+      <c r="I345" t="s">
+        <v>17</v>
+      </c>
+      <c r="J345">
+        <v>684</v>
+      </c>
+      <c r="K345">
+        <v>399</v>
+      </c>
+      <c r="L345">
+        <v>404</v>
+      </c>
+      <c r="M345">
+        <v>0.5833</v>
+      </c>
+      <c r="N345">
+        <v>0.5906</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14">
+      <c r="A346" t="s">
+        <v>55</v>
+      </c>
+      <c r="B346" t="s">
+        <v>18</v>
+      </c>
+      <c r="C346">
+        <v>64</v>
+      </c>
+      <c r="D346">
+        <v>48</v>
+      </c>
+      <c r="E346">
+        <v>23</v>
+      </c>
+      <c r="F346">
+        <v>0.75</v>
+      </c>
+      <c r="G346">
+        <v>0.3594</v>
+      </c>
+      <c r="H346" t="s">
+        <v>16</v>
+      </c>
+      <c r="I346" t="s">
+        <v>18</v>
+      </c>
+      <c r="J346">
+        <v>1405</v>
+      </c>
+      <c r="K346">
+        <v>826</v>
+      </c>
+      <c r="L346">
+        <v>707</v>
+      </c>
+      <c r="M346">
+        <v>0.5879</v>
+      </c>
+      <c r="N346">
+        <v>0.5032</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12">
+      <c r="A347" t="s">
+        <v>55</v>
+      </c>
+      <c r="B347" t="s">
+        <v>56</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347"/>
+      <c r="G347"/>
+      <c r="H347" t="s">
+        <v>16</v>
+      </c>
+      <c r="I347" t="s">
+        <v>56</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14">
+      <c r="A348" t="s">
+        <v>55</v>
+      </c>
+      <c r="B348" t="s">
+        <v>19</v>
+      </c>
+      <c r="C348">
+        <v>8</v>
+      </c>
+      <c r="D348">
+        <v>7</v>
+      </c>
+      <c r="E348">
+        <v>3</v>
+      </c>
+      <c r="F348">
+        <v>0.875</v>
+      </c>
+      <c r="G348">
+        <v>0.375</v>
+      </c>
+      <c r="H348" t="s">
+        <v>16</v>
+      </c>
+      <c r="I348" t="s">
+        <v>19</v>
+      </c>
+      <c r="J348">
+        <v>2967</v>
+      </c>
+      <c r="K348">
+        <v>1851</v>
+      </c>
+      <c r="L348">
+        <v>1312</v>
+      </c>
+      <c r="M348">
+        <v>0.6239</v>
+      </c>
+      <c r="N348">
+        <v>0.4422</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14">
+      <c r="A349" t="s">
+        <v>55</v>
+      </c>
+      <c r="B349" t="s">
+        <v>20</v>
+      </c>
+      <c r="C349">
+        <v>101</v>
+      </c>
+      <c r="D349">
+        <v>82</v>
+      </c>
+      <c r="E349">
+        <v>39</v>
+      </c>
+      <c r="F349">
+        <v>0.8119</v>
+      </c>
+      <c r="G349">
+        <v>0.3861</v>
+      </c>
+      <c r="H349" t="s">
+        <v>16</v>
+      </c>
+      <c r="I349" t="s">
+        <v>20</v>
+      </c>
+      <c r="J349">
+        <v>7306</v>
+      </c>
+      <c r="K349">
+        <v>5009</v>
+      </c>
+      <c r="L349">
+        <v>4545</v>
+      </c>
+      <c r="M349">
+        <v>0.6856</v>
+      </c>
+      <c r="N349">
+        <v>0.6221</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14">
+      <c r="A350" t="s">
+        <v>55</v>
+      </c>
+      <c r="B350" t="s">
+        <v>41</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350"/>
+      <c r="G350"/>
+      <c r="H350" t="s">
+        <v>16</v>
+      </c>
+      <c r="I350" t="s">
+        <v>41</v>
+      </c>
+      <c r="J350">
+        <v>12</v>
+      </c>
+      <c r="K350">
+        <v>6</v>
+      </c>
+      <c r="L350">
+        <v>12</v>
+      </c>
+      <c r="M350">
+        <v>0.5</v>
+      </c>
+      <c r="N350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12">
+      <c r="A351" t="s">
+        <v>55</v>
+      </c>
+      <c r="B351" t="s">
+        <v>57</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351"/>
+      <c r="G351"/>
+      <c r="H351" t="s">
+        <v>16</v>
+      </c>
+      <c r="I351" t="s">
+        <v>57</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14">
+      <c r="A352" t="s">
+        <v>55</v>
+      </c>
+      <c r="B352" t="s">
+        <v>21</v>
+      </c>
+      <c r="C352">
+        <v>19</v>
+      </c>
+      <c r="D352">
+        <v>15</v>
+      </c>
+      <c r="E352">
+        <v>5</v>
+      </c>
+      <c r="F352">
+        <v>0.7895</v>
+      </c>
+      <c r="G352">
+        <v>0.2632</v>
+      </c>
+      <c r="H352" t="s">
+        <v>16</v>
+      </c>
+      <c r="I352" t="s">
+        <v>21</v>
+      </c>
+      <c r="J352">
+        <v>1643</v>
+      </c>
+      <c r="K352">
+        <v>1107</v>
+      </c>
+      <c r="L352">
+        <v>1022</v>
+      </c>
+      <c r="M352">
+        <v>0.6738</v>
+      </c>
+      <c r="N352">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14">
+      <c r="A353" t="s">
+        <v>55</v>
+      </c>
+      <c r="B353" t="s">
+        <v>22</v>
+      </c>
+      <c r="C353">
+        <v>15</v>
+      </c>
+      <c r="D353">
+        <v>7</v>
+      </c>
+      <c r="E353">
+        <v>6</v>
+      </c>
+      <c r="F353">
+        <v>0.4667</v>
+      </c>
+      <c r="G353">
+        <v>0.4</v>
+      </c>
+      <c r="H353" t="s">
+        <v>16</v>
+      </c>
+      <c r="I353" t="s">
+        <v>22</v>
+      </c>
+      <c r="J353">
+        <v>1073</v>
+      </c>
+      <c r="K353">
+        <v>601</v>
+      </c>
+      <c r="L353">
+        <v>616</v>
+      </c>
+      <c r="M353">
+        <v>0.5601</v>
+      </c>
+      <c r="N353">
+        <v>0.5741</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14">
+      <c r="A354" t="s">
+        <v>55</v>
+      </c>
+      <c r="B354" t="s">
+        <v>23</v>
+      </c>
+      <c r="C354">
+        <v>423</v>
+      </c>
+      <c r="D354">
+        <v>359</v>
+      </c>
+      <c r="E354">
+        <v>108</v>
+      </c>
+      <c r="F354">
+        <v>0.8487</v>
+      </c>
+      <c r="G354">
+        <v>0.2553</v>
+      </c>
+      <c r="H354" t="s">
+        <v>16</v>
+      </c>
+      <c r="I354" t="s">
+        <v>23</v>
+      </c>
+      <c r="J354">
+        <v>7410</v>
+      </c>
+      <c r="K354">
+        <v>5050</v>
+      </c>
+      <c r="L354">
+        <v>3226</v>
+      </c>
+      <c r="M354">
+        <v>0.6815</v>
+      </c>
+      <c r="N354">
+        <v>0.4354</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14">
+      <c r="A355" t="s">
+        <v>55</v>
+      </c>
+      <c r="B355" t="s">
+        <v>42</v>
+      </c>
+      <c r="C355">
+        <v>39</v>
+      </c>
+      <c r="D355">
+        <v>8</v>
+      </c>
+      <c r="E355">
+        <v>7</v>
+      </c>
+      <c r="F355">
+        <v>0.2051</v>
+      </c>
+      <c r="G355">
+        <v>0.1795</v>
+      </c>
+      <c r="H355" t="s">
+        <v>16</v>
+      </c>
+      <c r="I355" t="s">
+        <v>42</v>
+      </c>
+      <c r="J355">
+        <v>75</v>
+      </c>
+      <c r="K355">
+        <v>30</v>
+      </c>
+      <c r="L355">
+        <v>28</v>
+      </c>
+      <c r="M355">
+        <v>0.4</v>
+      </c>
+      <c r="N355">
+        <v>0.3733</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14">
+      <c r="A356" t="s">
+        <v>55</v>
+      </c>
+      <c r="B356" t="s">
+        <v>24</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356"/>
+      <c r="G356"/>
+      <c r="H356" t="s">
+        <v>16</v>
+      </c>
+      <c r="I356" t="s">
+        <v>24</v>
+      </c>
+      <c r="J356">
+        <v>14</v>
+      </c>
+      <c r="K356">
+        <v>7</v>
+      </c>
+      <c r="L356">
+        <v>6</v>
+      </c>
+      <c r="M356">
+        <v>0.5</v>
+      </c>
+      <c r="N356">
+        <v>0.4286</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14">
+      <c r="A357" t="s">
+        <v>55</v>
+      </c>
+      <c r="B357" t="s">
+        <v>43</v>
+      </c>
+      <c r="C357">
+        <v>2</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357">
+        <v>0.5</v>
+      </c>
+      <c r="G357">
+        <v>0.5</v>
+      </c>
+      <c r="H357" t="s">
+        <v>16</v>
+      </c>
+      <c r="I357" t="s">
+        <v>43</v>
+      </c>
+      <c r="J357">
+        <v>2</v>
+      </c>
+      <c r="K357">
+        <v>1</v>
+      </c>
+      <c r="L357">
+        <v>1</v>
+      </c>
+      <c r="M357">
+        <v>0.5</v>
+      </c>
+      <c r="N357">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14">
+      <c r="A358" t="s">
+        <v>55</v>
+      </c>
+      <c r="B358" t="s">
+        <v>25</v>
+      </c>
+      <c r="C358">
+        <v>11</v>
+      </c>
+      <c r="D358">
+        <v>10</v>
+      </c>
+      <c r="E358">
+        <v>6</v>
+      </c>
+      <c r="F358">
+        <v>0.9091</v>
+      </c>
+      <c r="G358">
+        <v>0.5455</v>
+      </c>
+      <c r="H358" t="s">
+        <v>16</v>
+      </c>
+      <c r="I358" t="s">
+        <v>25</v>
+      </c>
+      <c r="J358">
+        <v>1504</v>
+      </c>
+      <c r="K358">
+        <v>973</v>
+      </c>
+      <c r="L358">
+        <v>790</v>
+      </c>
+      <c r="M358">
+        <v>0.6469</v>
+      </c>
+      <c r="N358">
+        <v>0.5253</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14">
+      <c r="A359" t="s">
+        <v>55</v>
+      </c>
+      <c r="B359" t="s">
+        <v>44</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359"/>
+      <c r="G359"/>
+      <c r="H359" t="s">
+        <v>16</v>
+      </c>
+      <c r="I359" t="s">
+        <v>44</v>
+      </c>
+      <c r="J359">
+        <v>2</v>
+      </c>
+      <c r="K359">
+        <v>1</v>
+      </c>
+      <c r="L359">
+        <v>2</v>
+      </c>
+      <c r="M359">
+        <v>0.5</v>
+      </c>
+      <c r="N359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14">
+      <c r="A360" t="s">
+        <v>55</v>
+      </c>
+      <c r="B360" t="s">
+        <v>26</v>
+      </c>
+      <c r="C360">
+        <v>38</v>
+      </c>
+      <c r="D360">
+        <v>32</v>
+      </c>
+      <c r="E360">
+        <v>13</v>
+      </c>
+      <c r="F360">
+        <v>0.8421</v>
+      </c>
+      <c r="G360">
+        <v>0.3421</v>
+      </c>
+      <c r="H360" t="s">
+        <v>16</v>
+      </c>
+      <c r="I360" t="s">
+        <v>26</v>
+      </c>
+      <c r="J360">
+        <v>591</v>
+      </c>
+      <c r="K360">
+        <v>342</v>
+      </c>
+      <c r="L360">
+        <v>390</v>
+      </c>
+      <c r="M360">
+        <v>0.5787</v>
+      </c>
+      <c r="N360">
+        <v>0.6599</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14">
+      <c r="A361" t="s">
+        <v>55</v>
+      </c>
+      <c r="B361" t="s">
+        <v>27</v>
+      </c>
+      <c r="C361">
+        <v>13</v>
+      </c>
+      <c r="D361">
+        <v>8</v>
+      </c>
+      <c r="E361">
+        <v>8</v>
+      </c>
+      <c r="F361">
+        <v>0.6154</v>
+      </c>
+      <c r="G361">
+        <v>0.6154</v>
+      </c>
+      <c r="H361" t="s">
+        <v>16</v>
+      </c>
+      <c r="I361" t="s">
+        <v>27</v>
+      </c>
+      <c r="J361">
+        <v>904</v>
+      </c>
+      <c r="K361">
+        <v>503</v>
+      </c>
+      <c r="L361">
+        <v>552</v>
+      </c>
+      <c r="M361">
+        <v>0.5564</v>
+      </c>
+      <c r="N361">
+        <v>0.6106</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14">
+      <c r="A362" t="s">
+        <v>55</v>
+      </c>
+      <c r="B362" t="s">
+        <v>28</v>
+      </c>
+      <c r="C362">
+        <v>86</v>
+      </c>
+      <c r="D362">
+        <v>79</v>
+      </c>
+      <c r="E362">
+        <v>38</v>
+      </c>
+      <c r="F362">
+        <v>0.9186</v>
+      </c>
+      <c r="G362">
+        <v>0.4419</v>
+      </c>
+      <c r="H362" t="s">
+        <v>16</v>
+      </c>
+      <c r="I362" t="s">
+        <v>28</v>
+      </c>
+      <c r="J362">
+        <v>2862</v>
+      </c>
+      <c r="K362">
+        <v>1979</v>
+      </c>
+      <c r="L362">
+        <v>1380</v>
+      </c>
+      <c r="M362">
+        <v>0.6915</v>
+      </c>
+      <c r="N362">
+        <v>0.4822</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14">
+      <c r="A363" t="s">
+        <v>55</v>
+      </c>
+      <c r="B363" t="s">
+        <v>29</v>
+      </c>
+      <c r="C363">
+        <v>268</v>
+      </c>
+      <c r="D363">
+        <v>222</v>
+      </c>
+      <c r="E363">
+        <v>106</v>
+      </c>
+      <c r="F363">
+        <v>0.8284</v>
+      </c>
+      <c r="G363">
+        <v>0.3955</v>
+      </c>
+      <c r="H363" t="s">
+        <v>16</v>
+      </c>
+      <c r="I363" t="s">
+        <v>29</v>
+      </c>
+      <c r="J363">
+        <v>10894</v>
+      </c>
+      <c r="K363">
+        <v>7683</v>
+      </c>
+      <c r="L363">
+        <v>5738</v>
+      </c>
+      <c r="M363">
+        <v>0.7053</v>
+      </c>
+      <c r="N363">
+        <v>0.5267</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14">
+      <c r="A364" t="s">
+        <v>55</v>
+      </c>
+      <c r="B364" t="s">
+        <v>30</v>
+      </c>
+      <c r="C364">
+        <v>58</v>
+      </c>
+      <c r="D364">
+        <v>43</v>
+      </c>
+      <c r="E364">
+        <v>13</v>
+      </c>
+      <c r="F364">
+        <v>0.7414</v>
+      </c>
+      <c r="G364">
+        <v>0.2241</v>
+      </c>
+      <c r="H364" t="s">
+        <v>16</v>
+      </c>
+      <c r="I364" t="s">
+        <v>30</v>
+      </c>
+      <c r="J364">
+        <v>1057</v>
+      </c>
+      <c r="K364">
+        <v>626</v>
+      </c>
+      <c r="L364">
+        <v>513</v>
+      </c>
+      <c r="M364">
+        <v>0.5922</v>
+      </c>
+      <c r="N364">
+        <v>0.4853</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14">
+      <c r="A365" t="s">
+        <v>55</v>
+      </c>
+      <c r="B365" t="s">
+        <v>31</v>
+      </c>
+      <c r="C365">
+        <v>2012</v>
+      </c>
+      <c r="D365">
         <v>1696</v>
       </c>
-      <c r="K343">
-        <v>951</v>
-      </c>
-      <c r="L343">
-        <v>788</v>
-      </c>
-      <c r="M343">
-        <v>0.5607</v>
-      </c>
-      <c r="N343">
-        <v>0.4646</v>
+      <c r="E365">
+        <v>742</v>
+      </c>
+      <c r="F365">
+        <v>0.8429</v>
+      </c>
+      <c r="G365">
+        <v>0.3688</v>
+      </c>
+      <c r="H365" t="s">
+        <v>16</v>
+      </c>
+      <c r="I365" t="s">
+        <v>31</v>
+      </c>
+      <c r="J365">
+        <v>67287</v>
+      </c>
+      <c r="K365">
+        <v>46032</v>
+      </c>
+      <c r="L365">
+        <v>33808</v>
+      </c>
+      <c r="M365">
+        <v>0.6841</v>
+      </c>
+      <c r="N365">
+        <v>0.5024</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14">
+      <c r="A366" t="s">
+        <v>55</v>
+      </c>
+      <c r="B366" t="s">
+        <v>32</v>
+      </c>
+      <c r="C366">
+        <v>55</v>
+      </c>
+      <c r="D366">
+        <v>51</v>
+      </c>
+      <c r="E366">
+        <v>34</v>
+      </c>
+      <c r="F366">
+        <v>0.9273</v>
+      </c>
+      <c r="G366">
+        <v>0.6182</v>
+      </c>
+      <c r="H366" t="s">
+        <v>16</v>
+      </c>
+      <c r="I366" t="s">
+        <v>32</v>
+      </c>
+      <c r="J366">
+        <v>1778</v>
+      </c>
+      <c r="K366">
+        <v>1237</v>
+      </c>
+      <c r="L366">
+        <v>1151</v>
+      </c>
+      <c r="M366">
+        <v>0.6957</v>
+      </c>
+      <c r="N366">
+        <v>0.6474</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12">
+      <c r="A367" t="s">
+        <v>55</v>
+      </c>
+      <c r="B367" t="s">
+        <v>58</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367"/>
+      <c r="G367"/>
+      <c r="H367" t="s">
+        <v>16</v>
+      </c>
+      <c r="I367" t="s">
+        <v>58</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14">
+      <c r="A368" t="s">
+        <v>55</v>
+      </c>
+      <c r="B368" t="s">
+        <v>45</v>
+      </c>
+      <c r="C368">
+        <v>15</v>
+      </c>
+      <c r="D368">
+        <v>8</v>
+      </c>
+      <c r="E368">
+        <v>6</v>
+      </c>
+      <c r="F368">
+        <v>0.5333</v>
+      </c>
+      <c r="G368">
+        <v>0.4</v>
+      </c>
+      <c r="H368" t="s">
+        <v>16</v>
+      </c>
+      <c r="I368" t="s">
+        <v>45</v>
+      </c>
+      <c r="J368">
+        <v>60</v>
+      </c>
+      <c r="K368">
+        <v>43</v>
+      </c>
+      <c r="L368">
+        <v>29</v>
+      </c>
+      <c r="M368">
+        <v>0.7167</v>
+      </c>
+      <c r="N368">
+        <v>0.4833</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12">
+      <c r="A369" t="s">
+        <v>55</v>
+      </c>
+      <c r="B369" t="s">
+        <v>59</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369"/>
+      <c r="G369"/>
+      <c r="H369" t="s">
+        <v>16</v>
+      </c>
+      <c r="I369" t="s">
+        <v>59</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14">
+      <c r="A370" t="s">
+        <v>55</v>
+      </c>
+      <c r="B370" t="s">
+        <v>46</v>
+      </c>
+      <c r="C370">
+        <v>2</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+      <c r="G370">
+        <v>0.5</v>
+      </c>
+      <c r="H370" t="s">
+        <v>16</v>
+      </c>
+      <c r="I370" t="s">
+        <v>46</v>
+      </c>
+      <c r="J370">
+        <v>25</v>
+      </c>
+      <c r="K370">
+        <v>8</v>
+      </c>
+      <c r="L370">
+        <v>21</v>
+      </c>
+      <c r="M370">
+        <v>0.32</v>
+      </c>
+      <c r="N370">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12">
+      <c r="A371" t="s">
+        <v>55</v>
+      </c>
+      <c r="B371" t="s">
+        <v>60</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="H371" t="s">
+        <v>16</v>
+      </c>
+      <c r="I371" t="s">
+        <v>60</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+      <c r="L371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14">
+      <c r="A372" t="s">
+        <v>55</v>
+      </c>
+      <c r="B372" t="s">
+        <v>33</v>
+      </c>
+      <c r="C372">
+        <v>394</v>
+      </c>
+      <c r="D372">
+        <v>370</v>
+      </c>
+      <c r="E372">
+        <v>163</v>
+      </c>
+      <c r="F372">
+        <v>0.9391</v>
+      </c>
+      <c r="G372">
+        <v>0.4137</v>
+      </c>
+      <c r="H372" t="s">
+        <v>16</v>
+      </c>
+      <c r="I372" t="s">
+        <v>33</v>
+      </c>
+      <c r="J372">
+        <v>2120</v>
+      </c>
+      <c r="K372">
+        <v>1345</v>
+      </c>
+      <c r="L372">
+        <v>994</v>
+      </c>
+      <c r="M372">
+        <v>0.6344</v>
+      </c>
+      <c r="N372">
+        <v>0.4689</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N343"/>
+  <autoFilter ref="A1:N396"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
